--- a/1kappa/fraudfile_analysis_mean_merge.xlsx
+++ b/1kappa/fraudfile_analysis_mean_merge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="634">
   <si>
     <t>entry</t>
   </si>
@@ -25,33 +25,90 @@
     <t>text</t>
   </si>
   <si>
+    <t xml:space="preserve">I was studying in the XXXX last year and opened an account with XXXX bank. My student visa was later rejected after coming back to XXXX, which means I would not be able to go back to the XXXX. To get the funds back, I have been calling XXXX bank for at least 3 times. Each time the phone call lasted for more than 1 hour. They would be just transfering my phone call to different department. After sending the fax and the documentation as they requested, the person from the fraud department claimed that they had never received my fax even though I had had the fax delivery confirmation receipt. When asking him about the process to resolve this matter, he told me that I only could wait and call back if possible. However he could not clarify the expected processing time for this matter.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bank erroneously processed credit/ debit in my bank account from a merchant. They are trying to convince me that the amount cancels itself out. It looks ( according to the online ledger ) that I was refunded and then they were given the money back? The amount is for XXXX USD.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">MY BANK RECORDS FROM ASTORIA BANK WERE RELEASED TO AN ATTORNEY WITHOUT ANY SUBPEONA OR LETTER SEND TO ME REGUARDING RELAESE AND THEY HAVE NO RECORD OF ANY   </t>
   </si>
   <si>
+    <t xml:space="preserve">I am trying to close a safe deposit box and saving account and the bank is completely unresponsive. We emptied the box on XXXX XXXX, but did not have both keys with us. We do not live in the same state as the safe desposit box. I mailed the keys to the bank on XXXX XXXX explaining that we wanted to close the safe deposit box, gave my cell phone number and my husband 's number. They did not respond. I contacted their online help system and exchanged emails. They were able to confirm that the keys were received, but that the box was still on my account. They gave me a number to call which was just a recording saying they would respond within XXXX hours. They did not respond.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I deposited a check into my account on XXXX/XXXX/15, and the bank charged me {$140.00} in overdraft fees for activity that occured that day. The banks ledger has it stated that they processed the check prior to sending out any payments, yet they charged me {$140.00} in overdraft. I contacted the bank and they are refusing to refund my money and to stand behind their own ledger, stating that they did not process the check before they sent the payments.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flagstar has misappropriated funds from mortgage customers through unauthorized  fax fees '' charged for payoff statements. They overreach their interpretation of permission waivers to quietly add a usurious fee for faxing payoff notices. XXXX attempts to resolve this dispute were unsuccessful. Customer 'service ' representatives were rude, condescending, and unreceptive to any sort of negotiated resolution.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX XXXX, 2014 I noticed a fraudulent charge of {$490.00}, on my Santander bank statement, was made using my debit card. I immediately called Santander in regards to the charge. I was told that the charge had not yet processed so nothing could be done because the charge could potentially fall off rather than be processed. However, I had a new debit card issued in the meantime. On XXXX XXXX, 2014 the fraudulent charge was in fact processed. The charge was made to an unknown person in XXXX. I was in XXXX for my wedding and honeymoon from XXXX XXXX, 2014 to XXXX XXXX, 2014. Prior to my trip to XXXX I had notified Santander of my travel dates and since then I have confirmed with Santander that this is in fact on file. Additonally, I made a debit card purchase in XXXX on XXXX XXXX, 2014, which is evident within my back statement as well as the on the physical receipt I have for that purchase. Upon my return from XXXX, I called Santander to open a fraud claim. Within a week I was issued a charge back for the {$490.00} and a few weeks following that the charge back was debited from my account. I also received a letter stating that my claim had been denied. I then called Santander to request the documentation used in the claim investigation. It was at this time that I was also asked if I wanted to reopen the claim. I agreed to reopen the claim as I assumed that some piece of information was just overlooked. I was told that the claim results and the documentation would take approximately ten business days, however due to the holiday season and the countless days of in-climate weather that affected postal service, I waited nearly a month before contacting Santander once again. As it turns out, there was no record of my request for the documents or the reopening of my claim. So I placed the same requests for a second time. In approximately two weeks I received the documentation and another letter notifying me of the denied claim. Upon reviewing the documentation I came across contact information for the merchant who received my {$490.00}. The customer service number provided was disconnected, the email address was non-existent, and the merchant could not be located through any internet searching means. Also in the documentation was information showing the debit card authorization through a XXXX terminal that is listed as a  person to person '' transaction. I proceeded to call XXXX for more information regarding this. XXXX explained that the transaction was in fact  person to person '' meaning that the authorizing party would have to present the debit card to the merchant. The XXXX terminal used is not an online account, it is physical credit card terminal. Due to privacy policies, XXXX could not give me any further information regarding the merchant. I then relayed this information to Santander explaining that based on the  person to person '' transaction, I could not have physically been in XXXX when I was very clearly in XXXX on XXXX XXXX. I also explained that I had n't been able to contact the merchant himself as all of the information provided appears to be fake. Santander told me that nothing more could be done because they do not reopen a claim after it has been investigated XXXX. I then requested that the claim investigator contact me regarding this information. I have made this same request XXXX times now and have yet to receive any response. In the past month I have contacted a detective from my local police department to help me find more information. His calls to XXXX and Santander have left him with the same information that I have and no evidence that the merchant is truly a merchant. He has advised me to continue pressing Santander to reopen my claim. I have attempted to do so, however I am continually given the same answer that the will not reopen it for a XXXX time.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">My checking/debit card account is in overdraft and has been rolled over several times now. The XXXX overdraft for XXXX should not have occurred because the funds were put into my account @ XXXX on Fri., XX/XX/XXXX which covered it. The overdraft of {$13.00} occurred on the evening of the XX/XX/XXXX after banking hours @ our branch. The overdrafts continued to mount to {$130.00} by XX/XX/XXXX. After XXXX or XXXX heated conversations with the branch bank manager she took {$15.00} off for extended od fee reversal and {$19.00} off for extended overdraft on XX/XX/XXXX. This left overdraft expenses at {$100.00}. Their online customer service representative said they could do nothing more to correct the problem. However this account should never have gone into overdraft in the XXXX place. The tellers at the bank have told me that if an account is in overdraft during the week, the customer is giving until Friday of that week to correct the credit. But if not taken care of before Friday, a {$15.00} charge is attached. If not taken care of by the Monday of the following week a {$34.00} charge is attached. XXXX more {$34.00} is allowed and that is all. This was my understanding of the overdraft circumstances with Chase but it has not be the case with this situation or in other situations with Chase. My account started in XX/XX/XXXX so my history with them is not long in nature as accounts go. So going over all my statements and history should not be a problem. Also they stated that anything under {$5.00} is not given an overdraft but I believe there were charges on less than {$5.00} as well which I was unable to have removed. The result I expect from this is that my account be restored without overdrafts at all ; with a balance of {$22.00} in it instead of a negative amount of - {$100.00}.   </t>
   </si>
   <si>
     <t xml:space="preserve">Opened a account at XXXX XXXX had fraud when disputed itThey said no problem opened me a new accountApparently they then decided new was opened to soonAnd they closed it without my knowledgeThey also applied for a credit card for me I did not authorizeOr ask forI then went to another bank to open a accountAnd was told XXXX report me to check systemFor suspected fraud? I 've been trying to get corrected for5 yrs now ca n't get a account anywhere!   </t>
   </si>
   <si>
+    <t xml:space="preserve">As described in the previous complaint, which was against the CRA itself, it is impossible for me to have XXXX hard inquires waiting weeks apart earlier this year. As explained, Citibank XXXX XXXX, XXXX XXXX, SD XXXX ( XXXX ) XXXX was notified of this error in multiple letters and a phone call. Apparently, Citi thought that a letter or a phone call meant that I wanted another hard inquiry done, which I never gave them permission to do so. It is absurd to think that I would expect a different result within weeks, I merely sent a letter asking for application status, and phoned to also discuss the application and if they received my letter. Because of a possible language barrier, it appears that the citibank customer service agent simply would try to run another hard inquiry. It appears that during this time frame of only a few weeks, my credit score dropped XXXX points. Furthermore, until this is corrected, I can not apply for additional credit with anyone in fear that they will look at these XXXX erroneous requests as a desperate attempt to get credit, probably to be denied and to make the situation worse.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX XXXX found out from a local SunTrust branch that his bank accounts with SunTrust Bank was frozen by the fraud department without his knowledge, without warning and without justifiable cause. XXXX XXXX noticed that there was something wrong when he attempted to use his debit card at a convenience store and tried to log in to view his accounts on XXXX XXXX, XXXX. XXXX XXXX first reported his personal information was hacked on XXXX XXXX, XXXX after finding out that he was unable to log in to view his accounts. When XXXX XXXX called customer service about this on XXXX XXXX, XXXX, he learned that someone logged into his accounts several times with and without success. He even had some online fraudulent activity on his account. Someone made fake mobile deposits to XXXX of his accounts. SunTrust Bank allowed all of this in his name with no proof of ID or security at all. XXXX identity was stolen and easily used with SunTrust Bank. On XXXX XXXX, XXXX, the online banking support associate named XXXX simply unlocked XXXX account by sending him a weblink containing a temporary username and password to reset his log on credentials. XXXX XXXX reportedly had to call SunTrust Bank three other times thereafter to have his online banking access restored. Each time he called, his online banking access was restored using a weblink containing a temporary username and password to reset his log on credentials. SunTrust Bank illegally block XXXX XXXX from accessing funds in his account that rightfully belongs to him. XXXX XXXX informed SunTrust Bank of the fraud on XXXX XXXX, XXXX and XXXX XXXX, XXXX when he noticed it but the bank refused to take action at that time. It is odd to want to cut off XXXX account access weeks later. XXXX XXXX was advised to cancel direct deposit from his employers from entering his SunTrust Bank account so that he will have some money to take care of everyday expenses. XXXX XXXX reported visited a SunTrust Bank branch in XXXX XXXX, Arkansas on XXXX XXXX, XXXX to do a cash withdrawal. The manager there was said to have took his driver license and the withdrawal slip and came back to him fifteen minutes later stating that its branch could not help him due to the notes on his accounts. He has dealt with almost all of the big national banks that have poor reputations and the SunTrust Bank branch in XXXX XXXX, Arkansas is the worst of the worst. Thanks to the unprofessional behavior and rudeness of the manager there. XXXX XXXX was advised to open an account with another financial institution so that he can receive his pay by direct deposit, as required by his employer, and cancel every account he has with SunTrust Bank and NEVER use SunTrust Bank for any kind of financial services and bank there again. SunTrust Bank will nail one with every opportunity it can find to hold on to HIS or HER money and run one 's account into the ground without justifiable cause. This is a bank that hides behind the boiler plate in contracts and will XXXX people to the wall with absolutely no forewarning or notice. As a United States based financial, SunTrust Bank was proven and revealed to be no good and is unsafe to use. It is no wonder why SunTrust Bank is sued in federal and civil courts more than any other financial institution located in XXXX Tennessee.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I attempted to open a checking and savings account at Navy Federal Credit Union on XXXX/XXXX/15. I had been a member before ; the new accounts person was able to see my prior member ID/access ID. However, when trying to open the checking and savings account, she was unable to. She said it was with their back office and suggested I wait until the back office was able to resolve which would take an additional day. I asked if she could take my deposit. She said she could not until the account was opened. I explained I did not wish to return to the bank to deposit funds once the account was opened, so she suggested I give my deposit to my fianc who was already their established customer. Once the account was opened, she said my fianc could transfer the money from his account into my new accounts.p over the telephone. The next evening she left a message stating the back office was still trying to open my accounts and that she would call me two days later to follow up since she was going to be out the office until XXXX/XXXX/15. My account was finally opened XXXX/XXXX/15 and my fiance transferred my money into my accounts on the same day. While reading about additional NFCU services available, I learned I could obtain a secure loan using money in my savings account as collateral for a much lower interest rate than my credit cards. I applied for such a loan ( share secure ) on XXXX/XXXX/15. I opted to pick up the check at the XXXX XXXX branch the next day. The next day I was not able to come to the branch so I called the loan center asking if they could deposit the check into my NFCU checking account. They talked to the XXXX XXXX branch and were instructed to send the request in writing to their office. They said they would deposit the proceeds that day or the next. The loan center representative relayed this to me and also asked for a good contact number so the branch could contact me if necessary. The next day, I noticed the monies had not been deposited so I called NFCU. After being on the phone for nearly an hour the customer service representative explained I would need to go into the branch. He explained XXXX at the branch said their policy had changed ; they could no longer deposit into my account, I would need to go to the office. That was a problem since I was not near the office and would n't make it to the branch before it closed. I asked to speak to the branch, I was transferred to XXXX. She told me nothing could be done, that I had to go to the branch. After I explained what happened, XXXX put me on hold to talk to the manager. When she returned she said they would deposit my loan proceeds and she would mail the loan agreement to me to obtain my signature. She further asked that I return the signed documents back right away. I agreed, she said it would take 20 minutes for her to deposit my proceeds to my checking account. I thanked her, I had outstanding checks and would not be able to go to the branch. When I checked my account 20 minutes later, I learned all my accounts were frozen. The customer service person I talked to said the branch was closed. When I reached home, my fiance said XXXX at the branch called him asking about transfers he had made to my account. He confirmed the transfers were legitimate and explained he transferred the money to open my accounts. XXXX thanked him and hung up, yet she did not unfreeze my accounts, nor did she deposit my loan proceeds to my checking account. We called the suspicious activity department and was able to speak to XXXX in the branch, but she would not remove the freeze on my accounts and said she would not be able to do anything for me until Monday. She said she did not have resources to look into the matter although she was the person who froze my accounts. I do not have access to my money as I write this complaint. This is clearly wrong.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank of America keep charging me over extension fees on returned check that have been returned. I ask them to charge me  XXXX time '' the {$35.00} insufficient funds fee, I will gladly pay that amount for each return check, but not {$35.00} over and over again for XXXX check and then another {$35.00} for some extended fee they keep charging.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Upon reviewing my checking account with PNC Bank, I noticed XXXX transactions of {$50.00} each that I did not make which posted on XXXX/XXXX/15. I filed a transaction dispute with PNC ( reference number # XXXX ) and was issued a provisional credit of {$100.00}. When I contacted the bank about the dispute, I was told I could contact the business ( XXXX ) directly at : XXXX and try to find out additional information on whether or not the pre-loadable XXXX card was purchased within a store or online. I contacted XXXX  gave them the XXXX card number of the card ; however, due to  security concerns '' the representative on the phone was unable to give out the full XXXX digit card number, and referred me back to PNC. When I contacted PNC  asked for the number, I was told the same thing. I find it disheartening that someone can commit fraud against my checking account and purchase a preloadable XXXX card using my debit card information, yet when I try to find out the full XXXX digit account number listed on the XXXX card, I am prevented from getting it citing privacy reasons. It feels as if the perpetrator who did this is being protected while I am literally paying for his use of the card. All I wanted to do is to trace the source of the card so that I can file a police report  get this person arrested because it would n't surprise me if he/she is committing the same type of fraud against other people.   </t>
   </si>
   <si>
     <t xml:space="preserve">Hello, I am disputing the charge of {$1000.00} charged on XXXX XXXX, 2014 by merchant XXXX XXXX with my bank ( Bancorp South ). For detailed information please refer to the attached document.  Best Regards, XXXX XXXX   </t>
   </si>
   <si>
+    <t xml:space="preserve">on or about XXXX/XXXX/15 XXXX XXXX credit withdrew XXXX of dollars from my wifes checking acct when she was trying to make an automated payment of {$25.00}. a XXXX later, she was admitted to XXXX XXXX, and we were not aware of the problem until over a week later. we contacted XXXX XXXX, ( the credit card co ), and bank of America almost on a daily basis for a XXXX of weeks, this included several XXXX way calls with both companies reps. I have also made a couple of visits to the bank and spoken with the manager ( who by the way is short with me, and dismissive of my concerns. ) XXXX XXXX reps have been very helpful in trying to resolve this problem, but the mgr at the bank has been hanging up on them and totally unhelpful. the money was sent back to my wifes acct on wed XXXX from XXXX XXXX in the amount of {$500.00} but nothing has showed up in my wifes acct, which has been in the negative {$170.00} for over a month. this acct is only for her small XXXX check ( approx. {$200.00} mth ) According to bank of Americas rep, there is no record of this transaction, and the people at XXXX XXXX have a record of it being sent on XXXX @ approx. XXXX XXXX EST. I NEED Y0UR HELP!! I have called and called and as of today ( XXXX XXXX ) there is still no action, and the acct is still negative. I do n't know what bank of America is doing with this money, but they are totally dismissive of my concerns. please   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recently, I deposited a check from my XXXX XXXX account to my Union Bank account. The day after funds transfered to Union Bank I noticed my funds were on only partially credited to my checking account. A Union Bank branch manager told me that the partial credit would be on hold for 2 - 3 days after funds transfered in. How many days does Union Bank legally have to hold client funds once the transfer has been credited to thier ledger?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX XXXX, 2015, I took out {$100.00} from a private ATM and accepted an additional {$10.00} service charge. I was shortly notified by Bank of America via text I had overdrawn my account and incurred multiple {$35.00} overdraft fees. After investigating my transactions I found that the ATM or private vendor had charged my checking account 7 extra times, accruing a total of {$880.00} with no cash distributed. I spoke with the owners of the establishment and they told me to take it up with my bank. I posted a complaint to Bank of America and they immediately credited my account with the {$880.00}. On XXXX XXXX, 2015 the Bank informed me that they had found no evidence of fraud or issues and debited my account the {$880.00} and also not reimbursing the overdraft fee. After contacting the private establishment of the ATM again, stating I never requested that amount nor received the cash from the digitally claimed transactions. They informed me it was not their problem.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was notified via email of XXXX transactions on Sunday, XXXX XXXX which I did not authorize. I immediately called Capital One 360 to inform them of the charges. The total had already been removed from my available balance. I was told that I had to wait until XXXX for the charges to post and then I could make a dispute. I was told that it could take up to XXXX hours to complete the dispute and for the funds to be returned. This caused a separate credit card payment to be returned. I filed a police report and called on numerous occasions to resolve the issue.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Wellsfargo hit me with over XXXX overdraft fees and excess account fees within XXXX months. I called to see if they would be able to reimburse any of the fees back to me and was unsuccessful. They could n't help me. I even asked to close my bank accounts and customer service told me to call back tomorrow.   </t>
   </si>
   <si>
     <t xml:space="preserve">I had a savings account and debit card with TD Bank in XXXX, NY. Since I am a XXXX student I thought this was a safe way to go.The debit card was linked to the savings account for overdraft protection which I was not really sure of the benefits. In fact it turned out not to be a benefit at all but a means of protecting the bank if information is stolen in which on XXXX XXXX my card with my banking papers was stolen XXXX. Two days later I realized my card and papers were missing and I checked my accounts online. On XXXX/XXXX/15 a fraudulent check of {$1300.00} was deposited into my checking/debit account. Within 2 days {$1600.00} was withdrawn from my checking and savings accounts leaving me with no money and a negative balance due to overdraft fees TD Bank insisted I must pay or collections will start. My Dad paid the remaining balance to keep me from collections and hurting my credit rating. TD Bank instructed us to file a police report XXXX which we did. An investigation by TD was opened and quickly closed stating due to the information the thief acquired no recourse on their part would take place. The fake check was deposited in a TD Bank in XXXX NY. We asked if we could at least see the video and was denied. They close the case and said we would have to go to the XXXX police department to file a report in order to possibly view the video. I feel if I saw the video I might be able to identify the person to press charges but TD Bank was only interested in getting their overdraft charges paid. I am now working XXXX jobs to try to recoup my loss to a hard lesson learned.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Capital One has violated these laws, as explained below : Consumer Financial Protection Act, FTC Section 5, Truth in Savings Act, Electronic Funds Transfer Act, Maryland Consumer Fraud Protection Act.   Capital One forced open our safe deposit box and liquidated its contents without notice to us. Through mishandling, they lost the contents. They insisted that they forced the box open because we did not pay the rental fees. In fact, our checking account was set up such that the rental fees were automatically debited from the account each year. At some point, due to a security concern, we changed our checking account number. Capital One failed to link the new account number to the safe deposit box, which is what led to the perceived nonpayment. At no time did Capital One give us notice that there was an issue with the fees, nor did they give us notice when they forced the box open and liquidated the contents.  Our box contained irreplaceable jewelry that my parents purchased for us as wedding gifts from XXXX. As is common in XXXX families, these pieces of jewelry have incredible tangible, not to mention, sentimental value. The box also contained some legal documents concerning my uncle 's estate, which are irreplaceable and difficult to re-execute, considering he lives in another country.   Capital One claims to have sent the property to the Maryland Division of Unclaimed Property, despite that documentation the bank itself provided to me showed that nothing but  miscellaneous documents '' were sent, despite also giving us an inventory showing that the box contained several pieces of jewelry. The Division has conducted exhaustive searches and has confirmed that it never received, nor does it have, any of our property from Capital One. Rather than address the merits of our claim, Capital One has been  searching '' for our property for nearly a year, with no success. We have impressed upon them that the injury was inflicted when they failed to link the new account number to the box and failed to give us notice, but they continue to attempt to shift the blame to the XXXX.   Capital One has further indicated that they do not believe we ever signed up for automatic debit form our account to pay the box rental fees. However, they in fact debited our account for the fees for approximately XXXX years. If they do not believe we had signed up for automatic debit, then debiting our account without our consent constitutes a violation of the Electronic Funds Transfer Act, 15 U.S.C. 1693a et seq., as well as the NACHA rules.   We sued Capital One in federal court on an individual basis. Again, rather than address the merits, they chose to fight us on jurisdictional grounds. This is what prompted us to file a class action in Maryland, to fight for our rights and those of others similarly situated. Ultimately, the bank will have to address the merits of our claims and those of others. It puzzles us that the bank wo n't simply admit that they did something wrong, and chooses instead to force consumers to jump through hoops like this, when it is their own wrongdoing that is in question.   We have attached the relevant pleadings for your review, which contain a more detailed description of Capital One 's offenses.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have had nothing but trouble with a chase bank line of credit. The balance is about XXXX. I pay about XXXX per month, although i have been paying extra monthly toward principal. This is the situation. XXXX in 2013 i attempted to refinace my home with XXXX Bank. I still have all emails regarding this. Due to my difficulty in getting a sobordination from Chase i could not refiance at the low rate. It went up during the time i was doing this. In addition my amount was XXXX available but they refused to provide a sobordination unless i signed a paper ... forced lowing my amount to what i owed which was about XXXX. I had no choice..blackmail. Due to their delays and the requirement which took time, i did not get to refinace. Now i have been approved to refiance with Harp at XXXX XXXX. My credit is about XXXX and i have no  dings '' on credit report. At that time in 2013 i paid for the sobordination but never acutally got it or used it as i withdrew my refiance due to all the delays raising amount of interest. Not worth it. Now i would like to refiance and i dont feel i should again pay for this. Especially with the incident i am also complaining about that occured this week. I went to make my payment. I had called to find out the grace period, as i always pay in person and i was out of town on the XXXX the date due. I found out i had 15 days with no late payment. So on last Tues I went to make my payment at the Chase Bank at the XXXX, Fl Branch XXXX. I had the ck written for XXXX as i have done that to pay part on loan and part on principal. They REFUSED to take the check. the insisted it was late and the balance needed to go for late fee. The manager, not to bright, came out and agreed. I called Chase on phone ( they say recorded XXXX these calls XXXX and they verified no late fee. I then took my phone, called chase and put the manager on the Phone with Chase. They advised him no late fee. They had to tell him how to do his job. I had another appointment ( XXXX per hour ) that i could not go to dealing with this treatment by this bank. Then, after hanging up he made me write a new check for the exact amount. To DATE i have not been about to pay on the principle.I then wrote a XXXX check to go to principal. The BANK refused to accept the payment toward principal. I was in a hurry and did not again call Chase to teach this manager how to do his job. So i will be charged interest i should not have based on extra payment. What a bank not allowing you to pay toward principal???? He told me to mail it.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD Bank has been consistently ( the past 3 years ) re-ordered my debit transactions by highest to lowest and changing the posting date. Which in turns gives me multiple {$35.00} dollar charges on transactions under {$20.00}. And on top of the multiple over draft fees, the start charging {$20.00} fees every 2 days. On top of that, some how their monthly matinence fee makes an appearance during this random time of the month. Another {$35.00} dollars down the drain.This type of practice is unfair and unethical. On the poorer side of the income spectrum and this makes it hard to maintain any type of decent balance and remove yourself from the black hole.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I believe I was charged excessive overdraft fees by Key Bank. I had a death in the family later last year and was really struggling. I slipped up a few times and did n't complain. The way they are applying the charges to my account created overages when their did n't need to be any. I am not asking for a full on refund but I have asked them for help. They have charged me a total of over {$500.00} last year and over {$600.00} already on charges that were most often put into the negative by how they chose to apply them   </t>
   </si>
   <si>
     <t xml:space="preserve">I recently attempted to make a purchase via the online delivery service, XXXX. The total for my purchases was {$64.00}. The company, XXXX, charged my visa debit card ( Bank of America ) {$70.00}, in case of replacement items that cost more than the original {$64.00} I agreed to pay. I was at the grocery store and the cashier told me my card was declined, although I had over {$1500.00} in my account. Mind you, this is the only card I have. I called the bank and they told me they had cancelled my card because of fraudulent charges. The charges were not fraudulent yet I am having to deal with having no access to my money in the bank because he bank made a decision to cancel my card. Erroneously. How do I stop this from happening in the future? Should here not be regulation over banks controlling a consumers money, when the consumer has not contacted said bank with any accounts of wrongdoing?   </t>
   </si>
   <si>
+    <t xml:space="preserve">I have been banking with SunTrust Bank, XXXX. They run all credit and deposits at the end of the business day. When they run debts, they start with the highest and go to the lowest. They do this in order to extract extra overdraft fees and not deny payments when your account is overdrawn.   I recently had a situation whereby I had approximately {$450.00} in my account and a deposit of {$360.00} giving me a credit of {$820.00}. I had several withdrawals on XXXX/XXXX/2015 listed below : {$7.00} {$23.00} {$29.00} {$46.00} {$85.00} {$280.00} $ XXXX $ XXXXHowever, I made the {$280.00} withdraw late in the day and was not denied use of my bank card, so I thought I had enough funds to cover. But I accept that I was overdrawn. However, Suntrust 's computer withdraws from my account taking out the highest debt XXXX and in order to charge more bank fees. Because of this practice, I was charged {$38.00} on XXXX checks for a total of {$150.00}. Whereas if they started with the lowest debt amount, which is how it shows up on both my statement and online, I would have only been charged XXXX late fee of {$38.00}.   The following day, I deposited {$200.00}, but due to the extra {$110.00} in fees, I incurred an additional {$38.00} late fee.   While I am willing to accept responsibility for overdrafting my account, I find it fundamentally unfair that SunTurst, XXXX uses a method to extract the most fees possible and it continues to allow a customer to access funds when they are overdrawn. Had I been denied when made the {$280.00} payment with my debit card, I would have known that I did not have the funds to cover the charge and I would not have made it or I would have checked my account to find out why I did not have the funds.   I honestly am not upset about being charged a fee when I overdraw my account. That is fair. But their calculation methods as well as their allowing me continued access to funds when they are not available without warning is not fair and I feel cheated.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON XXXX/XXXX/2015 I PURCHASED A KEY POSSIBILITIES PREPAID DEBIT CARD. AT THE KEY BANK IN XXXX, VT. XXXX. 2 HOURS LATER I LOST THE CARD. ORIGINALLY IT HAD {$400.00}. I CALLED THE BANK IMMEDIATELY AND REPORTED IT LOST. I WAS TOLD I HAVE A BALANCE OF {$210.00} AND A CHECK WILL BE MAILED TO ME FOR {$210.00}. TODAY XX/XX/2015 I CALLED KEY BANK AND THEY SAID I HAD A BALANCE OF {$.00}. THEY MADE A ERROR AND AS IT STAND 'S I AM OUT $ XXXX DID THE RIGHT THING AND REPORTED IT LOST. THE CARD NO. IS XXXX.  XXXX XXXX XXXX XXXX XXXX. XXXX XXXX XXXX XXXX, VT. XXXX XXXX.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">BBVA Compass bank was advised of a Teller-caused error on XXXX XXXX, 2015. BBVA Compass stated that they did not make an error when contacted about it on XXXX XXXX, 2015 via the customer service line. Their phone representative told me that the withdrawal was done by someone who had full access to the account and funds. Account holder told the representative on the Customer service line that this was not true because there was no signature card on the account for this person. When the bank was visited on XXXX/XXXX/2015 at the XXXX location, the account representative told the account holder that there would be no issue disputing this transaction and getting the money reimbursed. Account representative was told that arrangements would be made to regain payment for this error from the person who withdrew the account ( account holder 's father ). Due to personal reasons and familial relationship to this person, the account holder waited until XXXX 2015 to open a formal dispute. The account representative at the branch in XXXX was visited and informed of the situation. This person contacted the branch that committed this error and instructed them of the error they caused and that there has not been a repayment of this transaction by this person withdrawing the money as he has recently been having health related issues and could not repay. They stated that they would make efforts to contact the withdrawer of the account and inform him of the need to repay this money. The person told the account holder that it would take 7-10 business days before there could be a resolution to this problem. During this call, the account representative asked about XXXX XXXX being possibly entered as a beneficiary and account holder agreed to accept this option. However, it seemed that this was done to make it appear that the bank teller did not make such a gross error and misjudgment in giving these funds to the wrong person. On XXXX XXXX, 2015, without telling the account holder, the account was deemed to be fraudulent and instructed via voicemail to call back as the account may need to be closed. The account holder called the fraud account specialist that the account was not compromised as the error was caused by the bank teller and not by the person as he had asked for the balance on his account, not remembering his account number due to recent XXXX treatments received. The account holder then tried to prevent some overdraft fees when the debit card associated with the account was canceled on XXXX XXXX, 2015. There was no documentation to support the need to close the debit card. Then the customer service line was contacted that same day and told the account was deemed fraudulent and had automatically closed the debit card. The local branch was visited again and informed of all the issues with this account and that there was no resolution to the prior issue and had waited over 20 days to get a resolution to the problem. The account representative then qualified the account holder for a credit card to help avoid such large overdraft fees occurring by accident. The account holder had XXXX or XXXX overdraft fees reimbursed as caused by the debit card being canceled without notification. However, the issue of the XXXX dollars was not addressed. The account holder has waited for nearly 2 months to try to receive a result to the internal investigation being conducted, but each time the fraud specialist can not provide a deadline for this transaction to be resolved. The last conversation that the account holder has had with the fraud specialist is that they would email the investigator of this dispute and try to receive some information to relay to the account holder about the status of the investigation. Meanwhile, the fraud specialist only states to look at the account to see if the funds appear, but it has taken too long to get a response.   </t>
   </si>
   <si>
@@ -61,27 +118,57 @@
     <t xml:space="preserve">XXXXThis complaint is a supplement to the Office of the Comptroller of the Currency case # XXXX. According to that complaint, Chase bank claims a factual dispute between myself and the bank employee who entered the errant address XXXX XXXX, XXXX XXXX XXXX, XXXX, Tx. XXXX, based on my instructions. And of course, I dispute their claim. In addition, this subsequent complaint seeks answers to the following questions and request documents that Chase failed to address in their previous response dated XX/XX/XXXX : a ) Is their bill pay envelopes required to have a return address ;, b ) if so, provide proof that the XXXX, XX/XX/XXXX and XX/XX/XXXX carried a return address, tracking code, or mail meter stamp ; c ) provide copies of the front and back of the XX/XX/XXXX, XX/XX/XXXX, and XX/XX/XXXX signed checks by Bank Manager . Based on the bias assumption held by the bank manager that XXXX XXXX provided errant information, did that perverse assumption interfere with her doing her job of monitoring the paper checks for accuracy before signing them? The only way for us to find out what the bank manager 's actions were is to have the bank produce these checks. The original scenario suggested by XXXX XXXX is more fitting as to what happen then the prevarication offer by the Bank. XXXX XXXX suggested that the clerk entered the wrong information and that when the Bank Manager realized that she signed the paper check with the wrong address, she and her employee colluded and manufactured a bogus story. I am requesting that your agency have Chase bank show proof that the XX/XX/XXXX and XX/XX/XXXX were mailed out and given to the mail man for delivery. Also, state the names of the employees who mailed out these payments. Please explain how both the XX/XX/XXXX and XX/XX/XXXX became available in my account at once after I notified the bank of 55 day car default notice. It appeared that no one noticed the fictitious address until after the delinquencies occurred. I ca n't believe a bank customer service rep entered a wrong address, a bank manager signed the check with the errant address, a postal worker, and a financial company accountant failed to notice a city called XXXX, Tx. each time they processed these checks. Finally, I am requesting that Chase explain why I was mailed a fraudulent letter on XX/XX/XXXX signed by a non-existing employee, XXXX XXXX, who did n't work in that capacity reflected in the letter. Please identify the employee by name and the reason they generated the letter which implies that the bank committed an error.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I doubt this will ever be resolved in my favor, but I 'm willing to explore all possibilities. And if nothing else, maybe my story can warn other consumers who are about to go on California state XXXX.   Bank of America debit cards are used by California 's XXXX Department in place of XXXX checks : the state sends pre-loaded debit cards to workers out on XXXX leave. I was one of those workers receiving a XXXX benefit after XXXX last year. After my leave was finished and I returned to full-time employment, I was unhappy to learn that my card number had been used by someone other than me and that my card had a zero balance. The number had been used on several occasions, some of which occurred when I was at my office, and there were charges of close to {$500.00} at several XXXX locations within the space of XXXX hours on opposite ends of XXXX XXXX County. These took place on a Sunday when I was at home.   As the card had never been out of my possession, it was obvious this was a case of fraud. But proving that to B of A has been impossible. I immediately contacted California XXXX, I filed a report with B of A 's Fraud Department, as well as one with the XXXX XXXX County sheriff 's department, and I also contacted each store 's security team. The security staff at one XXXX location, where many of the purchases were made, let me know that they reviewed the recorded footage where the transactions were supposed to have occurred. The register was n't in use at that time. Quite literally, no one was there. While the staff was baffled and concerned, there was nothing they could do.   Of course, the state of California will not re-imburse me for the stolen  cash. '' B of A insists that these purchases at XXXX were  valid transactions. '' The people with whom I spoke in the bank 's Fraud Dept. told me they hear these stories frequently, and that there was nothing they could do.   I am SURE I am not the only person on XXXX who has experienced this. There must be hundreds of people being victimized like this at any XXXX time. Obviously this system does n't work real well! But here 's the thing : {$500.00} is not going to break me. But for some older, unwell person who is depending on that money, {$500.00} could mean the difference between eating and starving, or living under a roof as opposed to living in one 's vehicle.   Friends and co-workers who have been on state XXXX tell me the only way to beat the crooks is to withdraw every cent on that debit card the moment it is issued. I now understand this, but I am appalled that the state of California, knowing that this is flawed system, continues to utilize it. In no way does this practice help the people who are supposed to be getting benefits. And shame on B of A for refusing to help a consumer who has gone out of her way over the course of several weeks to gather evidence, file reports and do all the legwork. This lax attitude is the reason this bank is now on my list of institutions with whom I 'll never do business.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have been a victim of fraud. On XXXX I notified SunTrust that I had some items on my account that I did not authorize and also noticed that I no longer had my card. I advised them that I last used my bankcard on XXXX at XXXX just to purchase a couple of items. I was told to submit an affidavit for the items that I was disputing and was told that I will have a decision within XXXX business days. I contacted them several times within the XXXX business days to get updates. They came back with the decision and stated that they saw no fraud was made against my account because my pin number was used. I told them I had just recently received that new card in the mail and no one had the PIN other than me. Some of the fraud was made using a XXXX ATM. I went to the branch location where the fraud was done and asked if I can review the video from the camera and I was told that they had no way of showing me. I asked if the video was even reviewed and they could never give an answer which makes me think that it might be a SunTrust employee that is associated with the fraud. I was told by the SunTrust employee that I would have to do my own investigation and submit more proof to them. The associated advised me to go to XXXX to request the tapes to be pulled, which I did, and was told that they do n't have the authority to show me and video surveillance and can only be requested from the bank institution or an investigator. I also asked if a signature card was pulled to prove that the signatures on the back of the check did not match my signature but once again my request went unheard. I am requesting a full refund of all of the fraudulent items including the fees and a FULL investigation from SunTrust in house because I feel that SunTrust has frauded me and is possibly frauding other SunTrust members. The items that I am disputing are 2 checking that was deposited into the ATM one for {$910.00} and {$930.00}. There also was an ATM withdrawal for {$500.00} and 5 Wal-Mart purchases totaling {$260.00}. Also I have been a LOYAL customer with SunTrust bank for over 10 years and my account has ALWAYS been in good standings. I used this account for all of my personal banking needs such as receiving my direct deposit from my employer and paying bills. I have also incurred late fees because I am unable to pay my bills due to the fraud on my account.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I have an account with US Bank and my husband and I have been with this bank since XX/XX/XXXX. We recently got married XX/XX/XXXX and ever since then my account issues started. I got a new debit card with my new name on it and they wont allow me to go over {$500.00} when our rent is well over {$1000.00}. I have to now write a check through online bill pay in which they sent out but then returned it because I did n't have {$25.00} in our account. After taking my entire lunch to straighten it out the rep said it was the banks fault and took the return check fee off our account. I was so upset and advised her of this and she said she does n't get why I am upset they did me a favor!!!!??? Keep in mind my rental office wont allow me to send in checks now that this has happen. The rep told me we can do overdraft protect for just online bill pay and checks so our bills can be paid and put a  No '' for overdraft for our debit cards I agreed. Well today XX/XX/XXXX I get another return check for my husbands student loan payment because our account was {$46.00} negative. I speak to a XXXX and he tells me its at the banks discretion which was never told me by the previous rep. You would think since we have been with this bank since XX/XX/XXXX and have multiple accounts with them they would cover {$46.00} overdrawn check. I spoke with a manager XXXX who had no compassion at all and told me they sent me a letter telling me the details of this which we never received. I am fed up with this bank and will be closing our account ASAP!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recently went to get an account open at a bank and i couldnt because something came up on the XXXX. I looked it over and i saw that a bank reported that account for fraudulent activity. At the time that wae goin on I called them immediately after I found out my card was no longer in my position. So they questioned me and they started the investigation. They said I would receive a mail which i did not. I just let it go buy. Now 2 years later I 'm stuck with it. What do should I do?   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I opened an account at fifth third bank. I was online messing around with the bill pay feature. I have a small business so this feature would be great for my out of state employees. I set up a check under my business name for XXXX $ and hit send. I tried to cancel and the online said I could n't because it was already in processing. Well I did n't contact anyone because the check was coming to me so I was going to throw it out I knew it would n't get cashed. Next thing I know my account is locked so I called the fraud department explained what happened and they said all I needed to do was go to a bank and the branch manager could unlock it. So the next day the branch I went to made a call and said I needed to contact the branch manager where I opened the account so I did that immediately. She said she would call the fraud department and call me back. After half a day went by I called back and she said there was nothing learned yet. I waited a couple days called and she said sorry there was still no answers for me. I only have {$50.00} in this account so it 's not causing financial issues only a long drawn out headache. How hard is it either close the account and give me back my money or unlock it and do business.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I closed my account in XXXX 2014 but chase did n't follow the instructions and never returned my funds and I was made aware of this when my investigator in XXXX provided XXXX XXXX that your account has been hacked and almost XXXX deposited amounts are wired out to unknown recipient. I called chase and reported this and disputed those amounts and then instead of making my funds available to my other creditors they blocked or hide my account and put return request upto 3 month prior payments made available to my other financial institutions making Me look bad and causing Me debit of {$3600.00} but I suppose to get a refund check from chase as vitcm of IDTheft when I closed my account o had XXXX present in the checking account which they had stolen from me and never sent me written letter stating my account had closed. Chase also leaked my account information to XXXX party as per told by my investigation firm and they are invited in massive fraud to make up for their data breaches costs.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">On XXXX/XXXX/2015, I went to a Bank of America ATM, located at XXXX XXXX XXXX, XXXX MA. When I went to the ATM, I deposited {$550.00} in cash and {$320.00} in checks. It processed the cash and  ate '' the checks - it took them into the machine and failed to acknowledge the action. It gave me no option to return the checks to me.   I immediately called Bank of America and alerted them that the ATM had not confirmed my check deposit and was not following typical behavior. I was told that it was 'not a problem ' and that in 3 business days the checks would appear on my account. After 3 business days, I did not see the checks so I called Bank of America.   They told me then, that they would investigate the issue and get back to me within '6 weeks. ' They temporarily gave me the missing {$320.00}. After 6 weeks, I was told that I was out of luck - that I had to have the checks reissued, and that there was nothing they could do. They then removed the {$320.00} from my account. I raised the issue again, as I feel this is unacceptable, and they took another 3 days to look further into the matter before restating that there was n't anything they could do. They could locate my transaction ( the deposited {$550.00} in cash during the same transaction ) but 'could not locate the checks. '   </t>
   </si>
   <si>
     <t xml:space="preserve">Chase bank are making it increasingly difficult to ascertain the fees and charges they are racking up against my account. Recently, we had a couple of small payments with insufficient funds to cover. Usually, Chase will immediately show a {$34.00} fee for each item. However, they have taken the route of now HIDING those fees and BUNDLING them into XXXX charge as a part of the end of month statement. This is carefully planned by Chase, as it makes the fees very difficult to question or discuss. Often a substantial period of time has passed, so Chase can assume the client has forgotten about the incident, and therefore will not question the fees when charged at a later date. See attached letter.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Bank of America allowed XXXX Federal IRS tax refund checks that were jointly written to my ex husband XXXX XXXX XXXX and myself XXXX XXXX XXXX to be deposited and cashed by my ex husband without my authorization or signature. I do not now nor have I ever banked with them. The checks in question total {$730.00}. They were deposited into his checking account at one of their atms in XXXX, Maryland. The checks were never stopped once the transactions were posted on the next business day. The checks in question were forwarded illegally to someone else 's personal P.O. Box that did not belong to either my ex husband or myself. I contacted them to resolve this issue but they have refused to deal with me since I am not the account holder.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am complaining on behalf of my mother and myself in my role as trustee of her trust account. I have only recent become involved in the current matter as a result of the bank denying my mother access to her trust account. This account has a balance of approximately {$250000.00}. Apparently the bank has never paid any interest on the account. Although she is the beneficiary of her trust she is denied access to the account. She has not needed the funds until recently, but now needs them to live. My mother is XXXX years old. The bank has clearly exploited an XXXX and vulnerable individual. As trustee of the account I have tried to have the bank provide access to the funds to my mother. Having received no cooperation from the bank I instructed the bank in my role as trustee to transfer the funds to another institution and close the account. The bank has declined despite being given specific and unambiguous instructions. The bank wants me to appear in person. I live in XXXX and the bank is in XXXX. It is not possible for me to appear in person and the bank knows this. This bank has and continues to be engaged in the exploitation of my mother.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday I received an email notification that my Wells Fargo account had been overdrawn and I had used my overdraft protection. I was surprised by this email as this account is only used to pay my student loans and I know exactly what goes into it and what comes out of it. I got online to check my account and found almost {$50.00} in fees in the last 3 months and a XXXX balance in my checking account. What surprised me the most was a $ 8 monthly service fee for each month in XXXX, XXXX and XXXX. I have had this account for 8 years ( since 2007 ) and have never paid a monthly service fee because I set up an automatic transfer of {$35.00} between my checking and savings account to waive the {$6.00} normal monthly fee of this type of account. As I checked back through my online statements I found the change happened around XXXX this year where my account must have been automatically  updated '' without my consent or knowledge to an account that now charges {$10.00} a month and the options to waive the fee have changed and my option to transfer to my savings account has been removed. The only options left to waive my monthly fee consisted of having a minimum {$1500.00} balance, having a direct deposit of at least $ XXXX, or having an automatic payment be taken for a Wells Fargo home loan or personal loan. None of these options are usable for me as this account is only used to pay my student loans. I currently live in XXXX and I do n't have the option to go into a branch near me to sort things out so I called the XXXX number and talked to XXXX separate people that both basically said they could not help me at all. The only suggestion they had was to call the branch I opened it at. This morning I called the branch and talked to a banker named XXXX. He was more helpful but overall said that since I live in XXXX and can not physically be there, he could not do anything to my accounts to help me. He confided that I was not the first to call and complain about this change that happened and that apparently this change happened to about XXXX types of older accounts that had been  grandfathered. '' He said they would have sent out a letter at the beginning of the year informing me of the changes. When I stated I did not receive any such letter he suggested it might have gotten lost in the mail or something as it would have been going overseas. I have since checked my letters from Wells Fargo in my filing cabinet and have not found any such letter, though I did find my most recent debit card which would have arrived around that time to my XXXX address, indicating the overseas mailing address is indeed correct. In XXXX we never have problems receiving mail and have a very reliable mail system. XXXX directed me back towards the phone call center which I had previously called, sending me in circles. I am appalled that Wells Fargo can change my account terms and type without my consent and I feel something is not correct here. Can I please get some help and direction in this matter. I noticed that there were some news articles from XXXX this year about a law suit against Wells Fargo in regards to them opening unauthorised fee attracting accounts. I am not sure if my case falls in this same category of incidents but it certainly does n't feel right. Any help is very much appreciated.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I no longer use my M  T account. I accidentally selected it to pay a bill online and it became overdrawn. M  T did not notify me via email, despite the fact that that has been their standard practice for fraud notifications and updated statement notifications. They deliberately chose not to use that standard form of communication to collect excessive overdraft fees. The bill was due XXXX/XXXX/15 the last time I had checked on the M  T account had been XXXX, and they are showing the bill in question coming out of the account on the XXXX, which is not correct or was outside business hours. I only found out about the overdraft because I could not see where the bill came out of my main bank account on the XXXX. I immediately scheduled a transfer of funds from my main bank account and called M  T they told me that since I was a good customer they would waive the overdraft fees. Despite this conversation which occurred on the XXXX, I was hit with a 5 day extended overdraft fee. I believe that M  T 's deliberate choice to not contact me via email when the overdraft occurred as well as charging me a 5 day overdraft the same day they told me they would waive the overdraft fees amounts to a UDAAP violation for deceptive practices. I would like the 5 day overdraft fee to be waived and for this account to be closed immediately.   </t>
   </si>
   <si>
     <t xml:space="preserve">I am a current victim of Identity Fraud through use of my USAA internet checking account. I have received over {$46000.00} in banking fees and fraudulent checks and purchases made through debit purchases and funds transfers. I initially received a returned check in the amount of {$4800.00} drawn on XXXX XXXX XXXX in XXXX, payable to my name, and deposited into my bank account. -USAA offers deposit at home for some of their banking members. - This check was clearly deposited at home, and cleared by USAA. Once this check cleared, the individual decided to open numerous accounts in my name and expediting debit cards ( which the XXXX rep informed me of ). I asked for the address the cards were sent to and all she could give me was my address, that seems weird. The cards were activated and the individual immediately proceeded to make purchases. From XX/XX/XXXX-XX/XX/XXXX, about XXXX transactions were made, all in XXXX, and I live in XXXX. Many of the transactions were for the same dollar amounts indicating the same purchases. XXXX transactions at XXXX different XXXX XXXX of which were the same day, XXXX transactions at XXXX on the same day, and the rest of the transactions were debits at XXXX XXXX and XXXX XXXX. I have contacted USAA about this on 3 separate occasions with no resolve. I reached out initially when I received the returned check, informed them of situation, and was advised the account would be closed and I could never open another account. However, the damage was already done. I called again once I received numerous returned NSF statements and banking transactions. I was told someone would follow up with me, about this and advise further. Again no resolve. A month later I received a statement of collection in reference to these accounts. I immediately called USAA again to find out what is going on. What I found out, was : This person open numerous accounts online or on the phone, had each atm debit card was expedited to him, and began immediately transferring money. I spoke with this rep for at least an hour, explaining and going over every single detail. I also requested from her an email to follow up and confirm that conversation, which I have yet to receive. The XXXX most evident things, he has to be familiar with USAA processes to know what to do to open account or how to use deposit at home. I have had my savings account for over a year or so and have NEVER had more than {$100.00} in there, now I am randomly opening accounts and depositing checks. I have NEVER deposited any type of checks with USAA. And I suddenly just randomly open checking account after checking account with no RED flags from the bank. Does not make any sense, but shows the obvious flaws in USAA 's online banking. I decided to drive to the closest physical location which is an hour away. I attempted to speak to someone on person, pretty much received the same response I did on the phone. I was told I will receive a respond in XXXX business days. My next attempt is to seek counseling from an attorney, because USAA is obviously not concerned about resolving this issue.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I had ask Fifth Third Bank on XXXX in XXXX XXXX Florida, to close out my account because I had a lot of unauthorized stuff coming out of my account. I went and talked to XXXX in that branch in the end of XXXX of 2010 she was very rude and would not close out my account she gave me no expiation of why she would n't. I had money going into the account every week but they would take out the debts first and then the credit the check. Which caused us overdraft and then they charged all these fees. These XXXX things not closing out my account and take out debts before crediting my checks that went in automatically. Fifth Third Bank charged me {$1500.00} in returned item fee because the would n't close out my account and {$570.00} in overdraft fees. This was unfair.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">On XXXX XXXX 2015 I applied for a checking account with Citibank online. Not sure if I did it right so I applied again on the phone and again on the XXXX online. On XXXX XXXX 2015 I received several letters from Citibank. XXXX of which contained a bank card in each. Great I had the account. I went to a Citibank Atm and deposited {$20.00} which is still in the account at the time this complaint is being filed. I tried to use my bank card and it was declined twice. Once I got home I called customer service who told me there was a restriction on the account and I needed to call new account services. I was also informed that I had XXXX accounts. I told them I only wanted XXXX and gave them the account number of the one in which to keep, the one with the {$20.00}. So just to be exact I am writing this complaint pertaining to the account ending in XXXX. On Monday, XXXX XXXX 2015, I called new account services where I was informed that I needed to send in proof of address. I was told that a cell phone bill would do and I promptly sent a copy of my phone bill to them. I faxed it to the number ( XXXX ) I received from the agent. I called the next day which was XXXX XXXX 2015 to verify that new account services received my fax, they did. Later that day I received a call from a number I did not recognize, XXXX. The gentleman on the line explained that he was calling on behalf of Citibank and he was the XXXX reviewing my proof of address I sent in and he thought to check with me because my XXXX bill had an apartment number and I did not put one on my bank application. I explained to him that it did not matter because I stayed in a hotel and all mail came through the front desk, so I would get it as long as it came to this address, the same one that I gave them on my XXXX bill as my proof of address. He asked if this address is permanent, I assured him it was. He then explained to me that he would have to talk to his supervisor as they usually do n't give accounts to people in hotels. He said he would call me back after he spoke with his supervisor, either later that day or the next. The next day I waited, I did not receive a call so I called new account services. They explained to me that the account was denied by XXXX and I will be receiving a letter soon. I feel as though I have been a victim of discrimination again. Where I live should not play a part in whether I get an account. I gave all my documents as asked of me. I already had the account, they sent me a card, so the only reason for them declining or closing my newly opened account has to do with the address where I live. I am not sure of the reason they put in the letter or the reason they will give your organization but I feel that it should be known that I have the card and even placed money in the account. The reason for them closing the account has to do with the fact that my address where I am a permanent resident is a hotel. I do n't think that people who live in hotels, or shelters, or any residence that Citibank does not agree with should be a reason that a person is denied an account.   </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX/XXXX/2015 at XXXX Eastern Time, I drove up to the ATM at the Chase Bank Branch located at XXXX XXXX XXXX, XXXX KY XXXX to make a cash deposit. I was in a hurry and made the mistake of not counting the total deposit amount, but I would estimate it to be between XXXX and XXXX dollars. I fed the money into the ATM and got a receipt that said there was a technical problem with the ATM and to contact the bank to resolve. I went into the bank branch and was told I had to file a claim, which they did for me, Later that day, I received a  temporary '' credit of {$53.00} while they reviewed my case. They mentioned they have the option of taking the money back if they do n't find an error occurred with the ATM. Chase has a reputation for not giving customers back their lost funds and I am concerned that I will not get back the remaining {$30.00} to {$40.00} in lost funds but also they will try to take back the {$53.00} they did give me. I do not trust these people and feel like they are going to give back all of my money. If you can help I would appreciate it.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The issue here is that we have been wronged by XXXX. Along with numerous other establishments and their flagrant misrepresentations. The monies paid to your company were taken under false pretenses. On XXXX XXXX, 2014, they charged me {$4900.00}. This was on my bank statement. They did say they were doing my advanced marketing. I was definitely taken advantage of by these people because I had no phone number or any means to get back in touch with them. I do not want to do any further business with them and request a refund. I am very uncomfortable working with this and at this time would like to cancel these services and demand a FULL refund of my money. The company is non responsive to calls, complaints and letters. I have reached out to my banking institute and supplied them with all the information that was in my possession. They advised that I did not. I called and advised Citibank that it was n't a billing error, that I have a contractual agreement with the above referenced merchant and that I was allowed to file this under  services not as described '' up to a year from the date of the original transaction in accordance with Federal Regulation, they can not pick and choose as they see fit. Also the mentioned I did not comply with their request for documentation. I give them everything I had. They offered no help at all. I can not afford this big of a hit to my finances. Please advise my credit card company of proper protocol and ensure they help me. I need your help.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have not been able to pay any bills or pull any money from the ATMSince XXXX XXXX, I had a bill pay deducted from my account on XXXX XXXX which has not been received by my credit card company, If consumers are receiving late fees, possibly a missed payment on their credit report that could be devastating to someone like me who has great credit. Its been 12 days since I had access to my cash.   </t>
   </si>
   <si>
@@ -91,33 +178,87 @@
     <t xml:space="preserve">Chase is charging overdraft fees for account being negative 3 hrs. Account shows positive at XXXX cst and then goes negative by XXXX. If I cover the negative amount the same day they still charge me the fees.   </t>
   </si>
   <si>
+    <t xml:space="preserve">A payee to whom I wrote a check erroneously cash the check twice for XXXX different amounts. I called Suntrust to address the issue and over a month later it has not been addressed. Call center agents were misleading or incompetent   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I continue to be charged {$25.00} monthly from citibank. I call every single month and I 'm told the same story about how the charge is being reversed. I have spend over 4 hours on the phone ( not include the times my husband has called ). We want my money back! I did not sign up for an account that would charge me a monthly fee and I am continuously told they have downgraded my account and we will not be charged. When I call or go online I see the charge once again, month after month. This is a deceptive practice and I bet XXXX people are being charged and not realizing it. I do plan on leaving citi, however my mortgage is also with them so it is more difficult to switch banks. Please help!   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Hi, I have a circle checking account ( # XXXX XXXX XXXX ) with Citizens bank.  I recently visited a branch XX/XX/XXXX to deposit a check and during that visit was told that my account is dormant. Apparently since XX/XX/XXXX up to this point, due to my account being inactive, I have been charged monthly fee of {$5.00}.  Since XX/XX/XXXX was Saturday, the manager at that branch was not able to answer questions on when did my account started being dormant, why there has been no communication from bank about it, I went to my regular branch ( XXXX XXXX XXXX, XXXX ) to inquire about my account. I wanted to check why bank have NOT notify me in anyway about changes to my account status from active to dormant. I also did not receive any notification that I will be charged fees for keeping this account. The bank representative told me that I have eStatements, and if I have logged in and checked my balance, I would notice that I am being charged fees.  I may have logged in to the account, but I believe bank eStatement are different that receiving notification from bank about account change. In my opinion, I should have received letter sent to my home address notifying me about charges that I will be occurring for keeping this account. I logged in today and tried to see if bank send me any notification via their system, but since they started charging me XX/XX/XXXX, I am not able to review any information ( see attached for showing no eNotices on my account ). The representative in the bank said that they can not see any communication on my account, but eStatements.  Attached is my XX/XX/XXXX eStatement. I do not see any explanation of those dormant charges ... there is a note saying that I can waive a {$15.00} maintenance fee if I keep certain balance on the account ( see attached ), however I do not think this applicable to my account.  However, there is no information what the dormant account means, when it started and what I have to do as customer to avoid this fee. I think this falls into UDaP ( unfair and Deceptive practice ), since bank did not notify customer of charges to the account. Yes, I could have logged in to the account to check my statement but I think with such substantial change of the account terms, there should have been a courtesy letter sent to my home address to notify me. There also should have been better explanation of the charge ( why am I being charged this and what I can do to stop being charged this fee ). I am very disappointed that bank would take {$95.00} dollars from my account. I can not believe that bank would charge me for 19 months a set fee and would not notify me. I know that they have correct correspondence address on the account, since they sent me a new ATM card. If I would have not go to the bank to deposit a check, I would continue to be unaware of diminishing account founds. At what point would bank notify me about the charges, when I would run out of money?  Please advise of best way to receive refund of those charges. In my belief my account should have {$550.00} not {$450.00}. How do I go about receiving {$95.00} back into my account? I appreciate you looking into my case.  When I visited the XXXX XXXX XXXX branch ( XX/XX/XXXX ), I was informed that I should have received a letter from the bank notifying me about upcoming charges and that I should have signed it and return it to the bank. The bank was looking into archive to determine if they have a copy of signed letter in their records, as I do not recall receiving and signing such letter. As of today ( XX/XX/XXXX ), I have not heard back from bank about their research.  Thank you for your help in resolving this case.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I wanted to get money from XXXX of my checking accounts, some in cash and some in an official checkI provided identificationI was told I needed to pay {$4.00} to be provided with a check before paying more money for the official checkI had no problem paying for the service of receiving an official checkI told them I did n't need a check, I just wanted access to my fundsThey said I would have to pay if I wanted access to my money in a checking account, although I could use a withdrawal slip and pay nothing if I had a savings accountTo make the foolishness continue, I said I would open a savings account, transfer the money into it, withdraw it, and close the savings account if that was what they wanted since it would be free.  Waited on the line to open a savings account and was told I would n't be able to draw on it since the funds would n't have cleared. The clear funds in my checking accountSo I tried to close my checking accounts. They would n't let me do that since I still had a direct deposit that would be coming through before I could get it cancelled. They would n't allow me to set a future date to cancelHow can it be legal for them to refuse me access to my funds without a fee? I just wanted ( some of ) my money? They had withdrawal slips, they just choose to make them savings accounts only.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have had issues with my Scottrade Bank account ever since my account was improperly accessed ( hacked ) and Scottrade Bank has refused to investigate the fraud and unauthorized transactions that occurred.   I 've attempted to go through Scottrade Bank 's internal dispute resolution procedures but, thus far, Scottrade Bank and its compliance department have been enormously rude and failed to acknowledge my dispute or provide instructions on how to remedy the situation.   For over 6 months, I have been asking Scottrade Bank to provide me with a copy of the arbitration agreement Scottrade Bank says I signed, however, to date, Scottrade Bank has been completely unwilling to discuss the arbitration agreement or how to resolve the situation.   If I had known that Scottrade 's actions would have been so unhelpful, I would have closed my account a long time ago.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I was charged over draft charges from the use of my debit card, as well as NSF charges in spite of the fact that I never  opted in '' nor authorized any overdrafts or charges on my account. indeed, I specifically opted out of this coverage and believe that PNC Bank is engaging in predatory practices in clearing checks and charges to their accounts.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soon after I filed for Bankruptcy, I was denied full access to the USAA website with the words  According to our records you filed bankruptcy and we can not collect certain debts. To obtain access to your existing accounts you may log on by clicking proceed below. '' Printed in red every time I attempt to log in.  I am then redirected to a stripped down version of the website, basically a mobile site, with my full account information including full account numbers visible to the public when I check on my existing accounts.  They claim, they do this to limit the possible chance of USAA accidentally extending further credit to those who filed bankruptcy. I call that a lack of professionalism and they make their members pay for USAA 's inability to perform a minor task as USAA can accurately access any current or future member 's credit worthiness via the credit reports, as that is what they are used for ; they do not need to limit access and further humiliate their membership in such a way and continued practice will result in Discrimination charges against USAA. As they seem to be punishing anyone for falling on financial hardship and not being able to pay their debts.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My bank BBVA Compass will not return {$6.00} to my checking account that was not authorized. I called and emailed them numerous times but they would not return the funds to my account.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am the Trustee for the estate of my aunt and sole heir for the joint-account holder of a safe deposit box. Both died 7 and 8 years ago. For 8 years Bank of America in California Bank of America withheld the existence of a safe deposit box from me, despite they were officially notified of her passing by affidavit in 2007, and only notified us this year AFTER they drilled it open and provided us an inventory which showed cash, legal docs, XXXX insurance policies, and other valuables.   The inventory was conducted by Bank employees who failed to sign the Inventory, as required by law. All signatures were left blank. We believe they stole the contents and only sent this notice because they did not expect for anyone to be living at the same address as the box owner 8 years later.   In good faith, the successor beneficiary of the Trust estate of Georgia XXXX, XXXX XXXX XXXX, had attempted to gain access to the contents by following instructions provided by BOA. He provided them with all documentation they requested ; they simply gave him the runaround for several months, were very disrespectful to him, even insinuated he had a fraudulent death certificate.   As Trustee, I 'm shocked that my family has been deprived of the insurance policies for over 8 years. The assistance from BOA to XXXX XXXX has been very rude, condescending and downright evasive and racist.   There have been numerous versions of the 'whereabouts '' of the contents ; first everything was okay and he was given an appointment to come in, then they could n't find the box, then they could n't find the contents, then they found the contents, then the contents were with the state of XXXX , when challenged, the contents were at the enterprise estate unit. Finally they advised him to contact me. Which is what they should have done from the beginning if they deemed he was n't entitled to the contents, or they should have contacted me. I 've was notified by XXXX XXXX that XXXX XXXX of BOA advised him they would not contact me.   I spoke with the probate court in XXXX XXXX and they advised me, as the Trustee to the estate of the main box holder and sole heir to the joint box holder, to complete a small estate affidavit. In my cover letter and affidavit to BOA, I have requested they deliver the contents to a local bank in XXXX XXXX for the beneficiary to pick them up personally on my behalf upon presentment of a state ID. Today, we were notified by XXXX XXXX that the contents will be mailed or delivered to me in XXXX instead. Upon providing the contents to a third party for delivery, BOA  will no longer be liable '' for the package or the contents and we will  never '' be able to confirm what was in it the package and not in it. Under the circumstances, the evasiveness, the unprofessionalism and the 8 year delay, I do not trust the integrity of BOA employees or the process.   I DO NOT WANT CASH AND IRREPLACEABLE LEGAL DOCUMENTS AND INSURANCE POLICIES DOCUMENTS MAILED, NOR DO I WANT TO TRAVEL TO CALIFORNIA TO PICK THEM UP TO SIMPLY HAND THEM TO THE BENEFICIARY ; PERSONALLY I DO N'T BELIEVE AFTER SPENDING THOUSANDS TO TRAVEL TO CALIFORNIA THERE WILL BE ANYTHING THERE.   ONCE AGAIN, BOA IS REFUSING TO PROVIDE INSTRUCTION ON  WHAT IS NEEDED '' TO ALLOW THE BENEFICIARY TO PICK UP THE CONTENTS IN LONG BEACH. WE BELIEVE THE MONEY HAS BEEN STOLEN WHICH IS WHY THEY ARE BEING SO EVASIVE. IF THAT HAS OCCURED, THEY SHOULD JUST REPLACE THE CASH AND TURN OVER THE CONTENTS.   PLEASE HELP, MY FAMILY IS URGENTLY WAITING ON GETTING THOSE INSURANCE POLICIES.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a regions bank account holder first off I had a payment due on XXXX/XXXX/15 and they ran the payment through on XXXX/XXXX/15. Which is not right. I deposited money in my account on XXXX/XXXX/15 I was XXXX short and was advised by a representative on XXXX/XXXX/15 that I would not get a overdraft fee because it was not over XXXX On Monday XXXX/XXXX/15 I was given a overdraft fee. Also they said my deposit does not show that it was put in on XXXX/XXXX/15. It shows XXXX/XXXX/15. I immediately called the bank and spoke to managers. They have no records of the call. This is not right. I should not have been charged the over draft fee. I have had nothing but overcharges for overdrafts since day one with the bank. I want my account to given credit for the overdraft. They continue to do this to people and it is wrong!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a legal agreement with Chase Bank, on repeating payments on my rent to XXXX XXXX XXXX in th amount o {$150.00} each month since XXXX 2015. This month of XXXX 2015, when I receive my SSA on the XXXX and XXXX of the month, Chase debited my account for the rent. It was by legal agreement to be on the XXXX of each month. On XXXX XXXX, 2015, I had {$230.00}, therefore funds to be paid. If they had debited my account the said amount, on XXXX XXXX, 2015, I would have {$380.00} instead I have {$180.00} an difference of {$200.00}. They shorted my account, by not legally debited my account on the XXXX XXXX, 2015.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">On XX/XX/2015 XXXX XXXX XXXX XXXX presented a check against my bank account with TD Bank for {$1400.00}. This brought my account balance to {$130.00}. That same day, XXXX debits totaling {$30.00} were also debited from my account, causing my overall balance to fall to {$99.00}. On XX/XX/2015 the check was returned and I was charged a {$35.00} overdraft fee. The only other debit to occur that day was for {$12.00}. After reviewing this on my XXXX statement and making numerous phone calls, TD Bank confirmed that the check was returned in error and refunded me the overdraft fee.  The check to XXXX XXXX XXXX XXXX was for my XXXX rent and it being returned will result in me being charged a late payment fee and a returned check fee.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Applied for a Discover bank savings account through a promotional offer for {$100.00} bonus ( XXXX ) After all requirements were fullfilled, no communication from Discover, no bonus credited.  Called 3 times to resolve, finally they claimed that the offer expired before I opened the account which was clearly not the case as listed on their own webpage.   Discover refused to switch to another promotion by saying that new promotions are only for new customers so I would no longer qualify.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I open a discover online saving account on XXXX ,2015 using the code  XXXX '' which will give me {$100.00} bonus within 1 month After I open a new saving account and deposit {$5000.00} before XXXX/XXXX/2015. I 've met all the requirement by XXXX/XXXX/2015 and wait for XXXX fully month but tthe bank customer service just want me wait another 4 week and they are still not sure whether I can get the bonus or not. I have already save the whole website during application.   </t>
   </si>
   <si>
     <t xml:space="preserve">Bank of America ATM XXXX located in XXXX. I withdrew {$400.00} and the machine did not dispense money. There was a number on the machine to call to report a problem but it kept looping back to the main menu. I called a different number for the bank and they told me it was n't their problem because my checking account is with another institution. I do n't think they should be allowed to have ATMs in public locations if they wo n't support them.   </t>
   </si>
   <si>
+    <t xml:space="preserve">This is State Farm XXXX. Can you helpI handed XXXX XXXX {$40000.00} to put in to a saving account in XX/XX/XXXX to go with my life insurance so my son would get it if I die. I have Close all of my account with state ( for all of Lies ) as XXXX But for some reason He keeps giving me the run around and will not give me back my money. Every time I call him or his office they tell me it is going to take 7 days I do n't think he planning on paying me back   </t>
+  </si>
+  <si>
     <t xml:space="preserve">XXXX XXXX does not honor their over draft policy and bank of America co horsed and did n't give me my overdraft services like my banking contact says. Then they give me a low daily limit so i cant get all my money at once.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I just opened an account threw Huntington bank am then I made a deposit an the same day they withdrawn {$190.00}. I called an they are trying to say I opened an account in 2013. An wrote a check that bounved. I never had an account at that time am never had a bank card or checks. So there is no way this could of happened I do n't no if someone has stolen my identity that is the only answer for this problem.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX XXXX XXXX i went into XXXX on to use my ATM i withdrew XXXX the XXXX was coming out crooked when i reached to grab the side that was coming out the most the door shut causing half of the other XXXX to get stuck so i was left with a half of the XXXX in my hand upset. so i transferred XXXX from my saving to my checking thinking if i did another transaction my other half would come out with the new XXXX well that did n't happen .i asked the cashier what i need to do she advised me that she does not own the atm. so i went to my car to call the bank they understood what happened and credited the XXXX back to my account which i was very thankful for that. so in the meantime i had no use for the broken XXXX so i discarded it. On XXXX the XXXX i notice that it was XXXX dollars missing from my account. i received a letter some days afterwards saying that the ATM was found to be balanced and they are taking XXXX back out my account on XXXX/XXXX/XXXX and the determination is final it also stated that i can call them if i had any questions or if i wish to receive copies of the documents used for the investigation of the dispute. so i gave them a call and they stated that they can not provide me a copy of the information used it was just some papers that they filled out and that their ATM is not owned by Fifth Third it is owned by another company. with that being said i walked them thew what happened that day asked did they review the cameras on the ATM did they look into my account and seen the withdrawal or even the transfer that i made at the same time they told me whatever the person did to determine that the ATM was balanced is what we go by once again i told them that this really did happen to me i asked did they find the other half of the XXXX they stated that they did not know. after going back and forth with this person i decided to call my local branch and i was told that the regional manager has to get back with me after calling and the branch saying that we have been emailing him to call you this went on for a month straight i called everyday finally a regional manager that was in the office and i was transferred to him and he basically said they can not do anything about it they have to go by what the ATM says and if everyone called in and said that that happened to them they would no longer be a bank it will be like giving out free money. he then asked me where is the other half of the XXXX that he can see if a serial number matches up i told him that i no longer have it because when i called in about it that day they credited the money to my account he said well you should of just came in the branch well at that time the branch was closed and i really needed my money to eat. o that was the end of that because he just kept saying that it is nothing that they can do and will not credit the money back to my account. i have been with this bank since XXXX and the way I was treated when i had this issues is very disappointing because this issue really did happen and at the end of the day I got nowhere and I 'm still without XXXX in my account .Trust is a big thing with me and it makes me not want to trust ATMs anymore because I do n't want to go threw this every again and to know that my personal bank does n't care about what happen makes me even sadder   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I opened a new Chase checking account at the XXXX XXXX, FL branch on XXXX/XXXX/XXXX. I had an offer for {$150.00} incentive for a new account. Yesterday XXXX/XXXX/XXXX I received a new coupon for a {$300.00} incentive for the same account I opened. I called customer service today to see if this can be credited to my account and the representative told me she did not handle that I had to go to the branch directly where I opened my account but XXXX did not foresee any issues with my request. I called the XXXX XXXX branch where I opened my account and spoke with the branch manager who said I was unable to get the additional incentive as I am past a 21 day period where this change is allowed. I find this to be wrong as I am a new customer who wishes to have an ongoing relationship with Chase and they can not override this issue? This is ridiculous.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I opened a Scottrade Bank account a while ago. Scottrade Bank closed the account without providing a proper explanation. I have requested an explanation from Scottrade but every time I call them they say they will only speak to customers and since my account is closed I am not a customer.   I would warn others of this behavior, if you have any dispute with Scottrade, I would advise that you withdrawal all of your funds before brining it to the attention of Scottrade as it is likely Scottrade will place your money in limbo and not allow you access to it.   Now Scottrade wo n't even respond to my complaints. If this is how a business treats customers, well, I will happily take my money elsewhere.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">On or around XXXX/XXXX/14 XXXX XXXX XXXX. sent me my last dispursement check from my Escrow Disbursement account, to finish my repairs on my house from Hurricane XXXX. I NEVER RECEIVED THE CHECK. I called XXXX three times on or around XXXX/XXXX/14 - XXXX/XXXX/14. first time I asked when the check was coming, they said give it more time it is in transit. Second time I called them I told them I did not recieve my check and they should stop payment. Their response was  give it more time ''. Third time I called them, I told them I still have not received the check and for them to definitely stop payment. Their response was, the check has been cashed and that I needed to go to J.P Morgan Chase and request a fraudulent claim form. I told them that it was their job, being that the check was not from my account. ALL OF THIS IS ON THEIR PHONE RECORDINGS OF ALL OUR CONVERSATIONS. I asked that they send me a copy of the check, it took XXXX approximately eight months plus numerous phone calls, to get me a copy of the cashed check. Their explanation of the delay was that they were transferring their insurance loss department to a new location in Texas and all paper work was in transit. Finally, I received a copy of the cashed check and as you can see my signature is not present and nor did I give any authorization to cash this check. I filled out the necessary paperwork to the best of my ability to get this matter resolved, which I will attach. All three banks refuse to take responsibility.  I believe XXXX XXXX is at fault mostly for not following proper procedures and taking and opening an account with an improperly endorsed check.  J.P Morgan Chase also did not follow proper banking procedures because they did not check the endorsements and released the funds anyway to XXXX XXXX.  XXXX is also at fault for not stopping payment when requested and simply not taking any responsibility or helping to resolve this situation in a timely manner.   </t>
   </si>
   <si>
+    <t xml:space="preserve">On or about XXXX XXXX Wells Fargo received a wire transfer from XXXX Bank in the amount of {$35000.00} into my checking account, The staff at XXXX XXXX , branch of Wells Fargo ignored my direct instructions ( on more than XXXX occasion ) to  Under NO circumstances were any of those funds to have been placed into my account ''. I informed the branch manager on numerous occasions that the funds were not mine and that if she or the bank ignored me that they would be liable for any and all damages and possibly more. The bank also cancelled my Identity theft protection and denied me of my funds previously in the account and their actions have also caused other damages. I am also filing an Identity theft charge against parties involved since the bank also lied to me and stated  No crime has been committed and we will not contact law enforcement ''. They went on to state  There is nothing that we can do ''. and that is just a small part of what I have learned was also a lie that they stated to me and mislead me. I have documents I have not been able to obtain that do show other costs incurred due to Wells Fargo and It 's employees deceptive actions. They intentionally with malice have done this and the facts of their failure to act prove this as well. Their actions have caused undue stress, loss, damages, and I believe some of the actions are possibly criminal ..   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How are you doing, and hope all i well. I had posted a comment before about PNC bank, and how they have not helped me with my disputes. They actually recently reversed a {$210.00} dispute, and now I am - {$930.00}. This is ridiculous for real, these banks do whatever they want to you and your account. They charged me {$7.00} up to {$92.00} for not having positive funds. Because of their judgements I have defaulted on student loans, late on rent, and just been hard with no funds. I reported that my debit card was compromised by my nephew, and he took all those funds out my account. I reported it to PNC, and cancelled my debit card for a new one. They later said after like 2 weeks that they could n't do anything for me, because my nephew knew my pin somehow. I understand that, but I never gave him my pin and he must of seen me withdrawing money and saw my pin digits. And I never thought in a XXXX years family would do this to me too, and I filled out a police report on the matter and nothing. This is very upsetting, because I live day to day and do n't make a lot of money. Its sad to see a huge bank not help you at all, or just make their own decisions on your matters. I do n't do claims or disputes for fun or a living. I actually think its embarrassing, and upsetting you have to call your bank for this, and when you do they do n't do anything for you, but if you owed them money you ca n't let them wait or make your own judgement on the matter. They sent me latters in the mail saying the transactions were just, and the atm film too. How does that even make sense? They are not just, because I reported them to the bank as fraud. It 's only like {$1000.00} not a {&amp;gt;= $1,000,000}, and that money was for my everyday survival. It 's sad to see a bank like this not help its customers the way they should, and I think these banks get away with anything they want too and that 's not fair to us the people that keep these banks running with our money.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I opened a consumer account with PNC in XXXX of XXXX and was given a promotion that included reimbursement of all of non-PNC ATM fees  for life. '' The bank was offering that promotion because they did not have many branches in the DC area at that time. The offer seemed unusual to me, and as as a result I questioned the bank representative extensively about it. The PNC representative assured me that this could not change for the life of my account. PNC honored its contract from XXXX up until this past XXXX, when they changed its policy and started reimbursing only {$10.00} per month in ATM fees. I have spent a significant amount of time on the phone with PNC trying to get the bank to abide by its agreement but to no avail. I informed the representatives that if the bank refused to honor its contract I would file a complaint with the CFPB, but they refuse to take any action. Thus, this complaint. I do not want much - I just want PNC to live up to the offer the bank made to me in XXXX and that it honored for the 9 years that followed until XXXX.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Please consider this letter a direct dispute under FCRA. A review of my credit report has revealed a hard inquiry by Compass Bank dated XXXX XXXX, 2015 via XXXX.  I currently have an association with Compass Bank through a checking account in the name of the  XXXX XXXX ''. The checking account, ending in XXXX, was opened in XXXX 2015. Between the opening of the account and today, I have not applied for additional services or products from your company. Therefore, I believe that you did not have permissible purpose to pull credit history from XXXX or any other Credit Reporting Agency on XXXX XXXX, 2015.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX/XXXX/XXXX I was approved for a Bank of America ( BOA ) XXXX XXXX account with a leased XXXX from XXXX XXXX XXXX XXXX. Before signing the contract, the BOA representative who opened the account stated there was a Buyer 's Remorse period during which I could return the unit without fees anytime before the beginning of the first lease period, which was XXXX/XXXX/XXXX. He also indicated in multiple phone calls that my processing fees were 1.69 % plus XXXX cents per swipe for XXXX and XXXX, 2.13 % plus XXXX cents per swipe for XXXX XXXX, and a XXXX cents flat fee per swipe for all debit cards. He stated that there were no other fees and these were the lowest in the industry such as when compared to XXXX, which has a 2.75 % flat processing fee for all card types. He also stated that holding an active XXXX XXXX account would waive the monthly fees on the Business Checking account held with Bank of America. I agreed to these terms and received the unit. However, I was not satisfied with the experience, and wished to return everything before the lease began. On XXXX/XXXX/XXXX, I contacted my BOA representative and he told me to contact XXXX XXXX. I contacted XXXX, who told me my lease had already begun on XXXX/XXXX/XXXX and I would be responsible for paying nearly {$3000.00} to pay off the lease even if I returned the device. I called BOA back and told my representative, who was shocked and stated that the lease clearly should not have begun until XXXX/XXXX/XXXX and that he would speak to his manager about doing a buyback to resolve the issue. The buyback was approved, and I shipped the device to BOA with XXXX overnight shipping. However, on XXXX/XXXX/XXXX I noticed a withdrawal from my checking account for the amount of {$62.00}, labeled lease payment. I attempted to contact BOA multiple times regarding this charge, and was largely ignored until the XXXX attempt, when they said I would need to contact XXXX to get the fee refunded. I am still in the process of trying to get that fee refunded. In addition, I looked at my merchant statements for the payments I had processed, and found that I was charged many fees in addition to the fees described earlier. For example, it was definitely not a {$0.00} flat fee to process debit cards, I calculated it out to be more like 1.5 %. In addition, the statements are complicated and designed to be confusing and difficult to reconcile. Finally, I was also charged a {$29.00} monthly fee for my Business Checking account, which was supposed to be waived. When I complained about these hidden fees to BOA, they told me to contact XXXX regarding the processing fees. I feel that I was deceived and misled from the beginning that BOA XXXX XXXX would have the lowest fees in the industry, and have found reality to be completely contrary.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">On XXXX XXXX 2016, at around XXXX, I signed into my Capital one 360 checking account because I was filing my taxes and wanted to verify and insert my account number so that my tax refund will be direct deposited. I noticed that {$2500.00} had been withdrawn from my account that same day. I called the bank at XXXX XXXX and reported the issue. I told the representative I spoke with that I am not the one who withdrew the funds in my account. The representative advised me that he will stop all withdrawals from my account and open an investigation. I told the representative to hold on while I transfer {$120.00} into my joint account so I can use for gas while they investigate. The balance on my account before the withdrawal was about {$2600.00} and at this point, only {$39.00} was left in my account.   I received a call from a representative in the investigation team the next day XXXX XXXX 2016. The representative asked me a few questions to confirm my identity. The representative asked me about XXXX deposits I made on XXXX XXXX and I confirmed that I made those deposits. The representative then told me that the person who made the deposit on XXXX XXXX was the same person that did the withdrawal at a Capital one bank in XXXX XXXX, XXXX. I told the representative that what she is telling me is impossible because I am in XXXX and I have been home the whole day with my father and children. I requested the video and the representative informed me that the bank will not be giving me the video and that I will need a detective to subpoena the video. The representative requested that I go give a police report and go into a branch, scan and send my drivers license by email. I did. This was a very stressful and painful process for me and the representative made me feel like the bank was partnering with the identity thief who withdrew the money from my account. I requested that a different representative should be assigned to my account and case.   On Tuesday XXXX XXXX, 2016, I received a call from another representative who notified me that the bank has finished its investigation and concluded that I am the one who withdrew money from my account. She notified me that the bank will close my account and send me a check by mail. I was very frustrated and did not know what to do. I went online and was searching for resources that could help me. I was late on all my bills, my credit was affected, I received late penalties for my bills and was feeling very sick from XXXX and confusion. I finally called the State of XXXX Attorney General 's office and spoke with XXXX who was very helpful. He gave me some helpful links to report the issue and sent me information by email and mail on what to do in the event of identity theft.   I am very disappointed in Capital One bank and the whole process. They really made me understand that they do not care about their customers. I checked the bank website and came to know that the XXXX XXXX XXXX in New Jersey opened at XXXX on XXXX XXXX and I called the bank from XXXX XXXX at XXXX XXXX on that same day. It takes 3 hours or more from my home in XXXX to the XXXX XXXX branch in XXXX, which means it is impossible that the person who withdrew the money from the account was me, even if the withdrawal happened at the same time that the bank opened. I requested a confirmation from my phone company, XXXX, and it is being attached with this report. I am also attaching the police report and the email I sent to the investigations team. Capital One Bank should apologize to me, refund my money and compensate me for the pain and suffering they have put me through. Please let me know if you have any questions.   </t>
   </si>
   <si>
@@ -127,27 +268,60 @@
     <t xml:space="preserve">During my XXXX year of college ( about 2013 ) I traveled XXXX. I let my bank ( U.S. Bank ) know that I would be switching to XXXX XXXX XXXX for the time being, because they have a great relationship with XXXX XXXX Bank and it would be easier for me to use my money through them. And assured them I would switch back to their service once I returned XXXX.   I kept a small amount of money inside my U.S. Bank account ( as advised by XXXX the bankers when I told them I was traveling XXXX ). They did not warn me to freeze my account or to make sure that I do n't have any reoccurring charges. I understand these are things I should have checked for myself, but I was too busy worrying that everything was set up for my trip XXXX.   Once XXXX I got a reoccurring charge ( a small XXXX around $ XXXX {$25.00} ) that put me just barely in the red and overdraft. But because I was in XXXX where they did not allow XXXX or XXXX, and any mail warning would be sent to my sister 's address which had no way of contacting me, I was left not knowing about this for months. And even if I found out, the program I was in did not allow me to speak any XXXX. Once I got back from XXXX the fees had stacked on top of each other until it had reached hundreds of dollars for a simple ~ {$15.00} charge. I decided to ignore it because between college and XXXX I had absolutely no money to pay for it, and did not think I had any action I could take against such a big bank.   A couple of months ago I contacted the branch where I opened up my account and told them I was trying to get a handle on all of my debt. And that I was willing to pay it off, if they could at least be willing to work with me. The manager looked up my account, and although he acknowledged it started with such a low fee he reminded me that the event transpired such a long time ago that he was n't required to do anything.   Just a couple of days ago I got a piece of mail from XXXX saying  Good News! We have contacted our client, U.S. Bank, and they have agreed to accept a substantially lower amount to settle the above referenced account in full ''. Saying that they will accept a one time payment of {$310.00} instead of the {$690.00} that I owe them, for a charge that started off as low as {$20.00}.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I deposit checks from my phone over the internet. The bank has set a limit on the amount of money I can deposit with my phone. If I pay them {$12.00} per month more than I am currently paying them ( currently {$12.00} service fee ), I can deposit as much as I want over the internet. This makes no sense to me. I can deposit as much as I want if I walk into the bank and make the transaction. It costs them more for me to deposit funds in person ( building upkeep, heat, A/C, electricity, employees to be there whenever I decide to come in ) than to deposit over the internet. I do n't think it is right for me to have to pay the bank to give them money ( make deposits ) that they are already using interest free.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am the trustee of a trust that is being liquidated. The mutual fund company issued a redemption check that I deposited into Bank of America. B of A has now placed a hold on those funds. There is no pattern of unusual activity here - the amount of the deposit is not unusual for this account, the account has never been overdrawn, and the funds are drawn on a large and reputable mutual fund company 's account ( XXXX XXXX ). Bank of America told me that the hold was placed because the issuing bank ( XXXX XXXX ) is unable to confirm sufficiency of funds. I called XXXX XXXX and they have verified that the check CLEARED XXXX XXXX. Somehow Bank of America is not being straight with me and in the meantime is interfering with my ability to fulfill my fiduciary duties to liquidate the trust and distribute the proceeds.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have a customer at regions Bank in XXXX Georgia. I placed my daughter as beneficiary on my checking account when I open my account several years ago. My bank is in a small town everyone knows everyone my daughter went to middle and high school there everybody knows who she is. The first incident occurred the year I opened my checking account. My daughter and her husband have their own checking account at the same branch. XXXX day she came in and could not remember her checking account number they asked her for her social and it pulled up her name up on my checking account and gave her an account balance and serval bank deposit information. She had no idea that it was my account she assume that it was her and her husband 's account she was inquiring about.  I immediately brought it to XXXX XXXX attention the branch manager. I gave her the employees name and details and she saidthe reasoning for that mistake she says is when they pulled the account through this social the first screen shows her name as beneficiary so they assume that she owned the account that was her only solution. She said it would n't happen again. Now on XXXX XXXX, 2016 the same incident occurred again. I am very angry and concerned from the breach of my personal information even though she 's my daughter and down as my beneficiary she has no rights whatsoever to my checking account!  I am requesting an expedited resolution in compensation due to the fact that it was never resolved and it is still an issue and it is against the law.   </t>
   </si>
   <si>
+    <t xml:space="preserve">A bank fraud was committed on XXXX XXXX around XXXX that wiped out {$710.00} from our checking account. An SMS message was sent by Chase 's automated fraud protection at that exact moment and we immediately responded that we did not process a money transfer. Out of concern, we contacted them by phone immediately. They supposedly put some sort of bank hold on the account.  The next morning, we went into the Chase branch at XXXX XXXX XXXX, XXXX XXXX, FL XXXX to close and re-open new bank accounts. A bank officer named XXXX XXXX had us fill out paperwork ( see attachment ) and told us that our monies would be returned in 2 days max. No provisional credit was offered.  This is where everything went wrong.  XXXX - No money received from bank. This is 6 days later after reporting the fraud. XXXX re-faxed paperwork and said they would expedite payment.  XXXX - No money received from bank. XXXX passed us to a different officer name XXXX XXXX. XXXX made phone calls and told us that at a certain Chase division had not received any faxes from their branch. It was re-faxed a third time and XXXX confirmed the receiving of the paperwork and assured a quick resolution.  XXXX - No money received from bank. XXXX stated that we would have our money by the end of the day.  XXXX - No money received from bank. XXXX seemed cooperative and determined to get our money, but again nothing happened.   XXXX - No money received from bank. It is now 13 days since the bank fraud wiped our account. No apologies. No provisional credits. XXXX spoke with a different Chase Dept. who now tells her we would need to wait another 3-5 days for monies to be placed back into our account.  -- -- -- -- -- -- -- -- -- -- -- -- -- -- - I XXXX have a vast knowledge on internet security and best practices for protecting my accounts. I am not certain how this fraud occurred and Chase Security has n't been forward coming on their information.  All I know is that Chase was informed of the fraud within the hour of it occurring. Based on my immediate notification of the fraud, Federal Regulation E Section 205.11 states that I should have received my monies within 10 days. This has not happened.  My time is valuable, and I have now lost more money battling for my funds than anyone should have to endure.  Chase Bank 's Quick Pay system is to blame for this unauthorized EFT. A feature I have never used and works by sending an email to anyone you want to transfer money to. Obviously, this system is flawed and allows a non-chase bank account holder to quickly receive funds and then close their temporary bank account.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This dispute deals with Bank of America dealing with XXXX. XXXX was not able to receive a payment from BOFA. BOFA stated the best thing to do was to file a dispute to get the money back in my account and pay XXXX. While filing this dispute BOFA contacted XXXX and had a payment reversed from a completely separate account. This resulted in the account being closed and put into a delinquent status. The other account with XXXX still has not received their payment. I have contact BOFA and spoken with online chat support, fraud department, claims department, customer service. I have contacted XXXX and they do n't have a solution either, they say it 's all an issue with BOFA system.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I went into Bank of America to transfer my IRA from XXXX XXXX to Merrill Lynch.  Silly me.  The account was opened using my Social Security Number but in the wrong name,  XXXX ''. VERY SCARY. How do they ( XXXX ) get away with this level of incompetence?  See the attached letter from Merrill Edge.  For the record, my name is  XXXX ''!!!  I have talked to Bank of America, Merrill Lynch and Merrill Edge 9 or 10 times so far, to stop sending me correspondence in the WRONG NAME. Each customer service person is very nice and their claim,  I can fix this for you! . LIARS The computer still sends out notices in the wrong name despite my many calls to them to STOP sending mail in the wrong name!  HOW CAN WE GET MERRILL TO STOP, FIX OR ELIMINATE THIS SITUATION THAT THEIR INCOMPETANCE CREATED?   </t>
   </si>
   <si>
+    <t xml:space="preserve">My card was lost and there were fraudulent charges. They did a temp refund while they  investigated '' 3 days later I receive a letter saying they are reversing the refund. And are saying I owe {$250.00}. The charges were not made from me. The rep advised there was no need to file a police report as the only thing missing was the card and they had issued a new card.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I opened up a checking and saving account with Key bank in XXXX Washington, on XXXX XXXX 2016. I was told by the teller she has order my debit card and checks the day of opening. And that it would take XXXX 10 business days to arrive to the bank. I was called on XXXX XXXX to pick up Checks. I thought I would be picking up my debit card as well. When I went to go pick up my checks there was no debit card. I was then told by another teller that my debit card was never ordered. I request for a manager to give me a call back. But the manager never called me back to check on my concern. Then 3 days later an ATM card was issued to me that did not help with any thing but accessing my funds from an atm. At this point I never received a call from the manager to express no concern. Today is XXXX XXXX 2016 and I have not received a debit card. There was no concern shown for me nor any express of apology shown for the inconvenience about me no receiving my debit card.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I recently realise on my Best Buy c.c. That i been charge beside monly interest for payment protection incurance. I seen it years ago but i was new credit card holder and dint know much how it works ( i have best buy c.c since XXXX ). Anyway i disade to call casumer service and ask ( XXXX/XXXX/XXXX ). Thay explai that i am paying that just in case i am not able to pay min montly payment they cover it ... I dont think so i ever sing up for that service and i ask for refound ... She submite a claim form and i should have answer by 30days. I logg in today and saw refound of XXXX $ and XXXX $ ( Only ). I call again and have answer that i been charge for last tree months only and i have my refound back! Answer was i been charge for last tree monts only and i never been charge before! ( i dont know why would that seriuse company resove a problem with a lie ) .i been charge for a years for that service, and i want refound for every pany i payed without singing on and knowing that i been chrge for something that i never use or knowing what is it! Also i see that they change my acc # last year before change my acc # was ending XXXX   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Dear CFPB, I tried to file a  dispute '' for  bank partially addressed my issue '' yesterday, XX/XX/2016, but the  submit '' button on your web site just whirred around, and my  dispute '' was not submitted to your site.  The bank president was kind enough to reply to my original CFPB complaint,  I do appreciate his letter  calls. However, I am at my wit 's end, because I have not had a debit card that actually works for five weeks now. The bank originally sent me a  chip  pin '' bank card XX/XX/XXXX ; however, I have had one problem after another with it. I was reassured on XX/XX/XXXX by the bank 's customer service center in XXXX XXXX that a brand new chip  pin card  with the correct expiration date '' of  XX/XX/XXXX '' was mailed to me  on XX/XX/XXXX from XXXX. '' However, it is now XX/XX/XXXX,  I never received the corrected bank card. I asked the bank today for their XXXX address, so that I could put a tracer on the lost mailing/lost card with the U.S. Postal Service. I was told by XXXX XXXX,  they do not have any of the addresses for their card processors. '' The bank has given me XXXX different expiration dates for my debit card in a month 's time :  XX/XX/XXXX, ''  XX/XX/XXXX, ''   XX/XX/XXXX. '' An employee at the XXXX XXXX, XXXX bank branch confirmed that  XXXX '' is the correct expiration date showing in their computer system. However, my physical debit card reads,  expiration XX/XX/XXXX. '' The bank president left a message for me on XX/XX/2016, saying there was a pin problem with my chip  pin card,  that the problem had been corrected in the bank 's system. However, my card was denied, once again, by a local merchant on XX/XX/2016,  due to a pin problem. '' I called XXXX XXXX again,  they said,  yes, there is still a pin problem with your card. '' Since I never received the corrected chip  pin card, the bank is mailing yet another new, corrected debit card to me. However, the bank said today I would not receive the card for about 7 days, which means next week.  In addition, there is yet another problem with my chip  pin card : the bank changed my card number on the physical card that they just mailed to me, but they will not give me the new card number over the phone.  So, I have no idea what my new account/card number is,  I can not give that number out to any of my automatic deduction companies or to any merchants. I was told by a supervisor at the XXXX XXXX customer service center tonight,  we are not allowed to give out any card numbers over the phone. '' This is even though : my full name was showing on the caller ID, I provided all account information including pin, I provided my date of birth,  I provided my mother 's maiden name. I talked to XXXX different bank employees today, but none of them were allowed to give me the new bank card number  for security reasons. '' I need a bank card that actually works  ASAP. '' It is not safe in this area to run around with wads of cash ; for example, I purchase all prescriptions for my mom,  some of her prescriptions are expensive. Adding to my dilemma : some local merchants in this area no longer accept checks.   </t>
   </si>
   <si>
     <t xml:space="preserve">Visited the Wells Fargo Bank at XXXX XXXX XXXX. XXXX, Georgia XXXX to cash a check in the amount of {$120.00}. The check was drawn on the Wells Fargo Bank. I was asked to present XXXX forms of ID and a  Thumb Print '' on the check. After a few minutes, I was then asked if I had an account at their bank. I told them that the check was drawn on their bank and that I was doing electronic work for the owner of the checking account. The bank told me that there was a {$7.00} dollar charge for cashing this check, and if I opened an account, there would no charge to cash the check. I am XXXX years old and I did not like the high pressure tactics used to get me to open an account at the Wells Fargo Bank. No signs were displayed anywhere in the Bank to let the public know of their policy and charges for non customer check cashing. Just the high pressure sales pitch!   </t>
   </si>
   <si>
+    <t xml:space="preserve">chase checking XXXX charged XXXX XXXX {$34.00} without authorization for overdraft. chase calls this overdraft insufficient funds. it is not insufficient funds. it is overdraft. XXXX XXXX never authorized overdraft. XXXX XXXX never authorized insufficient funds. the difference is insufficient funds is when i write a check more than the available. overdraft means an outside agent tries to take money that is not available. the difference between overdraft and insufficient funds is that overdraft involves a third party. XXXX XXXX never authorized a third party to take money from his checking account. therefore there can be no authorized overdraft fee. what chase is doing is doing overdraft but calling it insufficient funds to make it appear that XXXX XXXX is to blame. in fact the third party is to blame. XXXX XXXX has complained about this particular problem many many times. chase does not have any permission anytime to overdraft the checking no matter who or what the reason. i will not pay this {$34.00} and if chase refuses to take back this {$34.00} overdraft fee then XXXX XXXX will sue chase. this is a flagrant example of chase stealing {$34.00} by calling overdraft insufficient funds.  XXXX/XXXX/2016 Fee INSUFFICIENT FUNDS FEE FOR A {$200.00} ITEM - DETAILS : XXXX XXXX XXXX XXXX WEB ID : XXXX {$34.00} ( {$200.00} ).  respond to this complaint in a word document. DO NOT REPLY IN A PDF FORMAT BECAUSE CHASE INTENTIONALLY REPLIES IN UNOPENABLE REPLIES. CHASE IS A CROOK. CHASE BUYS OFF XXXX PARTIES TO TAKE ADVANTAGE OF EACH AND EVERY SITUATION. IF CHASE LOSES MONEY CHASE TURNS TO THE XXXX XXXX ITS PARTNER BECAUSE CHASE IS TOO BIG TO FAIL. I AM DISGUSTED WITH XXXX PARTIES BEING BOUGHT OFF WITH BRIBES BY CORPORATIONS TO STIFLE COMPETITION. WE NEED THE OPPOSITE OF XXXX WHICH MINIMAL REGULATION IN THE MARKETPLACE WHICH WAS SUPPOSED TO PREVENT STIFLE COMPETITION. THERE IS NO COMPETITON AND WE NEEDTHE GOVERNMENT TO DEFEND US FROM STIFLED COMPETITION.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate of Deposit purchased from XXXX National City Bank- XXXX, six month certificate, amount {$10000.00}. Recently discovered among other bonds and certificates. I have the original, signed by the bank, and have never redeemed it. PNC purchased National City, to include all holdings, in XXXX. They are refusing to redeem my certificate of deposit because their  records only go back 7 years ''. I informed them I could produce tax records with statements, no XXXX 's or records of them paying at time of acquisition. They stated,  does n't make any difference, going by our 7 year rule, I will not receive my money/redemption ''. HELP.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have an Executive Global Banking Account at Citibank.  In XXXX XXXX, trying to use internet banking, I note that my account was blocked without any notice. Since then, I have call the bank several times and they always tell me that my account manager will call me back, but she never calls. At XXXX XXXX I spoke with my account manager assistant, who told me that the bank was  evaluating '' my account and the will let me know the conclusion shortly. Since then, I have send several emails to my account manager and her assistant without any response, but every month the bank charges me the management fees to my savings even when I cant make any financial operation with my money. Literally, the are stealing my money.   </t>
   </si>
   <si>
     <t xml:space="preserve">I am filing this complaint against Bank of America due to fraud. I obtained a Line of Credit against a property in XXXX 2008 in the amount of {$100000.00}. At closing, I was given XXXX disbursements payable to XXXX XXXX for {$10.00}, XXXX and {$8500.00} for a total of {$19.00}, XXXX. The CreditLine Balance on XXXX XXXX, 2008 was {$25000.00} plus closing fees of {$10.00} for a Total CreditLine Payoff amount for {$25000.00}. I have been making payments of almost {$300.00} a month since. I received a letter last month stating that my payments would be going up to an estimated {$840.00} a month for 180 months. I spoke with a friend of mine and told him that I only owed {$20000.00} on my line of credit and that I should have paid it off by now. He asked me to fax him my closing documents and called me back saying that I was paying on a {$100000.00} and not {$20000.00}. He told me to go immediately to a local Bank of America Branch which I did. The woman at the bank said that she saw where I received {$19000.00}. I said that I did receive that but where was my other {$74000.00}. She said she did n't see any other disbursements listed. She then took me to another office where she called the fraud office for B of A. The lady on the phone told me that a forced advance transfer was conducted at a Bank of America the same day of my closing. It was for {$74000.00}, check # XXXX at Bank of America Plaza XXXX # XXXX. She gave XXXX fraud hotline numbers to call and file a complaint. I called and let them know what I found out which was XXXX XXXX and that money had been stolen from me years ago without my knowing it. I was just paying on it monthly without realizing. I received a letter via email 2 days later on XXXX XXXX saying that they conducted a thorough investigation of my claim and that Regulation Z provides a 60-day reporting period and that I waited too long. I did n't know but how can they just dismiss the fact that someone from the bank stole my money and that discrepancies in the paperwork was not caught by the auditing department or was not reported to the federal government. I know that many laws have been broken and because I have been paying monthly, makes this ongoing fraud. All I asked for was to find the money. I would like copies of documents used in the fraud/copies of all documents relating to my missing money, individuals involved, etc. from Bank of America. I am a customer so how can they just dismiss me when there is {$74000.00} missing. Please send this on so that I can get some help.   Thanks.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I went to the citibank branch at XXXX XXXX in, nyc to open a secured credit card.The manager processed the paper work and in informed me it takes three weeks to go through.I was told after that I would receive the card in the mail.  Three weeks later i did not receive the card, I called the bank and was told my application was lost, Now this is showing up on my credit report as a hard inquiry .I declined doing any further business with them after they lost my application.I want this removed from my credit report. thank you   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I signed up for and began using a new US Bank checking account in XXXX XXXX. I was mostly pleased with the service. However, recently, I have noticed that I am being charged fees that I did not originally agree to when I signed up for services. I have contacted US Bank regarding these illegal fees, and they have chosen to ignore my messages.   To prove my point, I have uploaded images of the account sign up process, including all account agreements and pages wherein one signs up for an account, opts out of  overdraft coverage '' and enrolls in the  overdraft protection '' service. I uploaded the contents to a website currently under development, XXXX Such a comparison is probably too nice, however, because XXXX XXXX actually disclosed his fees in the agreement fine print ; US Bank, however, did not.   Inside the overdraft section of the account agreement it states :  ATM and Debit Card Overdraft Coverage : Certain accounts are subject to a consumer 's election/choice to opt-in to receive ATM and Debit Card Overdraft Coverage. '' ...  If you do not opt-in, we will not authorize payment of an ATM or everyday ( non-recurring ) debit card transaction that could result in an overdraft status. In limited circumstances, your ATM or every day debit card transaction may be processed and your account results in a negative available balance, even if you have not opted-in to overdraft coverage for these transactions. These situations may include, but are not limited to, debit card transactions that post that are processed by the merchant when the merchant does not first obtain an authorization from U.S. Bank. If this situation occurs, you will not be charged an Overdraft Paid Fee for paying the transaction if you have not elected to Opt-In to ATM and Debit Card Overdraft Coverage. '' The  overdraft solutions '' section of my online account has always stated that I have been opted out of  overdraft coverage '' this entire time, yet they have charged me several overdraft paid fees for ATM check ( debit ) card transactions.   Reviewing the entire account agreement does not reveal that the account owner must pay a {$36.00} overdraft paid fee ( when fully Opted Out of overdraft coverage and opted into overdraft protection ) for ATM and everyday check ( debit ) card transactions. The  overdraft protection '' section in the account agreement does not state that enrolling in  overdraft protection '' automatically enrolls one into or overrides the account owner 's  overdraft coverage '' choice, either.   After signing up for an account, if one  opts out '' of overdraft coverage and signs up for the  overdraft protection '' service ( XXXX ), they are led to believe that doing so will completely avoid {$36.00}  overdraft paid '' fees for ATM and everyday check card transactions. Under the  Overdraft Protection '' and  Opt-out '' columns in the  How much does it cost? '' ( XXXX ) row, no {$36.00} overdraft paid fees for ATM and everyday check ( debit ) card transactions are mentioned. It does, however, mention such a fee in the leftmost  Opt-In '' column for overdraft coverage. It is reasonable to infer that US Bank specifically chose to avoid mentioning the {$36.00} overdraft paid fees for ATM / debit card transactions in the  overdraft protection '' column as doing so would most certainly deter a large number of people, including myself, from signing up for the service.   However, avoiding mention of these fees is certainly illegal as they are not outlined anywhere during the account sign up process, account agreement or  overdraft solutions '' section.   Thus, it took me by complete surprise ( as it should have ) when I incurred XXXX {$36.00}  overdraft paid '' fees on XXXX XXXX after an {$85.00} charge was attempted on my debit card   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear XXXX XXXX.   I am writing to you in regards to unsatisfactory resolution on the above mentioned disputed item on my M  T Debit Card.   On XXXX XXXX, 2016, I attempted to make a purchase with XXXX. The transaction was declined for insufficient funds ( copy of decline enclosed ). A few days later, when reviewing my account online, I noticed the charge had posted to my account. I immediately contacted your Call Center and filed a dispute against the charge. I was issued a conditional credit while the investigation was conducted. On XXXX XXXX, I received a letter from the Disputes Department asking for supporting documentation, which was provided and immediately returned.   On XXXX XXXX, I received a letter advising the dispute and been reviewing and was placed in the favor of XXXX and the credit was reversed on XXXX XXXX. That same day I contacted your Customer Service Group XXXX to discuss the transaction. I first spoke to a Representative, XXXX and finally had to ask for a Supervisor, XXXX. XXXX advised they would work with XXXX from the  Back Office '' and for me to also contact XXXX, this call lasted for XXXX minutes. Following his instructions, I contacted XXXX at XXXX XXXX ) XXXX and spoke to XXXX, which was a Call Center in a XXXX Country. She indicated an Account Specialist would contact me to resolve my issue. I received, the enclosed form, which had no bearing on the purpose of my contact.   On XXXX XXXX, I once again contacted your Call Center and spoke to XXXX, a Rep and then to XXXX, a Supervisor, and finally to XXXX another Supervisor. XXXX advised me that this case is closed with M  T and that there is nothing that the Bank can do to help me with this issue. As I have indicated to each person I spoke with, I received a decline letter and no merchandise was shipped to or signed for by me at my address. I work for XXXX XXXX, Monday through Friday from XXXX until XXXX and your Disputes Department indicated I signed for this package. I am a single person living in a single family Home. I have asked for that  signature '' to be compared to my Signature Card on file with the Bank, and no one wants to take ownership for this issue. I ca n't absorb this {$1100.00} and subsequent Overdraft Fees that have occurred. I work very hard for my money day in and day out and other transactions, Utilities and Insurance Premiums have been returned and OD Fees charged to me as a result.   I spoke to a friend over the weekend that works for XXXX XXXX XXXX XXXX and she indicated that this could be returned to XXXX as a  Good Faith Collections '' item?!?!   I am looking for your personal interaction to please help resolve this issue and plead for mercy.   I have been charged XXXX indvidual NSF @ {$38.00} for this transaction   </t>
+  </si>
+  <si>
     <t xml:space="preserve">PER THE SAVINGS ACCOUNT XXXX WITHDRAWALS FUNDS LIMIT OF XXXX WITHDRAWALS FROM SAVINGS ACCOUNT PER THAT PERIOD OF ENDING BANK ACCOUNT STATEMENT.  PER FROM XXXX XXXX, 2016 thru XXXX XXXX, 2016. I DID HAVE XXXX WITHDRAWALS FROM MY SAVINGS ACCOUNT. BUT THE BANK FEE FOR THIS SHOULD BE ONLY {$3.00} AS A {$3.00} FEE CAN BE CHARGED FOR THE NUMBER OF SAVINGS ACCOUNT WITHDRAWALS OVER THE BANK LIMITED OF XXXX PER BANKING STATEMENT PERIOD.  ADDITIONALLY, THE BANK SENT AN EMAIL THAT THEY WILL CHARGE A FEE OF {$10.00} PER OVER THE XXXX LIMIT OF SAVINGS ACCOUNT WITHDRAWALS, ( IMPROPER BANKING FEES PRACTICES ) THANK YOU.   </t>
   </si>
   <si>
@@ -175,6 +349,18 @@
     <t xml:space="preserve">Today, I attempted to receive service at the Wells Fargo branch at XXXX XXXX XXXX XXXX XXXX XXXX, NV XXXX, inside of the XXXX 's shopping center at about XXXX on XXXX XXXX, 2015.  My XXXX mother in law asked me if I could go into the Wells Fargo bank and get change for a {$20.00} bill, as we had just dropped her dog off at a 'cash only ' groomer ; to which she did not have correct change for.  After observing the line and unable to quickly identify available seating for her, I sat her in a seat at the XXXX outside of the entrance, then I waited in line until a teller became available. The XXXX teller I worked with advised me he could not change my {$20.00} bill, unless I held an account with Wells Fargo.  I returned to my mother, and explained what occurred. She quickly handed me her ATM card, proudly stating that she has an account from her many years of service with Wells Fargo ( recently XXXX retiring, due to her XXXX only a few years earlier ) and asked me to return, while she continued to wait in her seat. I returned the bank, to wait back in the line as I was instructed. When a teller called me over, I presented the Well 's Fargo card I was asked to, so I could get change for my same {$20.00} bill. This teller appropriately asked for my mother in law ( as it was her account ), to which I advised she was near by, but was sitting as she is XXXX. The teller again reiterated that I would be unable to get the change unless I personally held an account with Wells Fargo. I then asked the teller if I was account holder with the bank would I be able to use the same {$20.00} bill I was presenting to obtain change? The teller advised me that she could, without issue. I then asked if my money held any value to them, being that I am not a current member of the bank. The teller clearly advised me that it does not. I then asked for her business card, as I was not happy with her explanation of the value of my money. I was receiving treatment as a XXXX class citizen, who 's money holds no value outside of the Wells Fargo. A XXXX teller quickly intervened, and advised me the same - that my money does not hold any value in his/the banks eyes, unless I personally have an account with Well Fargo. He then provided me his business card, as I left.  Are these deceptive practices in place to manipulate the public into opening accounts with the bank?  Would these same policies apply if I was a 10 year old child, who saved money in my piggy bank, and wanted to feel as an 'adult ' by placing a {$10.00} bill in my wallet, instead of carrying a change purse? I understand that I am not a 10 year old child, instead I am an adult, who holds many bank accounts at multiple other institutions, who was just simply trying to assist my XXXX mother in law as requested.  Luckily, I was able to go to the XXXX ( where my mother in law was sitting, as there was not seating clearly available for her at the Well 's Fargo branch for her to sit ) and they graciously assisted me in obtaining my change without any confrontation.  I found it entertaining that as we were leaving the store, I observed a young child ( about XXXX years old ) with his mother, asking the man servicing the XXXX XXXX machine outside of the bank entrance, if he could make change so that he could by a small trinket from the vending machine. The man at XXXX XXXX quickly accommodated the child, unlike Wells Fargo was able to accommodate me because my money according to the teller 'has no value '.  The name of the XXXX teller I worked with ( who in clear direct terms advised me my 'money holds no value with the bank, unless I hold an account with Well Fargo. ' just as the XXXX teller had advised me ) was XXXX XXXX Lead Teller.  I do not fault the associates for following the rules of the branch, though their lack of empathy, and the banks seemly deceptive tactics used to lure new cust   </t>
   </si>
   <si>
+    <t xml:space="preserve">I had an overdraft fee of {$100.00} just about for TDBank. I go to open an account at XXXX Bank and I am denied due to the fact the back closed the account which I knew but hadno idea that it would go to a collection agency. Then I had paid it off and went to open the account because I was told that TDBAnk was only holding my account through their Credit systems and it would be clear. Well I went the next day to open my account and still could not. I need this account for my new job and it is very important. How can I fix this problem as soon as possible?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Sir or Madam, While checking my personal credit report, I noticed an unauthorized and fraudulent credit inquiry made by AMEX. I did not authorize anyone employed by this company to make any inquiry and view my credit report. AMEX has violated the Fair Credit Reporting Act Section 1681b ( c ). They were not legally entitled to make this fraudulent inquiry. This isa serious breach of my privacy rights.  I have requested that they mail me a copy of my signed authorization form that gave them the right to view my credit within five ( 5 ) business days so that I can verify its validity and advised them that if they can not provide me with proof that I authorized them to viewmy credit report then I am demanding that they contact the credit bureaus immediately and have them remove the unauthorized andfraudulent hard inquiry immediately. I also requested that they remove my personal information from their records. in case it is needed to locate the fraudulent inquiry in their system.  I then asked them to please send me written confirmation that they have complied with my requests and advised them that their failure tocomply with my requests within five ( 5 ) business days will be my evidence used in Federal Court of their willful noncompliance [ 15U.S.C. 1681n ] and that I will be seeking statutory damages, punitive damages and the cost of the action and reasonable attorney feesfor each and every fraudulent inquiry.  Please do whatever is in your power to ensure that AMEX complies with my requests and to avoid other Consumers fromexperiencing the same kind of abuse of their privacy rights.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing or Collection Issues - The company has processed an unauthorized bank debitProblem : i get my ss money thur direct express debit card on XX/XX/2015 @ XXXX i went to atm my card was declined, @ XXXX i called bank, was told on XX/XX/2015 someone in XXXX fl, request change address and a new card in my name, it was sent out, on XX/XX/2015 in XXXX transactions my acct, was wiped out, i want this company to give me my money back,,, i have filed police report wth XXXX city police, XXXX XXXX @ XXXX report # XXXX, went to ss office had them change to another bank so on XX/XX/2015 my money will go into new act,, the direct express card was, closed, i filed on line police report wth XXXX police dept, also, also filed fraud wth federal trade commession, ref # XXXX, and credit agency.and filed wth idenity theft resource center, ,please help if you can,,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bank of New York Mellon offers a Heath Savings Account. On their website they provide Electronic Funds Transfer to make deposits into the HSA account electronically from your bank or credit union. I made an EFT deposit into my HSA using the Bank of New York Mellon HSA website on XXXX XXXX, 2015. My personal bank account was debited on XXXX XXXX, 2015 for the amount. As of today, XXXX XXXX, 2015, my HSA Account at the Bank of New York Mellon does not reflect the EFT deposit despite the fact that they have had the funds for XXXX days.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">My Chase bank account ending in XXXX was closed by Chase, even though I have had no problems with my account and had very good relations. When I called to understand why my account was closed, they said they could not give me an answer. I even went to the Chase Bank that I always do my banking at and they also could not get any information. I sent a letter to Chase headquarters and a woman who worked there called me. I thought for sure I would get an explanation of why my account was closed, to my dismay it was not. I believe it is because I am a XXXX of XXXX XXXX that they closed my account. I know of numerous people that the same happened to them. They were all either XXXX or XXXX or both.   </t>
   </si>
   <si>
@@ -187,6 +373,9 @@
     <t xml:space="preserve">I wrote a check for {$220.00}, and Wells Fargo posted the check for {$2200.00} which overdrafted my account by {$1700.00} and left me with bills to pay and just a few XXXX in my bank account. They told me there was no recourse I could take and that it would be XXXX days before I can get my money back, even though this was by no fault of my own. I am now left to live on {$150.00} for however long it takes them to fix this error.   </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX XXXX, 2015 Citibank processed a charge against an expired debit card on my account for XXXX of {$47.00}.  While the charge was shown as pending I called and notified Citibank and spoke w/ a representative named XXXX and a supervisor named XXXX XXXX  Although I notified them that the transaction was unauthorized and made against an expired credit card the Citibank representatives said that since the transaction was done by an automatic payment system all the Merchant needed was the card number and that Citibank did not require an expiration date for the card nor a security number.  All that Citibank would do in response to my complaint would be to issue me a new debit card and process a dispute. The charge would remain against my account.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">ComplaintDescription of the complaintMy name is XXXX XXXX. Suntrust took XXXX dollars from me and then refunded it saying that it was a bank era for overdraft protection. Two days later they took XXXX dollars from me although I had XXXX in savings. They refused to refund my money! This is not the first time I have had a problem with suntrust for the same reason. They told me that my savings account was. Loses due to federal regulations and then turned right around and said that all of my money was in savings. What savings account? I went into a branch soon after and withdrew all of my money and had to close my savings account even though they told me it was already closed. This bank is a scam. The only way they make money is by charging you unnecessary fees. This bank has taken my money several times for overdraft and every time I have been refunded I have requested that I be signed up for protection and no notes In there system for it. This bank is draining me and they offer no assistance! Can you please help me?   </t>
   </si>
   <si>
@@ -199,6 +388,15 @@
     <t xml:space="preserve">On XXXX XXXX, 2015, someone withdrew {$1000.00} from my Citibank account at an ATM. It was XXXX withdrawal of {$500.00}, XXXX of {$200.00}, and XXXX of {$100.00}, all within about XXXX minutes. I did not make the withdrawals, nor did my sister, who is my joint account holder. We discovered the withdrawals the next day and made a fraud report. The withdrawals were done using my ATM card number and PIN, but I had the card with me at all times. I believe someone created a counterfeit card from skimming my information from, most likely, a gas-pump card reader. Or perhaps it was an inside job. Citibank made an investigation and informed me XXXX XXXX that my case had been  resolved '' -- they told me the money would not be restored because I had the card in my possession and because the activity was  consistent '' with my normal banking activity, which I can assure you it is not. I appealed and they reopened the case ; at this time I also made a police report. Citibank then informed me XXXX XXXX that the case had been  resolved '' again, and stood by its original decision not to restore the money. I appealed again, but was told XXXX XXXX, XXXX more, that the money would not be restored.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Since the government has now changed the rules regarding transfers of IRA 's from XXXX financial institution to another in deference and accommodation to the banks, it has become much more cumbersome and time consuming to accomplish this task. It has taken two months to get {$87000.00} from XXXX XXXX to Synchrony Bank. It was only my irate phone call to Synchrony this morning that the money was miraculously  found ''. When we were allowed to pick up the check from XXXX institution and deliver it to another, things always went smoothly. THE NEW SYSTEM IS NOT WORKING AND IS DESIGNED SO THE FINANCIAL INSTITUTIONS CAN LOSE YOUR MONEY FOR A MONTH AND A HALF AND THERE IS ABSOLUTELY NO ONE YOU CAN SPEAK TO THAT CAN GIVE YOU DEFINITIVE ANSWERS ON ANYTHING, UNLESS YOU WERE WILL TO SUBMIT TO THEIR EXCESSIVE FEES FOR ELECTRONIC TRANSFERS. PLEASE HELP CHANGE THIS SYSTEM BACK TO THE WAY IT WAS!!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX XXXX account balance was XXXX. ACH payments of XXXX and XXXX came in. Bank paid XXXX and charged my account.. I want that fee refunded. I am not asking for a courtesy refund. This is a bank  flaw '' in their system.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wells Fargo put a hold on a deposit for 12 calendar days, and refuses to change this to a more reasonable amount of time.   When I called the Customer Service number, I was told that this was  to protect my account '' and that it was because I had a number of NSFs ( which is due to WF 's creative bookkeeping ). I said that I understood holding the check to verify the funds from the paying bank, but twelve days is excessive. The CSR was unable ( and sounded unwilling ; she was very snippy ) to help me and directed me to visit a branch, which is impossible since I live in a XXXX Wells Fargo branches ( the nearest one is a XXXX XXXX XXXX ). I phoned WF branches in my hometown where the account was opened, and both times the bankers have been busy and no one has returned my call.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I received a money order from a tenant and misplaced it for over one year, but it was not three years old. It was purchased through Money Gram Money orders. Money Gram claims that it is no longer any good and needs to be reissued for a large fee. I understand that a money order in the state of Texas is not abandoned unless it three years old from the date of purchase under the Texas Property Code, Chapter 72 Sub chapter B page 4. It appears that Money order companies makes the own rules and regulation that does not coincide with state and federal laws to rip off consumers because of misfortune of an accident.   I called Money Gram and they want a large fee to replace it. A fee had already been paid to purchase it so why would they not honor their check. Money Gram States on the back of their check, Not good after one year from date of purchase. There will be a non refundable service charge will be deducted from the face value of the check to be assessed where not prohibited by law.   I called XXXX XXXX who the check was drawn on. They could not help. I called the Federal Trade Commission and they directed this matter to this office.   </t>
   </si>
   <si>
@@ -208,18 +406,39 @@
     <t xml:space="preserve">Funding suite/ XXXX located at XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX, Ca XXXX # XXXX entered a credit report inquiry on my XXXX and XXXX XXXX credit reports and upon contacting them, they could not find it, and I told them it was due to someone trying to attain credit fraudulently and I did not authorize the inquiry.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I found a credit inquiry on my XXXX credit report from XXXX. After doing some checking I found out it has to do with Paypal. I do have a Paypal account but have never asked for any type of credit card or account with them. This inquiry was done completely without my knowledge and/or consent. It brought my rating down by XXXX points.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was charged a {$36.00} NSF charge for an item to posted and my account did not have an negative posted balance. I was told it was because I had items pending that is still pending as of today XXXX/XXXX/15 and the transaction posted to my account on XXXX/XXXX/15.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i had a laptop for sale on XXXX, this dude sends me a email regards to the laptop. He tells me that hes out of town and needs is as soon as possible. He tells me hey ill send u a check and cash it ill send u some extra cash so you can send it to me and pay the cost to have it here the next day. i was like okay? thinking i never have done anything like this so i go to my bank deposit the check a couple of days later my account was closed and ever since ive been tring to get this fix as soon as possible and i have no leads on anything.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I was charged XXXX {$35.00} overdraft charges which I feel are not due to my error but rather the banks. My bank has a Bill Pay Service which I use for various debits XXXX of which was my monthly rent which I indicated to be paid XXXX/XXXX/2015 since my deposit would not go in until that date. The bank Bill Pay Check dated XXXX/XXXX/2015 was posted on XXXX/XXXX/2015 creating an overdraft since the account balance at that time was {$380.00}. The XXXX overdraft fee was charged due to an {$20.00} debit also on XXXX/XXXX/2015 at which time there was {$380.00} in the account, however, due to the bank 's accounting method it posted  after '' the {$950.00} debit. There were XXXX other debits posted on XXXX/XXXX/2015 but these posted prior to the {$950.00} debit. This policy seems to me to be selective and inconsistent. Enclosed is a copy of my bank statement and letter to XXXX of XXXX   </t>
   </si>
   <si>
+    <t xml:space="preserve">My name is XXXX XXXX and I have a check systems claim from JP Morgan Chase Bank on my check systems report for an old checking account I had with them In 2010 that was comprised due to identity theft. They sent me XXXX misc this year to forgive the amount they cclaimed was over drawn but they still have me in check systems for fraud. Someone stole my debit card and attempted to deposit stolen credit card checks into my account I made a police report and they still closed my account and now I ca n't open an account anywhere. Pleas help with this thanks   </t>
+  </si>
+  <si>
     <t xml:space="preserve">On my online bank statement, I have a pending transaction at the top of the page, then XXXX overdraft charges, then a check that shows as cleared with a positive balance. They 're charging me an overdraft fee both for the pending transaction, and XXXX for the check that cleared ( in the past ) with a positive balance.   </t>
   </si>
   <si>
     <t xml:space="preserve">As of XXXX XXXX of my checking accounts had a balance of $ XXXX XXXX a XXXX XXXX debited {$18.00} from that account leaving a balance of negative {$15.00}. The same day, after work at about XXXX, I went directly to a TD Bank ATM and deposited enough cash ( {$16.00} ) to cover the negative balance. I received a receipt dated XXXX with a current and available balance of {$0.00}.   The following day I checked my account to find that:1. TD Bank assessed a {$35.00} overdraft fee2. TD Bank returned the XXXX transaction ( as if it had not been covered by the deposit ) 3. TD Bank dated the cash deposit XXXX not XXXX despite it being just $ XXXXMy understanding of TD Bank 's own funds availability policy is that any deposit made before XXXX will be credited the same day, and any deposit made after XXXX will be credited the following day. However, the policy also clearly states that the first {$100.00} of the deposit will be  made immediately available ''. And that was reflected on my receipt dated XXXX where the deposit was applied toward the account balance. However, TD Bank 's actions on XXXX suggest otherwise.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Monday, XXXX XXXX, XXXX Honorable to FDIC officials : Please forward emergency requests to XXXX. Senators : URGENT EMERGENCY CONTACTS WITH XXXX XXXX XXXX XXXX AND XXXX XXXX : I write in complaint against Bank of America that discriminates against me with overdraft checking account. I am not happy with Bank of America that Bank of America made harmful discriminates against my XXXX and appearances in horrified addresses as they insult XXXX XXXX XXXX in ugliest appearances that Bank of America does not allow XXXX XXXX XXXX entered in their bank because of overdraft discrimination, so they insulted me in more overdraft discrimination. Again, I was not happy with Bank of America because of my overdraft history continually. I complain with overdraft records at Bank of America continually telling to XXXX Attorney assistance with XXXX XXXX XXXX in coping problems.  Please assist me of XXXX XXXX in cope problem with Bank of America requests through male Attorney helping me with finding funds should go deposit cover up overdraft complaints to be requiring assistance XXXX XXXX XXXX along with Male Attorney in seriousness matters in law requests.  In requiring law applies to XXXX XXXX XXXX must having a male attorney assistances with banking issues that I need helping requests with banking addresses in serious matters. Please requires applying to male attorney investigates on my bank account finds out overdraft records that they uses discriminates against me with XXXX as Bank of America does not like me having banking account because of overdraft periods.  Please take this letter to Male Attorney requires taking me to investigates with Bank of America requests according to the law requirement to make deposit amount cover up overdraft fees. I do not have any extra money for deposit that I am having lot of stuck with no funds for deposit continually.  I do n't like XXXX Apartments involved my political letters and stay away from XXXX Apartments that I do not like participate XXXX Apartments as I do not want reside at this bad housing at XXXX XXXX Apartments that they made me in baby diapers. They called me in sick and dumbest gentleman messages telling to XXXX. XXXX and XXXX XXXX.   Please share with XXXX. XXXX and XXXX XXXX help me out with banking discrimination report to Male Attorney in XXXX XXXX deals with me in coping problems.   Sincerely, XXXX XXXX XXXX XXXX XXXX XXXX # XXXX, XXXX, OR XXXX   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I attempted to open a bank account with Wells Fargo and was denied. I was advised that my denial was based upon a reporting to XXXX by XXXX XXXX XXXX. I asked if it was reported to XXXX because I have monthly alerts from XXXX and there is no record of XXXX bank on my credit report. The Wells Fargo representative stated that it was not XXXX because if it was I would still qualify for a XXXX chance account. He gave me a paper to contact Experian and was certain that the reports to the credit bureau was the reason for my denial. I pulled all XXXX reports and there is nothing reflecting XXXX bank. May I please know the accurate reason why I was denied an account so I can attempt to resolve the issue?   Thank you.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Synchrony Bank, with offices in New Jersey, held onto my matured CD for XXXX calendar days past the maturity ( XXXX/XXXX/15 ), even though I had notified them on XXXX/XXXX/15 that I wanted to cash out and have the funds sent by ACH transfer to my local bank, which they had on record. On the maturity date ( XXXX/XXXX/15 ), I again called to make sure that their  back office '' was paying attention to this order. I was told at that time that the  back office '' would not even begin to process the cash-out until the NEXT business day which was XXXX/XXXX/15. I called again on XXXX/XXXX/15 and was told that the request was  in process ''. I called again on XXXX/XXXX/15, as the funds had not been received AND my CD showed as renewed on their website. I asked to speak to a  supervisor '' on this call. After a few minutes on hold, the  supervisor '' came on the line and said that she had just spoken with the  back office '' about my case and that the funds would be ACH 'd out that day and in my bank  tomorrow '', XXXX/XXXX/15. I questioned her closely about the  tomorrow '' promise, as I had experience with their ACH process in the past and I would expect NOT  tomorrow '' but the next business day, XXXX/XXXX/15. The  supervisor '' doubled down on the  tomorrow '' promise. When I asked if that was her story, her answer was  that 's my story. '' Of course, she was WRONG, either lying or ignorant of their ACH process. I 've set up many ACH debits and credits in my business career. The batch date, transmission, date, and effective date are all in play, with the effective date as the date it 's hits the other bank account. This date can be set for the next day or even the next week. This is what these guys do to further delay the funds leaving their account. Also, if their transmission is too late in the day, then the actual effective date can not be the next day, simply because of the late transmission. The funds hit my account on XXXX/XXXX/15, as I had predicted while talking to the  supervisor ''. My CD still showed as renewed on their website until XXXX/XXXX/15, which was the ACTUAL DATE that they closed out the CD - XXXX days past its maturity. A brick-and-mortar bank must be prepared to cash out a matured CD on its maturity date. These guys do n't even think about it until the NEXT business day and they do n't actually do it for XXXX MORE days. If I had asked to cash-out XXXX days EARLY, they would have levied as substantial penalty on the pre-mature withdrawal. There are opportunity costs incurred by the customer ( me ) due to this bunch holding on to the funds after the maturity date, but they incur no penalty because they already have my money and will release it when they please. I suspect that all that I have described is part of their actual policy, not simply  bad luck '', since I was told about next business day processing and then repeatedly told that it was  in process '' when it was NOT. I have actual names given to me on each call to them and they supposedly record each call.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have sent numerous letters, police reports and made number phone calls into in regards to the fraudulent U.S. Bank checking and savings accounts ending in : XXXX, XXXX and XXXX. These checking and savings accounts are fraudulent accounts that was opened by someone else who stole my personal information and identity. At the time these accounts was opened, I was incarcerated from XX/XX/XXXX to XX/XX/XXXX. I have attached supporting documentation that I was incarcerated.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">On XXXX XXXX 2015 I submitted a bill pay for {$2000.00} from my bluebird account to an account at XXXX XXXX XXXX XXXX. XXXX XXXX XXXX XXXX returned the money on XXXX XXXX 2015 as it was going into a non-like titled account and they did not want to allow it. It has now been 42 days and the money has still not been credited back to my account even though I have provided the trace ID of the returned funds to American Express multiple times as well as escalated the issue multiple times.   </t>
   </si>
   <si>
@@ -232,6 +451,12 @@
     <t xml:space="preserve">I had a bank account with Bank of America. Since I am not XXXX I was using it not often. My XXXX address was reported to the bank and I was receiving monthly statements.  The account was free, as well as using cards.  Than, few years ago the statements stopped to be send to my address without any warning.  I tried to log in via internet, but I could not ... later I learned my account was blocked and moved to  frozen accounts ''. I had no statements, no internet access and without any information bank introduced a monthly fee of XXXX I had no idea that over years - XXXX of USD were stolen by the bank from my account. So without any information I was introduced a fee, to an account which usage was blocked to me and any track of charges were hidden ( no statments sent ).   </t>
   </si>
   <si>
+    <t xml:space="preserve">The incidents have taken place between the dates of XXXX XXXX 2015. We, XXXX XXXX and XXXX XXXX, are jointly filing a complaint against XXXX Wells Fargo Employees:1. XXXX XXXX, NMLSR ID : XXXX XXXX XXXX XXXX XXXX, IA XXXX ( XXXX ) XXXX XXXXXXXXXXXX. XXXX XXXX XXXX. XXXX XXXX XXXX listed employees were fraudulently involved with knowing and/or opening an unwanted line of credit by accessing XXXX 's social security number. Furthermore, when closing all accounts from Wells Fargo, we learned not all accounts were properly closed therefore altering the amount the home loan lent to us.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was charged an overdraft fee on my checking account when it was not overdrawn. I also do not have overdraft protection. I called the bank to have it removed and they refused to even though my account was never overdrawn. This bank has very aggressive practices with regard to overdraft. They said the fee was for a pending transaction that had not been presented to my account for payment yet. This is one of the most ridiculous things I have ever heard. I have an attatchment of the exerp of my statement that contains the questionable practice by this bank. In it you will see that my account is never overdrawn except for when the fee was charged.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I sent a western union ebill ( WU Pay ) for the amount of {$260.00} to Western Union which was withdrawn from my account on XXXX/XXXX/15. The should have been available in 1- 3 days. After 3 days, I did n't receive a email confirmation of the funds being available in my western union account. I called XXXX XXXX, XXXX XXXX and XXXX XXXX and was told my funds were not available because my bank did not release the funds. Each day I called I was told they were escalating my issue to the WU department and will be notified in 24 hours ( I never was notified ) .On XXXX XXXX, a representative of my credit union on I conference called Western Union. My credit union representative spoke with a Western Union representative and confirmed the funds were released on XXXX/XXXX/15. The Western Union representative stated he will escalate the issue. However, i have not received a refund of my money. I 'm concerned that Western Union is using this  lost funds '' tactic to keep funds that are somehow lost in cyberspace. How many people has this happened to?   </t>
   </si>
   <si>
@@ -241,18 +466,45 @@
     <t xml:space="preserve">MY name is XXXX XXXX XXXX. I work for XXXX XXXX since XXXX. At the beginning of my employment, XXXX deposit my paycheck with the ADP Bank before my personal account was set up. After the personal account was established with the XXXX XXXX Bank, XXXX XXXX direct all the new deposit to the new account. ADP bank closed my account on XXXX without notification to XXXX or to me.the account remain in it over {$2500.00}. On XX/XX/XXXX, I received an old letter dated XX/XX/XXXX was forward to me through the post office from ADP bank saying the account is closed. I contact ADP bank more than XXXX times every time I call they ask me for the new address. I had to speak with XXXX supervisor for the same issue. they promise to send me a check, but never happened. they do not want to release my money. on XX/XX/XXXX the XXXX payroll personal ( XXXX ) called the ADP and I was on the XXXX line with them, XXXX ask them to send me a check with the remaining amount. the ADP promised to send me a check within 3-5 business day, but never happened. XXXX ( XXXX payroll personel ) Ph # is XXXX.  My ADP Acc Debit # XXXX. ADP ph # XXXX.  AM asking you in my behalf to speak with ADP to release my money. it is urgent. I need to pay my mortgage and other bills. thanks. if you have question please call me.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I am a Bank of America customer, and I used my debit card for gas and there was {$1.00} hold placed on my account. When that transaction finally posted for the full amount, the bank rearranged the order of all my recent transactions which caused my account to look like it was overdrawn and then charged me a {$35.00} overdraft fee even though my account had plenty of money in it. At the beginning of the business day on XXXX/XXXX/15 my account was fine and when I informed the manager that the over draft jus showed up today he stated that the account was overdrawn on the XXXX/XXXX/15 but I just could n't see it. I believe this is an unfair business practice. To rearrange the order in which things post and then not even make it visible to me so that I can properly manage my account makes me feel like I 've been robbed. This should be fraud. This is the second time now they 've don'e this to me and they refuse to refund my money.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I fell victim to the housing crisis like many around 2008. At the time I was lost my job while simultaneously going through a divorce. I was forced to file bankruptcy. One of the debts discharged in my bankruptcy was a installment loan for a car that was stolen and later recovered. That installment loan was with my bank Navy Federal Credit Union. Once I filed and was discharged the bank cut off online communication. My accounts remain with a positive balance however my access is restricted as a penalty. I was told by the bank that the only way to restore my normal access was to repay the lost of the debt. The bank recovered the vehicle after the bankruptcy and sold the vehicle however, they are stating that not only will be required to pay the debt to gain the access that I previous had but I have to pay the full amount discharged and that the profits from the sale would not be credited. I have read the disclosures I was able to find from when I opened the account and there is no mention of limited or restricted access for discharged debts. Not only is my access restricted but another account for which I am only the secondary authorized user on is also restricted. From my understanding a creditor can not take action for a debt after the debt has been discharge in XXXX Bankruptcy Court. I find this practice discriminatory and a way to force consumers to pay a debt that has been discharged.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An overseas representative at Chase Bank illegally and illegitimately flagged my account for fraud and charged off my account after I requested to speak to a supervisor. Chase now refuses to correct the issue, and has been holding my money for more than a week. Chase refuses to investigate this employee or undo this. Chase 's rogue employee has severely damaged my business, my credit, and has violated innumerable laws. The complaint originated because Chase has not been recognizing deposits or transfers from other banks in a timely manner, and has thus charged overdraft and associated fees. Additionally, Chase was requested multiple times to stop charging an administrative fee which did not even apply to my account. Since this fee was never removed or credited, all of the other overdraft fees are invalid, since once reapplied, the account was in a positive balance at all times. Additionally, at the time of the closure and charge-off, Chase was in receipt of more than {$3000.00} in direct deposits and instead of recognizing them in a timely manner as proscribed by law, they instead closed and charged of the account, and only recognized the deposits at XXXX, subsequent to them flagging, and charging off my account. This all happened in a XXXX hour period overnight.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paypal wo n't let me withdraw my money. The options they give me to  verify my account '' are all broken. I do n't see why they are able to accept my deposits, but then prevent me from withdrawing my money.   I made withdrawals from my paypal account to my paypal prepaid card in {$300.00} batches since that was the most I could do per day. This option is clearly/encouraged by the paypal prepaid card as a valid way to fund my prepaid card, that is, direct transfer from my paypal account into my paypal prepaid account.   All I want is to access my account to get access to my money. Paypal has been holding my {$500.00} hostage since XXXX/XXXX/15 and I am very upset about that.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">TeleCheck is declining my checks for even the smallest transactions. XX/XX/XXXX at XXXX in the amount of XXXX at XXXX XXXX XXXX. The reason they say is insufficient history and will not guarantee any checks will be processed. As I am awaiting my debit cards in the mail, XXXX days, I have no other form of payment and this company is unjustly holding my money hostage. I have good credit, own XXXX homes and have a significant balance in my checking account. Therefore, I have good credit history and should not have checks declined for {$69.00} and is completely embarrassing to approach a check out with a carriage full of groceries and be declined!  In researching, the issue numerous people are complaining about these same issues and something needs to be done. I see TeleCheck was fined XXXX in XX/XX/XXXX for this same issue and they have not improved. Either they need to get their act together or be subject to additional penalties and/or taken over by a competent organization.  If reasonable resolution can not be found with this company I will also be contacting my lawyer to seek punitive damages as well as contacting my senator.   </t>
   </si>
   <si>
+    <t xml:space="preserve">My bank is Pacific Western Bank at www.pacificwesternbank.com. I am in dispute over {$1200.00} in unauthorized debits from my account, which the bank refuses to recognize, as they will only initiate the dispute is its 60 days or less. I only recognized when my account went into the negative. I want all fraudulent charges disputed nd all funds returned, including any and all NSF or Overdraft fees since the first unauthorized charge/debit occurred. My name is XXXX XXXX XXXX at XXXX CA. XXXX.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX XXXX of PNC Bank, Executive Relations Division did not give me a reason why my business account was shut down-closed on XXXX separate occasions, causing numerous checks to be returned and electronic checks to go unpaid. The bank has not shown anything in writing where they compensated me for the fees that they caused because the account was closed. XXXX XXXX has taken it upon herself, after several attempts at explaining the situation, but she choses to be judge, jury and executioner in this matter.  I have copy of correspondences where I have asked her to get the details rights and act appropriately, but she has not. PNC Bank is not acting in a fair manner, and I have not been given due process. The company along with XXXX XXXX has not acted in a way in which they are trying to assist and help small businesses. I feel the bank is liable for all the inflicted suffering that they have put the company through. I would also like to inform you that the Merchant 's Account was also shut down causing deposits to  not go into the account '', thus causing chaos and monies not being deposited in the business account.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Good morning, An employer whose fictitiously written a check in the amount of {$1900.00} asked me to work as a mystery shopper and XXXX XXXX XXXX, XXXX, as he stated that after shopping at XXXX for {$50.00}, keeping {$250.00} as payment for writing my survey, was to redeposit that XXXX money order back into my personal Wells Fargo account for the remaining balance of {$1600.00} for the next service agent 's survey.   I contacted the initial XXXX party website at : XXXX ( XXXX XXXX of XXXX XXXX XXXX Police, XXXX, XXXX, CA ) whereby they referred me as an employee and later I informed him of this phising scam and so he took a report. I said to him {$1600.00} was redeposited into my bank account as XXXX XXXX fowllowed me with my cell phone and cash was passed onto the next service agent. At no time did I understand by the XXXX that this was a phising scam, but Wells Fargo Bank bounced a fictitious paycheck that cleared on XXXX/XXXX/2015 and then, bounced on the XXXX. By that time, the cash was already deposited into XXXX XXXX XXXX across the street and I lost out on the total of {$1900.00} for alias account holder : XXXX XXXX XXXX account no, XXXX XXXX XXXX.   Please let me know if there 's any restitution for this matter.   Thank you, XXXX XXXX XXXX XXXX XXXX, CA XXXX   </t>
   </si>
   <si>
+    <t xml:space="preserve">Synchrony Bank began to erroneously charge me a fee on my XXXX XXXX account last XXXX. Despite spending hours on the phone multiple times with them, they continued to do so month after month. I finally closed the account a few weeks ago and still have not received a check for the amount in the account. This is unacceptable.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I was issued a {$12.00} fee for Returned Check fee for a check that my renter wrote TO ME. Since the bounced check was written to me, and since I did not cause this action, I do n't think that Chase should be penalizing me for the actions of others. They should charge the person who wrote the check and not add yet another fee to the person who expected to get funds.   </t>
   </si>
   <si>
+    <t xml:space="preserve">On Tuesday XXXX XXXX {$18000.00} was electronically withdrawn from my business checking account, such was completely unauthorized and to a company whom I have no officiating with. It was n't until late night the XXXX XXXX, when I ram dimly logged into my account that I was aware of this. There was no fraud detection alert, and I was no notified of any unusual activity. When I called to report this I was helped and given a phone number to contact fraud detection so I could ask why I was not notified. I called this morning and was transferred from person to person for 2 hours, one transfer brought me back to the main menu of the call center, which means all of my transferring meant nothing, that was about an hour in. I finally got to talk to an apethetic banker. I asked why I was n't notified of unusual activity and his answer was  something 's are n't detected '' which totally negates any perpose for having fraud detection. I then tried to explain that I will be out of town before to 10 business days, in which they will investigate, are up and would be out of service. My concern is that if I had to answer any questions that I would be unavailable.he then out in a request to have my case be expedited, but I really do n't know if that has any validity. I am worried, frustrated, and feel unsafe working with Wells Fargo. Being a small business owner I have XXXX other things do to and worry about.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Was informed by Bank of America that my Checking Account Type/Variety which was 'enhanced checking ' since 2010 is now being changed to a 'Core Checking ' account with a fee structure. Previously, I had opted into my checking account with an agreement that as long as an active credit card was open with Bank of America, I would n't be charged checking account fees. This appears to be a nationwide move. I did not agree to have my services changed.   </t>
   </si>
   <si>
+    <t xml:space="preserve">My mortgage company denied my hazard insurance payment and purchased homeowner 's insurance for me at a premium rate. My mortgage company does not escrow my homeowner 's insurance and the banks actions may be an attempt to hold my insurance in escrow. I recently moved to a new home ( three years ago ) and I had no problem paying my homeowner 's insurance the first two years in my new home.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">RE : JP Morgan Chase Account ending in XXXXI think {$830.00} in overdraft fees and interest on fees is rather usurious.  I have been advised by a consumer protection attorney that there is a very strong case here for a class action, but really I 'd rather not tie up the court system and would rather have an uneventful resolution to this matter.   I have been advised by council to try to seek a resolution through the CFPB.   </t>
   </si>
   <si>
@@ -271,24 +523,42 @@
     <t xml:space="preserve">PNC XXXX XXXX Bank sent me a notice from XXXX stating that they have automatically enrolled me in their  protection '' services. It was my responsibility to call before XXXX XXXX, 2015 to  disenroll ''. I did, but to disenroll, the amount of information they were asking for was staggering. I refused to provide them any more information than they had on the letter. They did n't any of that information from me to  automatically '' enroll me.   </t>
   </si>
   <si>
+    <t xml:space="preserve">My arm cards were stolen, and someone attempted to withdraw money and was successful with getting {$300.00}, from Bank of America. I disputed it at least 3 times, and it came back justifiable.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">. I entered the bank Saturday morning XXXX XXXX, 2015 to cash a check from my employer. I was informed I would not be able to cash my check because the amount of funds in the account was not enough to cover the check but I could deposit it. I said this does n't make any sense I am a member here and I need to pay to have my tires fixed next door. He ( XXXX ) told me there was nothing he could do so I asked why have n't I received my debit card and he looked into my account and said it had been mailed two days prior. I asked if and when I get my card will I have trouble with accessing my funds once my employer begins to submit direct deposits, he said no. I requested to withdraw the funds I had in the account and asked if there was a bank close with the logo on my check. He told me where it was located, the teller gave me my funds and I left. My debit card arrived in the mail on XXXX/XXXX/2015, it would not activate. I called the customer service line, I went to a branch and was informed a replacement card was ordered. I did not authorize a replacement card nor did I ever ask for XXXX. I called into the branch requesting the name of the person who helped me on Saturday and XXXX answered the phone, after describing my situation he informed me he was the one who helped and said we discussed a replacement card and hung up in my face but we did not and the other teller that was standing there should be aware of that as well. I believe XXXX put in the fake request for a debit card as a retaliation of me having an attitude about not being able to cash my check and withdrawing the funds that day. I did not authorize the transaction and it put me in a bind of being able to pay my bills because electronic check is not accepted.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I had fraudulent activity occur on my Bank of America Checking Account between XXXX XXXX - XXXX XXXX. I called in and filed a claim upon seeing this activity on my account, as the charges could not have come from me being that occured XXXX when I was in XXXX for business with my company.   The bank refunded me the money stolen while they performed their investigation, but they failed to cancel the temporary card that these transactions occured on and fraud happened AGAIN on my account from XXXX - XXXX. They apologized for failing to cancel the breached card and credit my account once again but, 2-3 weeks later removed the money from my account stating that I could have made those fraudulent charges. I 've supplied them with documents from XXXX XXXX and the XXXX XXXX XXXX proving my stay there. I 've also showed the bank evidence of someone monitoring my account for funds XXXX making balance inquiries XXXX in the states of XXXX and XXXX and taking those funds only once I was paid and my accounts had a positive balance.   Even with this proof and cooperation from the Airlines and Hotel showing my flight to and stay XXXX, Bank of America has still been reluctant to give me back money that is rightfully mine although I clearly was not in the state to make those transactions and have proof. My account with Bank of America has been compromised prior to this happening and was even compromised 2 weeks ago, although no money was taken this time but it still shows security flaws with their products.   The claim is being reevaluated again, but the bank has been such a hassle to work with and the notes they 've been making on the claim have been unclear even to other representatives who end up handling the account.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They had scheduled maintenance on XXXX/XXXX/2015 from XXXX, however, the provided time slot was extended to XXXX. XXXX came, and nothing changed. I received an email at XXXX stating we can utilize the card now, but still can not use the mobile or online services. That was not correct. It is now XXXX/XXXX/2015 XXXX and I have access to nothing! I was supposed to receive my direct deposit today, now I 'm not even sure if I 'll receive it at all, if that is the case, I would be delayed by almost 2 weeks.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Hello, Yesterday, the IRS put a levy against my bank account. Bank of America decided to levy my entire amount then to charge me {$100.00} for admin fees -- - thus actually overdrafting an account that minutes earlier had over {$6000.00}. They then, of course, charged me an overdraft fee.  I immediately called the IRS. We agreed that they could have {$1000.00} and they would release the rest right then. They said it could be instant or take 24 hours. Today, my account is still negative and another overdraft fee. I called the B of A legal department. They claimed they received the order to release this morning, and the funds should be available by tomorrow. I am guessing they will tack another overdraft fee on my account.  I do n't understand why B of A levied a greater amount than I had in my account. They should have pulled their admin fee out first, of course. They purposely made my account negative. I got the levy released immediately. This is clearly just a mistake. I have been with the bank since I was XXXX ( XXXX now ). I do n't think I should be punished because B of A themselves overdrafted my account. I do n't think I should keep receiving overdraft fees because I am waiting for them to take the hold off of my account that they placed.   Thank Bank of America.   </t>
   </si>
   <si>
     <t xml:space="preserve">On XXXX/XXXX/2014, I requested a wire transfer from my savings/brokerage account at XXXX XXXX, XXXX XXXX XXXX XXXX, XXXX XXXX, XXXX, IL XXXX, to my Ally Bank, XXXX. XXXX XXXX, XXXX XXXX, PA XXXX individual checking account in the amount of {$3000.00}. The funds were drafted and I was charged a wire transfer fee of {$25.00} on the same day. The wire reference number was XXXX. I confirmed the XXXX and routing number to be the correct values with both institutions. XXXX claims that the funds were accepted, Ally Bank claims that they never received them. XXXX claims that they can not recall funds after they have been sent, Ally claims that they can not credit funds without a wire transfer receipt. I am at the end of my rope, and would appreciate any guidance that you could provide.   </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX XXXX my debit card would not work at the atm machine. I went inside the branch and told the teller. she did the transaction for me. later that day I found out a check had not cleared so I rush back to the atm before XXXX to deposit the money back except the card would not work. there were another deposit made in the account that was placed into pending although it was cash. The check was paid and I was charge {$35.00}. the issue is the bank was to investigate the matter in XXXX and get back with me, never a letter nor a phone call not even a message. I went to the branch yesterday to see what was going on and I got such unprofessional response from the employees and lies and they stated the bank does not send customers replies to dispute because it is a personal thing that they do so they do not, yet they tell me this employee had tried several times to call me and yet I never received a call or a voice mail, not even a e-mail from this branch. the bank manager was talking to the man employee and when he walked out I asked to speak to her, would you believe she effused to speak to me and she was sitting right there in her office looking directly in my face which she then moved her chair over to the other side so I could not see her and there were no one in her office with her. That employee that was to type up the paper work for the investigation did not know what she was doing and she said so, other people was coming in to help her and because I had been in her office a long time waiting for her my XXXX small grand children got very antsy, so now you know I am getting a little frustrated because every office person should know how to quickly get a customer request resolved, except this one did not. to wait two months for a banking resolution is ridiculous and this type of behavior should not be tolerated from no employer. all your office personnel needs to be terminated and all your bank tellers should be running the bank and then find all new tellers, because they are the ones with class and professionalism. this group at the XXXX GEORGIA NEEDS TO GET THEIR TRAINING FROM THE XXXX, GEORGIA BRANCH ON HIGHWAY XXXX BECAUSE THEY ARE THE TOP WHEN IT COMES TO CUSTOMER SERVICE AND THEIR NEEDS. MORE SO THEY ARE HONEST IN GETTING THE JOB DONE AND KEEPING A VERY GOOD REPUTATION FOR THEIR EMPLOYER.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">My complaint is against Rushcard, my funds were held up for 6 days because of there system updates. When I did n't get my deposit on XXXX as I normally would get 2 days earlier than my pay day XXXX, I started placing calls to them, then was told would get funds on the original pay day due to system upgrade which would have been XXXX still no funds on that day I kept calling and holding for over XXXX minutes each time to be told they can ' provide me my account information because the systemwas n't work, I placed several calls a day to the company between XXXX, i finally spoke with a lady on XXXX who got my funds released on XXXX this was the worst experience ever with this company   </t>
   </si>
   <si>
     <t xml:space="preserve">PNC Bank charge me XXXX inappropriate overdraft fees for no reason. Per my account history I clearly had all the money in my account needed to cover all transactions. They took it upon themselves to just take XXXX {$36.00} charges out of my account completely unsubstantiated. When I contacted customer service they said they refuse to refund the money because  they do not provide courtesy refunds ''. This is not a courtesy, this is my money that they had absolutely XXXX right to take from me. This is theft.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I previously filed complaints [ Case number : XXXX ] and [ Case number : XXXX ] concerning receiving statements from JPMorgan Chase  Co that are not mine. Today I received a letter from XXXX XXXX Officer Global Compliance Operations JPMorgan Chase  Co stating the issue was resolved. Coincidentally I also received an additional statement that is not mine.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Outrageous over draft fee of Bank of America and Rude behavior of customer service rep when called for resolutionI am having Checking Account in Bank of America and I When Travel to XXXX on my XXXX and bank of America Does n't have any ATM's/Bank Center to Deposit the money to Meet Bill payments, When I have Bill payment scheduled to pay on particular day and During that Period on Travel ans also extended stay I ca n't able to deposit money to meet the bill payment and Bank of America need to facilitate some kind of method to handle with out having charges from other financial institutionsThe XXXX Over draft charges of {$35.00} each XX/XX/XXXX   </t>
   </si>
   <si>
+    <t xml:space="preserve">I opened an account at PNC Bank several months ago, and at the time was told that if I established a regular direct deposit, I could avoid the monthly service charge. However, while trying to setup XXXX XXXX, I discovered that I was being charged {$25.00} each month. At that point, I explained to the service person ( XXXX XXXX ) on the phone that this was not what I was sold initially, and she mentioned that that I actually needed to keep a minimum balance of {$500.00} to avoid the fee. Therefore, and in order to continue to incur charges, I asked for my bank account to be closed. However, I was put on hold literally for 49 minutes as the bank representative was trying to close the account. Then, the bank representative came back, and informed me that she needed to escalate the issue to the Retail Escalation Division ( XXXX XXXX ), since apparently she was unable to close the account. Bottom-line I believe that the bank representative was giving me the run around, and hoping that I hang up without closing the account. Finally, and 68 minutes into this call, I told the bank representative that I was going to hand up, and expected the account to be close immediately.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I tried to open checking account with XXXX and was denied based on information provided by  Early Warning Services , LLC ''. Information, I believe was inacurrate.   </t>
   </si>
   <si>
@@ -304,12 +574,21 @@
     <t xml:space="preserve">I attempted to close an account in XXXX 2015 because I had automatic payments I could n't get stopped. I brought the account to a zero balance as I was told, but the account did n't close.I would deposit money to the account to again bring to a XXXX balance but still would n't close.Bank of America took money from my mother 's act to bring to a XXXX alance, but they still have n't closed it.Eventually the brach call the back office last month, they put stop payments on all the automatic debits, but the keep coming out. I was told to call the phone center for my fees and they basically laughed at me. I asked to speak with a manager who need called me back.Called the branch and they wo n't reverse the fees because it would count against their branch. Today they have taken {$92.00} from my regular account to put in the account that is overdrawn with automatic payments still coming. I have emailed the CEO, but I doubt I will hear anything.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I have XXXX issues with Bank of America. I have my main checking account with them, and I use that checking account to pay all my credit card payments, and I have over a dozen active cards with NEVER EVER ANY MISSED OR LATE PAYMENTS. I log on once a week to all my accounts to verify the balances, and after I make my monthly payments, I WRITE DOWN THE AMOUNT AND DATE. Unfortunately, BofA has an app that does n't give any details about accounts such as statements, no means to email the bank either, and the website is n't any better as from the dozens of institutions I deal with online, BofA is the ONLY ONE NOT TO GIVE YOU A  FULL SITE OPTION ''.   I also have a credit card account at BofA, so instead of payments, I do a transfer from my checking account to my credit card account, and the transfer gets credited as a payment ( I have been doing it for 10 years with XXXX problem during the transfer about 8 years ago when I still lived in Nevada ).   On XXXX XXXX, 2015, I logged on to my BofA app, and I made a transfer of {$30.00} from my checking to my credit card account. The app crashed shortly after that while I was scrolling through my checking account transactions, and when I tried logging back on, it asked me to update the app, stating I had an old version ( I was using a different wifi phone ). You may be in an emergency with a slow connection, and they will NOT LET YOU ONLINE UNLESS YOU DOWNLOAD THE NEW VERSION, which would have taken me quite a while on a XXXX connection, so I did n't as I did n't have half an hour to waste and that was it. I doubt they suddenly had an app update right while I was using the app but who knows. Unlike my other cards, I check BofA maybe 3 times a month as I would rather not use that app, and it 's usually early in the month ( I get about a {$3000.00} inbound transfer at the beginning of every month from the rental for my houses, and that I verify the first week of the month ), and then to make my transfer and then maybe one more time.   I logged on yesterday to make my payment, and it showed me as having MISSED A PAYMENT for XXXX. There is no indication that I made the transfer even though I HAVE IT WRITTEN DOWN AS PAID AFTER MAKING THE TRANSFER ( I am neither stupid nor senile not to know when I make a payment ). In the meanwhile, I did NOT get a single notice or call about having missed a payment either, so it was a bit of a surprise. However, BofA keeps logs of when their customers log on, and what pages they go to when they are online, so it should n't be a problem to check the logs for XXXX XXXX to see that I was on the transfer page. Whether the site had problems, or whether it was the app, that is not my problem, I made my regular payment as I have been for the past 10 years or so, so I would like that transfer to be honored. If not, I am going to be closing my account as I am about done, and it would be a good opportunity to never use that app again.   The other issue is that I have a yearly fee for my credit card in the amount of {$29.00} which is charged in XXXX to my account. I went through 6 months of statements to see if there were other payment issues with the app, and I noticed that I was being charged 29.59 % interest on the MANDATORY BANK FEE which showed AS A PURCHASE. It may not be much to pay 29.59 % interest on {$29.00} dollars but the fact of the matter is that the {$29.00} balance is a bank forced fee, and it is NOT a purchase. So why should I even pay any interest on {$29.00}? Plus, are n't banks supposed to credit your payments towards higher interest balances first? If it is so, the fee was charged in XXXX, and my next payment of {$30.00} should have paid the whole thing off, not to mention I had XXXX more payments after that ( XXXX if the  missing one '' does n't count ). Either way, if they do that to a few XXXX customers, they are suddenly earning XXXX of XXXX of UNJUST INTEREST, and I have an issue with that.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Alleging unlawful fraudulent Conduct,Bank accounts,Stocks Bonds,Escrow accounts,Arch payments,ect </t>
   </si>
   <si>
     <t xml:space="preserve">Was denied a purchase using my debit card. No notification was sent to my phone nor was any notification posted to my online account. The debit card transaction was at a store that I frequently purchase goods, 3 times in the previous two weeks. When I called Chase they indicated that they froze the account because they needed to verify a charge. If such urgent action is needed to verify potential fraud, then I should be notified and not inconvenienced of having my transaction denied and wasting an hour of my time shopping but coming home empty handed.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I was charged {$140.00} in overdraft fees on four transactions on XXXX XXXX, 2015 by Bank of America. I had {$53.00} in savings account linked to overdraft protection. The transactions came in the following order {$350.00} first, {$25.00} second, {$25.00} third, {$2.00} fourth. Money from savings account did not apply to XXXX transaction.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have XXXX different loans with Navy Federal Credit Union that I got behind on atleast XXXX payments about 6 months ago. I called the credit union and make payment arrangements and they were very helpful over the phone. The representative stated since I ' am a long term consumer that they would off set my finance charges and adjust my credit history to paid asgreed. A couple of months has past since the last conversation with Navy Federal and at this time their agreements were not satisfied per our conversation. My monthly payments are getting outrageous.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">To whom this may concern, Scottrade Financial Services, Scottrade Bank, and Scottrade Brokerage were a victim of an enormous hack during XX/XX/XXXX and XX/XX/XXXX. Scottrade Bank, Scottrade Brokerage, and Scottrade Financial Services were warned about these cybersecurity issues at a technical and cultural level yet no action was taken.   I would like Scottrade Financial Services, Scottrade Bank, and Scottrade Brokerage to provide me with instructions on how to file a dispute with their companies. Specifically, Scottrade Bank and Scottrade Brokerage have failed to provide clarification on the currently conflicting and alleged dispute policies and Scottrade Financial Services has no dispute policy what so ever.   If Scottrade has any concern for the fraud that occurred and the continued danger they are putting their customers in, I respectfully request that Scottrade step up their game and putting customer care as a higher priority.   </t>
   </si>
   <si>
@@ -319,6 +598,12 @@
     <t xml:space="preserve">I called my finiancial insitution ( JP Mrgan Chase ) this morning to file a REg XXXX claim on a transaction that i made but cancelled the same day with the merchant. I attempted 3 times to cancel the transaction with the merchant and i was not successful so i called Chase to dispute the transaction. The first that i spoke to XXXX XXXX XXXX was very rude and was not willing to assist me. I mentioned to the rep that i made the purchase and decided i no longer wanted the transaction to go through and so i cancelled it within an hour of purchase. She told me that she couldnt help me and that since i made the transaction there was nothing she can do. I spoke to manager named XXXX and she was raising her voice, telling me that since i know it all that i should know that i cant file a claim. the merchant has more rights then me the customer. the manger did not want to file the claim for which my reg r rights were violated. I have the right to dispute transactions on my account with the bank. the manager told me that she cant break rules for me and that she has a family and bills to pay and couldnt risk her job, which i dont understand how i was asking her to break rules. Very bad customer service. I was on the phone for over an hour trying to file a claim and get my money returned to me. Asked the rep to file a claim and process a chargeback against the merchant since i cancelled with the merchant before the transaction even posted. No claim was filed. I told the Manager that i was going to contact my attonney and even said i would cancel my account of over 15 years she told me to do what i needed to do.   </t>
   </si>
   <si>
+    <t xml:space="preserve">As a customer of TD Bank, my checking account was debited by TD Bank for {$2500.00} in overdraft fees from XXXX XXXX, 2015 - XXXX XXXX, 2015. Please see attachment.  I believe my bank has inappropriately applied overdraft fees on my account in excessive amounts. Can you please investigate this matter and any prior period?  Thank you.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Dispute on:XXXX, and:XXXX, XXXX XXXX, JPMorgan Chase Bank needs to explain to : The United States Of Justice Department , XXXX XXXX XXXX XXXX XXXX XXXX, XXXX XXXX XXXX XXXX XXXX, XXXX XXXX XXXX, XXXX XXXX XXXX of a XXXX issues, From a Federal Judge in XXXX GA, for : XXXX XXXX XXXX ( XXXX XXXX ) XXXX the Time:XXXX, and the first deposit was issued @ XXXX Indiana, XXXX Branch.My Case Number is:XXXX , Filed Under Seal : COMPLAINT FOR PERMANENT INJUNCTION AND OTHER EQUITABLE RELIEF, JUDGE XXXX ( FEDERAL TRADE COMMISSION ) </t>
+  </si>
+  <si>
     <t xml:space="preserve">On at least XXXX previous occasions, I request Scottrade cease and desist communicating with me via email and other methods of communication, citing State Unsolicited Email Law, and Federal Debt Collection Practices, yet Scottrade has failed to acknowledge these email and has sent me another email, in violation of numerous State and Federal statutes.   </t>
   </si>
   <si>
@@ -337,12 +622,30 @@
     <t xml:space="preserve">My credit card erroneously debited my bank account ( PNC Bank ) for the entire card balance instead of the payment submitted. There were insufficient funds to cover the payment, which was XXXX my bank balance. PNC Bank approved the charge, adding overdraft fees and leaving me $ XXXX overdrawn, with my rent and bills STILL DUE.   The credit card company, XXXX, is refunding my account - but the transaction should have been declined by PNC Bank in the first place, because now I will have late payment charges for my rent and other bills since that process takes 5 days.   This should never have occurred in the first place. The charge should have been declined for insufficient funds, leaving my bank balance intact.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Hello, I 'm a XXXX and a new Chase Bank checking account customer. I was familiar with the case against XXXX Bank XXXX. in which they failed to correct deposit discrepancies below a certain threshold, resulting in millions of dollars in lost funds to depositors. Today I received a notice with my bank statement from Chase informing me that there were going to be changes to my account terms. XXXX of them included a statement that any deposit slip discrepancies below {$10.00} would not be corrected unless they were found by the account holder and reported within a certain timeframe. This would result in the same situation that occurred with XXXX Bank XXXX. I submitted an email to Chase, and included a link to the press release for XXXX. I have only made XXXX in-person deposits to my Chase account, the rest have been electronic. XXXX deposit was made via their ATM, and it did not have an option to use a deposit slip or a deposit envelope. The deposit amount was determined via an internal scanner. There is also no envelope for depositing cash, you just feed cash into the machine. Due to potential mechanical failure, I have chosen not to deposit cash through this machine. I prefer to have a sealed envelope, with no risk of comingling of cash that might make it impossible to fix a system glitch. Additionally, I prefer to calculate my deposit and write in on the envelope. I understand that there is a risk of fraud by consumers who deposit empty envelopes, however, if you are n't going to correct discrepancies and rely on a computer to complete the transaction, then there is a much greater risk to consumers, as proven with the case of XXXX Bank.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hunington bank closed our account checking  savings for no reason   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Payment for XXXX for XXXX XXXX was denied for insufficient funds from Chase Bank. A DD from SSD was scheduled for XXXX, and payment was made late on XXXX.  As of today balance of {$390.00} from a {$580.00} DD. Purchases and payments do n't add up. Chase bank is stealing my money.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I contacted my bank, USAA Federal Savings Bank, on or about XXXX XXXX, 2015, and asked how to obtain copies of checks that were deposited in my checking account over two years because they were not online. I asked the USAA representative if there would be a fee associated with the research. The USAA representative initially said it would cost {$5.00}, but said he would check with his supervisor. When he came back on phone, he said that there was no cost associated with getting the deposits. I told him that I wanted to go ahead and order the the information and hung up the phone. When I went online to check my checking account yesterday, I noticed that USAA deducted about {$160.00} from my checking account. When I called USAA to complain that the USAA representative told me that there was no fee and I had not authorized the fee, they refused to give me the {$160.00} back. They said that I agreed to pay for photocopies in the fine print of my checking agreement. I told them that the USAA representative told me that there was no fee, and I did not authorize them to charge me {$160.00}. Furthermore, I have not received any photocopies. I should not have to pay this {$160.00} fee since I was told that there was no fee to get online copies of my deposits ; I did not authorize the fee ; and I never actually received any photocopies of my deposits.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">We have been clients of Chase banking for over 20 years with no issues. As of XXXX XXXX, 2016, our account was compromised ( both checking and savings ) in which all of our money was removed from the accounts. We had realized that our account was compromised when we attempted to make a purchase and our account was denied. We received no alert from Chase that a questionable purchases from another state were made. We contacted Chase the moment that we found that our account was compromised and they had closed our account and told us that we needed to go to the nearest Chase bank to open a new checking account which it would take 48 hours to reimburse us. We opened the new account on XXXX XXXX, 2016 at the XXXX branch in which they claimed that the money would be placed into the new account. We explained that our paychecks are directly deposited into our checking accounts and they assured us that the paychecks would be wired from the old account into the new account. The money from our paycheck was deposited into the new account, but as of Friday, XXXX XXXX, 2016, our account once again had a zero balance. None of the money was taken out by us. We returned to the XXXX branch, spoke to the representative that opened our new checking account, and she told us that the money that was removed was from a computer error and would be back in our account by Monday or Tuesday. Today, XXXX XXXX, 2016, I had called the bank representative and she had told me that all of my accounts had been closed and that our money would not be reimbursed at all ( XXXX the money that was originally taken from the account, as well as our most recent direct deposit. She gave us a phone number to call, because she did not have further information for us. After calling the number, we spoke to a XXXX, who explained that the claim went through review and due to  multiple claims '', we are liable because our bank accounts were not secure enough. I had inquired about the  multiple claims '' in which he changed his wording and mentioned that it was only XXXX claim. He said that Chase no longer wishes to do business with us. This has been the first time that we had ever had a compromised account without my knowledge as to how the account was compromised. The transactions were made in Florida from what we were told and we had not been in Florida nor made any transaction with anyone in Florida. It was explained to us that since the money taken was less than {$5000.00}, our account would be reimbursed, which did not happen, nor did the reimbursement of our direct deposits.   </t>
   </si>
   <si>
+    <t xml:space="preserve">To Whom it May Concern, I was charged {$12.00} for insufficient funds on a check that I tried to deposit to my account. Prior to writing the check, the checkwriter checked her account to make sure she had sufficient funds. After depositing the check, I received the notice that I was being charged.   I tried to call Customer Service to ask why it is Wells Fargo 's policy to charge its customers for something which is not within their control. A company which claims to  proactively protect our customers ' financial security through a risk focused culture '' should not impose fees upon its patrons which they have no control over. This alienates those risk-averse people who do everything they can to be prudent in their financial decisions and do their due diligence because it imposes upon them a risk they can not obviate.  I have been a Wells Fargo Customer for a decade. I hold checking and savings account. I have a safety deposit box. I have a credit card. And as a student in professional school, I planned to patronize the bank for years to come. My experience with the Customer Service phone team has made me question these plans.   Upset over this fee, I called Customer Service to request a refund. I asked my customer service representative how any customer could avoid these fees in the future. She had no answer for me. I asked her if that means I should just avoid using Wells Fargo financial services in the future, and she essentially agreed that this was the only way for me to minimize my risk.  A business that claims protect its customers ' financial security while imposing undue fees on them ( that a prudent customer could not possibly control ) is not conducive to customer retention or satisfaction. How could I possibly feel that my money is secure if I can not protect myself from arbitrary fees?   The worst part of the entire experience is that the supervisor who I spoke to pretended that she did not hear me and hung up as I was trying to explain the situation. Luckily, I recorded the whole ordeal.   What I would like to know is exactly how Wells Fargo would advise me to avoid such charges in the future? Is there some magical database I can access to ensure that a check that I receive will have sufficient funds in the future? Or should I stop using Wells Fargo services in general?  Regards, XXXX XXXX   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I 've been a customer of TD Bank NA ( formally, XXXX XXXX ) for more than a decade.  Now TD Bank said they will close my accounts for no reason.  I depend on over XXXX vendors and bill pay and automatic debits to use my accounts and XXXX of TD Bank. Also, some accounts are with my partners. They can not be closed.  Please look into this and keep all my accounts OPEN.  There are no issues nor concerns.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I opened up an account over the phone with TD Bank. The person I spoke to said that I can take care of everything over the phone. She said in order for that count to be activated I need to deposit money. I decided that I did not want to use TD Bank and call to cancel the account they said they can not verify who I am over the phone as the account was never activated. They said that if I keep the account that says I will be getting charged fees for not having the minimum balance but they would still not be able to close the account for me over the phone.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">On XXXX XXXX, 2016, I initiated a  Send Money '' payment for {$770.00} from my checking account with USAA. The transfer vehicle for this payment was XXXX. The {$770.00} was debited from my account on XXXX XXXX, 2016, but never entered the XXXX system, and was not received by the recipient. Since then, I have contacted USAA multiple times to resolve this issue, and have been met with a refusal to provide any restitution. Additionally, USAA has continually referred me to XXXX to rectify this issue. USAA supplied me with a XXXX transaction ID with which to locate this payment. XXXX has no record of this transaction ID, and has no record of any transactions from my account for that amount using my checking account information. On XXXX XXXX, 2016, I spoke with a member of USAA 's Executive Resolution Team named XXXX, who, after talking directly with XXXX, informed me that USAA would be crediting my account for the entire {$770.00} within XXXX business days. After 8 business days, my account has not been credited. I spoke at length again with XXXX members of USAA 's Executive Resolution Team ( XXXX and XXXX ) on XXXX XXXX, 2016 to try to ascertain the whereabouts of my credit. These individuals informed me that USAA would not be crediting my account ( as previously promised ) and that I would have to take up the issue with XXXX. Although I informed USAA representatives repeatedly that since the transaction does not exist with XXXX there is nothing XXXX can do, they refused to offer me any restitution.   </t>
   </si>
   <si>
@@ -352,12 +655,39 @@
     <t xml:space="preserve">US Bank has taken an overdraft out of our checking account and that has caused an overdraft and left a negative balance of {$80.00} and on XX/XX/XXXX16 our XXXX payment was returned to them unpaid.I went to use the debit card at XXXX this morning and it was rejected and I came home and checked the account online and there was an item presented to the bank and they had taken out the {$120.00} and I spoke to a person at the bank and she said that the overdraft protection was for the debit card and I said no as they did return an electronic withdrawl from the same company and put back the overdraft money and service charge. Now they are still charging us the service charge on our own money. We had stopped the over draft protection in XXXX of 2016 and this was for all transactions. I will attach a copy of my bank statement to this complaint and I need to have some action on this as the bank is telling us that they can change there agreements without telling the consumer. I feel that they need to return the money and not take the service charge as we had stopped the over draft protection in XXXX of 2016.  XXXX2016 Overdraft Returned Fee Waived {$36.00} {$120.00} XXXX/XXXX/2016 Overdraft Returned Fee {$36.00} {$84.00} XXXX/XXXX/2016 Returned Electronic Withdrawal Wi XXXX XXXX {$120.00} {$120.00} XXXX/XXXX/2016 Monthly Maintenance Fee Waived {$8.00} - {$4.00} XXXX/XXXX/2016 Monthly Maintenance Fee {$8.00} - {$13.00} XXXX/XXXX/2016 Electronic Withdrawal Wi XXXX {$120.00} - {$4.00} XXXX/XXXX/2016 Debit Purchase -XXXX Sincerely XXXX XXXX XXXX XXXX XXXX XXXX XXXX   </t>
   </si>
   <si>
+    <t xml:space="preserve">I set up a personal checking account with a bank XX/XX/XXXX. I had been  taken '' by a scam artist who wired money into my account, but later, after the account was  purged '' the bank produced an actual check made out to me and had supposedly my endorsement on the back. After the bank and I realized I had been  taken '' the manager informed me that I would n't be responsible for the loss but to make sure that this never happens again.I gave the manager as much detailed information about the man, along with contact information, as I could. I was instructed to file a police report, which I did online and received a case number. THIS IS MY COMPLAINT. XX/XX/XXXX, I went to open an account with another bank and I was declined. I requested a report from ChexSystems, which is who they verify possible new customers information with, and I see that I am on ChexSystems for SUSPECTED FRAUD ACTIVITY, Closure Status : UNPAID Original Charge Off Amount : $ XXX.XX with the bank that I had the issue with the scam artist. This is frustrating because I was told not to  worry about it, just file a police report ''. ( XXXX XXXX PD. XXXX, is the case number ) Well, now I 'm having to  worry about it ''. When I attempt to call their customer service line, I am on hold indefinitely. Luckily, I have an account opened with another bank, which I had opened before this mess, but I should not be in ChexSystems since this was a case of Fraud Activity and the account was purged. I do not have a history of doing such acts. This must be resolved.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My complaint is agents 5th 3erd Bank I have the bank on line option with my checking accounts, I do n't understand nor can I ever get an explanation on why my account on line seldom reflects the actual balance in my account. I have received many overdraft charges for this reason. On Monday XXXX XXXX I deposit my pay check for XXXX, on that day my balance said I had XXXX ( the deposit takes 24 hours to credit my account ) so I have XXXX, plus XXXX pending. I make XXXX credit card payments that equal XXXX. On Tuesday XXXX XXXX I check my account and I 'm overdrawn XXXX. My rent check had been deposited on Monday by my landlord, but it did not get proses until Monday night, it was for XXXX, now what I do n't understand is if my credit card payments and my rent check were proses on Monday night and I had XXXX plus XXXX pending, how could I be overdrawn? How is it that my online account knows I have XXXX pending but my actual account does not? They intentionally ignore the deposit that is going into the account, hit me with XXXX overdraft charges, then suddenly credit the deposit and withdrawal the service charges. How is it that they never credit the pending deposit first?  My on line account knows that there is a pending deposit it shows me on my on line account, I feel that 5th 3erd does this totally on purpose to charge me an overdraft charge.  I hope you can understand what I 'm saying, I 'm not the only person that sees this, that Bank has hundreds of complaints against it. Pleas help they have taken hundreds of dollars from me this way and it just does n't seem fair, they mislead or blog face lie via the on line banking.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please refer to reference number XXXX. To date I have received nothing in the way of a refund from XXXX XXXX XXXX. After due consideration it occurs to me that Capital One Bank is complicit in the failure of my attempts to get my money refunded. It has now been over a year that I am out the money. I contracted with XXXX XXXX XXXX. My credit card payment was made to a company that I never heard of : XXXX XXXX XXXX. I had Capital One stop the payment which they did. The following month they played judge and jury and awarded the money again to XXXX XXXX XXXX. XXXX XXXX XXXX never provided me with the documents to dispose of my time share condo, but they told me that they would cancel the contract. Consequently I believe that perhaps it is Capital One Bank that owesme the refund and then they can debit Way to Go Travel themselves.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I opened by checking account with Chase Bank, I made a written agreement not to honor any EFT 's nor other debit transactions because I did not like to be bombarded with excessive bank fees. Chase Bank refused to honor this written agreement and bombarded my checking account with a total of {$450.00} bank charges. I am a XXXX retired individual and with a flat income that I receive each month, I can not afford to pay these excessive bank charges. Please help. I tried to call their Customer Service Call Center but I get transferred too many times and I am unable to get a response back with these bank charges. Chases refused to abide with the written agreement that I had with them. Attached you will find the agreement that I signed for. Thank you.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I am currently in XXXX and every time I try to access Wells Fargo Online I have to call the XXXX call centre and obtain an advance access code.  Can you please register my travel plans to XXXX from XXXX XXXX XXXX to XXXX XXXX XXXX.   Thank you XXXX   </t>
   </si>
   <si>
     <t xml:space="preserve">I have been excessively charged throughout my time add a customer of Wells Fargo. The amount in overdraft fees I have paid exceed {$1100.00} to date. Recently they have  reordered transactions '' in order to impose a overdraft of an item that is automatically debited each month, first of the day. I check my balance regularly to prevent any mishaps. This particular item was later reordered after another checking my balance notice no pending transaction, and available funds, in order to make a transfer into a family member account. Again I check my account and notice a negative balance because the reorder, I then go and make a deposit to cover account in arrears in cash. Though trying to prevent fees, this Result in a fee incurred. This is a business account, which have merchant deposit directly into the account. I receive notification of monies deposited on the same same day in discussion. however, Wells Fargo Bank fail to show this deposit or recognise this transaction in order to impose fees. Upon which Wells Fargo Bank decided to overlook that and charge me anyway. This is a summary of the latest incident which occurred XXXX/XXXX/16. I spoke to associate about reversing and to explain practice, which he denied any bank error had occurred and denied my request.   </t>
   </si>
   <si>
+    <t xml:space="preserve">US Bank has started altering the order of credits and debits to their advantage. In 2015 they on numerous occasions posted the debits first and then the credits which resulted I numerous {$36.00} overdraft fees. On XXXX occasion I withdrew {$500.00} in cash on a Saturday when my direct deposit showed as being available. I was then charged the {$36.00} overdraft fee. On Monday on their website the direct deposit showed it being credited on that Monday even though on Saturday it was shown as being available. I called the bank manager and his response was that the teller should not have given me the cash. However the teller had seen the same thing on her screen that Saturday and that being that the money was available. This occurred throughout 2015 until my account was so overdrawn due to the overdraft charges that US Bank had closed my account. The bank manager was less than cooperative in discussing this issue. And along with that they would post debits before credits which I have never seen this practice before. The bank manager response was that there was nothing illegal about that practice. So now my account is in the banks collection department.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chase bank switched one of my accounts from Savings to Checkings. In doing so, they failed to leave the overdraft protection that I had. Then they subsequently charged me overdraft fees. Chase is constantly finding ways to charge fees regardless of the numerous efforts I make to prevent this. They also rearrange withdrawals to justify overdraft fees.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I bank with Wells Fargo and I live in the state of Oklahoma. I am unable to close a CD account unless I go into a branch which is over XXXX miles away. My CD account auto-renewed against my personal wishes.   I want to close it. I can not go into a branch because the nearest one is over XXXX miles away.   I can not close it over the phone as per company policy ( I am required to go into a branch ).   I can retrieve the paperwork to close the account online ( and can close it by mailing in the paperwork ), however, I must know the account number which Wells Fargo can not give over the phone. The only way to retrieve the account number is by going into a branch, which is over XXXX miles away.   I would like to close the account without needing to go into a branch.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A couple of months ago I received a letter from USAA indicating that I owed some money and my account was past due. I called them to indicate that there has been an identity theft since I never opened the card nor was in possession of the card. Over the past few months I have called them several times to address the issue. Every time, it seems as though they are doing something about it but they arent and I find that they are simply having the collection agents harass me about the money. There is no mention of what they have done to investigate the identity theft and what their conclusion was. When I call identity theft department at USAA, they hear me out for a few minutes and either put down the phone or connect me back to collections.  It is extremely unprofessional and I have not seen this with any of the credit agencies or banks that I have dealt with.  At a minimum, i would have expected them to take note of the details, investigate it and get back to me on why they think that I was the one to open the account or atleast let me know the outcome of their investigation. I think there has been a presumption on their part to conclude without adequate investigation that I was the one to open the card. USAA I am told is typically open only to people either in the military or relatives of military. I have NO connection to the military and it seems like they did n't even bother to check this fact before issuing the card to whoever was impersonating me.  I think the burden of proof should be on them to show me the documents to conclude that I opened the account. I even told them that I have a filed a police report and was willing to provide them with the report number. They did n't bother with it since they have pre-concluded without any investigation. I was told that the domain of the email address which was used to open the account was  XXXX ''. If they use a little common sense, that would be the first indication that it is a fraudulent account or atleast give me a chance to hear me out and take my complaint seriously.  It has been extremely frustrating since they seem extremely unprofessional in the way they are going about this issue. I have been thrown around from one department to another and there is no transparency on what is going on. When I first reported it, they seemed to take down all the details but a few weeks later, they indicated no record of it and asked me to repeat the story again. I did and someone pretended to file a report and gave me a case number XXXX with the promise of some outcome in 5-7 business days. When I called them after a week with the case number, they simply were trying to transfer me back to collections.  I feel I have no recourse as a consumer as I have no way of knowing what they are investigating and what they are concluding. I seem to be at their whim and they are holding me to ransom for their negligence in not verifying some basic credentials such as signature and proof of military. I think they need to be held liable for their negligence.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This morning at XXXX CST I received an email from XXXX of my Credit Cards - XXXX Bank for XXXX Credit that XXXX payments legitimately made from a joint banking account with Bank of America were advised unauthorized. The amounts are as follows : {$97.00} $ XXXX XXXX Bank for XXXX Credit they received the dispute on XXXX XXXX, 2015 from Bank of America XXXX I have proof that the individual that is making these disputes on the Bank of America account was also an authorized user on the XXXX Bank for XXXX XXXX account. This seems to be an on-going matter with Bank of America allowing payments to be disputed and not doing a proper investigation on this matter. This is a direct violation of their fiduciary duty and they ca n't allow payments to any vendor to be removed. I was an active user on the Bank of America account until XXXX/XXXX/15 - I have proof that I was an authorized user on the account that the disputes were coming from.This is completely affecting my credit and I should n't have to pay for something that was authorized. My ex became extremely abusive hence the reason why I removed myself from the account on XXXX/XXXX/15. I do not think it is fair that they are allowing this foolishness to happen.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">XXXX Transferred my checking account to BB  T. However they did not send my savings account. In the transition they set me up with a new BB  T account login online, but did not provide me with the information or attach my email. The settings on my checking account were not carried over.  XXXX Account : Overdraft protection - Would not allow transactions that would overdraft my account. Would transfer money from savings if an overdraft occurred.  BB  T Account : allowed account to continue to go negative, assessed me {$180.00} in overdraft fees in XXXX dayI was not able to go online to monitor my account, I called XXXX times in XXXX days to get assistance with logging in online and was on hold for over XXXX min each time before having to hang up because I was working ( working XXXX hour days for a project ) Was told debits and credits would be transferred between accounts. However when my company attempted to deposit my check it was rejected. As you can imagine I am not a happy customer of either XXXX or BB  T for being so thoughtless to the customer. I wanted to go close my XXXX account on XXXX before the transfer, since I opened a XXXX XXXX account to use, and to my surprise all of the XXXX branches were closed and I had no way to close it.   I want all of the debits and anything to stop hitting this account. I want for everysingle overdraft fee to be refunded. I want to pay the balance that was actually paid on my behalf and I want this account closed.   </t>
   </si>
   <si>
@@ -373,27 +703,81 @@
     <t xml:space="preserve">At the bigginin of XXXX XX/XX/2015 I opened up a bank account at a company called PayPal. They said they could arrange the processing of my credit card transactions and would divert the money to their own account with the understanding that it was my money and they were only holding it for me as my agent and fiduciary. I deposited around {$2500.00} over the next few weeks. On XXXX XXXX, XX/XX/2015 I attempted to transfer my money out of their account and into my account using ACH. Paypal refused the transfer and told me they have decided to keep my funds and there was nothing I could do about it. I contacted the Georgia Department XXXX and was informed Paypal has no right to operated as an internet bank in Georgia as they have never applied for a banking license. I have since filed a lawsuit in small claims court and learned during my research of Paypal that what has happened to me has happened to thousand 's of individuals across the United States. Paypal routinely seizes money and actually has the chutzpah to claim we have no right to now why. I have also learned that Paypal takes all depositors monies and invests it in anything it chooses to to make interest while paying depositors ( like me ) nothing. This is all fine unless and until Paypal looses all the money investing in XXXX XXXX and we all become unsecured creditors in a bankruptcy proceeding with little to no change off ever receiving anything back.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Paypal restricted permanently my accounts with them. I understand it is their business decision to not do further business with me but they are withholding my funds for 180 days before they release them. Upon contacting Paypal I was informed that this policy was due to potential charge backs / transaction disputes that may occur due to use of credit card and that the provision was part of their user terms and conditions.   Paypal User terms and condition state that : '' XXXX Actions by PayPal - Restricted Activities.  ( ... ) e. We may hold your Balance for up to 180 Days if reasonably needed to protect against the risk of liability or if you have violated our Acceptable Use Policy ; '' I find that the period of XXXX is unreasonable in this circumstances because : - There is no risk of liability - my existing balances were from transfers from other users which loaded their accounts with Paypal MyCash which, according to Paypal terms and conditions, are non-refundable ( hence, the risk of liability from Paypal is non-existent ) - I am not involved in any prohibited activities described in the acceptance user policyI wish for Paypal to refund me XXXX, which is my existing balances across my accounts. Reference numbers : XXXX - XXXX - XXXX   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have been experiencing problems with Wells Fargo Bank N.A .  First problem : Wells Fargo Allowed a change to my bank account personal information at the request of an identity thief after I had submitted a 7 year extended fraud alert on my credit profile with the credit reporting bureaus. Wells Fargo should have contacted me personally with the contact information on my bank account profile in their computer before they changed my personal information. Wells Fargo changed my drivers license number and state of issuance, my country of origin, and my home address to those of the identity thief. I have proof of this because a Wells Fargo Banker at a local branch office in my hometown showed me on the banks computer that my information had been altered. He also gave me a printed copy of the changes that had been made. I closed the account since Wells Fargo did n't keep my bank account safe.  The second problem I have had with Wells Fargo is that they have denied me access to online access to the Wells Fargo credit card I have with them. Wells Fargo sent me a letter saying they restricted my online access due to my identity theft issues. I have tried to contact them many times by phone to resolve the problem but I have waited up to 30 minutes on hold with their fraud department and often get disconnected.  The third problem I have had with Wells Fargo is with their credit card processing service called XXXX. I have a business and needed to have a mobile credit card terminal to be able to accept my customers credit card payments so I purchased a mobile credit card swiper from XXXX and then signed up for a merchant account with XXXX. My business is legally registered as an XXXX in the state of Texas and I have documents and an employer identification number and a taxpayer number that I included in my application for a XXXX merchant account. I was sent an email saying I had been denied service due to credit report information from XXXX. I checked my XXXX credit report and found no negative information on it. I believe Wells Fargo is denying me the XXXX service simply because I have a 7 year extended fraud alert on my credit report. Instead of calling me personally to resolve these issues involving Identity Theft they continue to give me problems with every service I have, used to have, or want to have.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I have had a XXXX checking account and savings with Wells Fargo for at least XXXX years. Recently I realized my account had been charged {$8.00} per month for the last XXXX months. I immediately called to find out why and was told that my debit card expired and fees were based on not having a debit card. I was not aware it expired nor was I notofied of the change in type of account I have as a result. Usually a new debit is sent when the old XXXX expires. I was told a new card would be ordered and only XXXX of the XXXX {$8.00} fees could be removed. This month a {$10.00} charge appeared. They have no record of a new debit card being ordered and say that even so I would have to use it XXXX times a month for it to count toward the free checking. They also said my account had been switched to a {$1500.00} minimum, which I DID NOT authorize! I had called the XXXX number to find out if the other XXXX charges could be reimbursed. They said no, but we did not discuss changing the parameters of the account. I feel violated that my account was changed twice without my knowledge and fees are continuing to accrue. I am closing the account as soon as possible, but wonder how many others are paying fees without knowing it.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Originally, I had linked my Chase credit card to my Chase checking account since they informed me that this would be convenient in case I get overdrafted on certain bills I have set up for auto pay. When I did get overdrafted, I was told that it would be charged to my credit card versus me getting charged for the overdraft fees, which was great. But soon I realized that every overdraft became a CASH ADVANCE towards my credit card, and I was never told that they would be cash advances at really high rates. Of course they have zero remorse for not informing me of this. I walked into a branch and demanded they remove the link from my checking account and credit card account, and to stop any overage charges or attempts. They say sure, and mind you this is a Chase Supervisor, female, within the branch and answers with such arrogance, and just rude as I ask a few questions, and adds that they would need to charge me XXXX ~ XXXX dollars to remove the link. Wow.. what thieves. Today I check my accounts and both accounts seems to be linked to my credit card STILL, and now again charges my credit card.. I feel this violates my rights and what was confirmed to have been done at a branch which I saw with my own eyes, and yet they decide to charge me again. I feel this is almost fraudulant, as this was unauthorized for Chase to do without my knowledge or my permission. And I have not even received a call from them, or any notices as of today. I am not sure who I can possibly report this to or how I can get this resolved other than having to stop banking with this fraudulant bank. I have banked with them for so many years, and yet they have no attempt of resolving any issues with me, whether it be over the phone or even at the branch. Nothing but bunch of arrogant supervisors which consumers like myself, have to deal with which is not very attractive, and very difficult to approach when dealing with this type of subject in the matter of our own money and funds.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All joint accounts with EX-spouse were requested closed at Bank of America. We had to request and sign together at local branch in NH. The joint checking, savings and home equity account were closed. However, BoA says they left open a overdraft protection account associated with the joint checking account that was closed. I did not have an existing overdraft account to my knowledge. I had XXXX in XX/XX/XXXX but it was closed several year later by BoA for late payments.   Two years later ex-spouse began drawing on overdraft protection account by accessing funds through ATM. Ex-Spouse did not make payments and BoA began collection activities from me. Local branch managers with BoA agreed with me that I was not responsible, but home office would not. I requested proof, my signature, anything showing me as joint owner on this account, and have received nothing.   I have not had any bank account or credit card from BoA since XX/XX/XXXX   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was charged {$350.00} in overdrafts over the course of three days.  I checked my account and realized I had pending charges that would put me negative if I did n't bring the account current. It was about {$5.00} in tota, l I would be negative. So a deposit was made and cleared by morning and my account was positive. But then the bank charged me for XXXX overdrafts from the day before. I could only see XXXX charges but they said that the XXXX XXXX is invisible and I do n't see it. ( Wait..What did she just say, I cant see it ) Its pending, I think is what she said. So I 'm like Ok. So when that pending transaction clears and posts, and I am able to see it, am I charged another overdraft fee for the same thing. Because that is what it seems like.  Anyways I did not know my account was negative so it all went down hill from there. When I realized it XXXX days had passed. I went to pay for my husband and son 's birthday dinner only to find I was overdrawn over {$200.00}. And when woke up to call another {$70.00} was charged. So they did refund {$70.00} back but I still dont understand what went wrong. I dont know if they are reordering the transactions or what, but I did ask them to take me out of whatever program I was in that that consents to them paying a charge for {$.00} and then charging {$35.00} for it. I would rather the {$.00} be declined. I am XXXX in a state that is very seasonal. I need all the money I have to survive and dont appreciate being charged a ridiculous amount of overdrafts when I have several accounts. I am seriously considering taking my business elsewhere, XXXX consumers deserve more respect.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">XX/XX/XXXX 2015Federal Bank RegulatorOn XXXX XXXX, 2015 Chase Bank confiscated {$14000.00} from my checking account. They did this with a simple debit entry. They did not provide any advanced notice. This was done without any discovery of fact procedure, arbitration or legal hearing. My account did not have sufficient funds and therefore was overdrawn. A check for local property tax was outstanding and subject to penalties. The entry that triggered this action was a direct deposit from the IRS on XXXX XXXX, 2015, a month and a half earlier. I have not received any correspondence from the IRS about any issues. I understand the clearing of funds between banks and the need to reverse transactions. Chase shows this in funds available for withdrawal. This normally takes days not a month and a half. I believe all issues are with Chase Bank and their handling of the transaction and their procedures for confiscating money. I have contacted Chase and they are working to resolve the error. I hope and expect the monetary portion to be resolved. What can not be resolved is the procedural issue which allows a bank to at their whim without notification and any formal procedure to confiscate money from an account holder. This requires Federal regulation. In summary my question is : Can a bank at any time confiscate money from an account holder without advanced notification and without a formal fact finding hearing?   Banking is not practical without assurance of funds. If this is not legal, what is my recourse?   XXXX XXXX XXXX XXXX XXXX XXXX, Illinois XXXX XXXX XXXXXXXXXXXX   </t>
   </si>
   <si>
+    <t xml:space="preserve">My original message copied from a screen shot reads as follows : '' Dear XXXX XXXX : Thank you for contacting Wells Fargo. My name is XXXX, and it is mypleasure to assist you today.  I would like to thank you for choosing to have your accounts with us. Weappreciate having you as our customer.  I understand your concerns regarding the fees schedule and would like torequest that Wells Fargo make some changes. I know how frustrating feescan be.  We continually evaluate our accounts and services, while considering theneeds of our customers, industry trends, and impacts of the changingenvironment, and make changes as necessary. Our goal is to set a fairprice that is consistent with the value of each account or service.  Thank you for taking the time to share your thoughts. Your concerns areimportant to us as we strive to better serve our customers.  At Wells Fargo, our goal is to exceed the expectations of our customerswhenever possible.  If you would like to discuss other account options that could bettermeet your needs and help you avoid future fees, please call us anytimeat XXXX ( XXXX ) so we may work together to find theproduct that is best for you.  In order for us to respond most effectively to your concern, please sendwritten correspondence to the address listed below : Wells Fargo BankExecutive OfficeXXXX. XXXX XXXX XXXX, CA XXXXEnsuring that you have the best possible banking experience is of theutmost importance to us, as you truly are a valued customer.  On behalf of Wells Fargo, thank you for your business. We are happy tohave you as our customer and appreciate the opportunity to assist youtoday.  Sincerely, XXXX XXXXWells XXXX Online Customer ServiceORIGINAL MESSAGE : -- -- -- -- -- -- -- -- -Wells Fargo will be losing a lot of customer loyalty based on their fee schedule. XXXX XXXX for example has no international transaction fees ( on their debit cards!!!! ). Almost all banks waive foreign transaction fees since the bank is making money on the transaction itself. My University is actually going to be implementing another fee on students to pay with a major card since banks are not helping but robbing education institutions! XXXX XXXX also provides fee ACH transfers to other banks/credit unions w/o any type of fee. Finally, XXXX XXXX still offers an amazing program while using their checking account and debit card on a normal basis. I have earned over {$100.00} from XXXX XXXX by simply using my checking account. What has Wells Fargo done for me lately? Except fail to work with me on every level, nothing. Wells Fargo, you need to make changes.  ________________________________________________________________________My final response to Wells Fargo Customer Service via the online banking secure messaging : I am shocked that in this new century, lenders would ask for a paper written request to a correspondence address. This should be provided if the customer only wishes to communicate via USPS. I will be forwarding the concern electronically to the CFPB and request their assistance with the matter unless something drastic is done by Wells Fargo to amend this terrible service.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In XX/XX/XXXX my checking account at Bank Of America was closed due to XXXX checks that were cashed against my account by me in the same day. I cashed those checks for a friend that was in need of a favor. When i was notified the checks bounced in full surprise i paid back the bank the next day in full. I paid it back so fast the bank did not get a chance to even close the account yet. My friend did not realize that his mother 's account that he had permission to write checks off of winded up closing the night before. Please help me i am now XXXX and i am trying to start my life and i ca n't due to this minor setback as a XXXX just trying to help out a friend in a positive manner. I tried contacting Bank of America XXXX times and received the same response each time  there is nothing we can do other then tell you to file a dispute ''. I wrote a letter to them pleading my case and XXXX days later i got a response saying they were not going to remove the negative information from early warning services and with basically no reason why. Please help me I do n't know what else to do I have tried everything in my power, I need your help!!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, On XXXX XXXX, I electronically transferred some money from my Wells Fargo Business account to my Wells Fargo Checking account via my web account. Just so you now, these are linked together online. The reason I made the transfer was to cover a subsequent electronic payment of estimated quarterly tax to the IRS the next day.  When I logged in to my Wells Fargo accounts online, I discovered that my Checking account was in the red because there was insufficient fund in my Checking account. Payment went out to the IRS the next day as expected, however, money was not transferred from my Business account as I earlier requested online. So, I immediately went ahead to electronically transfer funds from my Business account to my Checking account in order to more than cover the shortfall. I then called Wells Fargo to alert them about this incident. After about 30 minutes on the phone, they confirmed that there was indeed a glitch on their system on XXXX XXXX and/or XXXX. When I asked them why they did not take steps to inform their customers about this, they said this information is only shared with customers who called in to complain. I was surprised by this statement. I further asked them to ensure I am not charged an overdraft fee as they typically do when there is insufficient fund in my Checking account, even if there is sufficient fund in the Business account. This is another issue I 've raised with them on a couple of occasions. However, they claimed I could not automatically link my Business account to the Checking account for overdraft purposes, despite the fact that I was the sole owner of my business and solely operate the Business account. They informed me that I would have to manually make transfers online whenever I expect a shortfall in the Checking account. Anyway, going by to my first issue, I found out on the XXXX of XXXX that I have indeed been charged an overdraft fee for insufficient fund in my Checking account on the XXXX of XXXX, despite the fact that this was entirely Wells Fargo 's fault. I am very inconvenienced by this and would like action taken to ensure this does not occur in future. Thank you for assistance.   XXXX XXXX   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I called the XXXX number because they were several {$36.00} fees on my account. I have n't called to have any of the fees waived on my account in years. I am disable and I asked the young lady XXXX employee # XXXX could she waive any of the fees. XXXX advised me that US Bank do n't waive any fees. When I asked her for a number to someone that I could speak to that 's over her. She gave me a p.o.box nnumber. I have been a customer at US Bank for over XXXX years and have even recommended family members to open up an account. I felt that the young lady was very rude and was n't even trying to work with me. To loose a customer that 's been a customer for years over {$72.00} fee is insane. Before I became XXXX I worked with many customers in order to make them happy. An employee like XXXX employee # XXXX could give US Bank a bad name with consumers.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had an account with Paypal for years and because of their service I have occurred XXXX in bank fees. This is because of Paypal 's Instant Transfer policy that customers are forced into by providing a bank account number. I have been given paypal credit and their method of increasing credit is through purchases, however in this very process of seeing whether one can receive a credit increase if it is denied without your knowledge your bank account will be charged through their Instant Transfer policy.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">To whom it May Concern, I, XXXX XXXX, hereby declare that I have been a loyal customer of bank of America since 1998. I have changed accounts four times for security reasons, but I never left my bank. It has been about ten months or so since that the overdraft fees that bank of America charges have become outrageous. Bank of America reorders debit card transactions/e-bill payments and withdraws in various ways ( usually placing the higher amounts first that will leave customers with negative balances XXXX, therefore ; the average client will be left with more than a few costly overdraft fees. Every time I have called to complain about how my available balance changes from day to day, the supervisors and customer representatives tell me that the automatic system rearrange transactions in different ways. Sometimes the automatic system will process larger transactions first and others the system will not process transactions correctly over the weekend. Consequently, on Monday morning the average costumer will be surprised with a bunch of overdraft fees. I have asked supervisors and customer reps to amend the mistakes that the automatic service makes. Some managers will waive a few charges. Others, like the last supervisor I spoke with will tell me that if I balance my account using my phone or a computer, I am destined to pay overdraft fees every week. If that is the truth, why does bank of America promotes mobile applications, online banking usage and online statements? Then, to make it more ridiculous the supervisor told me that if I kept doing my balance using paper and pencil and comparing it with my online balance, I was also destined to be charged hundreds of dollars in overdraft fees. Supervisors keep talking about the automatic service and blaming it for all overdraft fees like the automatic service is an electronic device that ca n't be handled by human beings ( it has its own mind ). My sister who was a loyal customer for XXXX years of Bank of America left the bank because of the same reason : Bank of America is rearranging deposits and withdraws anyway they want, so they can make millions charging overdraft fees. Something has to be done to stop Bank of America for charging overdraft fees in order to increase costs to average consumers for their benefit.   </t>
   </si>
   <si>
     <t xml:space="preserve">On XXXX/XXXX/2015, Wells Fargo had charged me XXXX in overdraft fees, and and I had 30 days to pay off the account instead Wells fargo took the XXXX from my other account and settled the overdrawn account, and the 30 day time frame was not up. Which I was misinformed about how to close the account. I was not given the proper procedures. This is the second issue I had about Wells Fargo and their overdraft fees. The account was supposed to been closed in XXXX 2015, but as of today I found out that Wells Fargo did not closed the account. I called a rep on XXXX/XXXX/2015, little did he wanted to do anything about it. The company is in denial.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I was frauded against and when I filed a claim at the CHASE bank after telling them to lock my account while it was happening was denied claims and they left me with {$2500.00} debt and interest your claims against them : XXXX regarding this in anyway? can you help me recover from hardships of error injury and health concern as well?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My bank is authorizing an electronic transfer to an insurance company every 3 months. The insurance was free for 1 year for opening a checking account. The insurance is not needed and not wanted. I called the bank in XXXX 2015 and told them to remove the automatic deduction and was assured it would be taken care of. The same transfer just occurred again, XXXX/XXXX/15. The Bank is unresponsive referring me to the insurance company. I tried to phone the insurance co. in XXXX. I was put in a wait system and then was disconnected. This problem is on the internet - many are having the same problem.  The transaction involves the XXXX XXXX XXXX XXXX. XXXX, XXXX XXXX XXXX XXXX is the payee on my bank transaction information.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">A bank fraudently claimed ownership of land that isnot there property. In an attempt to sell a home they rippeddown posted signs, removed a house trailerand sold it, and trespassed. They refuse toreturn any phone calls and will not talk to lawenforcement. They are attempting to sell a propertywithout a proper land survey, then leave the messto my family and the new land owner in an effortto make a quick profit- this is fraud. The Bank is Sun Trust.  The land has been in my family for about 100years with well defined borders. The addressis next to the banks land at XXXX XXXX XXXX PA. I have attempted to call SunTrust 18 times, they will not respond. I filed a policereport with the State Police, but they hang upon law enforcement and refuse to answer anyquestions. They hired a people to illegallytrespass, rip down posted signs and stealproperty- an RV home. This all is an attempt toile a quick saleand profit before law enforcement can react.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Wells Fargo is refusing to respond to theft and remove a hold on accounts. {$100000.00} plus is missing from the account through wire transfers, forged checks, on-line bill pay, credit card and XXXX XXXX XXXX cashed at Wells Fargo XXXX location. Also, checks from Credit cards and other banks were cashed through Wells Fargo XXXX location.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chase Bank and I open an account XXXX/XXXX/15. Shortly thereafter I receive a notice ( and check ) we 've closed your accounts. Chase says if you have any question call XXXX. I call and I am told reason for the closure is fraudulent activity. After my concern I call asking who is responsible for any fraud. There are only XXXX parties involved, XXXX or Chase Bank. Chase at XXXX changes the subject and will not answer any questions. Within my Chase accounts there are XXXX bonus I expected to receive. I have met the requirements. Chase comes to me promising bonus and then changes their business tactics.           i recieve a   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I Went to open my account. The Teller add a persons in to my account as a join account I have been Fraud.The money missing from my account The account closed by others. Now what? RE : FTC Ref. No.XXXX wish to continue thanks   </t>
   </si>
   <si>
+    <t xml:space="preserve">I bank with BB  T. I had a small overdraft on my account. Well a few days later that small overdraft turned into {$350.00} in overdrafts. From what it looks like they moved transactions that I know had already cleared my account and caused even more overdraft fees. They also moved things around to look like I had more money than what I had in the account and I did n't realize what they had done until it was too late and I had all of these fees.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Whom It May Concern : I am filing a complaint against Amegy Bank for insurmountable stress, loss of time at work, sleepless nights, XXXX days of driving and hours on the phone and in your bank. As of today, XXXX XXXX I still have no answers.   Saturday morning XXXX XXXX I pulled into an ATM to get money out of my account. My husband 's direct deposit had gone through the night before and my husband and I had traveled to XXXX XXXX on Friday night for a short vacation weekend.   On Saturday morning I tried to open my online banking account from my cell phone. After several failed attempts, I called the number on the back of the card and was told that my account was frozen and they could not disclose to me why. They instructed me to call the branch where I opened my account. I did. They also told me that they could not give me any reason why because that department was not in on Saturday. We were told by one Amegy employee that the hold was due to fraud by a write-off of a closed account from 2013.   We have been with Amegy for XXXX years. We have never received any kind of letter or email in reference to a debt we owe to Amegy. We were treated on the phone like criminals. We had no other means to get funds to come home. We were told by customer service that someone would call us back, they did not. We spent the rest of our weekend trying to get answers and our funds released to no avail. Our vacation was ruined and we had to borrow money to get home on Sunday.   Monday morning we spoke with XXXX XXXX XXXX of the XXXX branch who was able to release our funds but our debit cards were closed. We live XXXX minutes from Amegy, made XXXX trips that day trying to get to answers  money out of our account. XXXX XXXX did everything he could to get answers for us. Your fraud department, he found out, thinks that I owe {$260.00} but as XXXX XXXX showed me on your computer, I do not. My account was closed properly with XXXX XXXX XXXX ( my banker for XXXX years at the time. ) I know that I am not a large account holder. My wife and I are in our XXXX 's and I had XXXX and can not handle this level of XXXX.   At this time, XXXX XXXX, XXXX XXXX, we still have no answers. Again, XXXX XXXX is doing everything he can to help us but I need to know who is able to hold {$2000.00} on a {$260.00} debt I do not owe.   I am requested someone to please help us.    Sincerely   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I 've been trying to get a modification since XX/XX/XXXX through Bank of America. Excuses after excuses and I know that I 'm qualified. This last attempt to modify my mortgage their answer was  We ca n't Identify you with the mortgage ''. What does that mean, I asked and they had no answer for it. I have tried over and over again and I think they just want to take my home and I 'm going to fight for my home of XXXX years. I 'm recovering from a house fire in XX/XX/XXXX and was out of my home for XXXX months only to come back and Banks of America says the want me out. Loan # XXXX XXXX XXXX XXXX see do n't this verify me with the property at XXXX , Kansas XXXX. Please help me keep my home! Help me fight Bank of America. Thanks in Advance.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Hello, First of all thanks a lot for having a forum that listens to the customer voice against big banks whose main motive is to make insane amount of money on taxpayers bailout.  I am writing this complaint against bank of america who have defrauded me to the tune of {$700.00}. I deposited a check in XXXX XXXX from my dad 's XXXX bank account. After a month passed i noticed that the check never cleared. I did n't get any notification from BOA and when i inquired they mentioned that the check did n't clear because the signature did n't match. I looked at my statements and i noticed that they initially cleared the check and gave me the money that i never withdrew ( because i was told its an international check so wait ) but then they took the money away {$700.00} more than they deposited. I was really shocked to see that how can that happen. The check was not mine, it never cleared, it was not my fault and then they charged me {$700.00}. I have been going door to door but BOA does n't care because i am not their multi XXXX dollar corporate client. Please help!  Here are the detailsThey gave {$7200.00} that i was told to note take out and then took away {$7900.00} - {$610.00} for a check that was not mine or not my fault at all.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Three years ago, I opened a 36 month CD with USAA and a 36 month loan secured by my CD. The maturity date of the CD and the loan payoff date was XXXX XXXX, XXXX Per agreement, funds from the CD would be eligible for withdrawal on XXXX XXXX, 2015, with any remaining balance on the secured loan to be paid from the CD with any remaining balance after deposited into my USAA checking account.   On XXXX XXXX, 2015, I electronically signed into USAA to cash out the CD and pay the balance of the secured loan. Upon log-in, I discovered that USAA had already taken the loan payment from my USAA checking account, which resulted in an overdraft of appx. {$7700.00}. I then attempted to withdraw the funds from my CD to cover the overdraft, but the USAA system would not allow me to access my account.   Naturally, I called USAA and informed representatives of the situation, and I made the following requests : 1. I asked that USAA please RETURN the {$9500.00} they had TAKEN from my checking account and applied to the loan. USAA representatives could not ( or would not ) reverse the charge.  2. I then requested my CD funds be released and deposited into my checking account as to cover the overdrawn funds. USAA representatives could not ( or would not ) provide me access to my CD account or money in the account, although the CD had matured that day.   Moreover, USAA representatives agreed that my account was overdrawn in error and that the loan balance should have been paid with monies from the CD against which the loan was secured, and they were BAFFLED as to why I could not access my CD or withdraw the funds, but they had no suggestions or apparent means of resolve. I was a told that the money withdrawn from my checking account was a  systems '' issue and irreversible. I was also told not to  worry '' as the  system '' would return the overdrawn funds to my checking account by XXXX XXXX XXXX, minimizing the possibility of more overdrafts.   RESULTS:1. A negative checking account balance that could not be reversed by USAA nor covered by me, because USAA would not give back the {$10000.00} I had invested 36 months prior with the good faith understanding that I could withdraw the $ XXXX and accrued interest on the CDmaturity date of XXXX XXXX, 2015.  2. A secure loan DUE but NOT PAID because USAA had overdrawn my checking account and blocked my attempts to withdraw the CD funds that would have covered the overdraft and paid the loan amount due.  3. NON PAYMENT of four checks posted to my checking account that subsequently bounced, due to the overdraft CAUSED by USAA, and the REFUSAL on the part of USAA reps to reverse the overdraft that USAA made in error or give me access to the CD funds that were due to me that day. I will provide documentation with exact amounts and dates, if needed.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Chase Bank will not let me close my XXXX account. My XXXX has been closed over 3 years ago. I have no active XXXX. It was an XXXX registered XXXX. I added my brother to the account when I opened the Chase XXXX account. When I tried to close the account, they said my brother was on it and they could not close it. I had my brother go to a Chase Bank XXXX where he lives and show identification while at the same time I was at a Chase Bank here XXXX, where I showed proper identification. We had a conference call with XXXX parties on the line and Chase Bank still refused to close my account. There has been no activity on my account. They keep deducting {$12.00} monthly from the funds I have left in the account. I want to close my account. Please help. I do not know what to do next.   </t>
   </si>
   <si>
@@ -415,15 +799,33 @@
     <t xml:space="preserve">I have not been using my account for over 6 months. When I checked the account it had occurred over {$630.00} in overdraft fees alone. There were over XXXX {$35.00} fees from where one company tried to take money out of the account.   </t>
   </si>
   <si>
+    <t xml:space="preserve">US BANK - XXXX XXXX, 2014 DISPUTE AMOUNT XXXXUS BANK XXXX XXXX XXXX, 2014 DISPUTE AMOUNT XXXXTO WHO THIS MAY CONCERN : FUNDS WERE TAKEN OUT OF MY ACCOUNTS. THESE ACCOUNTS WERE SATISFIED. THESE ACCOUNTS ARE IN GOOD STANDING PER BANK BRANCH MANAGER. PLEASE REMOVE THESE NEGATIVE ACCOUNTS OFF MY FILE. OR SIMPLY UPDATE THEM. MY ACCOUNTS WITH US BANK ARE STILL OPEN AND POSITIVE.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">About three weeks ago, I went to a wells fargo bank in XXXX to open a new checking account besides the one I already have. I did that. I was told that the account has been created successfully, and I should be receiving a new card within 7-10 business days. It 's been more than 20 days, and nothing is received. I am not even worried. I happened to go to the branch the other day, and check on the status of the card. I was told that I had to provide further information, namely, ( Apt number ), which I then did. Next, the banker told me that your card will be mailed out to you soon. So far, no stress and everything is cool. I walk out, and next day, which is literally this day ( Friday ) I try to buy some food using my debit card, but could n't. Debit Card was never accepted by all machines. Things started to get weird! I then tried to get some cash via an ATM, however, it kept declining the transactions. I then went straight to the closest bank branch, which is at the University XXXX. I was trying to explain what 's going on, and understand the problem, yet bankers -including the manager- were being too unhelpful. I told them that I could n't use my debit card, and .. so forth and that it keeps getting declined, so they asked for an Id. I showed them my University ID, as well as an international valid driving license. They did n't however bother to check onto my account, and yet insisted to see my passport, which I obviously did n't have at that point, nor was I able to go get either. I was frustrated because I was not even able to afford for a taxi to take me back home, so that I can get my passport and fix the issue. I never held cash on me. I felt condescended. I got disappointed, and walked out. I tried to call the bank thinking they my be of a help. Lucky I was, at least was informed what the problem was, which totally ended up being unpleasant. After verifying of my identity, they told me that my debit card has been deactivated. And the reason is because another card will have been mailed to you. My answer was Seriously?? It just does n't make no sense to deactivate all my working debit cards ( XXXX ) because you are sending me another one for another checking that has not even been received, and without any temporary cards! Simply, I have been blocked out of my accounts. I was no longer able to get any money out of my money just because of that! I could n't use the card, and I could n't do anything else. Apparently, on an email I received from WELLS FARGO the other day saying that my, supposedly, previous card will not be deactivated until the XXXX/XXXX/15 which completely disagrees with all the actions taken. They deactivated XXXX working cards that are, nonetheless, associated with a different checking account. It 's too frustrating to see carelessness prevents you from using your own property and own money.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I deposited a personal check for {$3000.00} into my Flagstar Bank account on Monday. My brother wrote me a personal check to help me with my XXXX bills and help pay XXXX. I have fallen on hard times and he offered to help. I expected a 3 day hold on the check, which would be okayXXXX. However, Flagstar bank not only placed a 3 day hold on the check, but turned around after the three days and placed anther 7 day hold on the check for loss prevention. This is a local check and both my husband and myself have direct deposits of our payroll checks being deposited into this same account. Our payroll checks are more than the {$3000.00} personal check.This 7 day hold caused me to go XXXX for 7 or more days XXXX. This is unreal and uncaring. The whole purpose for my brother giving me this money was to prevent this from happening. They are heartless and cold to do this to any human being.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I filed a BankAmericard Cash Rewards Card today, so I got declined from Bank of America dated of XXXX XXXX, 2015 : Unfortunately, we 're unable to approve your application at this time.  As a result of our decision, any balance transfer requests included with your credit application will not be processedXXXX, thanks for applyingI complain against Bank of America for discriminated against my income and they made me in full of disrespect banking account notification to U.S. Senators and SPeaker XXXX XXXX.  I am dual unhappy with Bank of America responses involved due to unfit XXXX and XXXX residents notification to U.S. Senators, thank you, much!  Sincerely, XXXX XXXX   </t>
   </si>
   <si>
     <t xml:space="preserve">I had my banker, XXXX XXXX ( sp? ), update my debit card for international travel. He told me the card was outdated and he would have a newer, updated one sent to me. He never asked me to complete an application nor did I sign any. Three weeks later I received a new CREDIT CARD with a high credit limit. I called immediately to have it canceled and get guarantee this card would not appear on my credit report. The operator assured me they would cancel it and it would not appear on my report. It is canceled but it is on my report. I did not apply for a credit card, I was lied to and deceived by PNC.   </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX I went to Chase branch XXXX to re deposit a check in the amount of {$17000.00}. I did the deposit tru the teller who gave me a receipt and say check was verify and no hold was placed, so money was available for use the next day. Teller name XXXX. On Saturday, XXXX XXXX, 2015, I went to another Chase branch XXXX that I was closed by and i decided to withdraw $ XXXX, the teller was ready to release my withdrawal but it was her limit so she asked her manager for approval and the manager she started reviewing my account and make the teller to call the XXXX. They say they can not verify check and I was not given or neither serve notice of funds to be held. So I belief Chase bank to be penalized for the illegal practice and they should pay a fine to me the consumer for pain and suffering. We are ready to prepare a civil lawsuit if this matter do not resolve ASAP.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX XXXX I received a letter from CHASE BANK reads as follow '' We recently reviewed your account and determined that we will be closing it on XXXX, XXXX, '' the letter said.  You XXXX close your account before the date we 've provided.  Please accept our apologies for the inconvenience.  We want you to have enough time to complete pending transactions and open anotheraccount at another bank.  AS SOON AS YOU CAN : *Cancel all automatic deposits that you have set up with employers, government agencies and other parties.  *Cancel all automatic withdrawals that you have set up with merchants for payments, memberships and other parties.  At Least 7 days before the account closes : *Stop depositing checks into your account.  *Stop writing checks from your accountYou May chose to close your account before the date we 've provided. Your account agreement says that either of us may close your account at any time, without notice and without a reason.  If you have questions please call XXXX bank declined all ACH from this account within 7 days of sending me this letter and never waited the 30 days as their notice reads.  2-Chase Bank has never gave me a reason to why they decided to close my account, I never had any banking issues.  3- My only understanding from talking to the Chase Bank Manager at the time is  my national origin '' basically because of my religion and ethnicity no sugar coating. Chase Bank does n't want XXXX to bank with CHASE. When I called the number on the letter, a chase representative was very unprofessional and defensive. However, they still refuse to give me an explanation to why they close the accounts.  4- Even though the bank can close any customers account they want, the bank operates and practice in the USA XXXX the XXXX law supersedes any entity laws or regulations, and bank activities are regulated by government agencies.  These laws are listed on CHASE Website:5- XXXX XXXX XXXX The ECOA prohibits discrimination in any aspect of a credit transaction. The ECOA is not limited to consumer loans. It applies to any extension of credit, including extensions of credit to small businesses, corporations, partnerships, and trusts.The ECOA prohibits discrimination based on : Race or color ; Religion ; National origin ; Race discriminationThe Race Relations Act XXXX makes it unlawful to discriminate on the ground of race. It is unlawful to refuse a service, or to not give the same standard of service extended to others, on the grounds of race, color, nationality or ethnic origin.  It is direct discrimination if a firm refuses to lend money because of the applicant 's racial origin. But indirect discrimination is also unlawful. It would, for example, be indirect discrimination where a lender refused to lend money on properties below a certain value - if such properties were located in an area that was largely populated by a particular racial group - unless the refusal was justified on non-racial grounds.   Civil Rights Act of XXXX XXXX XXXX XXXX of XXXX provides that all persons  shall have the same right ... to make and enforce contracts ... and to the full and equal benefit of all laws and proceedings for the security of persons and property. '' As equal rights to purchase real and personal property is guaranteed by the Civil Rights Act, our policies and procedures must safeguard against racial discrimination in every step of the lending process.  XXXX Think CHASE Bank Closed my account based on my RELIGION  RACE-ORIGIN.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">This is the letter I sent to CapitalOne360 regarding their refusal to correct my Checking Account statement. Long story short, my statement shows a transaction with incorrect check number of XXXX XXXX XXXX ) when in fact the check number is XXXX. The place the blame on the bank that cashed the check XXXX North Carolina XXXX Employees XXXX XXXX XXXX.  -Begin Letter -Date : XX/XX/XXXX2015To : OFFICE OF THE PRESIDENT - CAPITALONE 360From : XXXX XXXX XXXX CHECKING CUSTOMER - ACCT # xxxxxxxxxxxxTo whom it may concern, I currently hold a Capital One 360 checking account with you. I recently reviewed my checking account transaction history online for the month of XXXX and noticed an anomaly with a particular check I had written for a business expense in the amount of {$90.00}. The check shows as check number XXXX and had no image associated with it. This check 's actual number is XXXX. I called Capitalone360 customer service to notify them of the error and to request that the check details in my online checking transaction history be corrected. I was told the details could not be corrected at that time, but I could get a copy of the check through secure message. I received a copy of the check in PDF format which I appreciated. However, my checking account statement for XXXX documents the incorrect check number of XXXX XXXX XXXX XXXX.  Today, I called Capital One 360 customer service to see if they could correct the check details in the transaction history. I spoke with Supervisor XXXX XXXX Employee ID # XXXX XXXX whom reached out to the check receiving department on my behalf to see what they could do. After a long hold, I was informed that the check details could not be corrected and that check # XXXX could not be changed to XXXX. The explanation was that when the bank that cashed the check XXXX XXXX XXXX sent the cashed check to capital one, XXXX entered in the wrong check number which in this case is XXXX. I was told that Capital One policy dictates that check detail information received from the bank that cashed the check had to stay intact in my online transaction history and also on my checking account statement even if that detail information was inaccurate.  I posed a hypothetical scenario XXXX. What if the Bank that cashed the check incorrectly coded the check number as XXXX? Since Capital one policy requires that information be kept intact when reflected in my transaction History and my checking account statement, would n't check # XXXX show up on my statement and transaction history? She agreed that according to policy, yes, XXXX would incorrectly show up on my statement as well as transaction history. I then asked that since Capital One policy states that statements ca n't be corrected, would n't I be stuck with a Bank statement that showed incorrect information for that hypothetical check transaction where check XXXX showed as check XXXX. She agreed that It would. This hypothetical situation is no different than the situation I am in now. Whether it 's check XXXX or check XXXX, the fact is that the transaction detail is wrong and I do n't have accurate documentation for my business transaction on my Bank statement. I explained the importance of accurate documentation for business expenses and Tax/IRS issues and requested that I receive a corrected statement showing check XXXX instead of check XXXX. I was told that CapitalOne policy prohibits statement corrections.  I am very disappointed that your policy prohibits me from getting a corrected statement showing the correct check number and also prohibits correction of online transaction details. The only documentation regarding this business expense is a scanned copy of this check. Unfortunately the check does not correlate to my XXXX Capital One 360 checking statement since the statement is incorrect showing check number XXXX.   I am requesting a change in the Capital one policies that disall   </t>
   </si>
   <si>
+    <t xml:space="preserve">I have been banking with Capital one bank for about 5 months now and back On XXXX XXXX between the hours of XXXX XXXX and XXXX XXXX I went to a capital one bank in XXXX TX to deposit {$260.00} in the atm so i could go school shopping for my daughter and not have to pull out cash and just be able to swipe my card. Ive had bank accounts since I was XXXX years old and never had atm issues so as i normally do I stacked up all my bills followed instructions on screen and gave the atm {$260.00} then the atm said their was an error reading my money and then cancelled the transaction and my money was never deposited and never returned to me. I immediately went in the bank and they said there was nothing they could do because they have nothing to do with the atm outside and gave me an XXXX number to the atm department and claims department. I called them but since it was a saturday they said all they could do was send out a request to look into the issue and contact me in 7 business days. So that Monday morning on XX/XX/XXXX i called the bank is XXXX and asked for a manager, i explained the issue and she transferred me to claims. The claims department issued a credit of {$260.00} and I thought my issue was taken care of, I was relieved and forgot about the issue until a month later in XX/XX/XXXX I received a letter stating there was no error in the ATM and i am required to pay back {$260.00} or my account will be negative and will affect my good banking credit. The claims department said they would have to call me back again after i said I do n't feel I should have to pay this so after ending that call I called the bank where this event took place and asked if they could review security camera form that date i need someone from this company to be on my side and can help me prove that this atm took my money so the man at the bank location looked at my account and said the issue was that they gave me a credit of {$260.00} twice and thats why i got the letter even though according to my transaction history it only shows XXXX credit and according to the letter they sent me it does n't say I was issued XXXX credits by mistake it says I need to pay back the {$260.00} because the there was no error on my account or atm. I am getting XXXX different stories and based on what I know happened and on the documents I have the atm took my money, they issued me back my money and now they are saying im lying and i need to pay it back. But the bank and the claims department are giving me XXXX different stories. Its just not fair.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have reason to believe my bank is structuring my transactions in a way that generates maximum overdraft fees. In the past three months, on at least XXXX occasions, I have been hit with as many as XXXX overdraft fees on transactions that could have been covered if the bank ordered them smallest-to-largest, or even if they took place in chronological order. The bank now wants me to switch to a savings account that would refuse to honor the purchases XXXX but which would mean I 'd receive fees from the company I was attempting to pay ).   </t>
   </si>
   <si>
@@ -433,6 +835,18 @@
     <t xml:space="preserve">Complaint Re : Unfair, Deceptive and Abusive Acts  Practices ( US Bank and XXXX XXXX XXXX ) Key Complaint : US BANK via XXXX XXXX XXXX ( payment collection Company ). charged me a 2,250 % undisclosed Processing charge, has provided deceptive billing and engaged in unfair practices to increase charges.  On XXXX/XXXX/15 we rented a car from XXXX XXXX. Upon leaving the store we found ourselves driving on a toll road. We contacted XXXX XXXX and was told that  you should of purchased a  plate pass '' and that we would be charged an  undisclosed administrative fee and additional fees at XXXX XXXX  discretion ''. We were NEVER offered a Plate Pass, Never heard of it, and Never Accepted the terms of being charged  undisclosed fees '' at  XXXX discretion ''. The next day I contacted the North Carolina Turnpike Authority to pay the toll directly. I was told by an agent that there was no bill pending and that I would need to wait until a bill is generated. I called the Turnpike authority on back on XXXX/XXXX/15 and again no invoice was found. On XXXX/XXXX/15 I received a bill in the mail from XXXX XXXX Services stating that on XXXX/XXXX/15 my credit card would be charged {$47.00} For : Toll Charges : $ XXXXAdministrative Fees : XXXXTotal XXXX!  The XXXX stated that I XXXX provide proof of payment to the toll issuer to clear the matter. However, on XXXX/XXXX/15 when I contacted the North Carolina XXXX XXXX and requested to pay the {$2.00} outstanding toll charge, I was told they have no record of the toll and that I should contact Dollar rental to get an Invoice #. Per their suggestion, I called the Dollar Processing Services and was directed, According to their automated system, to US BANK processing services. I spoke to a representative who stated that they do not provide invoice numbers for toll transactions. I asked if we could contact the Turnpike Authority together via conference call, she stated she can not call outside companies. I said I would initiate the call, she refused. She gave no option to dispute the charges stating that XXXX has  probably already paid the charge and therefore the Administrative fee is accurate ''. I then contacted the State Turnpike authority and asked again if their is any way to pay and was told that there is NO RECORD of a toll and that without an invoice # there is NO way to determine if their ever was a toll. I asked if I could mail the {$2.00} anyway to show proof that payment was made. I was told the funds would not be accepted since there is no bill.  This is clearly a scam. As a consumer, I am being billed for a service I did not authorize., I have received no evidence a service was ever used, and though the bill states that I have a remediation alternative of paying the bill directly and avoiding the administration charge, the Processing Company refused to provided the key information to allow me to do just that.  The billing process from the bank is unfair and deceptive since they actively withhold key information to allow me, the consumer, to pay the bill directly ( to the toll issuer ) to avoid the administrative fee, and Abusive considering that they have charged a {$45.00} undisclosed admin fee for a {$2.00} bill. That is a 2,250 % processing charge!  Also, to note, The State Turnpike Authority stated they have had several calls recently from other consumers with the same complaint. Since the state has no way of verifying these invoices, XXXX has the ability to falsify these bills and collect additional fees.  Given XXXX has my credit card on hold, I have been in contact with my respective bank since XXXX/XXXX/15 documenting all these issues. I have also written a letter to the Department of Consumer Affairs and I intend to dispute this charge with my bank. However, I fear that failure to pay may result in a collection that could later damage my credit   </t>
   </si>
   <si>
+    <t xml:space="preserve">RE : TCF Bank Debit Card Fraud file number XXXXMy experience with TCF Bank has been plagued with issues, and the latest includes MY ACCOUNT WAS DRAINED BY A DEBIT CARD I DID NOT REQUEST OR HAVE! ( XXXX, I intended to close a checking account at the TCF Bank located in XXXX, XXXX XXXX, IL because I was being assessed a fee for not maintaining an account balance I was not told about. ) I was convinced to try another product - no interest with no minimum or fees. I agreed to keep my money at TCF, but specifically requested to not have checks or a debit cards issued. I wanted to withdraw cash directly. TCF Bank proceeded to assess a fee for checks I did not order ( they reversed the fees after I complained ) and apparently issued a debit card for the account which I do not remember ever receiving.  Flash forward, I receive a Notice of Overdraft or Adjustment letter dated XX/XX/XXXX stating my account with TCF was overdrawn by {$410.00}. I knew that was impossible because I had not withdrawn cash from the account since XX/XX/XXXX. I immediately called their customer service and was instructed to go to the branch the next day and file a Regulation E/Electronic Transaction Unauthorized Use Claim, which I did. I receive several other Overdraft letters dated XX/XX/XXXX ( {$1200.00} ), XX/XX/XXXX ( XXXX ), XX/XX/XXXX ( XXXX. ) After calling very upset that TCF 1 ) PERMITTED DEBIT CARD TRANSACTIONS ON MY ACCOUNT WHEN I HAD NOT REQUESTED A DEBIT CARD AND IT WAS NOT NORMAL OR CUSTOMARY FOR THE ACCOUNT, 2 ) CONTINUED TO PROCESS TRANSACTIONS AND ASSESS OVERDRAFT FEES AFTER THE ACCOUNT WAS ALREADY OVERDRAWN, and 3 ) DOES NOT HAVE A QUICK REMEDY OR INVESTIGATION PROCESS WHEN AN ACCOUNT IS COMPLETELY DEPLETED. On XX/XX/XXXX TCF bank notified me a provisional credit of {$4500.00} for disputed transactions, and {$140.00} Service fee reversal would be given.  I THINK TCF IS HOLDING MY MONEY WITHOUT CAUSE. I want to transfer my account to another bank, but am told the balance is provisional and the investigation can take until XX/XX/XXXX. TCF knows I filed a police report and made calls to venders on XX/XX/XXXX and XX/XX/XXXX, and THE VENDORS AGREE THE TRANSACTIONS WERE NOT MADE BY ME. XXXX vender, XXXX XXXX Floor in XXXX, WI XXXX charge of {$3700.00} ) said they have an employee that remembers the transaction and carrier ( a man with XXXX XXXX XXXX ) that picked up the order, and has a receipt but signature is illegible. XXXX XXXX, Building Manager at XXXX XXXX XXXX said the debit card had been called in, and acknowledged the transaction was not made by me. I spoke with another vender, XXXX in XXXX, IL ( charge of {$580.00} ). Per XXXX, the debit card was called in, they have surveillance, and an employee that remembers the man and car who picked up the order. He also acknowledged the transaction was not made by me. With just a few phone calls, TCF could easily determine the transactions were made fraudulently and fully release my money. I think it is wrong that TCF has not fully released my money, so I can close the account and move to another bank that has better systems in place to prevent fraud and track record of releasing funds in a timely manner.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is my fourth complaint about overdraft fees on my account. I am attaching documentation to show that Key Bank changes the order of credits and debits to accounts. I would appreciate someone from the Consumer Financial Protection Bureau to closely look at my documentation this time as I have copied my account over the last two days to show the discrepancies in accounting. This last overdraft I received because I moved XXXX $ from my standard checking to my son 's Hassle Free account. The reason my account over drew in the first place two days ago was because of the fees debited by Key Bank. On the ledger there is no sign of overdraft before the fees were debited. In response to the overdraft complaint yesterday, Key Bank sent a tutorial with a fictitious person named XXXX who is XXXX XXXX and very young. The tutorial says that she over drew her account buying coffee and donuts. Besides the very problematic racialization of XXXX, Key Bank blames the customer when actually what is happening is that Key Bank alters the timing of debits and credits in ways that incur overdrafts. My ledger shows several deposits in the last few days yet they mysteriously move around in the ledger as do debits. Once an overdraft is debited in accounts that are fragile ( meaning no overdraft protection attached and low balances ) these fees throw the account into disarray resulting in yet more overdraft fees. Please CFP look carefully at my account. I am not some crazy person continuing to complain. I am an educated woman who follows her account diligently and I am going to continue to complain because I know if this is happening to me, it 's happening to others who perhaps do not have the money to pay the fees. I have attached a short analysis in a document. It 's short becasue i really do not have time to do this every day. I want these fees to stop. I am probably going to receive yet another overdraft fee because my account was overdrawn this morning. The only reason my account is overdrawn is that Key Bank has debited excessive overdraft fees from my checking account..   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi, I am a Bank of America customer living abroad. I had money transfered to BOA from a bank here in XXXX where I live. The money was sent with all information correct except the XXXX. A trace was done on the amount of XXXX $ and XXXX ( the intermediary bank ) is said to have sent the money to Bank of America, but no information is being given regarding the funds. There has been no receipt of the funds and it has not reached my bank in over 1 month. I am receiving overdraft fees and little help from any of the American banks ( XXXX and Bank of America ). BOA is not responding to the trace sent by XXXX. In speaking to BOA they are saying, they do not see any traces. I have called every week and I am getting no help from my bank 's end in investigating. I had family go to both Boa and XXXX but they were of little help. Again, information from XXXX has been sent to BOA regarding my case as XXXX has opened an investigation. For some reason BOA has not responded to any of XXXX 's trace inquiries. I have attached documents from XXXX XXXX regarding this case. I really need help.  Thank you.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Department of Justice, FDIC, Office of the Inspector General, federal attorney review, Please. This is a complaint about the Consumer Protection Bureau ignoringrequests on Consumer Protection Bureau filings to have appropriate federal attorneylevels review filings since XXXX, 2015. Most especially, the US Bank filings sinceXXXX XXXX, 2015, should be reviewed by the US Inspector General 's Office, as thisOffice addresses fraud, abuse, misuse of banking systems and supplies, federal lawviolations, general misconduct in banking proceedings, etc. It is the appropriatelevel of Legal Review to have the Office of the Inspector General review howCFPB has handled this matter of filings, since XXXX, 2015, with virtually all requesting, in the opening lines, federal attorney and/or federal agency review, bringing andcoordinating all applicable federal agencies mentioned for thorough dispositioning.   The Consumer Protection Bureau may be obstructing due processes in law, Obstructing justice, not to comply with customer 's requests. Furthermore, CFPBdiscourages further filings in the future, when there are legitimate complaints tobe filed and knowledge is that the CFPB will block the filings from appropriatelevel of federal attorney reviews. The appropriate and accurate description isinvolving a checking account, but all that has been reported involving US Bank, XXXX XXXX XXXX, too complex to categorize, with serious matters intertwined.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">On XXXX XXXX, 2015 I contacted PNC bank because I saw a charge from XXXX in the amount of XXXX. I contacted my bank to let them know that this transaction was not authorized by me. PNC bank removed that transaction. I asked the representative how XXXX was allowed to post a transaction on an expired debit card. I had used this debit card a couple years back to purchase the online version of the software. It looks like the automatically sign you up for automatic renewal.My debit card ending in XXXX expired on XXXX.   In XXXX of 2015 I received a new debit card ending in XXXX with a different expiration date. I has awoke from sleep the morning to find that PNC post the transaction of XXXX and I incurred XXXX XXXX fees associated with that transaction. I with into the XXXX site and login to find they had my new expiration date ( attached document ). Until today I had not logged into XXXX 's site since filing my taxes in XXXX of 2015. I am very curious to know how XXXX acquired my new expiration date because they surely did not receive it from me.   I was advised by XXXX that if your credit card is expired, your bank can authorize a charge and also update the new expiration date. I was told that they can do this without notifying the customer. I believe that customer should be notify and have the opportunity to say no to this service just lilt opting in or out of overdraft protection.   </t>
   </si>
   <si>
@@ -445,27 +859,60 @@
     <t xml:space="preserve">Bank is drafting intentionally drafting ACH charges in order of highest dollar amount first so they can collect more overdraft fees. This caused my account to accumulate XXXX additional fees than if they had paid the items smallest to largest first. The reasoning the representatives give over the phone is  we consider the higher dollar items more important in pay order than lower dollar items '' meaning that if they were going to reject payment of an Item they would rather reject payment of the smaller items than the big item. Of course this makes no sense because even after paying the largest item first they still pay the smaller items and still collect extra fees and nothing ever gets rejected on my account because they know with my direct deposit that money coming in is a sure thing. When I asked them to reverse the XXXX unnecessary fees I was told I had already received XXXX complimentary fee reversals for the year so they could not refund the fees. After asking to be escalated twice to a higher person I was told the next person would have to call me back in about two hours. That was approximately 2 days ago and still no call back. So now in addition to not fixing their wrong in the first place they are not calling me back as I was promised. This ACH payment order seems to me an obvious and blatant way to collect more fees from consumers already struggling.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I was a customer of M and T bank for several years. Until recently, I had no complaints. However, I noticed this past month that I was charged a XXXX monthly fee for a service I thought was free. I checked my account and saw that this amount had been taken from my account for the past few years.   When I called customer service, the woman was kind enough to inform me that my account required that I have direct deposit or XXXX dollars to avoid this fee. When I first signed up for M and T, I was told this account was free, and it was, considering that at the time I had my check direct deposited into my account. However, this money has been taken from my account since I left that job which was in XXXX of XXXX. I asked my customer service person if I could end this, she said yes, and that all I needed to do was downgrade my account. I did this immediately, and then asked what difference there would be to my account. She said nothing. My account status simply made me eligible for other benefits which I never used. I calculate that from XXXX of XXXX to XXXX of XXXX, I have paid XXXX for a service that was never used and never requested.   What 's more, upon investigation, I found that in XXXX, M and T was fined XXXX dollars for just this infraction, and paid XXXX XXXX dollars in refunds to over XXXX customers complaining of this same issue.   When I called M and T to ask for this money to be refunded to me, they said that this would not be done. They said that the above infraction did not cover my type of account, which she said was never advertised incorrectly.   I have, however, paid nearly XXXX dollars for a service I never received or requested.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I got married on XXXX/XXXX/15 which resulted in a name change. I contacted Bank of America as I have multiple accounts with them, two checking accounts, a savings account, and a credit card. I am also an authorized signer on my parents bank account, as they are on mine for emergency purposes. XXXX of my other sisters is also an authorized signer, and she lives out of state as well. I contacted my local Bank of America branch to confirm the paperwork I would need to make the change - except they would not allow me to make the change on my own. They are making me have every signer on the account come in and sign for my name change, keep in mind, no one else 's names or information were changed. I call the telephone banking number, I was initially told this should not be a problem and I should go back to the branch. I go back to the bank branch prepared with my legal documentation, again I was denied the ability to change my name without all of the other signers. The issue is, my father who is on the account, works out of state and there are no branches where he works. I call the telephone banking number again, I was told there is no way around this, but was told I could close my account with only my signature. I was also told this at the branch. Why I would want to close my account of 20 plus years and open a new XXXX, is beyond me. Especially when it would not fully resolve the issue, my name is on other accounts and I will not close my parents bank account. Bank of America offered to mail me a form to complete, I called twice on this form and kept being told  The form is on the way, give it time '' 2.5 months later, I am still waiting on said form. Bank of America 's policy on this is asinine, all I want to do is change my bank account to my legal name. I have done this same action with other financial institutions and all it required was a phone call and a form, no other account signers required. Bank of America 's policy is outdated and a major inconvenience to consumers and they offer no viable solutions.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Mailing of proceeds of account closeouts from Ally Bank appear to be unduly and purposefully delayed so that Ally Bank benefits from holding onto the related funds at the expense of account owners.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I 've had a problem with Capital One Bank for months now. My account information was stolen and there were several out of state purchases made with both mine and my husband 's debit cards. Capital One refused to investigate and return us the money although they do advertise a risk free debit card. They basically blamed us for everything and did nothing even after we proved that we were not at the place where the charges were made. Their customer service is the worse and we are beginning to suspect it might have been their own employees stealing our account information. We have worked with other banks and are currently using a different one but never encountered this problem.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">On or about XXXX XXXX, 2015, my wife and I called Navy Federal Credit Union ( NFCU ) to see if my pay check had been deposited into the account yet. When we called, the NFCU representative told us that our account had a negative balance. After inquiring why, they informed us that a check for {$1500.00} had not cleared and bounced, so they were taking the money from our account. They told us that someone had deposited a check electronically and removed the money from our account. We informed them that my family does not use checks, and the only money we put into our account is from Federal Agencies ( pay checks ). Then we found out what we needed to do to dispute this fraudulent activity. NFCU told us that if we went and got a police report and brought it in we would be refunded in less than 48 hours.   After obtaining the police report we brought it in to the branch in XXXX, GA. They said okay it will be refunded in less than 48 hours. 48 hours passed with no action. So three days later we called. Then we were informed that a gentleman and myself, XXXX XXXX, had showed up with the check at the branch in XXXX Georgia on XXXX XXXX, 2015, went to the counter and made the transaction. So therefore they would deny the fraud claim. But they stated they wanted an affidavit saying that I was not present in the location on XXXX XXXX, 2015, because they wanted to look at the cameras to see if it was actually me that showed up in the branch. We completed the Affidavit and gave it to the branch, but they refused to accept this affidavit and wanted me to sign XXXX provided by them. The next day our claim was denied again.   When we called to learn why they had denied our claim again, they told us that the man had come into the branch alone on XXXX XXXX, 2015, and that he was to deposit a check into our account and withdraw the cash value of the check. The check was made out for {$1500.00} and was made out to me. They said that NFCU called me to receive authority for the transaction to take place and that I authorized it. I did not receive a phone call from them and I did not authorize the transaction, but NFCU used their story to deny our claim again.   After this denial, NFCU confiscated XXXX of my pay checks, as well as my children 's savings accounts and froze our account. The freeze stopped XXXX automatic payments from being withdrawn from the account to pay for XXXX loans we hold with Navy Federal, and has resulted in us falling behind on those payments.   On XXXX XXXX, 2015, I met with a legal assistance attorney in the XXXX Office. He called NFCU with me and NFCU told us that they had a recording of my authorization for the fraudulent transaction to take place and that therefore I was a party to the fraud and NFCU would not reimburse my funds. NFCU told the legal assistance attorney that they would not release the telephone recording without a subpoena despite that being the sole reason they denied my fraud claim and the fact that I disputed ever authorizing the transaction to take place whether on the phone or otherwise.  As you can see, I was the victim of a theft of all my private information from the OMP records, so that may have contributed to my situation   </t>
   </si>
   <si>
+    <t xml:space="preserve">I have several accounts with JP Morgan Chase. I received a notice on XXXX/XXXX/2015 that my mailing address was changed. I have been using my P O Box address for more than 10 years. In fact, I never requested to change my mailing address at all. Chase changed it without my approval and authorization and claimed that is  a protection to me '' which I totally disagreed. I called on XXXX/XXXX/15 and talked to XXXX ( supervisor of CA Banking ) and opened the case number under # XXXX. I needed to know who made such mailing address changed requested without my approval. That is the reason XXXX opened a ticket and someone would contact me. XXXX/XXXX/2015 a research support lady name XXXX XXXX at XXXX x XXXX called me. She is not helpful at all and claimed changing address from my mailing address to my residence address without my authorization is legal and is a protection to me. I totally disagreed. Customer has the right to use different address and bank shall respect the customer 's decision. I never request to change and someone changed for me and XXXX still claim that is legal and benefit to me and not feel nothing wrong for Chase 's overwrite at all. In addition, she kinds like a threaten to me by saying  Do you want to have a banking accounts with Chase? '' Sounds like if I do n't satisfy that changed address without authorization and I should cancel and close all my accounts with Chase. That is so ridiculous and unprofessional. I told her that I will file complaint to CFPB because that is totally unacceptable manner.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I am writing to express my concern about Scottrade Bank when my online account was hacked while I was overseas. At this time I had both a Scottrade Brokerage and Scottrade Bank account. I reported the fraud to Scottrade and was instructed to provide a police report as well as other materials which I did. I respectfully requested Scottrade cooperate with the law enforcement agency but they refused and stated I must go through an internal appeal at Scottrade. When I inquired on how to submit a formal complaint for internal review, Scottrade stated that  Corporate HQ '' would get back to me. Well  Corporate HQ '' did not get back to me and after 20 phones calls, numerous certified letters, and complaints with third parties, Scottrade vaguely informed me that I would have to submit an appeal in writing, which I promptly did.   What Scottrade Bank failed to inform me about was that there was a specific Scottrade Bank form for disputing fraudulent transfers and or hacked accounts available here : XXXX I am unsure why Scottrade did not follow their own procedures for dealing with hacked accounts but I am sure that Scottrade 's failure to follow appropriate procedures appear to be an abuse of their position in an effort to avoid liability for the hacked accounts and failed database protections.   I am writing to the CFPB because Scottrade refuses to acknowledge or respond to any of my complaints and I am kindly requesting Scottrade provide me an opportunity for a de novo review of the situation. I have provided Scottrade with a completed account activity dispute form and will be expecting a response. The dispute form is available here, XXXX, and Scottrade Bank has written policies about how to process the form.   If Scottrade refuses to provide the requested documents and take appropriate action, I am specifically asking Scottrade provide me with a copy of the original arbitration agreement ( if it exists ), a request that Scottrade has refused to respond to on over XXXX different occasions.   </t>
   </si>
   <si>
     <t xml:space="preserve">I opened a Charter One/Citizens Checking account back in XXXX of 2015 and it 's been a nightmare since. I 've been charged at least $ XXXX {$2000.00} in overdraft fees. Some I am at fault but a bunch of others I am clearly not at fault. I have called their customer service line 4-5 times throughout the months and what 's available online with the customer banking is totally different than what shows. The call I made today was in regards to XXXX overdraft fees that randomly popped up. So I called, once again to see why. I was told they were for XXXX transactions that posted on the XXXX ( not once showing me in the negative ). Needless to say they have gotten me numerous times and they can no longer get away with what they 're doing. I signed up with them because I was told the only  overdraft '' fees I would to incur with be on outstanding  checks ''. I liked that idea because I do not want to spend money I do n't have. Back in XXXX I had called asking what the overdrafts were for they told me they can occur with an instant ( XXXX ) transfers as well. I have mostly a positive running balance as you will see with the attached documents I provided. PLEASE investigate this as I am sure there are a lot of others dealing with this. It needs to stop. Thank you!   </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX XXXX I charged for XXXX XXXX despite insufficient funds and Chase accepted the transaction only to gauge me with {$68.00} in overdraft fees. So again Chase has overdrafted me despite my opting out ( this is now like the XXXX and XXXX time ) of overdraft coverage. Now, this time is a little different because it says in the overdraft fee that the XXXX charges were repeating charges, but this ca n't be the end of the story because XXXX checks every card it uses to authorize it when it uses it. It 's simply a slippery way for Chase to make an obscene amount of money off of a broke college student, again ... Of course they always check- that 's how the transaction gets processed. They have to because the charge is variable, just like a XXXX purchase ; it is NOT a uniform repeating charge, and Chase 's advertising is both slippery and false, and difficult to understand for the average consumer in this context. I do n't have the means to pay the extra charges, and the XXXX should 've been denied- I would 've just used my other card ( XXXX ) had I known that! I Needless to say I will be using another bank after this issue gets resolved, or a credit union.   AND I understand that XXXX charges are variable and that makes the whole thing more complicated, but it turns out I had well UNDER the MINIMUM XXXX charge in my account, and so the transaction should 've been denied.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX XXXX, XXXX I logged onto my USAA account, per usual, and through sheer luck noticed a small link at the bottom right, greyed out but it said,  hidden accounts ''. I had never seen that before so I clicked on it. It immediately showed a personal loan for {$2500.00} and a checking account for {$5000.00} which had already begun showing negative. However, my usual checking account, savings account, CD, and credit card were never affected. I never opened those accounts and was never contacted or notified they had been opened, so I immediately called USAA. The fraud dept stated they would run an investigation and I should hear from them in 24-48 hours. In the meantime, my account access would be on hold. I asked if I should contact police and was instructed not to do so yet and to wait for inquiry to be completed as I would need that info to file a police report. After 48 hours, and not having heard anything from bank, I contacted USAA and was bounced around to several depts, as well as several reps. In all it took 3.5 hours to speak with someone who stated the investigation was still underway and that I would have no access to my money until internal inquiry was completed. They then informed me there was no way of knowing how long that could take and that they apologized for the fact I was going to be evicted due to not being able to pay rent. I called nearly everyday to find out what was going on, and nobody would answer me. They kept telling me it was out of their hands until the investigation dept told them otherwise. I called again on the XXXX of XXXX. The rep stated the inquiry was complete and that USAA would no longer be doing business with me. My accounts would be closed and my money mailed to me within 30 days. Once again, nobody was able to explain anything or any justification of my account closing or status of inquiry. XXXX XXXX, after having filed a police report was contacted by Detective who said he spoke with USAA investigation unit and was informed account had been closed due to loss of over {$5000.00}, but that inquiry did not show fraud on my part and I would be contacted soon. XXXX XXXX, received letter from USAA stating account was not fraudulent and I was being held responsible for checking account which had now been allowed to go {$8000.00} into the red. Contacted Det. who was furious as he had been lied to. He contacted USAA who informed him they did not believe I had opened account but stated I must have given account info away on purpose as there was no way anyone could possibly hack the account on their own. The police report was filed with all info covering my side of story. XXXX XXXX, XXXX letters received from USAA stating I 1 ) needed to pay on both {$8000.00} checking as well as {$2500.00} dollar personal loan within 30 days or I would be reported to Credit Bureaus and legal action would be taken, and 2 ) If I wanted access to the information used to decided my guilt then I could contact the number given. I contacted USAA with the number given and after XXXX different individuals, eventually spoke with XXXX ( supposedly an executive with banking in XXXX XXXX ) who told me they would not relinquish any of the findings of the report to me but only to a legal representative, such as the detective I mentioned. He actually laughed when I asked for his direct number. So it is the XXXX of XXXX, XXXX and I still have no access to my hard earned money. USAA refuses to give me access to any information pertaining to facts and methods used to determine the decision on my case and they are currently threatening bad credit scores as well as informing me of all the fees I am accruing on my  delinquent '' accounts. I can not access my account so I have no way of pulling documents off or showing anything to anyone. USAA will not allow access back onto the online service as well and all accounts are discontinued per them. Is there anyone who can help me?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE PURPOSE OF THIS COMPLAINT IS THE FOLLOW UP ON CASE NUMBER XXXX.  THE COMPLAINT IS AGAINST COMERICA BANK.  THE PERSON CONTACTED WAS XXXX AT ( XXXX ) XXXX XXXX.  MESSAGES WERE LEFT ON XXXX XXXX 2015, XXXX XXXX 2015, XXXX XXXX 2015. THERE HAS BEEN NO REPLY TO DATE.  THE INITIAL RESPONSE FROM THE RESPONDENT IS NOT SATISFACTORY.  THE FIRST RESPONSE OF THE RESPONDENT IS NOT AVAILABLE.  COMPLAINANT TRIED TO LOG ON TO CFPB ACCOUNT BUT THE SYSTEM DID NOT ALLOW ACCESS TO THE DOCUMENTS.  CFPB WAS CONTACTED BY PHONE ON XXXX XXXX 2015.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">In 2013, Scottrade Bank illegally offset my Scottrade bank account when conspiring with their affiliates Scottrade Brokerage and as a result violated numerous provisions of California FINANCIAL CODE SECTION 1400-1411.   I have requested Scottrade Bank provide me information about how to file an arbitration case against Scottrade Bank and clarification over the arbitration procedures, potential conflicts, and problems, however, Scottrade Bank has not responded.   I would like Scottrade Bank to provide me with a copy of the original arbitration contract and full instructions on how to file arbitration against Scottrade Bank.   </t>
   </si>
   <si>
+    <t xml:space="preserve">We just bought a home in Virginia with C  F Mortgage. Us Bank bought the note and is not honoring the biweekly payment program written into the note in paragraph XXXX. I just demanded they provide a audit and credit all of the additional interest they have charged, since they put my biweekly payments into a suspense account instead of applying them to the note. They also applied one of my payments to additional principle when there was no instruction to do so, and called to say we were behind on our mortgage several times. I need help with this arrogant and unwilling mortgage company.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cfpb compliant # XXXX Sometime in 2015 a so call, friend, XXXX XXXX XXXX XXXX XXXX XXXX , XXXX XXXX , Maryland XXXX, ( XXXX ) XXXX illegally and without my authorization apparently withdrew over {$40000.00} from my SunTrust checking account. SunTrust bank allowed this to happen and refused to investigate after my repeated request to do so. Another friend and neighbor, XXXX XXXX on my behalf went to SunTrust Bank several times and requested that they investigate the theft of my funds. I requested SunTrust to forward my checking account statement including copies of all withdrawals. They refused to do so. At no time knowingly did I give XXXX XXXX a financial power of attorney to make withdrawals from my bank account.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I had an account several years ago with Chase. I recently tried to open an account with them and said that I was  blacklisted '' they will not give me any reasons as to why I can not have an account with there financial institution. They stated I was sent these reasons years ago. I was sent no such letter. I think this is discrimination. I want to know why. I have done nothing wrong.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I deposited a check into my Wells Fargo checking account on Friday XX/XX/2015. The account had about {$350.00} and the amount I deposited in was about {$750.00}. I woke up on Wednesday morning the XX/XX/XXXX to an email notification from the bank that the deposit was put on hold. I went down to the Wells Fargo branch that I deposited the check out to clear the hold. The branch manager notified me that the hold was placed on XX/XX/XXXX and that the reason for the hold was that during the year I had a few overdraft charges. She also told me that the decision to hold the deposit was decided upon at their home office. Where ever that is. My complaint with Wells Fargo concerning this manner is XXXX fold. First off, they know its the holiday season and that people are spending money on gifts. By withholding deposits and not immediately notifying the consumer they allow the consumer to unknowingly overdraw their accounts. The decision to withhold the deposit days after the check was processed by the bank is highly suspicious. By the XXXX of the month the check should have been well cleared. Because I had overdrawn the account before I seemed like a easy victim for them to pull their scam on. When I approached the bank manager about this issue, within a minute she was able to release the hold on the deposit from her computer without any protest. If the bank had any real concerns about this as a long term issue then why would me telling them to release the hold be enough for them to release the hold. I also find the reasoning for the hold to be dubious in the extreme. To state the reason for the hold was because of overdrafts, then not allow a deposit into the account would seem counter-intuitive. Unless of course the bank wants the clients to have more overdrafts, which it does because it then slaps a {$20.00} charge on each overdraft. Wells Fargo 's actions in this situation are deplorable and should be held with utter contempt. It seems rather clear from my perspective that Wells Fargo was looking for an opportunity to slap additional charges on me by unlawfully controlling the timing in which deposits are allowed into the account.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Have an account with Scottrade for years. Suddenly after all the fees, they keep on processing trades then tell me I am longer able to be part of the Scottrade family. The problem they said I was bumping prices. I have had a small account, ca n't really raise the stock price, but on their end they have ask and bid prices which are XXXX lot of time. I see them completing trades below the ask prices, what a bunch of crooks.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Wells Fargo charged me {$90.00} for a safety deposit box that was closed in 2011, then charged me a {$35.00} overdraft fee to cover this box fee.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Submitted account closure request XXXX, confirmation received, still waiting.  Account XXXX.  Tried calling them twice, just put in wait queue.   </t>
   </si>
   <si>
@@ -478,12 +925,33 @@
     <t xml:space="preserve">I have a Bank of America money network account. I used my card at the ATM to deposit {$360.00} and it did not deposit the money. I called the Bank and told them the problem. They told me to fax over a dispute paper. I faxed it over and they told me that it would take up to ten business days. I sent it in on XX/XX/XXXX and it is now XX/XX/XXXX. I still have not received my money and now they are telling me to resubmit the dispute form and wait another possible ten days.   </t>
   </si>
   <si>
+    <t xml:space="preserve">My wife has just gotten her SSN and found a job at XXXX. In order to get her payments, we wanted to open a new checking account. I searched if there was any bonuses for new account customers. I found First Tennessee Bank, which gives {$250.00} bonus for their online applicants. I filled out an application for her, at the end of the process the system told me that her identification is not verified and we need to go to a branch so as to further the application.  We went to the nearest branch of First Tennessee Bank and told them ( a customer representative ) the situation. She told us that she can not further that application on branch, it should be done by online. She offered us some other options, one of them was offering {$150.00} for new checking account customers who meet their criteria. Even though I accepted her offer, I still wanted to ask her why the application which I started online can not be progressed? If the branch can not further it, why did the e-mail told us to continue on the application with a branch? Then, the representative slightly agreed with me and called the phone number provided in the e-mail that First Tennessee Bank sent us during the online application process. The other representative on the call told the representative on the branch that they can not verify my wife 's identity, in other words her SSN is not valid! After the call, the branch representative suggested us to go to Social Security Office and ask them if there is anything wrong with my wife 's information. I wanted her to open the account by herself on branch. She told me that it is not possible to open a checking account once it is declined by the online banking system, even though she was saying that she can open an account ( she already knew that our online application was declined ) in the branch before that call! So, she basically did not want to open that account. Probably, she thought that opening an account for my wife is risky!  I went to Social Security Office with my wife and spent our 1 hour over there in order to ask them what is wrong with my wife 's SSN. The social security officer told us that there is nothing wrong. All of my wife 's information matches with their system. He added that First Tennessee Bank maybe did not want to open an account for us/my wife and sent us to the office so as to throw overboard, which was very logical idea for me.  After leaving the office, I called the First Tennessee Bank Online Account Service and told them the situation. They did not even want to listen to me and repeatedly told me that they are sorry and they can not help me with the situation.  After all these conversations were made and we lost our whole day by trying to deal with these narrow-minded and under-educated people, we came home and I started to search for the reasons why I had this problem. I found the core problem on another bank 's website, which is saying that if you have just gotten your SSN and do not have any background, please go to our branches. After reading this warning, I understood that she needed to have credit history in order to open an Online Checking Account. However, any of the representatives have not told us anything about this. If the case is a credit history for a checking account, which does not damage the bank, but benefits, why do n't they even help us in the branch? This is a customer disappointment. Having this bad experience with First Tennessee bank and being a person who worked at a bank for two years, I am calling this situation disgraceful for First Tennessee Bank. I have felt like we are 3rd ( or even worse ) class of people in this country, who are not wanted in here! For this reason, I wanted to tell my complaint will all the details. Tomorrow, I will go to another branch of First Tennessee Bank and try to open an account for my wife again just to see what they are going to do. I just want my rights!   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Bank of America changed my account type from a fee free account to an account with fees after they  changed and reorganized their products ''. I had a Bank of America enhanced checking account that was fee free based on my relationship with Bank of America. I had a credit card and thus all account fees were waived. Bank of America changed my account type without authorization and is now charging me fees. This was an unwanted change.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I made a purchase online using my debit card which was linked to my XXXX account. When I received the item it was not an authentic item. I tried reaching the seller and got no response. I called XXXX and they informed me to call the bank as they were not the funding source. I called the bank and disputed charge and was informed via phone and mail that I can not be helped and they were sorry I have to get a hold of the seller.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have n't use my card in days first I was overdraft XXXX than XXXX now XXXX, this bank is n't a honest bank at all, I had to take off my direct deposit so they can stop taking my money.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I VIEWED A PROMO OFFER XXXX.THE PROMOTION STATED AFFILIATED OR PAID BY DISCOVER BANK TO PLACE THESE PROMOTIONS SO THEY CAN NOT BE DENIED BY DISCOVER BANK.THEY HAD A NUMBER OF PROMOTIONS AND THEY WERE NOT ALL THE SAME ON THE EXPIRATION DATES BUT I FOLLOWED THE FIRST EXPIRATION PROMO DATE.IT STATED THAT YOU COULD GET AS EXHIBITS SHOW, OF {$100.00} DOLLARS IF YOU OPENED A SAVINGS ACCOUNT AND DEPOSITED {$10000.00}.  THE OTHER STATED THAT IF YOU DID XXXX DIRECT DEPOSITS OVER {$250.00} IN SIXTY DAYS OF OPENING CHECKING ACCOUNT YOU WOULD GET A BONUS XXXX.THE EXPIRATION ON THIS PAGE WAS XXXX XXXX, XXXX BUT OTHER IDENTICAL PROMOS HAD XXXX/XXXX/XXXX? AND SAME OTHER TERMS.  ABSENT FROM ALL THESE PROMOS WAS ANY WORDS YOU COULD NOT ALREADY HAVE A CHECKING ACCOUNT, WHICH I DID, AND YOU COULD GET THE HIGHER BONUS IF YOU HAD A CREDIT CARD WITH THEM AND I DID.I LIKE TO CLARIFY AND MAKE SURE I AM ELIGIBLE FOR ANY AND ALL PROMOS AND COPY EVERY PAGE AND ALWAYS CONTACT THE BANK SO I AM FOLLOWING DICOVER BANKS EMPLOYEE APPROVAL OR DENIAL THAT I AM ELIGIBLE.WHEN I CONTACTED DISCOVER BANK I SPOKE TO AN EXTREMELY NICE EMPLOYEE THAT KNEW THE EXACT PROMOTIONS I WISHED TO CLARIFY.SHE WAS AWARE THAT I ALREADY HAD A DISCOVER CHECKING ACCOUNT AS SHE COULD SEE IT ON HER COMPUTER MONITOR.I ASKED HER IF I WAS QUALIFIED FOR THE XXXX BONUSES .SHE STATED YES AND SHE WOULD CLOSE MY CHECKING ACCOUNT AND I COULD OPEN A NEW ONE.IT IS SHOWN CLOSED BY HER ON AN EXHIBIT..I THEN PROCEEDED TO OPEN A NEW CHECKING ACCOUNT AND SAVINGS ACCOUNT AND I FULLFILLED ALL REQUIREMENTS.AND HAD MY CODE AND BOTH ACCOUNTS OPENED.I WAITED AND WAITED AS IT HAD NO DATE FOR POSTING BONUSES. I CALLED ON OR ABOUT XXXX/XXXX/XXXX AFTER 3 MONTHS, AND A DISCOVER BANK EMPLOYEE STATED IT WAS TO LATE AS SHE TRIED TO CONTACT MARKETING, BUT SHE COULD SEE MY ACCOUNT THAT I FULFILLED ALL, IN HER WORDS ALL THE REQUIREMENTS AND SO THIS WAS XXXX EMPLOYEES THAT CONFIRMED ALL WAS DONE PROPERLY, AND SHE SAID THE BONUSES SHOULD HAVE BEEN POSTED ALREADY AFTER SHE DILIGENTLY CHECKED THAT I FULFILLED THEM ALL.SHE THEN STATED SHE WOULD REMIT AN EMAIL AND I ASKED IF I WOULD GET AN EMAIL AS TO WHAT THE PROBLEM WAS.SHE STATED YES.I NEVER GOT ANY RESPONSE SO CALLED AGAIN ON XXXX/XXXX/XXXX XXXX SPOKE TO A VERY BELLIGERENT AND IMPOSSIBLE EMPLOYEE TO DEAL WITH.SHE STATED FIRST THEY GOT NO NOTICE I USED THE LINK, SO I AM NOT ELIGIBLE FOR ANY BONUSES PERIOD.THEN SHE STATED I WAS NOT ELIGIBLE AFTER I TOLD HER I USED THE LINK. I COULD SEND WITH DISCOVER BANKS PROMOTION AND A SCREENSHOT OF THE LINK I USED.THIS WAS BECOMING A GREAT BIG EXCUSE MAKING EXPERIENCE THAT WAS GOING NOWHERES FAST.  NOW, I GIVE CREDIT WHERE CREDIT IS DUE.I HAVE HAD A DICOVER CARD FOR 20 PLUS YEARS .I ALSO HAVE A CD OVER XXXX XXXX XXXX IN DISCOVER BANK FOR TEN YEARS ALONG WITH OTHERS OVER THE YEARS.FACT IS ALL THAT TIME THEY HAVE BEEN EXTRAORDINARY AND THE BEST CUSTOMER SERVICE OF ANY BANK I HAVE EVER ENCOUNTERED, UNTIL NOW XXXX.I WAS QUITE SHOCKED AT THE VERBAL, WHAT I CONSIDERED ABUSE, AND EXCUSE MAKING AND KICKING THE CAN DOWN THE ROAD TO DISCOURAGE ME.BUT THIS TACTIC IS NOT NEW TO ME AT ALL, AS TO MANY BANKS HAVE DEVOLVED INTO THINKING RULES AND LAWS APPLY TO OTHERS AND CUSTOMERS BE DAMNED. I TOLD HER DISCOVER BANK IS RESPOSIBLE FOR EMPLOYEES WORDS AND ACTIONS AND SHE SAID NO THE PERSON MADE AN ERROR, IN FACT XXXX DID NOT MAKE ANY ERROR AS THEY STATED.SHE THEN TRIED TO MAKE ME FILE A COMLAINT WITH DISCOVER WHICH I TOLD HER WAS LIKE PLACING THE FOX IN CHARGE OF THE CHICKENS. I DID FILE THE THING SO SHE COULD NOT SAY I REFUSED.I ALSO TOLD HER DISCOVER BANK IS ALSO RESPONSIBLE TO TRAIN PROPERLY SO CUSTOMERS CAN GET CLEAR AND CORRECT INFORMATION FOR CUSTOMERS.THEY HAD MY MONEY AND THEN THEY DECIDE HOW CAN THEY CONVINCE YOU DID NOT QUALIFY AND NEVER ALERT YOU EITHER.THEN ARGUE AND MAKE EXCUSES INTO XXXX. SCAMS NEED TO STOP AS THE PUBLIC IS FED UP.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Over a week ago, I deposited a {$5000.00} cashier check via the ATM. A hold was placed on my account. I contacted Bank of America to tell them that I 've written checks and I need the hold off of my account. I can not understand why they would place that type of hold on a cashier 's check. My property tax check for {$3.00}, XXXX was returned. I contacted them today to ask that they pay that check because an additional delay means I will owe the XXXX of XXXX additional money. They refused to pay the check. Meanwhile, they are charging my account for overdraft fees because some checks are coming in. This is almost criminal. It would be different if it was n't a cashier 's check. How much verification does XXXX need in order to release those funds. I can not afford to pay those overdraft fees and the additional money to the XXXX for my property taxes because Bank of America decided to withhold what I perceive to be basically a cash deposit. Is this there way of collecting fees from their customers by forcing them into an overdraft status? This is wrong. I 've been with them a lot of years and I deserve better treatment.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I have been a victim of a fraud and identity theft. The transactions were unauthorized and JP Morgan refuses to refund my own money.   My Chase Atm card was used it in my name for the amount {$9300.00} without my authorization or consent. When I realized I called Chase immediately and open a claim with the Fraud Department. In the letter they sent me they said I authorized the transactions. I never authorized the transactions, gave the pin or join the account with the suspect or individual that did this federal crime. I went to the XXXX police department and filed a police report and when the report was ready I sent a certified mail to Chase with a return receipt and on all my communication with them, they refused to refund my stolen funds.   I explained I was a victim of fraud and I asked the bank to open the claim, investigate and prosecute the individual who stole my funds. I want to solve this with the bank before I take further action. I 'm already in communication with any organization that can help me, again I have been victimized by this theft. The funds were taking from my account generating high fees when I thought my money was secure with Chase that did n't act in my best interest protecting my money or sending any message about suspicious activity in my account and they did n't flag my account for suspicious activity once the cash withdrawal commenced. I informed the bank immediately within the XXXX business notification window.   I have two police reports. The police already know the name of the suspect. This is a federal crime in which I have been a victim of Identity Theft and Fraud and should be prosecuted by the law and my money should be refunded immediately before I go to media.   I informed the FBI, the State Attorney and all the organizations that can help me to get my money back. I want justice and the person who did it to be in jail.   Chase is giving all the excuses not to refund my stolen and unauthorized transactions and the fees. This money was transferred by Chase without my authorization to my checking account and put it to the disposition of the scammer. Chase did n't flag my account even when these transactions were unusual.   This is a federal crime that should be prosecuted it and I do n't have to pay for this criminal action against me.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to get my last name changed back to my maiden name with US Bank Home Mortgage. I currently have a mortgage through this bank. I was legally divorced on XXXX/XXXX/XXXX. I called US Bank in XXXX XXXX and notified them of my request. They mailed me a name change packet and requested documentation. I filled everything out and mailed it back. Since I did n't hear back from them, I assumed the name change had taken place. In XXXX XXXX, I received a copy of my annual escrow account disclosure statement and noticed my last name was still my married name. I called them to inform them that the name change had not taken place. They stated they did not have a copy of my final divorce decree. I asked them to look into the documentation that I submitted because everything was in the same packet so if they received all of the other documents, they should have the divorce decree. I did not receive any further follow up phone calls or emails to notify me of the results of the search. I called again on XXXX/XXXX/XXXX and they stated they still did not have the copy of the divorce decree so I faxed over the copy to the fax number that they provided me. I continued to call to verify they had received the document. I was told that it takes time for the bank to receive the information and then update my account. I called on XXXX/XXXX/XXXX and was told they still had not received the divorce decree. They gave me another fax number which I faxed the document to. I called on XXXX/XXXX/XXXX and they confirmed that the document was received but it takes 7-10 business days to update my account. I called again on XXXX/XXXX/XXXX, which was 10 business days and was told the account was still not updated. This time, the person I spoke with called another person to check on the status. She informed me that there was no documentation as to why the name change had not taken place and that this person would call or email me. I never heard anything back from anyone as of yet. I am writing this to ask for assistance in getting US Bank to change my last name to my maiden name. I have made at least 20 phone calls since XXXX XXXX and I still have not been able to resolve this. There has been no communication from the bank to me, NO COMMUNICATION, I have current email and phone numbers with them. I need to file my taxes and can not do so because they have the wrong last name. They also sent me a refund check on my account, which I can not cash, as the check has my married name listed. Please help.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank of America received funds from insurance payouts and never notified us. They held the funds for 4 years and hired contractors who did work on our property. No one ever verified the work was done and it was negligent causing more damage to the property. The contractor who did the work went as far as to cover the hole in the side of the house with out making necessary repairs to preserve the property. We are unable to go after the contractors because we did not have a contract with them. Had we been notified of the funds being received we could have made the repairs ourselves and been back in our home 4 1/2 years ago. Bank of America knowingly withheld funds intended for repairs and they call it a miscommunication. We have tried working with the states attorney and they have been unable to get a resolution. Bank of America continues to dodge questions and avoid responsibility.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">On XXXX XXXX, XXXX I went to CITIBANK branch at XXXX XXXX XXXX XXXX in XXXX where I have XXXX checking accounts to make a deposit to an account that is in my name, NOT JOINTWITH MY SPOUSE I mistakenly slid the card for thewrong account that is joint with my husband .I put in my pin. When I realized that I had used the wrong account card. I told the teller He said NO PROBLEM, USE THE CORRECT CARD. I SLID THE CORRECT CARD, PUT IN MY PIN which is the same for both accounts.I made A DEPOSIT OF $ XXXX TO THE CORRECT ACCOUNT THAT IS NOT JOINT. Shortly after I left, a Citibank customer requested a bank check for {$2000.00} from the same teller. The check was drawn from our JOINTaccount, the one I activated in error.  We discovered this when checking our bank statement for XX/XX/XXXX.  I went to the branch  met with manager, XXXX XXXX. He called the Citibank fraud unit.I was told it may take 90days to resolve  get the $ $ back in our account. I said this is unacceptable, {$2000.00} is a lot of $ $  we need it now. On XXXX/XXXX/XXXX XXXX credited our account for $ XXXX.We were not told that the credit was temporary, good only until the internal investigation was resolved. Over the next 3 months we received several letters requesting information for the investigation. I gave the letters to XXXX  was assured  do n't worry, I am taking care of it, the $ $ is in your account ''. Apparently he never informed the fraud unit that HE had resolved the matter.  The internal investigation concluded on XXXX XXXX. On that date, our account was again debited!! We received a letter that said I had failed to protect my secure information  the claim was denied. I went to the bank to see XXXX. I was told that he no longer works there! I met with new manager, XXXX. He said he had no time to talk. He said come back in 2 days.In 2 days I returned. He was not there, his location unknown. No one knew how to contact him. We were at a dead end.  I called Citigold customer service to get an explanation for the credit reversal. A helpful woman took my call.She tried to help, but she has no authority. She connected me with a woman in the office that reversed the credit. She would not discuss the matter as It was closed. I asked '' what if I lived payday to payday  needed the $ $ $ for rent, food, etc '' .The reply was  I guess you would have to turn to your family and friends '' .I could not believe my ears!  On XXXX my husband called Citibank Senior VP XXXX XXXX . After explaining the problem my husband requested that the money be returned. XXXX XXXX said she could n't do that  since she just learned about this she needed to look into it. She had XXXX, the missing branch mgr work it out. My husband followed up in 3 days He was told it was being worked. I was called by XXXX that evening. He said Citibank had the name of the man who took the check. He had been contacted  was asked to put money in his account to cover the check so that his account could be debited and the $ $ put back where they belonged, our account. This is unbelievable. I could not make this up. The bank made a mistake, took money out of our account  will not put it back until this man covers it. What if he does n't have it? I was told he never responded.  In the meantime we received a letter from the bank telling us that our account had been blocked  unavailable for transactions. We must close the account. If we did not close the account we were to sign a form that indemnifies them against any other unauthorized transactions against this account. BUT the BANK made the only unauthorized transaction The {$2000.00} was finally put back on XXXX/XXXX/XXXX. We asked for written assurances from XXXX XXXX that this money is in our account permanently  will not be debited again. We have not received such assurances.  There is more to add, but space does n't allow all details.  See part XXXX for more information.   </t>
   </si>
   <si>
@@ -493,6 +961,9 @@
     <t xml:space="preserve">XXXX, headquartered in XXXX, Pennsylvania, merged with First National Bank. Following the merger, online bank statements prior to the effective date of the transition ( XXXX/XXXX/16 ) are no longer available.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I closed my US bank account over 5 years ago. They left it open without my knowledge and charged late fees for things I had never purchased. Now they are preventing me from getting a new account as they sent it to my credit bureaus. I have asked over ten times for verification of debt with no response   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I APPLIED FOR LOAN WITH A LOAN COMPANY THAT SEEM TO BE LEGITIMATE ... THEY SENT ME A LOAN APPLICATION WITH A ADDRESS AND TELEPHONE NO LOCATED IN CALIFORNIA ... I THROUGHT IT WAS LEGIT ... I CALLED THE BANK TO SPEAK WITH THEM ABOUT THE ACCOUNT AND THE CHECK ... .THEY ASSURED ME OVER THE PHONE THAT CHECK WAS LEGIT AND I DIDNT NEED TO WORRY.I DID GIVE MY PERSONAL BANKING INFO OVER THE PHONE TO THE LOAN COMPANY.I THROUGHT THEY WERE LEGIT AND EVERYTHING.I WASNT TRYING TO COMMIT FRAUD.I WAS TRYING TO SIMILY GET A LOAN FOR MY XXXX.I WASNT TRYING TO COMMIT FRAUD ... I THROUGHT THE LOAN COMPANY WAS LEGIT.MY ACCOUNT WAS CHARGED OFF AND I WAS KICKED UNDER THE BUS.NO ONE AT WELLS FARGO WILL HELP ME OUT.I HAVE ENCLOSED A COPY OF THE LOAN APPLICATION.I TALKED TO A XXXX EMPLOYEE ID # XXXX ... ..SHE WAS VERY NASTY AND RUDE TO ME.I NEED MY ACCOUNTS OPEN BACK UP.ALL I WAS TRYING TO DO WAS GET A LOAN FOR THE XXXX I HAVE.IDIDNT KNOW IF THE COMPANY AND THE PERSON WAS A FRAUD.IT WAS AN HONEST MISTAKE.I DONT WANT TO REPORTED TO XXXX.I DONT COMMIT CRIMES.I DONT DO STUFF LIKE THIS.I THROUGHT XXXX XXXX WAS A REAL LOAN OFFICER NOT A FAKE.I WANT TO REOPEN MY ACCOUNTS   </t>
   </si>
   <si>
@@ -502,12 +973,18 @@
     <t xml:space="preserve">I opened a chaecking account with bank of america. I had a loss of income and asked the bank to cancel my debit card out. They did not and they continued to allow a fraudlant charge to continue on my account resulting in fees. They closed my account bc of the XXXX in over drawn fees. They labeled my account as FRAUD. I have thus paid the matter. I am not able to open a checking account any where bc of teh FRAUD on my account. Can you help with me getting is removed?   </t>
   </si>
   <si>
+    <t xml:space="preserve">I am running into filing a dispute with Wells Fargo Credit Card Services. I filed a dispute with them XX/XX/XXXX via the only method they allowed, fax machine. I called their primary phone number in XX/XX/XXXX to follow up and was told that I must wait 60 days to follow up. I called in today they have no record of my claim. I asked to speak with someone in the credit dispute department and was informed that is n't allowed, they only allow internal communication. It is unreasonable that the credit reporting department for such a large company does n't allow any access for consumers to contact them directly. My only alternative now is to submit my claim via fax again and start the two month wait all over in hopes that someone responds this time. This is completely unreasonable for such a large company when the credit reporting they control has such a substantial impact on their customers life.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">SUBJECT ; MY FEDERAL SOCIAL SECURITY DIRECT DEPOSIT : AND MONIES DUE BY DIRECT DEPOSIT ON XXXX XXXX TO MY NEW BANK : ALLY BANK ACCOUNT NOW CANCELLED BY ME, AND ALSO ; PROHIBITING ALLY FROM  STEALING MY FEDERAL MONEY, MONEY TOMORROW WHICH ALLY BANK HAS BEEN PROHIBITED BY ME FROM ALLY RECEIVING THAT AUTHORIZATION. AND  STEALING '', FEDERAL MONIES NOT YET SENT TO THEM, AND THEY HAVE ACKNOWLEDGED THAT I CANCELLED THEIR ACCESS, NOR AUTHORITY BY ME TO RESTRICT ALLY AND BY AUTHORITY OF THE XXXX. THE FEDERAL SOCIAL SECURITY XXXX. I HAVE SENT A FORM XXXX ON XXXX XXXX WITH THE FEDERAL FORM SUBMITTED ON XXXX XXXX TO AUTHORIZE ANOTHER BANK TO BE PERMITTED/AUTHORIZED TO RECEIVE/DEPOSIT THESE MONIES.  ALLY BANK : IN COMPLAINT XXXX CLAIMS THAT A COMPLAINT BY ME ABOUT A CHARGE ON MY ACCOUNT IS STILL IN PROCESS. THEIR LATEST E-MAIL, OF XXXX XXXX ADVISES THAT THIS COMPLANT ON A CHARGE ON MY ACCOUNT IS DECIDED BY THEM IS CORRECT AND FINISHED, AND I AGREE THAT IT IS FINISHED WITH THEM, WHILE I RESEARVE MY LEGAL RIGHT TO PURSUE THIS MATTER IN THE COURTS NOT ALLY BANK, ALLY HAS ASSESSED MY ACCOUNT ON THIS CHARGE. AND FINISHED THIER INVESTIGATION ON XXXX CHARGE. THEREFORE THIS MATTER IS CLOSED. I DO N'T CARE IF THEY KEEP THIS ACCOUNT OPEN DESPITE MY WRITTEN NOTICE OF CANCELLATION, MY COMPLAINT IS REGARDING MY FEDERAL SOCIAL SECURIITY MONIES THAT HAVE NOT YERT BEEN SENT TO ALLY BANK. THIS DIRECT DEPOSIT HAS BEEN RECINDED BY ME TO THEM AND ALL THE NECESSARY AND FEDERAL LEGAL FORMS PROHIBIT ALLY FROM STEALING MY FEDERAL MONIES ON XXXX XXXX.   PLEASE HELP ME WITH THIS SOCIAL SECURITY MONIES THEY ARE TRYING TO STEAL WITH ADVISING THAT I CAN NOT CLOSE MY ACCOUNT WITH THEM. FORMS   </t>
   </si>
   <si>
     <t xml:space="preserve">I attempted to dispute a charge, XXXX from XXXX of XXXX on XX/XX/XXXX, the transaction id is XXXX. However, the rep ( s ) I spoke to did not understand which transaction and reason for dispute. The first rep I spoke with insisted the transaction in question is a XXXX funds transfer on XX/XX/XXXX, a day prior, which it is not. Again, the correct transaction is noted above. The charge is a deposit on a vehicle, which I attempted to cancel. However, the dealership refused and stated deposit is not refundable. They refuse even when vehicle has not been delivered and an option on the car is incorrect. Also note, the payment amount for financing is not what was agreed to. This was explained to a second rep I spoke to, I had to call back after dealing with first rep who would not cooperate. However, I do not know if dispute was filed or not as I have no email confirmation of anything of that sort.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Fraudulent activity of my checking. XXXX checks written fraudently and XXXX wire transfer for almost {$200000.00}. Reported to chase bank. Sign affidavit. Was told that the checks were obvious forgery. I have the supposed checks used at my house unused. All monies were sent to a gold dealer. Have no received any communication. Chase overdrafted and approve monies from savings to checking. No red flag was issued. I was out of the country when this happened. My online access was blocked since XX/XX/2015 and I stop receiving statements as of XX/XX/2015. Called in XX/XX/XXXX and found out the balance of my account and that 's when we became aware of the fraudulent activity. Chase is now refusing to reimburse my monies. When I was assured my monies would be reimbursed within 10 days   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I joined the Bank of America for the sole purpose of a good rate of return from an inherentance i received, when i enquired it the BoA to open an account i was given a choice of a standard account which i feel suited my needs, at the time i was go through redundency from my job so i used {$5.00} to open the account after i transfered the money a few days had past i received nothing from the BoA to confirm the account set up so i emailed them to inqire what the hold up was after a day i received mail back from XXXX XXXX XXXX my account officer the standard account was no longer available and that i would need to take a more expensive account the Premium account at XXXX i had most of that but needed help so i called a friend of long knowing who lives in XXXX XXXX to assist me she agrreed to help with my account and did so, my money nearly XXXX usd was transferd in to my new account within 24 hours, after a few day i received mail telling me i could strat to transfer money to other accounts or my own here in the XXXX ( i am XXXX living in XXXX ) when i set the amount to transfer it would not transfer the funds i requested stating some thing about a cost of transfer fee, i emailed XXXX XXXX again and he told me that i needde to pay {$42.00} transfer fee to transfer money, why was i not informed about this why was i not informed about the Standard account being canceled why was things not explained to me? and why on Friday or Tuesday being it the XXXX break is my money being confinscated? and the account closed why can i not have money used to pay for this Cost of Transfer fee i just do not under stand why i can not have more time or why can the bank not alouw me to pay for the CoT out of my inhernance that they have in my bank account if you would please look into this as i feel it is unfair and to myself i feel as if i am being cheated of some thing i never know would come my way, and that i now have no money to pay my debts and have used all my redundancy payment just to oipen this account my friend also has paid {$37.00} towards the CoT she is tring to raise more but is finding things a little hard right now, so i feel this Bank of America has now put XXXX people deeper into debt, my self and my dear friend, so please help me with this matter my email address is XXXXXXXXXXXX XXXX if you need my BoA account number this i will provide on request, the account is in my full name XXXX XXXX XXXX XXXX, thank you   </t>
   </si>
   <si>
@@ -517,45 +994,93 @@
     <t xml:space="preserve">I have been a client of BB  T Bank for over 15 years. As of XXXX XXXX, I have noticed numerous unusual charges to my XXXX Checking Account and fraudulent activity on my account and have asked the bank to assist with no help at all and continuous bank charges are being accessed on my account and I need some help in resolve and to recoup monies owed to me by my financial institution. Also please note XXXX XXXX the issued a chip security card with my old atm debit card number XXXX cards were active until XXXX XXXX. Claim # XXXX, XXXX, XXXX ( pending )   </t>
   </si>
   <si>
+    <t xml:space="preserve">I have a bank account with US Bank and created my personal account there. I was told there would be no charges, and there were none for a while. However, recently I have been getting charges on XXXX accounts. I opened XXXX because I was doing the personal banker a favor by opening accounts they called me out of the blue to open. They told me they needed them for the quota for that month. I stated as long as I do not get any fees I will open them I am getting fees on them like monthly maintenance fees and getting coinage fees. I can not afford these fees and I do not apreciate them charging me without my knowledge.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A manual payment of was made ( on the due date XXXX/XXXX/XXXX ) to my Wells Fargo personal secured credit card because I had cancelled automatic payments. An automatic payment was still initiated on the same date - after my manual payment. Wells Fargo 's automatic payment non-cancellation mistake caused imbalances to my checking account resulting in additional charges to my other bank accounts and by creditors.   When Wells Fargo was contacted about the mistake, they had no record of my automatic payment cancellation. When I cancelled, the phone representative did n't provide any sort of confirmation number ( which should be procedural ). Though if considered, my manual payment would confirm my understanding of the cancellation.   Following many unsuccessful contacts by phone, call transfers and repetitive explanations to resolve the issues, I was forced to visit my local branch office in person on XXXX/XXXX/XXXX. Following another lengthy situation review with the branch representative, she made several calls explaining my difficulties then, put me on the phone again. The manager on the phone gave me a verbal promise that the correction would be made by Monday XXXX/XXXX/XXXX. Unexpectedly on XXXX/XXXX/XXXX, Wells Fargo closed all of my bank accounts ( including my personal accounts ), because XXXX of my business bank accounts had XXXX returned checks from customers.   The secure credit card balance was below the secured deposit amount and should have been reconciled on the date the account was closed, rather than waiting to XXXX XXXX and the accruing of additional minimum payment charges growing from {$25.00} in XXXX to {$210.00} in XXXX XXXX. Upon Wells Fargo 's closure of all of our accounts, they held full control of our funds.   From XXXX/XXXX/XXXX forward Wells Fargo has benefited, there has been little inclination for Wells Fargo to consider their customer 's experience nor their internal errors which caused a harmful chain of events.   Wells Fargo has not corrected their procedures to provide a confirmation of automatic payment cancellation- for what may be disturbing reasons.  These actions clearly point to systemic policies for generating more fees and profits. This ruthless and machine-like approach has nothing to do with true customer service nor with cultivating mutually beneficial, long term relations.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I AM SUBMITTING A COMPLAINT ABOUT DISCOVER BANK ONLINE.  THEY DO NOT REQUEST ANY FORM OF ID TO OPEN A BANK ACCOUNT WITH WITH THEM AND SOMEONE FRAUDULANTLY OPENED A BANK IN MY NAME AND STARTING WRITING OUT FRAUDULANT CHECKS AND BOUNCING THEM. THEY SHOULD REQUIRE A LICENSE AND A UTILITY B BILL BEFORE OPENING ANY ACCOUNTS AND THIS WOULD NOT HAVE HAPPENED. THEY EVEN HAD THE WRONG MIDDLE INITIAL   </t>
   </si>
   <si>
     <t xml:space="preserve">Bank of America is in the process of closing my account. I have $ XXXX in my checking account that they will not release to me. I 've called the number directed to call and left several messages. No one has responded with any information. I went to the branch and advised to call the XXXX number again. I want my funds released to me   </t>
   </si>
   <si>
+    <t xml:space="preserve">I was just charged XXXX more NSF fees from my bank. I specially got a cash advance to cover any debits When I checked my account on XX/XX/XXXX all my charges were still showing pending. I am not sure what time in their system items posts. I am not sure if they are posting those items even before the merchant requests payment. They are paying the smaller items first than the larger one, so instead getting XXXX fee you get several. I was charged {$140.00} in fees which is all the money I have. I can not even put gas in my car to get to work or buy food because the deposit I made missed. I just paid {$580.00} dollars in fees two weeks ago, which I did not dispute. My whole payroll check went to paying fees, I could not pay XXXX bill. If I request to have them waived, they do not care because I have had other fees waived and if it was not a bank error.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">For almost a year now, Wells Fargo has been reordering my bank charges in order to maximize overdraft fees. In other words, they change the dates on my charges so that they can either charge me overdraft fees, or if I already have an overdraft charge, they will change the dates on my purchases in order to charge me multiple overdraft fees. They will also purposely withhold transactions so that my balance looks higher than it really is. Then, when my balance gets low enough they will process all of the transactions that they withheld causing me multiple overdraft fees. Here 's an example : On XXXX/XXXX/16 I checked my checking balance and it was roughly {$140.00}, so I went and bought a few grocery items that I needed. Now, fast forward to XXXX/XXXX/16. I woke up and saw that my account was overdrawn and there was a new charge on there from XXXX that was n't on there before. It was my cell phone bill that I have on reoccuring auto pay ... .which I admitedly forgot about. However, this charge did not reflext on my balance on my balance until XXXX. There were also XXXX new overdraft charges for the charges I made on XXXX. I called my cell phone privider and talked to a few different people ( including 2 CS Suoervisors ) to see why the charge took 5 days to process and they told me it was my bank who withheld it for 5 days. So basically, Wells Fargo withheld this charge for 5 days and then processed it on XXXX and tyen changed the process date on the charge to XXXX and then retro charged me {$140.00} in overdraft fees. This has happened numerous times over the last 7-8 months and has cost me XXXX ( if not XXXX ) of dollars. It is fraud and I am tired of them taking advantage of me.   </t>
   </si>
   <si>
     <t xml:space="preserve">Over the weekend of XXXX XXXX my bank accounts XXXX at USAA bank was liquidated of {$70000.00} in Florida without my authorization. I reported the unauthorized withdrawals on XXXX XXXX. I was notified that my account would be credited back within XXXX5 business days but this has not occurred as of the date of this complaint. I need to pay bills but USAA has not even given me an update and the investigator has not contacted me.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I was denied durable power of attorney over my XXXX-year-old mother 's checking and savings account due to a credit report. I was told I was at risk because of a cosigned student loan with my daughter that was in default which happened to be that with Wells Fargo. I was told that once this was cleared from my credit report then I could act on durable power of attorney from my mother 's Wells Fargo accounts. I have excellent credit and had no way of knowing this account was in default. This should not even matter. My elderly mother needs help with her finances and her bank has denied her that right of having me act as a durable power of attorney. All documents were recorded, certified stamped with seal as required by Wells Fargo. This denial took place at the XXXX South Carolina branch. After much research and phone calling, I concluded that this is the practice of Wells Fargo in general.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a contract with a guy whom has an account at PNC Bank, I 've been cashing my check here for over a year with my drivers license and pre-paid bank card. They are no longer cashing my check that 's on their back unless I have a major credit card? Or they said I can use a work Id I work for myself do n't have one, or a passport, it cost {$100.00} 's of dollars I do n't have that kind of money and lastly they said a car registration I do n't have a car. this is oppression to the poor, If I can ; t qualify for a major credit card how can I pay my bills? This should not be allowed because not everyone can qualify, if my drivers license and debit card is ok to drive and use my debit card everywhere major credit cards are accepted I do n't see how this is not an acceptable form of ID for PNC   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I wish to make a complaint against Santander Bank.  All the banks I do business with post the interest on the last day of the statement cycle. Then the cycle ends at XXXX and the statementis printed to be sent out or available online. XXXX posts theinterest on the XXXX day after the statement cycle ends. In that case Iloose XXXX day of interest compounding. So, then the effective rate thatis incorrect.   </t>
   </si>
   <si>
     <t xml:space="preserve">Separate from my claim yesterday, I now alleged criminal behavior on the part of XXXX XXXX presented an XXXX Divorce Document to the Branch Manger of Citizens Bank in XXXX, XXXX-XXXX. XXXX XXXX on XX/XX/XXXX at XXXX and requested past Bank Statements for the period between XX/XX/XXXX-XX/XX/XXXX. She promptly pulled up the account on her computer screen and even pointed out the initial deposit on XX/XX/XXXX. Reported to me that it was open in credit status only because there were notes for pending research on fees that were supposed to be reversed over 5 years ago. She then, despite my verbal opposition and the court order in front of her, insisted that she had to close the account because I was getting divorced and should not have a joint account with my spouse and that we were no longer eligible for any applicable credits. She then assured me I would have the requested statements within 2 weeks ( records over 7 years old require the processing of a research fee-despite my physically viewing the XX/XX/XXXX Statement on XXXX XXXX 's Screen ). She then informed me that it would cost about {$180.00} in fees and that I would have to come into the branch and pay that when I pick of the Statements, implied to be just after XX/XX/XXXX. I believe this arrangement constitutes a formal contract for the reproduction of the XX/XX/XXXX-XX/XX/XXXX Statements that she showed me on her screen.   Today XX/XX/XXXX, after filing reports with various stake holder groups last evening ( including you ) as well as citizens bank corporate offices, I met with XXXX XXXX XXXX XXXX manager XXXX XXXX ( actually located at the XXXX XXXX branch ) and was informed that the account records had been purged in  XX/XX/XXXX '' after the account had been closed by XXXX XXXX, which is would have been in strict opposition to the court docs presented to XXXX XXXX and a follow-up email on the evening of XX/XX/XXXX/XX/XX/XXXX to XXXX XXXX ( attached ) reiterating this as well as pointing out the issue of why the account was open for credits only ( refund of fees ) as XX/XX/XXXX.   After, in casually speaking with a Law Firm not XXXX blocks from the XXXX XXXX XXXX, I can confidently say that I believe XXXX XXXX committed a criminal act, fraud actually, as a refund of $ 2,800+ in fee 's described in the attached email to her on XX/XX/XXXX would effect XXXX XXXX XXXX Profits for that branch and therefore impact her performance bonus as branch manager.   I would also like to reiterate that XXXX XXXX 's XXXX XXXX XXXX XXXX was extraordinarily helpful and I believe sincerely tried to reverse the deletion and obtain the records for me going back 7 years. She also stated that if I get a direct Subpoena from Indiana to her she could forward it to legal, who has access to all of my account records since inception at a XXXX XXXX XXXX XXXX as well as many others, but they would only comply with the Federal mandate of 7 years old ( which I have ), it is the XXXX year which is essential as it shows my direct contribution to my wife 's education over that year ( XX/XX/XXXX-XX/XX/XXXX ) which is relevant under XXXX Divorce Law.   Transparency and customer access to records physically shown to me in person XXXX month ago ( XXXX literally pointed out the opening deposit on XX/XX/XXXX ) is not asking anything out of line when complying with a court order. I also believe I should have access to the exact information that she purged after my email, as I should have access to whatever personal financial information so material in XXXX XXXX 's interests that she knowingly and deliberately permanently deleted the record of it.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I was having difficulty accessing my accounts with Santandar through their online banking. I called the XXXX XXXX on the recorded line. After identifying myself through their automated system and changing my pin #, I was connected with XXXX, a represntative. I reviewed my difficulty with XXXX and he asked if he could ask me questions through public recored to confirm my identity. Although, I was confused why they would use public record as a means to confim my identity, but nevertheless I agreed. He asked me my name, address, and social security number. After a pause, he stated that he could no longer help me and that I needed to go to a branch. I was astonished that these were the  tough '' security questions that he asked and even more surprised that his service solution was for me to leave work and go to a branch. Clearly those questions are the very bare bones of identifying someone and I expected a deeper inquiry but received none. I asked to speak to a supervisor and XXXX stated that the supervisor would only state the same thing he did and that XXXX ( actually XXXX ) did not wish to take my call. I insisted and asked to wait to speak to a person in charge. i re-iterated that I did not wish to cause any trouble but wanted help to my issue and not deal with a branch. XXXX eventually picked up my call after the transfer and I reviewed my issue with her. She blamed the  system '' that her and XXXX use and stated their was nothing further to be done. I begged her to please ask me more difficult questions but they declined. I was open to alternatives to resolve this but XXXX and XXXX were not even remotely interested in exploring any other means. Remember, i was able to change my pin but they could n't ask me the amount of my HELOC payment. I told them that their service was poor and uncreative in spite of a basic request. I asked for her supervisor as I desired to provide sorely needed feedback and to explore further assistance if possible. I received no name, no phone number, no email to which I could address my complaint. I did receive a Client relations address to hand write a letter to. I also asked why she told XXXX that she did not wish to speak to me and or hear about my issue. She denied that that happened and in turn made XXXX a liar. Please remember this was a recored line, so there should be no dispute about any of this.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">XXXX 2014 someone took money from my bank account at Wells Fargo. It took a year, but I finally found out that my granddaughter had done it. If I had known my granddaughter had done it I would n't have filed the report. I called Wells Fargo and told them not to prosecute my granddaughter that I would pay the fees from my checking account, but now they wo n't listen. My granddaughter then had a XXXX from the stress and still has court on the XXXX of this month.  Please help me stop this. When I called Wells Fargo to drop the case they said they would, but they wo n't.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Suntrust experienced IT network, account hackers and/or IT incompetence. They were showing debits, by ( me ) consumer XXXX XXXX XXXX XXXX XXXX F XXXX . This on clear transitions, summary ( see attached ) This was only perpetrated to charge my account overdraft fees and extending over draft fees {$150.00}. I advised Suntrust their mistake or IT incompetence, was the cause since I manage my account by their website. In accordance with PCI-DSS, this information MUST be up-to-date an accurate, by law it was SunTrust responsibility to be such.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I purchased a piece of luggage from XXXX and the XXXX use of the new luggage resulted in the luggage being damaged. It was a large hard-sided shell and the shell was cracked beyond repair along with XXXX of the wheels being pushed up into the luggage to where it was unstable. I took the luggage to a XXXX authorized repair facility and they stated that it was damaged beyond repair and that it would not be covered by the XXXX warranty. The XXXX Warranty only covers manufacturing defects or damage and states it does not cover airline mishandling. I called XXXX to resolve the issue because this was the first use of their product and I believe they have a manufacturing defect in that they have not designed the luggage to withstand well know rough handling within the industry for which their product is designed to be used. This to me is an implied use warranty. XXXX refuses to credit my card, although they have sent an email indicating that if I want to send the damaged luggage back to them that they will re-evaluate my claim, but the luggage must be sent at my expense and for which I will NOT be reimbursed, even if they ultimately agree that the damage should be covered. I have gone to XXXX and USPS for shipping estimates and due to the large size of the luggage, it will cost me a minimum of {$60.00} to ship it to them for their evaluation. I then contacted my bank to open a dispute to have the amount credited back to my debit account, and the bank BMO Harris, has refused to do anything. Their position is that because the issue is not involving fraud, that I had no dispute that they could assist me in curing. I do not understand this policy as there is no other recourse for me to attempt to recoup my money without having to prove the airlines mis-handled the luggage, which THEY will require me to prove. This is extremely frustrating, and I would like to complain about the refusal of the bank to attempt to resolve this dispute for which their access device was used, as well as I 'd like to complain that XXXX can not simply disregard the fact that their product is not manufactured to withstand known aggressive handling within the industry for which their product is primarily intended to be used.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Comerica Bank refuses to reimburse me for fraudulent activities on my account during the time period of XXXX and XX/XX/XXXX. I am sending along official documentation of my incarceration at that time, which clearly states that I was in custody for a year during that period until my release on XX/XX/XXXX. Also included are the Social Security documentation of overpayment as well as the bank statement showing payments made to XXXX, XXXX XXXX, etc. This is a DirectExpress Mastercard through Comerica Bank onto which funds are directly deposited.   </t>
   </si>
   <si>
     <t xml:space="preserve">I used XXXX  access checks '' from Bank of America ( {$600.00} each ) to pay a contractor for work related to repairs on my house. The XXXX access check was written to him for the work. The XXXX access check was written to him after he claimed that the XXXX check was accidentally destroyed by his dog. He then never completed the work nor returned any of the money. Since then, the police has charged and arrested him ( the case is pending trial at this time ). I had also notified Bank of America asking them to reverse these charges. They had asked for a copy of the original contract ( which I provided ) and evidence of the work not being completed ( they refused to accept pictures ). On this, I submitted the adjusters report from the claim I filed on my homeowner 's insurance. This report showed clearly the significant damage done to my home as a result of the incomplete work by the fraudulent contractor. I had also submitted the police report and contact officer 's information to Bank of America. After receiving a rejection letter from Bank of America claiming I did not submit all required documentation ( which in good faith I had! ) I called their Status Department for dispute resolution and spoke with XXXX XXXX the supervisor. She admitted that EVEN IF I FOLLOWED THROUGH EXACTLY WITH ALL OF THEIR REQUIREMENTS ( which I did! ) that they STILL COULD NOT RE-CREDIT MY ACCOUNT since, in her words, Access Checks are like cash. I had used those access checks because I felt they gave me greater security in dealing with merchants. As a consumer, when I use those checks, they show up as CHARGES TO MY CREDIT CARD and thus should be treated like any other charges I would make from time to time using the credit card -- thus being protected from unscrupulous merchants. As a final note : I expect in life to have to deal with people who are out to defraud me ; unfortunately, its a part of life. What I do n't expect and am even more angry over is when a company that promises to protect my purchases IN WRITING fails to follow through with that commitment.   I have the following documents : 1. original contract with the contractor ; 2. copies of checks cashed ; 3. police case # and investigating officer ; 4. copies of insurance adjuster report detailing damages to my house ; 5. invoice from the new XXXX I had to hire to repair the unfinished work ; 6. documentation of phone calls to Bank of America ( XXXX phone calls over a period of 2 months totaling over 2 hours ) ; and 7. XXXX fax confirmation sheets that I had sent to Bank of America providing documents that they requested.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Harassing and threatening call with court actionsand collection of outrages amount for an acct thathad a {$250.00} balance when it was charged offXXXX or XXXX years ago. They want {$2200.00} withlate fees. By hey call and spoke to my employer andtold them that they were a legal firm trackingone of there employees. I almost lost my jobbecause of their collection tactics   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They have charged overdraft fee XXXX times in a roll in XXXX day. Each one was {$35.00}.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wish to file a complaint against PNC bank in particular, but this probably applies to other banks and I am sure many others would have the same complaint. This concerns the way they process the debits and credits to the account and the leveling of very high overdraft fees of {$35.00} per check or debit.   On XXXX XXXX I had just come back from a trip and had forgotten to make a deposit to my account prior to leaving. I checked my bank balance online and saw that there was {$910.00} in the account. Before the bank closed I made a deposit of {$2300.00} to the account. Later in the evening I went online to download my account to XXXX. The deposit amount was shown as received by teller and a check that I had written for {$1100.00} had not cleared, nor was it shown as pending. The next day I received an overdraft charge of {$35.00} and they claimed that the check for {$1100.00} had cleared on XXXX XXXX. Their online banking had never shown that check. When I told them that I had made that deposit on XXXX XXXX their answer was that I only get {$100.00} of that to apply until the next day. I have argued with them about that but they refuse to remove the {$35.00}.   On a different account the next day a similar situation happened. I had forgotten to deduct a check I had written. There was a check I mailed to a vendor on Sat. XXXX XXXX. On Mon. XXXX XXXX that check money was debited from my account. I was overdrawn by {$56.00} and they charged my account {$36.00} for the overdraft. I run a business and on XXXX XXXX I had XXXX deposits of {$130.00} that are processed by that bank and go into that account. On Monday XXXX XXXX that XXXX deposit appeared as pending, and they did not count that money as covering the overdraft.   Here is my concern in a nutshell. The banks can immediately debit my account for checks that I write and mail to a vendor, but checks that are accepted by me and deposited in my account are held for XXXX day and do not apply to my account. That applies to cash deposits as well. If my deposit and a check come in on the same day they count the XXXX but not the other. I understand this would happen if XXXX uses an electronic transfer and set a date for the debit to be made or use a debit card, but checks that are written by someone and ones received and deposited by that person should be handled the same way. Either these checks that are scanned should show as pending on an account the same as any other check, or deposits should be treated as immediately available if overdraw situations occur. The way they are doing it now allows banks to take your money and use it for a day with deposits, but they can immediately cash your checks and remove the money from the account without it going through a pending process. It should be XXXX way or the other to be fair.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I opened a new checking account with Citizens bank in XXXX 2014 with a promotional offer of {$200.00} that I received in the mail. The requirements in order to receive the offer were to make an initial minimum deposit and then at least five debit card transactions in the following month. About three months after I had completed the above requirements, I had not yet received my promotional credit, so I went into the branch and they told me that I should be seeing the credit by the end of XXXX. Come XXXX, I stopped into the branch office again to bring up the issue. They looked into my account and confirmed that I had met the requirements, but would have to investigate further because they do n't have any information on which teller opened the account for me or the promotional code that she entered for my account. A few days later, they called to tell me that they could n't find my name and address in the record of people that they distributed that specific promotion to. Unfortunately, I did not have this coupon saved from six months ago, so there was no way for me to show them the coupon that I clearly remember receiving in my mail. After speaking to the manager about the situation, he offered to credit {$100.00} to my account and told me there was nothing else they could do because my name did n't show up in their list of  selected individuals '' to receive that promotional credit. I feel like Citizens is using misleading promotional offer as a marketing scam to attract new customers and then hoping they either forget about the actual credit or telling them months later that they are n't eligible to receive the offer after they had already completed the stated requirements.   </t>
   </si>
   <si>
     <t xml:space="preserve">Last XXXX, Paypal placed a limitation on my account and blocked my access to my balance. They said that they can hold my balance up to 180 days. Now 180 days have passed, they still hold my money and refuse to return to me.   </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX XXXX, 2015 I reported to TD bank the theft of {$760.00} from my checking account ending in XXXX. Subsequent to my report to TD bank and police TD confirmed the theft by  skimming '' my debit card and credited my checking account {$750.00} on XXXX XXXX, 2015.  Today XXXX XXXX, 2015 while checking my accounts at TD bank, to my great dismay, I noted that on that same date of XXXX XXXX, 2015, the thieves also debited {$740.00} from my savings account ( account ending in  XXXX '' ). I was unaware that this could have happened without a withdrawal slip but it did. I immediately called TD bank for help and XXXX filled out another dispute form. Despite the fact that all the illegal withdrawals were from the same area ( a place I have never been ) it went unnoticed by TD fraud unit as well as by myself.  I still need to be credited in my savings account ( with lost interest ) for the {$740.00}. XXXX since XXXX XXXX, 2015. The facts surrounding the theft are the same, that is the same area and limits, so I should not have to wait as long for the credit I hope. I am asking CFPB to oversee this as I am afraid there will be a misunderstanding. I do n't want TD bank to think that they already credited me for the full amount. There are XXXX different accounts : the checking ( XXXX ) and a savings ( XXXX ) e.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I went to call my bank account information today at wells fargo XXXX/XXXX/2015 and they told me my account is closed. My local branch here in XXXX told me I had to open a new one now after a month of it being open it is now closed. I did n't receive anything in the mail I was kept in the dark. My original account was never closed like this until it was hacked into wells fargo told me, I do not appreciate being done like this and I need my social security money and now I will not be able to get it. I know the people who is behindthe wrongful closure of my complaint the XXXX manager XXXX and XXXX XXXX who falsely accused me of harassment. I will be suing wells fargo for the emotional distress they are causing me. Well why did n't they close my first account and now that I open a new one they close it out of the blue. There was no need for them to close my account after they told me to open a new one. I 'm glad I called about it before I purchased something or I would had been embarrassed. This is treating the consumer unfair and unjust. But I know what is really going on and who is behind this dirty deed.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I am not opted in to any overdraft  protection '' at my bank. They allowed XXXX debit card transactions to complete on my account for XXXX and XXXX. They stated that even though they are debit card transactions and not electronic funds transfers or checks, they are not considered  XXXX '' debit card transactions since they are paid at the same time and amount every month and I am therefore not protected by consumer protection laws for these transactions.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX charges totaling {$1900.00} were charged against my business acccount. I am not a XXXX customer and there is no reason for these charges to my account. Wells Fargo has completed their research of the matter and is unable to reimburse me because I did n't notify them until XX/XX/2015 and the charges were made on XX/XX/2015. I 've already contacted XXXX and they have indicated that they can not help.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have XXXX accounts with Bank of America. In order to prevent overdrafts in XX/XX/XXXX I opted out of payments of overdraft created by debit card charges and automatic payments and requested that if there were not sufficient funds the items were to be denied. The bank changed the setting in the account and when items without sufficient funds came in these were declined, however, the bank continued to charge {$35.00} per item since it indicated that declined items are subject to fees anyway. In addition, the bank would not indicate in the activity online what item was declined. Since the solution was worst that the problem I went back to opting in for overdrafts. Also, I was not notified of my right to opt in or out for payment of overdraft. That was the bank strategy to get me to opt in again. I believe that the bank actions might be in violation of applicable regulations and were established as a device to charge excessive overdrafts fees. As such the bank is incurring in unfair and deceptive practices. For this reason I request that the bank refunds all overdrafts fees charged to my accounts in XX/XX/XXXX and XX/XX/XXXX.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">1. I authorize withdrawals from my checking account for my payment and they do not come out. Example : I authorized a withdrawal on XXXX/XXXX/2015. It 's been 4 business days and the payment has not come out yet. Then the bank says that my payment is returned. I have enough money in my account, it just is not debited. I paid XXXX other bills, XXXX the State of Oregon, and the other the IRS, on XX/XX/XXXX. XXXX payments, also through checking account debit, came out the same day.  2. Chase has locked me out of my online account access. I tried to log in using my account number, my social security number, and date of birth, and it locked me out. I called. I was on the phone for 24 minutes and when I finally got to someone who could help, she asked me security questions like what streets I 've lived on and where I 've worked. She told me my answers  could n't be verified ''. I do not know where Chase is getting their information about ME, but it is not correct. I KNOW where I have lived and where I have worked. I wrote them a letter to this effect, but did not get a response.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I had extremely filed extra charging complaint against Bank of America, so I do not appreciated that I had lost money cause of erosion funds what I used expenses.  I do not happy with Bank of America,  Bank of America made me lot of lost money XXXX that why they never refund money to XXXX so they are not honest as I am not interest in female staff handles this case.     Bank of America used lot of denial my credit card application as they do not like me with my appearances, that I had been notified to Speaker XXXX completion.. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Why are banks allowed to process debits from largest amount to smallest, thus collecting more in overdraft fees? My bank Chase XXXX uses this practice to collect added insufficient fees!   </t>
   </si>
   <si>
@@ -565,36 +1090,96 @@
     <t xml:space="preserve">Wells Fargo Bank failed to fulfill its guarantee to pay any late fees associated with payments sent through their Bill Pay service that are delivered late.  My mortgage payment was scheduled to be sent on XXXX XXXX, and was guaranteed to be received by XXXX XXXX. It was not received until XXXX XXXX.   If Wells Fargo does not properly complete a bill payment on time or in the correct amount, we will pay any late fees or finance charges that you reasonably incurred as a result, provided that your account was in good standing with the payee prior to this incident. ''   </t>
   </si>
   <si>
+    <t xml:space="preserve">on the year 1995 I when to the bank wells fargo bank to make a deposit for XXXXand the person who help me with my money he tell me that I need to leave mymoney for one year so on the same year I have a problem with XXXX theytook my XXXX to come back to XXXX XXXX so I stay in XXXX for one yearso the next year I come back to XXXX XXXX so I lost my XXXX my letter from the bank orany information about the acct so I do n't have any information I when to the bankand I ask for my money they tell me is nothing or any record with my money or my namedor social security number I leave the bank very mad because no body tell how I can getthis money back so the time when on and move from XXXX about 5 years agoand I was going truth my paper and I was take out all the trush and I found informationfrom the I rs information about my money and I have XXXX also my old checking bookI star wirh the company XXXX company they said they do n't have any acct with thewells fargo bank I need to call them about my money and I have a bout 5 monthsand they said the state have because after 7 years they use the money they sand to thestate the state said the bank have a number or when they send to the state I fieldthe no body whan to tell me happen with this acct but I know I make this deposit and I was in here to make any decision on this money so I need the some body have torespond me about this matter I need to find where is this money I know is going to be 20years ago but the matter is the I make this deposit I have a person who when with mewhen I deposit this money and when I ask for this money she was with me at the timeso I need my money   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello i have filed a complain about wells fargo with cfpb complain # XXXX and explained that even though a let them know that reason i was canceling my debt card with them was that XXXX rent a car was attempting to charge my card something i dont owe and canceled the card befor they actuly charged and still wells fargo paid those fradulant chargesthey did not do anything and know this company continues to charge my card as of XX/XX/XXXX XXXXwith no reason please help me my account is about to be close because of wells fargo to acknowledge there mistake   </t>
+  </si>
+  <si>
     <t xml:space="preserve">We moved to a new neighborhood and got a letter from Citizens Bank offering a XXXX dollars direct deposit checking account bonus if we make another any deposit within 45 days after the first opening deposition.  I went in to a local branch. A rep there helped me to open an account, and enrolled me with an overdraft insurance ( XXXX bucks ) without even telling me, and charged XXXX dollars maintanence fee each month since I did not deposit enough money the XXXX time.Ane he gave me XXXX dollars for opening that account.  And then I went in a few days later to deposit enough money so I could be waived for XXXX bucks for maintanence. The rep promised me to credit me back that XXXX bucks, and the XXXX bucks after I told him I do n't want that.  After a few months, I checked my account, and found the XXXX total bucks were never credited back to me. I called the rep, he promised to refund me again.  Again after a couple of month, I contacted him the XXXX time. He promised to do it again.  As of today, it has been more than 7 months after I opened that account, and I have never received that XXXX dollar bonus as promised to be credited within 4 months, and I still never got back that XXXX bucks, and I am leaving this area soon, I finally went to talk with that rep face to face.  He finally credited me that XXXX bucks he should have never charged. But he did not give me that XXXX bucks. The reason he gave me is following after he talked to someone on the phone : The XXXX dollars opening bonus he gave me cancelled out my XXXX bucks bonus!!   I said why do n't you cancel that XXXX bonus and let me have the XXXX bonus then. He said that is a done deal and he can not change it.   I clearly showed him the XXXX bonus certificate when I went to open that account!!!  I guess that is how citizens bank honor their opening bonus. A very disappointing experience from me.I almost lost XXXX bucks instead of getting XXXX. What a joke.   </t>
   </si>
   <si>
     <t xml:space="preserve">The Bank of America is charging excessive overdraft fees. The charge for being overdrawn less than XXXX hours resulted in a {$70.00} fee. This should n't be legal.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Received a Western Union money order that I ca n't deposit for XXXX days. Says I have to wait XXXX hours. I was under the impression that money orders are prepaid and available right away. I 've searched the internet high and low for anyone else encountering the same thing. Found nothing about this, nothing on Western Unions website ether. Everything I did find read like it should be available right away.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank of America fraudulently charged me {$380.00} in fees XX/XX/XXXX on a closed account.  Was not able to open bank account elsewhere until paying bofa the fraudulent amount they extorted from me. Today, XX/XX/XXXX they refuse to refund $ XXXX monthly maintenance fee and despite XXXX calls today, XXXX rep at XXXX XXXX cst put me on a XXXX minute hold returning to call refusing to let me speak to supervisor. On XXXX call asked for supervisor told all were too busy to talk to me but would call me back. Between jobs, need my money  need this extortionist bank to stop robbing and extorting from the American people like me   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I opened an account at Regions bank in early XXXX 2015 using a promotional code XXXX. I contacted Regions via secure message to verify the promo code was on my account because I had to open it online. The responses were : '' XXXX, If it has been more than 120 days after meeting the last requirement and you still have no record of the receiving the statement credit, you may contact us using any of the methods listed below so that we may investigate this promotion further and file a claim on your behalf.   XXXXOn Fri, XXXX XXXX, 2015 at XXXX XXXX XXXX Wrote : What should I do if I fulfill the requirements and do not receive the promotion within the time frame?   On Fri, XXXX XXXX, 2015 at XXXX, Regions Bank Customer Service Wrote : XXXX, I do understand your concern at this time. As mentioned in the previous email, we are unable to determine if the code is applied to your account. Therefore, if all requirements are met, the credit should post to your account within 120 days of the last requirement.  I apologize for any inconvenience this issue may have caused you at this time.  If you have any other questions or concerns, please do not hesitate to email.  Regions XXXX XXXX is always here to help. If you have any other questions let us know.  Thank you for banking with Regions.  XXXX '' When I contacted them after meeting the debit card requirement to verify I met that, and after my qualifying employer direct deposit went in about verifying that as well, I was told something else entirely. Regions now claims ( after I fulfilled the promotional terms ) that because I was a customer years ago that I do n't qualify for the offer. I have sent several messages informing them of their offer terms as advertised by them, and they still refuse to make good on the terms of the offer. Instead, they tell me to go to a branch, where I am certain I will be told there is nothing they can do. This is the exact text of the offer advertised : '' * Offer valid in select markets only ; including XXXX XXXX, MO, XXXX, TN, and XXXX, NC. {$200.00} bonus offer may not be combined with any other offer, does not apply if you already have a Regions checking account, only applies to personal XXXX checking accounts, and may be withdrawn at any time. To earn this bonus, you must meet all requirements of the offer described above within 60 days of opening your new account. If earned, the bonus will be issued within 120 days of meeting these requirements, and will be in the form of a credit to the new checking account, which must be open at the time the credit is issued. All XXXX checking accounts require a {$50.00} minimum opening deposit. The Annual Percentage Yield ( APY ) paid on LifeGreen Preferred Checking accounts is determined by account balance and, as of XX/XX/XXXX, was 0.01 % for all balances. Regions may change the APY at any time. Fees may reduce earnings on XXXX Preferred Checking accounts. No interest is paid on other XXXX checking accounts. A monthly fee may apply to your XXXX checking account, depending on account type, but this fee may be waived on some accounts if certain conditions are met. For accounts opened in Iowa, certain account fees are subject to Iowa State Tax of 6 %, which will be assessed at the time the fee is charged, unless exempt. Taxes are the responsibility of the recipient.  I am a resident of XXXX XXXX, MO, and was not currently a Regions customer before opening my checking account. I qualify for the offer. If Regions wanted to exclude those who have EVER had an account with them, that should have been stated in the offer terms.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In late 2014, I removed overdraft protection services from a Wells Fargo checking account. I did so while going through tough financial times to avoid the large and onerous {$35.00} overdraft fees. Through my Wells Fargo debit card, I have multiple automatically re-occurring payments set up for services like XXXX, XXXX and XXXX streaming video services. In the past when my account balance has been insufficient to cover those transactions, they 've been denied by the bank as expected. I can point to specific instances on XXXX XXXX and XXXX where this occurred. Last month, on XXXX XXXX, a payment was submitted by XXXX for {$8.00} when my account balance was a negative balance of approximately {$240.00}. As expected, the payment was declined. On XXXX XXXX and XXXX, I made deposits to my account totalling {$220.00} to bring my account balance to about negative {$20.00}. On XXXX XXXX and XXXX, XXXX reoccurring payment were submitted for which my account balance was not sufficient. Contrary to my expectations, these payments were authorized and I was charged for XXXX seperate {$35.00} overdraft fees, a total of {$100.00}. In contacting Wells Fargo today, they were unable to provide any explanation of why these payments were authorized and overdraft fees were charged, contrary to what has occurred on my account in the past. The only suggestion they could provide was that perhaps the merchant/vendor had done something different with the payments. To that end, I contacted the customer service of a specific merchant ( XXXX ) to check to see the payment they submitted on XXXX XXXX differed in any way from previously pre-authorized payments. Per their customer service, it did not. I was also advised that XXXX submitted another pre-authorized payment attempt on XXXX XXXX which was also declined by Wells Fargo. So far in contacting Wells Fargo, I have been unable to determine either why payments in the past they claim should have been authorized were not, nor why payments these payments were authorized, despite of payments for the same amounts from the same vendors in the past being declined. I suspect, though can not confirm, that there exists some rule within Wells Fargo ( perhaps unknown to their customer service representatives ) that overdraft transactions are somehow authorized or declined based off of account balances.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital One Bank is presently advertising this special savings account : XXXXWhen I contacted them to open this account, they refused to extend the offer to me, saying that I had an account there once before ( which I closed in good standing XXXX years ago, in 2007 ). I have excellent credit. There is no reason for them to refuse to let me open this account now. What do you think?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I tried to open the checking account with 1st Bank aka https : //www.efirstbank.com which was offering me {$200.00} for the new accounts after meeting certain conditions. I provided all the information and also the funding information ( from another account ) to fund this. Then i submit the application over internet. But next day i received the call that as per XXXX report - i am denied opening a new account. I was asked to check with them ( XXXX ). Why they are not letting me open the checking account at the fist place?   </t>
+  </si>
+  <si>
     <t xml:space="preserve">suspended my account and stated the account would be activated in a few days but hasnt. i called the bank and the customer services person disconnected XXXX times after having waited XXXX mins each time. I have funds in the account but cant access via website. HSBC Premier customer service is awful. They need people who give a XXXX about servicing clients.   </t>
   </si>
   <si>
+    <t xml:space="preserve">My bank all of a sudden send me a letter stating that they are closing my account. When I asked them what happened, the reason was  it 's a business decision ''. I understand that they can do that, my concern is what happened that triggered it.   They did leave my business account open.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since a previous check from a US Bank customer had bounced when I submitted it to my bank ( XXXX XXXX, I went to US Bank to cash a new check from this person, to ensure that the funds were there, and prevent any possible fee by my bank if I cashed it there. I presented my government issued identification, but since I do not have a US Bank account, I was told that I would be charged {$7.00} to cash the check. I declined to pay the fee, and asked whether appropriate funds were in the US Bank account to cover the check. I then retrieved the check and deposited it into my XXXX bank account. I believe US Bank should not be able to charge someone for honoring a check drawn on one of their checking accounts, so I am submitting this complaint. I think CFPB should look into this practice, by US Bank and any other bank that offers checking account services.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX XXXX, 2015 I went to Citi Bank to cash a check that was draw on Citi Bank. The Teller ask for my identification, social Security Number and Job Title to cash a check. Just for clarification in order cash a check and you do not have a check is what because I do not have a checking account do that give them perimission inquiry into my personal life Social Security Number is PIV Confident Item.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I use XXXX to download my monthly bank statement via web connect and import it into the program. I purchased the program in 2010 and have been billed by Citizens Bank {$9.00} every month since then without my consent or knowledge. The fee is not labeled on my Citizen 's statement and I thought it was a  phone '' use payment ( and is marked as such in my XXXX files XXXX. I finally called and visited the bank about this today to help me identify the source. The gentleman there called into the company and stated it was a quicken fee. I did a little research when I returned home and realized it is a bank fee for the online bill paying service. I do not use bill paying, only web connect, and never signed up for it anywhere. See the instructions Citizen published info on its website regarding signing up for this service. ( XXXX XXXX ) ( this is for pc but there is a similar one for XXXX XXXX. I then called into the number on that page and another person said I should be checking my monthly statement and he would reimburse me only two months.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX XXXX XXXX has lost a transaction on mine and I want an answer to the matter.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I presented a check to be cashed at Wells Fargo as I have many times in the past. Some times I am asked to have one of the office personnel to  verify the check '', and other times the tellers refuse to honor the presentment, but will refuse to put the reason in writing. The reason they say ( of course no law supports this policy ) I must submit XXXX ( XXXX ) forms of ID because I am not a  customer ''. Well ... interesting concept there because, the items the banks allow are not even related to  identification '' whatsoever. And, the banks applicable policies on someone who is NOT a customer is an act of ultra vires at best. PERIOD. Such as a Drivers License, SSN, Birth Certificate, Bank Card etc. None of which are forms of ID. The mere act of being asked for another form of ID is in itself an accusation of fraud by my entering the bank and presenting the instrument simply because I 'm not a customer. In other words ... am I being accused of committing a crime by presenting a check and not being a customer? Law enforcement do n't even have that power to force someone to ID themselves if they are not being charged with a crime! So just WHO 'S authority is the BANK operating under?   In essence, the banks demand something that does n't exist to honor an instrument issued by one of their own customers and the tellers are giving practicing law by legal advice at the window without a license to do so. The policy they are using, is no different than say if I had a church/company policy that says all  non Christians/employees '' will go to hell or be subject to paying my church for their non participation.   Next step will be lawful actions for refusing to honor a legal instrument issued by one of their customers when presented at the window for exchange of federal reserve notes. All of which are a direct violation of their own Mission/Human rights Statement.   </t>
   </si>
   <si>
     <t xml:space="preserve">Capital One is changing my bank account without my permission. They are changing it so that I no longer receive rewards. I used this bank for everything, and now I have to go through the hassle of moving all my money elsewhere. This is not acceptable. They should not be able to just force you to change. I agreed to this account, not to some other account. They should have to pay me for the time it takes me to move to a new bank because of their horrendous customer service.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Paypal.com signed me up for a  PayPal Credit '' account without my authorization for a credit check or establishing a new credit account.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I applied for accounts with Ally Bank and they opened my accounts made money transfers from my origianl checking account and then blocked access to my Ally accounts and wo n't give my money back. They say they could n't do the credit check and think I 'm fraudulent. I told them never at any time on their website did they tell me they would do a credit check and I was a victim of id theft a few years ago and froze my credit reports. They refuse to give the money back. They should never have opened accounts or transferred my money to their accounts if they could not do the credit check. And they should have advertised and told me online they do credit checks.   </t>
   </si>
   <si>
     <t xml:space="preserve">I 've had an account with HSBC for about XXXX years and in XXXX they began asking me for information to elaborate on my employment, and I have been ignoring their calls and letters because the request is irrelevant to my banking relationship with them. The letters and calls never explained why the information was needed.  They noted that they have in their records that my title is listed as  XXXX '' and my employer as the  XXXX ''. They wanted to know XXXX of  what? '' and which agency within XXXX. I truly did n't see why this was necessary information, so I did n't respond, particularly while I was on vacation and dealing with more pressing personal matters.  Their last letter said that they needed the info by XXXX XXXX or they would take action by freezing my ATM and internet banking access. So I went to the branch where I opened the account on the XXXX to see what motivated this threatening tone because no XXXX as of then had explained the magnitude of the need for my additional employment data. The customer service representative could n't give me a good reason on why this information was needed, so I asked him to look into it and get back to me. When he called me back later that afternoon, he still could n't give me a good reason but told me that he found my info online and submitted it to satisfy the request. The following morning, XXXX, my wife could n't use our debit card to make purchases. Saturday, XXXX XXXX, I 'm at a restaurant with my wife and XXXX twins, and my card is declined. I have no access to my funds.  I returned to the retail branch on Monday the XXXX and demanded that they unfreeze mycards, which they did, and they continued to say they just needed some infofrom me which I continued to decline to give without an explanation. That night my internet banking was n't working and I again had to call customer service and was on the phone for an hour before no one was able to help, and had to return to the branch the next day to unfreeze my internet banking.  No one was able to tell me why they had taken such drastic measures tohinder my access to my personal funds. I presume it was to get my attention just to know what my exact title is and what specific city agency I work for. Information that I believe is not necessary for my banking needs being that they already had my title as XXXX, and my understanding is that employment is not necessary to have a bank account.  That night, XXXX XXXX, I receive a letter saying that they 're outright closing myaccount on XXXX XXXX with no explanation except citing their Rules ofDeposit Accounts authorizing them to close my account.  I had to quickly open an account with another bank and reestablish my automatic direct payments and change my work pay direct deposit.  This has been a total abuse of power, disrespectful, and obnoxious on theirpart, and I need to make sure they do n't just go on with their business asif nothing happened while they totally disrespected me and my family. I'vebeen an HSBC client for a long time and I ca n't believe it 's more importantfor them to do this than to respect my loyalty and risk losing me as aclient.   </t>
   </si>
   <si>
+    <t xml:space="preserve">My debit card was closed without any notice to me. I had no access to my money for a few days until a temporary card was issued. The bank could only tell me that it was notified by someone that a potential breach had occurred and to close my account. The could not tell me who initiated the closure or when. I think I have a right to know these things.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went into branch XXXX/XXXX/15 ; made cash withdrawal of {$610.00} before XXXX ; next evening, XXXX/XXXX/15 after XXXX called auto system to check balance ; I was given an amount of over {$600.00} by the automated teller ; was assured by customer service agent that the amount of the balance quoted was correct and it was from my employment ; transactions were made ; I was charged overdraft fees all because someone in the branch did not do their job correctly and I was led to believe this money was available. If cash is withdrawn from an account, how can it still be there? I thought it was a bonus ; I do get bonuses from my employment. The amount of overdrafts reached an amount that was more than my next paycheck. The bank did take responsibility for part of the overdrafts but the fact still remains that I had to pay for someone else 's mistake. Why would it take over 24 hours for a cash transaction to post? My guess is someone was not paying attention.  Just the month before I went to the same branch office and asked to withdraw the same cash amount from my saving. The same teller withdrew money from my checking account when he/she could plainly see that the amount requested was not in my checking account! I 'm standing right there. Could n't she have just checked with me to make sure it was the correct account? That time also I called to check my balance the next day and found my checking account overdrawn! This time when I spoke to a customer service agent I was able to transfer the proper amount of funds from savings to checking to cover someone else 's mistake.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">A former bank teller at Capitol One stole {$5000.00} from me years ago and quitCapitol One wo n't find the last name of the crooked teller that would take 20 minutes and commits a cover up for years on this   </t>
   </si>
   <si>
+    <t xml:space="preserve">I have been a member with USAA for over 10 years and have had their checking product for years along with renter 's insurance and a credit card. Recently, after years of being able to transfer funds with immediate credit, they have arbitrarily started imposing an absurd 5-day business day hold on transfers from accounts I 've made for years ( from payment for my job ) while immediately withdrawing the funds from the other account. They offer no justification for this and no answers. It 's obvious this is a scheme to maximize profit from my overdraft credit line in my case and in others to accumulate NSF fees. The customer service can not explain this new arbitrary policy at all and is very rude about it. No other bank does this and when they impose a hold, the policy is fully disclosed and explained. I do n't think a hold policy that is not fully transparent and consistent is in compliance with regulations and can be manipulated and abused at will to increase profits, which is what is being done here. Regardless, transfers should n't take 5 days to complete as the banking system has vastly improved in speed since the XXXX.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I had a mortgage with US Bank and was advised in the beginning to open a bank account to get a lower rate. The mortgage was refinanced and I was not aware that the bank account would incur fees in the amount of {$25.00} at that point. I called to explain the misunderstanding and requested a credit which was agreed to. However, US bank took months to resolve so the balance went unpaid. In fact, I never made any payment towards those fees ( which grew to {$75.00} in late charges ) because they agreed to waive them. Eventualky, the fees were credited and I assumed that their agreement to cancel the fees meant a full resolution had been reached. However, the process after they agreed to waive the fees took months. I called us bank month after month because the fee they promised to reverse was still on my statement. Each conversation a US Bank rep promised to have a  manager '' take care of it. I did n't know that their incompetence was adversely effecting my credit. Once it showed up on my credit report, I requested a dispute through the credit bureaus as directed by US Bank since they would not provide any other assistance. I was told by us bank that there was nothing they could do. The results of the dispute merely updated the length of outstanding fees. I had a number of mortgages with us bank over the years and they were paid thousands of dollars in interest. I find it descipable a hidden fee of {$25.00} that they agreed to waive would negatively effect my credit after numerous phone calls dealing with their own incompetence. In addition, the results of the credit bureau dispute should have been a full deletion given the facts. This may be the result of laziness or biased treatment but I will continue to pursue the only acceptable resolution of full deletion from my credit report.   </t>
   </si>
   <si>
     <t xml:space="preserve">On XXXX/XXXX/2015 my bank account balance with PNC Bank was XXXX. On XXXX/XXXX/2015 the bank charged a {$36.00} overdraft fee with no other posted transactions.  XXXXXXXXThus, leaving me with XXXX dollars in the bank. On XXXX/XXXX/2015 I had XXXX deposits come in and a bill pay go out. I called the bank of PNC to report my account was in the positive when they charged an overdraft fee and after the fee, my account was still in the positive.   I spoke to the bank employees and I was told they process bills before deposits, thus putting my account on XXXX in the negative forcing it to go into the negative so they can collect a fee. I told them all the transactions ( as you can see in the screen shot ) are pending as they are posting as of today, and my account was still in the positive and no reason to charge a fee. They refused to return the fee.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I have ( XXXX ) Chase credit cards that are linked as the same on-line banking account. I receive requests that the DO NOT recognize my home computer : We need to send you an Identification Code -- We need to confirm your identity to ensure your accounts are secure. We do this by sending a temporary Identification Code to one of the telephone numbers or email addresses you provided us in the past.  Already have an Identification Code?  XXXXChoose how you 'd like to receive this Identification Code and click  Next. '' On the next page you 'll enter the Identification Code you receive.  XXXX Text VoiceNote : We do n't charge for text messages sent to your mobile device ; however, standard message and data rates may apply. If you select voice and your number requires an extension, we wo n't be able to reach you.  Other Call to get a codeWhat you should know ...  The contact information you see here is the most current information we have. If it 's outdated, you can change it later, but for security reasons, you must select one of these options to receive your Identification Code.  If you 've asked us to send you an Identification Code and you have n't received it, please select another delivery option. The previous code will become invalid when you request a new one.  On Sunday ( XXXX XXXX, 2015 ), I made at least ( 7 ) seven calls to Chase Bank to obtain this code and to asked why they still show a cell phone number ending in ( XXXX XXXX on the account when I have repeatedly requested Chase to delete this Phone number ( because their system would not allow my to delete the phone number ). These calls start with a message that the CALL IS BEING RECORDED. As usual, I was transferred between customer service and the on-line tech support several times ; yet, was not given a code. Each call is met with  SECURITY QUESTIONS ''. I suspect real estate brokers ; XXXX XXXX ( XXXX degree from XXXX ), XXXX XXXX ( XXXX ; XXXX ), and XXXX XXXX ( XXXX stated was also in XXXX/his mother works in the XXXX ). My paperwork for these classes includes the old phone number and e-mail address. I have been harasses in attempting to acquire a XXXX. I stopped attending their real estate classes and obtained a XXXX degree from XXXX XXXX XXXX University. I witnessed XXXX XXXX allowing her daughter, XXXX XXXX ( works for a fingerprinting company-Identa KID program ) to use her Washington Mutual card for various withdrawals. Washington Mutual was involved in the sub-prime mortgages and taken over by Chase Bank ; and, these brokers were working for XXXX XXXX XXXX, a company that XXXX XXXX ( XXXX XXXX ) has stock ( ownership ) in.  I have received emails about re-financing my mortgage and my payment is due. In addition, someone is attempting to act on my behalf regarding unclaimed property. I have several emails regarding this matter. They may be money laundering through City of XXXX XXXX Housing Commission, Section XXXX, Voucher program in order to pay off debt as a result of the SEC investigation of XXXX XXXX. XXXX XXXX and XXXX XXXX deal would be an example of deals to create layers of paper work IF INVESTIGATED. XXXX XXXX entities ( XXXX XXXX ).   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I bank with Rushcard prepaid services and on Monday they went through a system update which left me with not being able to use my car for XXXX - XXXX hours while the update was taking place now the update is over and I still can not access my account I can not get in contact with anybody and customer service all my money is in my bank account I can transfer funds I ca n't deduct my money from the atm I 'm not able to do anything my direct deposit goes in tomorrow which is XXXX XXXX I need to pay my car payment and I need gas I need food on the table   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a victim of identity theft. My personal information was stolen and used to open a credit account with Bank of America. I never received any billing statements or was aware of this accounts existence until I checked my credit report. I immediately notified Bank of America the account was not mine and I am a victim of identity theft. I also notified the police and filed an identity theft report and reported the theft. I filed with the Federal Trade Commission my ID Theft and when Bank of America sent my documents, the billing address did n't even match mine nor the name of the account. Bank of America continuously calls and tries to collect on this credit account that is n't mine and is a result of ID theft. They also are reporting this fraudulent account that they are aware of that is fraudulent to the credit bureaus and has verified it when I disputed it.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have money unexplainably being deducted from my account without trace of any transactions. My balance simply changes without any withdrawals taking place. Then when I call the bank 's customer service they say that everything adds up and they do n't know how it might have happened. It has happened more than once and the first time they refused to investigate and so did the police claiming I did n't have  physical Proof ''. This time I do have a screenshot of what my balance was just yesterday and without any trace of where the money went, I wake up with {$180.00} less in my account and it keeps happening! XXXX/XXXX/2015   </t>
   </si>
   <si>
@@ -604,15 +1189,63 @@
     <t xml:space="preserve">I am overseas and my debit card was flagged and taken from me. I informed my bank that I was traveling well beforehand and on more than XXXX occasions. After many mix-ups, I was sent a new debit card that does not work and the bank has not been willing to correct for all the mistakes they have made. As a result, I am abroad with no access to my funds.   </t>
   </si>
   <si>
+    <t xml:space="preserve">In XX/XX/XXXX I opened an IRA with Wells Fargo - XXXX XXXX. I explained at the time that I live in XXXX, but was anticipating a pension payout from a previous employer in the XXXX. I explained that what I wanted to do was roll the money from the employer, into an IRA, then make a drawdown on the IRA and have it electronically wired to my bank ( XXXX 's ) in XXXX.   The rollover to the IRA happened in XX/XX/XXXX, as anticipated, and a drawdown was placed into my savings. When I requested to have the funds wired through XXXX 's XXXX to my XXXX 's account in XXXX, I was told this could not happen. I was then told I needed to make daily withdrawals from an ATM to get the money. I explained there were no Wells Fargo ATMs in XXXX. Wells Fargo reported that this was the only way I could get the money. Each time I made a withdrawal from the ATM, I was charged a {$5.00} fee for using a non-Wells Fargo ATM. I was also limited as to how much I could withdraw on a daily basis, to {$500.00} ( XXXX ). After about XXXX trips to the non-Wells Fargo ATM, the bank manager at XXXX XXXX increased my daily withdraw limit to {$1000.00} ( XXXX ).   It took me all of XXXX, all of XXXX and into XXXX to obtain the funds using the ATM, which resulted in incurring ATM charges in the hundreds, which were far in excess of what it would have costs to make a simple electronic transfer to my bank in XXXX.   I feel I was lied to from the very start! Wells Fargo should have told me from the very start that they were not able to electronically transfer the money.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scottrade allowed XXXX XXXX customers to have their personal information exposed in a database breach because Scottrade ignored warnings of cybersecurity incompetence and failed to encrypt any data.   I personally submitted to Scottrade and the SEC instructions and detailed information about how their security procedures were inadequate. Specifically, the insecure databases and unencrypted authentication information.   I would now like to report failures of Scottrade in regards to money controls, money transfers, and XXXX deficiencies. Specifically, if you review the attached, Scottrade has no effective policies to prevent money laundering or flag highly suspicious transactions, thus it is very easy to use Scottrade to launder and transfer enormous amounts of illicit money.   I kindly request the CFPB and Scottrade review the attached. It would be unfortunate for Scottrade to once again ignore tips of failed security techniques and once again leave customers vulnerable.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are authorizations made on a debit card but takes several days to post on to a checking account. While the authorizations are made, there are no funds being held out of the checking account. This causes a situation where there can be literally hundreds of dollars in overdraft and returned item feeds. I have received over XXXX in overdraft and returned item fees in the past month and half. I 'm working two weeks and I have no funds after my direct deposit because of fees. A {$35.00} overdraft fee for a {$1.00} charge is excessive   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Bank of America has been trying to collect on a credit card debt that is over 10 years old. It was a debt that I could not pay at the time due to financial hardship. They have sold this debt to various agencies in an attempt to collect this debt. If I am correct this is against FDCPA rules and regulations. My current issue is that B of A has sold this debt to XXXX XXXX XXXX and XXXX XXXX XXXX at the same time, thereby causing harm to my credit ratings at a time when I have been paying my student loans. After I explained this to XXXX companies I received a letter from XXXX on XXXX/XXXX/15 and MCM on XXXX/XXXX/15 informing me that they will not pursue this issue any longer. My concern is that B of A will continue down this pass until someone puts a stop to this practice.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Opened a business checking account with Suntrust XXXX 2015. Was notified XXXX XXXX that account had to be closed because they made a business decision to no longer service our industry. XXXX XXXX loans ).  The bank personnel admitted that the decision was made due to the FEDERAL GOVERNMENT PRESSURE TO NOT CONDUCT BUSINESS WITH A PAYDAY LOAN COMPANIES. ALSO KNOWN AS AN ILLEGAL BACKROOM POLICY NAMED 'OPERATION CHOKEPOINT '!!!!!!!  WE ARE A SMALL FAMILY OWNED BUSINESS THAT IS BEING CRUICIFIED  CRUSHED DUE TO THIS IGNORANT POLICY!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchrony Bank/JCP ; Has presumed that I owe them for a lowly {$38.00} charge, which ( they have now inflated the charge to {$75.00} ) dates back to around XXXX 2015. They say it is my debt, have written the charge off, and assigned the debt to a XXXX XXXX XXXX ( XXXX ). Here is the problem : Synchrony bank NEVER called us. This {$38.00} charge was being mailed monthly to some ambiguous address and City and zip code some XXXX miles away from us, and we never received it EVER! If we would have ever received it, we would have called them up  figured out and qualmed the problem, but they never called us, and instead forwarded on the charge to XXXX XXXX XXXX. In doing so, it tarnished all XXXX Credit Reporting Agencies ' credit history of my wife, lowering her credit score about XXXX points! In the first place, this {$38.00} charge is likely a fraud case. Also, it was mailed to a foreign address. Synchrony/JCP never called my wife to discuss, and then took the liberty to report to the credit agencies that she is delinquent ( lowering her score XXXX points )! Further, we do n't recall ever opening this charge card! When I call Synchrony, I can never get a hold of anyone who can help. Further most of them, if they want to try, do not speak pure XXXX, and thus ca n't understand them. We 're infuriated, as we call XXXX XXXX XXXX weekly for resolution. While their people are decently reasonable, they say they will put in yet another request for  original credit application '' information. This has been going on for the past 6 weeks unresolved. Also XXXX XXXX XXXX can not rescind this credit history problem, but only Synchrony/JCP can. That, is what MUST happen! Until it does, we will likely feel compelled to hire an Attorney, and legally have these credit reporting errors fixed. But, I 'll not be paying the Attorney, Synchrony/JCP will ...!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In XXXX of 2015 I went to my US Bank to discuss identity theft with my XXXX account and my checking account. The branch manager suggested that she open a new checking account for me, and this was done. I could not immediately close my old account since I had to first change my direct deposit information with Social Security and my pension fund. I did this, and I also changed all my information with my creditors.  In XXXX of 2015 I paid my monthly statement with a creditor in the amount of {$60.00}. I again checked to be certain they had the new account information. Approximately 10 days later, I received a letter from the creditor stating that they had received a returned payment communication from US Bank, and the payment was denied. I immediately contacted the same branch manager to see what the problem was. She told me there was no copy of any returned statement by them to the creditor since US Bank does not keep copies of returned payments on a closed account. However, the {$60.00} is missing from my new account.  Both the creditor and I believe that the new account was used for the payment. The branch manager insists that since she can not find a copy of a returned payment, the old account must have been used. I find no reason to believe the branch manager as the {$60.00} is still missing, and to whom did the bank release this money?   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Rush card has not released my direct deposit. I am unable to withdraw any funds from my account.   </t>
   </si>
   <si>
     <t xml:space="preserve">TD Bank credited my account XXXX $ that were bank over-draft charges as a result of fraudulent activity on XXXX/XXXX/15. On XXXX/XXXX/15 I contacted the bank to ensure that the funds had been returned to the account and that the ACH was denied. On XXXX/XXXX/15 I stopped into the branch to obtain a letter to provide documentation to an outside entity that the issue was resolved. TD Bank sent a letter stating that the case was closed and found in my favor. On XXXX/XXXX/15 they reversed the credit, in addition, charged me XXXX over draft fees for their credit reversal since they processed them separately. After 30 minutes with a representative, they stated that they will expedite the un-doing of the reversal, however, I continue to incur fees from their XXXX $ debit for purchases that were already made.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I BROUGHT A BRAIN ENHANCER ONLINE AND XXXX $ CAME OUT MY ACCOUNT 3 DAYS LATER THE SAME PEOPLE TOOK OUT XXXX BUCKS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">good dayMy name is XXXX XXXX and attend XXXX XXXX where I have a business account to request a machine to collect cards, the contract you sign does not correspond to the contract requested and sent me the bank since that is not my signature. Plus I had understood that the seller was only one year contract and that is signed with my name but not my signature says 48 months. Also the first machine they sent me was not right so ask the right but never refunded me the first collection of the first incorrect.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a bank account with Wells Fargo that I opened in Washington XXXX in XX/XX/XXXX. I have been more or less employed since then. I was working in XX/XX/XXXX and have not worked for the past three months. I ran into problems when my Washington State Unemployment ran out and I had to apply from XXXX. They made me wait three weeks for my {$270.00}. I ran into issues with Wells Fargo and overdraft fees when I discovered they would process payments ( ie from Pay Pal ) usually recurring payments when I did not have money in my account. I asked them several times to not pay out money I do n't have and do n't charge me for overdraft fees. They ignored me. Then I would argue with them. Then Wells Fargo decided they were not going to refund any more overdraft charges. Currently I am overdrawn with Wells Fargo for {$500.00} of which almost the entire amount is overdraft fees of {$35.00}. My initial arguement with them started when I asked them to make sure my water bill got paid, and what do you know they did n't pay the amount out and then I got hit with {$35.00} of overdraft fees plus {$30.00} from the water and sewer department. All without a single human hand touching the transaction. I have called Wells Fargo several times until I just lost it and told them XXXX themselves. Now I am on a permanent blacklist. I am so sick and tired of the blame the victims mentality which translates into bullying. {$500.00} from XXXX XXXX is nothing, {$500.00} on {$270.00} unemployment is astronomical. I have been offered a job but I have no idea when that will start so I am pretty much living on payday loans which needs to be another complaint. Its ridiculous to have to pay {$35.00} overdraft fee when this is all processed by computers. If there is anything XXXX XXXX XXXX XXXX has shown, it cost fractions of a cent to process anything by computer. I admit I should not have lost it with Wells Fargo but it was supremely satisfying to tell them off. And in a civilized country I should be able to yell at Wells Fargo.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have tried for 7 months to close my First Data Merchant Services account. When I do actually get a human on the phone, I just get the  run-around, '' and different answers. They promise to return calls and do n't. They wo n't respond to emails. The have dozens of unethical ways to keep XXXX from canceling. They continue to charge fees and once a person finally threatens them are told they will have to pay a {$500.00} termination fee, but they keep the person paying their monthly fees. Very unethical. The Internet is filled with others who have the same issues.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bank of America, where I have had a checking account for many years and live abroad, continues to reduce the scope of its communications with its customers, reducing the topics acceptable on chat and on email. This is the second complaint I have made. The head office promised last time to improve, instead it is worse.  Also, despite a free phone number for overseas calls, it is not operable, as a digital voice message does not match with the operator nor automatic phone connection.  Previously, the bank offered all options, message, chat or phone, for all topics. It seeks cost savings at consumer expense.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has been over a month since I filed a complaint against Bank of America with the Consumer Financial Protection Bureau ( CFPB ). Despite promises to the contrary, in the intervening weeks absolutely nothing has happened with my concerns, and sad to say, it does not look like anything will happen with my concerns without Bank of America being compelled to act.   Within a day or two after I filed my XXXX XXXX CFPB complaint regarding Bank of America I received a telephone call from XXXX XXXX XXXX of Bank of America. I was told that she was calling on behalf of Bank of America 's president as a result of my complaint to the CFPB.   We spoke on XXXX XXXX and at that time XXXX XXXX promised to finally correct my deceased Father 's mailing address, and to get a nearby branch manager to give me a call, so I would not be forced to repeat the frustrations of the past when I attempted to close my Father 's accounts at a local Bank of America branch. In addition, on XXXX XXXX I FAXed over to Bank of America a letter addressing concerns about unauthorized Bank of America deductions from XXXX of my Father 's account. XXXX XXXX had previously promised she would review these concerns.   I have called XXXX XXXX a number of times since I sent the FAX over on XXXX XXXX, and I have yet to hear from her. Neither, all these weeks later, have I received the promised call from the Bank of America branch manager.   Recently I received a letter from XXXX XXXX dated XXXX XXXX, 2015, which explains why she has failed to return my calls. In her XXXX XXXX letter XXXX XXXX incredibly absolves Bank of America from any part in my concerns not being resolved. Further, the letter disingenuously suggests I give her a call to  discuss this further. '' I have yet to see a sign that Bank of America is interested in more than simply stonewalling me, and frustrating my lawful efforts to close my Father 's accounts. I am hoping CFPB can compel Bank of America to take my concerns seriously, and resolve matters promptly.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I WAITED LITERALLY XXXX MINUTES ON HOLD TO SPEAK TO SOMEONE ABOUT MY ACCOUNT TONIGHT XX/XX/2015 AND LITERALLY WHEN THE WOMAN CAME ON THE PHONE, I POLITELY COMPLAINED THAT 16 MINUTES WAS FAR TOO LONG TO WAIT FOR ANYONE, AND SHE RUDELY AND SIMPLY HUNG UP ON ME, CAUSING ME TO HAVE TO NOW CALL IN AGAIN  AND RE-VERIFY MY ACCOUNT, AND NOW I AM ON HOLD AGAIN. I ANTICIPATE ANOTHER WAIT HOLD FOR XXXX MINUTES FOR A VERY SIMPLE QUESTION COSTING ME MORE THAN XXXX MINUTES OF MY PRECIOUS TIME AND DAY. I BILL XXXX, WILL TD BANK OR THIS WOMAN COMPENSATE ME FOR THIS LOST UNNECESSARY TIME SPENT CHASING TD BANK DUE TO ITS RUDE CUSTOMER SERVICE REPS THAT NEED TO BE EITHER RE-TRAINED/TERMINATED FROM EMPLOYMENT? I AM NOT A DOG AND I DON'T NEED TO BE XXXX TRAINED OR BEHAVIOR-MODIFIED BY THESE UNFRIENDLY AND RUDE CUSTOMER SERVICE REPS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money stolen from Citibank account 2 times in a 3 day period through unauthorized ATM withdrawals.  Bank failed to cancel ATM card after XXXX incident was reported.  Bank has made me open at least XXXX separate investigations claiming system problems, to deny having an open investigation for the fraud.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I incurred XXXX overdraft charges on my checking account on XXXX/XXXX/15 of {$35.00} each, for a total of {$100.00}. My account was overdrafted by  lt ; {$500.00} on XXXX/XXXX/15.  I have several account notifications set up through BofA.com to inform me if my account balance drops below {$500.00}, my account overdraws, etc. When I received an email on ( XXXX/XXXX/15 ), I immediately transferred {$1500.00} from my Bofa Savings to BofA Checking ( XXXX linked accounts ). This was more than the overdrafted amount. I still incurred XXXX fees of {$35.00}.  I called to have these fees removed. The initial customer service rep ( XXXX ) was very pleasant but her manager ( XXXX ) was incredibly rude and condescending. I kindly requested for the overdraft fees to be removed as I had not received any notifications until it was too late. The purpose of setting up the email notifications is to inform me BEFORE fees are incurred, not after. She said that is not their responsibility and told me I needed to have made a cash deposit before XXXX on XXXX/XXXX/15. She did not answer my further questions and hung up on me before our conversation was over.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well Chase is at it again.   This relaters to XXXX of my bank accounts. XXXX ending in XXXX, the other in XXXX.   On Wed XXXX XXXX at approx XXXX in the XXXX I checked my bank account and noticed a pending overdraw in my XXXX account in the amount of {$27.00}. This is despite the fact that I have overdraft protection which should have covered the overdraft. Perhaps since it was a  pending '' overdraft it had n't kicked in. So TO BE SURE TO AVOID OVERDRAFT OR FEES I got out of bed, put my boots on and walked through the snow to the bank ( at XXXX ) and deposited XXXX dollar to cover the pending overdrawn account. When I got home I checked online and my account was covered, no pending overdraw, no negative.   My XXXX account was also in the positive.   So I went to bed sure that I had avoided overdrawing my account.   When I woke up this morning XXXX XXXX and checked my account online my account XXXX was overdrawn by XXXX which included a late fee. The amounts shown were totally different than they had been the night previous ( ie. the debits were in amounts exceeding what was shown only hours earlier so it was not an accurate reflection of anything in my account ) But even more disturbing, my account ending in XXXX, which only hours earlier was positive with nothing pending, was now overdrawn by {$130.00}. WITH XXXX LATE FEES and balances that bore no resemblance to what my account had shown only hours before. I know as a fact my account was positive only hours before.     The check for XXXX that had supposedly overdrawn my account on XXXX XXXX had now mysteriously appeared, though I know as a fact that it had not appeared in my account on XXXX XXXX because I was at the atm and online at XXXX on XXXX XXXX checking my account.   Chase has always had a  pending '' period during which I could cover a pending debit. Not only did this now happen, but transactions appeared a day later than they HAD SUPPOSEDLY POSTED. This is either a glitch or a purposeful way to cheat people. Either way, it 's wrong.   My online and atm balances were not accurate and there was simply no way for me to responsibly keep my balance positive.. I WAS AT THE BANK AT XXXX to put money in and check my accounts!!!   I now have XXXX dollars in unfair fees that clearly I ca n't afford.   Of course Chase wo n't help. 'All my fault ' is all they say But this was not my fault or fair. Check the records and you will see that the information provided to me about my accounts was not accurate.   1.My overdraft protection did not work right.  2. Chase 's online and atm balances were not accurate and did not provide information to me to allowed me to monitor my accounts. In fact they were actually deceptive, hiding a transaction and then showing it a day after it had supposedly posted.  3. But their fees work just fee ... as always.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I received this voice mail ... This message is intended for my name. I received the fax order regarding a complaint that was filed against you. I have been retained to serve you with documents to appear at either your residence or your place of employment. If you have any questions or concerns about the complaint or wish to rectify the matter you can hit any key on your phone to connect to our office directly or call us at the following number XXXX. When calling please reference file number XXXX****. You have officially been notified.  This is my former married name. I called the number back and the person stated they were representing Fifth Third Bank and the charges were Breach of Financial Contract and some type of Fraud. I advised I had an Attorney as this was under a bankruptcy and the call ended abruptly without any information being shared regarding this. I called back and asked to confirm the information that was told to me and a gentleman answered and responded with  since you know everything I really should n't have to tell you anything. '' I shocking said  what kind of business is this? '' He replied  again ma 'm, since you apparently know everything do n't you need to tell me what kind of business this is ... i do n't need to tell you anything '' and hung up on me. Absolutely shocked I immediately called back and talked to the original person I talked to the first time and confirmed the  charges '' that were to be put on me for this debt and again informed this person this was under an active bankruptcy and i have an attorney and reminded him of the law. I also asked him what the name of his business was and all he would tell me is the Law Offices of XXXX located in Tennessee. That 's all he would tell me. My initial findings is that business does not exist and i do not think this credit collections company is legitimate as after talking to my Attorney he informed me the company handling this particular debt is in New Hampshire and it 's not this company. This, along with many other scam artists like this, are using scare tactics to prey on people to take their money illegally. This needs to be stopped ... XXXX by XXXX.   </t>
   </si>
   <si>
@@ -622,39 +1255,99 @@
     <t xml:space="preserve">I have repeatedly asked Wells Fargo to stop sending me marketing materials regarding my HSA - and they keep on sending them to me.   </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX XXXX, 2016 I received a phone call stating that I received an {$8000.00} grant and in order to get the grant I had to give the account and routing number for my bank. The further instructions were to go to an ATM and pull out {$300.00}, then XXXX XXXX the money to an address in XXXX. After I withdrew the money from the ATM, someone went into a Navy Federal and deposited {$15.00} into the account and then withdrew {$770.00} from the checking account. Three hours after the withdrawal from the ATM, I told a friend about the grant and she told me to check my account because it sounded like a scam. When I checked the account, I saw the unauthorized debit of {$770.00}. I immediately notified Navy Federal Credit Union and informed them of the fraudulent activity. They recommended that I close the account, which I did. I asked about getting the money refunded, they said there was nothing they could do since I gave the perpetrators the account number and routing number.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I am disappointed in Wells Fargo 's decision not to reimburse me for the XXXX {$5.00} service fees I was charged on XXXX XXXX, 2015.  This entire incident occurred simply because the woman in charge of the XXXX XXXX Wells Fargo office did not tell me this was some sort of special savings account and did not tell me there was a minimum account balance. All I wanted were XXXX plain, old fashioned, savings accounts. I have closed these accounts ( XXXX and XXXX ) and transferred my direct deposit payroll to a credit union. I no longer use my Wells Fargo checking account for anything other than cashing checks that are sent to me.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Bank of America charged me for withdrawals done at the ATM on my savings account. Despite their deposit agreement and disclosure stating that there is a limit of XXXX but of the XXXX, those done at a staffed teller window or ATM do not count. I had done a total of XXXX, XXXX at an ATM and XXXX online transfers. When I called they said that the XXXX at the ATM used up my XXXX allowed so they had a right to charge me for the remaining XXXX at $ XXXX/transaction. I referred them to their own Deposit Agreement and Disclosure ( page XXXX ) and they agreed with what it said, but stated they still would count towards the XXXX so anything in addition would be fee 'd if done elsewhere. I said I thought this was a violation of Regulation D as I understood it as well as their disclosure be unfair and misleading.   I have a copy of the chat where they did not even know that their disclosures stated that until I copied it. The call I made was allegedly recorded as well.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My complaint is with Bank of America and their horrible service/help, or lack their of, for a valued customer of 8 years. The incident started last year, XXXX. Up until XXXX XXXX I was married to my ex-husband. We separated in XXXX XXXX. During our marriage there was a XXXX account under my ex-husbands name. My name was never on that account and he was never on any bank account of mine nor was he able to have access to my card whatsoever. During our marriage ( before XXXX XXXX ), I was given cash by my husband about 2 times to pay a XXXX bill with my card. My card was never set for automatic withdrawal, my card was never connected to the XXXX account nor was my name ever connected to it or on any account. In fact, there was no account or company that my ex-husband and I both were on with our names together. Around XXXX XXXX, I contacted XXXX because I saw they had automatically withdrawn money from my bank using my card and I specifically told them they were not allowed to do so and I never gave them the authorization to use my card without my consent. So at this point, they agreed to not use my card without my consent and also to take it off file. This is on record and can be heard through XXXX 's  supposed '' recording process (  for quality purposes '' ) they have when you call their customer service department where the associate agreed to take my card off file. On XXXX XXXX, XXXX, a charge of {$670.00} was applied to my card and the money was taken out of my bank account, per XXXX XXXX. As a battered ex-wife coming out of an abusive relationship and being the person to leave, I had every notion that my ex-husband had used my card ( which he had that information because he secretly saved it ). I had every notion that my ex-husband used my card to pay his XXXX XXXX bill. A charge for {$670.00} from XXXX XXXX is unheard of but it happened to me. I contacted XXXX XXXX numerous times, countless times, to fix the charge, they agreed they withdrew money using my card without my consent but refused to fix it. Now I contacted Bank of America with this concern and I filed a claim for fraud against my ex-husband and Direct TV. Bank of America gave me a temporary credit of {$670.00} for that charge, but failed to mention, when the claim was denied, the actions they were going to take. After 90 days ( XXXX XXXX ), Bank of America withdrew the {$670.00} from my bank account and reversed the temporary credit denying my claim of fraud. This put my account overdrawn. Bank of America said XXXX XXXX took the money out without my consent and my ex-husband did not. This was a surprise to me but either way, I was never contacted about money being withdrawn from my account. How I found out was an email the next day of notice that {$670.00} was taken out of my account and my account was overdrawn. Bank of America stated that XXXX XXXX has a contract where they automatically pay a due amount with any card previously used on file. I, in fact, told DTV to remove my card from the account around XXXX XXXX, as I stated ... apparently they did n't. I was never aware of this contract nor was I ever on the DTV account to know of this either. After the initial fraud claim, we refiled the claim as an unauthorized charge claim. BOA denied my second claim of an unauthorized charge, since they said my first claim of fraud was incorrect. Bank of America did not work with me, did not do anything in my favor. They did n't care my account went negative. They are complying with XXXX XXXX and going against my claim and a knowingly unauthorized charge. After numerous calls to BOA cust service, every representative agreed it was wrong of XXXX and they did it without my consent. But Bank of America does n't care to help their customers. They do n't care if their customers have access to no money because they are negative. Knowing it was an unauthorized charged, they still denied my claim.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chase bank re ordered the processing of debit card and checking account transactions not by original date, but by the date they found would generate them the most revenue from overdraft and NSF fees.   Rather than processing smaller transactions first, and in the order they occurred, they processed a larger transaction first and smaller ones several days after their original transaction date to charge more than XXXX NSF fees to my checking account. As I am aware, this violates several recent laws that have been implemented over the past several years to limit banks ' abuse of overdraft protection and charging of NSF fees.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My parents XXXX XXXX XXXX XXXX banked at Chase prior to both of there deaths. I want to know how a bank account can remain active after their deaths and if the bank has any property under my father XXXX XXXX.  I am not sure why this account was able to have someone access it and transfer money into it which my attachments upon close review demonstrate this. I am attaching files which show the timeline of employees interaction upon his death. I want to be allowed to review his estate matters as no administrator. I want permission which as a person in his will and the Texas law allows As I have a certified copy of his will and his death certificate.  I request information on both my parents to be reviewed. under the Texas Estste Code : Sec. 151.003 EXAMINATION OF DOCUMENT OR SAFE DEPOSIT BOX WITHOUT COURT ORDER ( a ) A person who possesses or controls a document delivered by a decedent for safekeeping or who leases a safe deposit box to a decedent may permit examination of the document or the contents of the safe deposit box by : ( 1 ) the decedent 's spouse ; ( 2 ) a parent of the decedent ; ( 3 ) a descendant of the decedent who is at least 18 years of age ; or ( 4 ) a person named as executor of the decedent 's estate ina copy of a document that the person has and that appears to be a will of the decedent.  ( b ) An examination under Subsection ( a ) shall be conducted in the presence of the person who possesses or controls the document or who leases the safe deposit box or, if the person is a corporation, an officer of the corporation.   I look forward to visit and review by parents closed accounts.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I contacted my card services at Payal. After having difficulty with them on several occasions I sought an accommodation under the XXXX to try and avoid repeated hang ups. I was told that Paypal does not accommodate people with XXXX, that it was not a XXXX they deal with and that they are an online company so they do not need to comply with the XXXX or giving me equal access to good services and my money. Further they suspended my card while travelling and did not have anybody available to un-suspend my card. While travelling, most people have deadlines, them suspending my card and not being available to turn it back on and then hanging up on me because I needed my funds and became stressed when they where not available. XXXX Id XXXX refused to give me an accommodation and stated she does not do  that '' I asked to speak to someone who could accommodate my XXXX but XXXX hung up on me after threatening me that I would not be served by anyone else.   </t>
   </si>
   <si>
     <t xml:space="preserve">On XXXX XXXX, XXXX I found out that Capital One bank put hold on all checking account I had. I immediately contacted bank via secured chat because I can not reach anyone over the phone. My depost {$240.00} showing totally unavailable which make me extremely upset due to terrible banking experience with this bank before. I had made several complaints against this bank due to stole funds against my will on XXXX XXXX, XXXX for total {$80000.00} plus all lost interest earning for 2.5 years total {$8000.00} and travel expense to branch 7 times to collect stolen funds. This bank never change its stolen nature. I as consumer has great concern regarding the safety of my deposit. Most recently I sent two messages to this bank to ask my stolen funds, but I can not get any assistance. On XXXX XXXX, XXXX I notified this bank to return all my deposit plus stolen funds in XXXX XXXX, so I can close my accounts to end this terrible banking experience with Capital One. However I was directed to call Fraud Dept. I indicated to bank rep that my deposit had no fraud, and I do not want to continue my deposit simply because the prior terrible experience in XXXX XXXX as reported several times to CFPB for immediate assistance. Now 2.5 years passed, I can not release my pain, suffering to lose my savings to a theft XXXX XXXX who I do NOT authorized at all. I once again to ask all my deposit back plus stolen funds in XXXX XXXX, so I can discontinue my terrible banking experience with Capital One.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Chase claimed they sent me a letter in mail regard to my account on XXXX XXXX to the fact they need more time to inspect what happened, and XXXX XXXX is today and no letter in mail has been received. How long til I hear from someone? This case is very serious matter due to their neglecting my case for a long time already that 's past due when I have support evidence of these actions not done by me.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Citibank has attempted to defend its actions in this matter by reliance upon the Expedited Funds Availability Act. That defense is only tangential, not central, to the current claim.   In this instance, when I attempted to deposit the counterfeit cashier 's check ( copy attached ) ostensibly drawn on XXXX XXXX XXXX XXXX XXXX (  XXXX '' ) in a Citibank ATM at XXXX XXXX XXXX XXXX, XXXX XXXX, the ATM rejected the check. I then approached a teller at that Citibank branch location and indicated to him that the ATM had rejected the cashier 's check and asked whether the teller would accept deposit of that same counterfeit cashier 's check.   As noted by XXXX XXXX, General Counsel for XXXX, in his email of XXXX XXXX, 2015 ( copy attached ), any bank teller with the requisite training in detecting counterfeit cashier 's checks should have immediately known that the check I presented for deposit was counterfeit. In this regard, as XXXX XXXX points out, legitimate cashier 's checks have  a tracking number which is not present on the check presented to Citibank. '' In addition, as noted by XXXX XXXX, legitimate cashier 's checks bear the telephone number of the issuing institution ( which the counterfeit check did not ) and the check in question bore a suspicious  security features box located on the reverse side. '' Therefore, Citibank 's act of accepting the counterfeit cashier 's check, which their employee ( the teller ) knew had just been rejected by Citibank 's own ATM machine, was, at best, gross negligence, and the teller who accepted the check was either completely untrained in fraud detection by Citibank, extremely reckless, or knowingly and intentionally careless in his actions. The fact the I was given immediate credit in my account for the counterfeit cashier 's check merely compounded the grossly negligent and reckless behavior of Citibank and led to their loss - - which they are now attempting to pass on, unlawfully, to me.   Under the circumstances, Citibank should be made to suffer the entire loss in the amount of {$1900.00}. Instead, Citibank has, as they admit, closed my account and has also notified other banks to not do business with me, thus preventing me from opening a new account elsewhere and further damaging and injuring me in my personal finances, reputation and credit.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I am writing this complaint on behalf of my mother. Someone secured my XXXX year old mother 's banking Capitol One Bank checking account and routing numbers ( and probably her social security number ) beginning XX/XX/XXXX. Beginning XX/XX/XXXX to XX/XX/XXXX some individual made a series of fraudulant Automatic Clearing House ( ACH ) credit and debit withdrawals and ACH '' bill pay '' through XXXX to for a total of {$44.00}, XXXX! The individual by the name of  XXXX XXXX '' routinely raided my mother 's checking account beginning with small amounts that escalated to large amounts from XX/XX/XXXX until the account was drained by XX/XX/XXXX.   My mother recieved an overdraft notice on XX/XX/XXXX from Capital One, NA, ( located at XXXX XXXX XXXX, XXXX, MD XXXX ) indicating that her account was overdrawn for 10 days. In response to the letter from the bank my mother went to the bank in person.   At that time she was asked a series of questions by several  fraud inverstigators '' from Capital One. They said that their investigation would take 10 days. Over the next several days my mother a number of attempts to contact the bank branch manager, XXXX XXXX XXXX by telephone. Each call was met with  we 'll take a messge for XXXX . XXXX. '' However, those calls were not returned. I decided it was paste time to visit the bank with my mother. XXXX XXXX printed out a list of ACH tranasctions We were assured my mother 's money would be restored after an investigation was completed. We then closed the old accounts ( bothe checking and savings ) and opened new ones. We signed up for online banking so that I could view and track her accpounts.   On Satuarday, XXXX my mother recieved a letter from a XXXX XXXX XXXX which stated that my mother 's claim was  denied because the documentd from the Merchant showed that the ACH transactions were valid. '' I called the telephone number on the letter to discuss their  decision. '' I learned that the fraudlent ACH transaction were comitted through XXXX XXXX bank whose position was that the transaction were valid. Time after time ACH transaction were made to XXXX by XXXX XXXX By taking this position XXXX XXXX can essentially stops any furher invetsigation by Capitol One Bank. This is a sweetheart agreement for culpable banks which allows them to maintain no fraud to occur. It is as if neither bank contributed to the other 's negligence. A Capitol One Bank employee suggested that my mother authorized the use of her account. My mother never authorized anyone to access her accoun! Do these banks have any internal control in place to provent this type of fraud. Apparently not! Every step of our inquiry with well rehearsed pablum. So the bottom line is my mother money is simply NOT SAFE IN THIS BANK. I truly beleive that they were counting on confusing a XXXX year old woman. I firmly believe that these banks deny XXXX % of all claims valid or not. The bottom line is teh only thing they care about is money. it simply begins and ends with mantra.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My wife and I have had a joint checking account/savings account at TD bank in XXXX, NY. The checking account is called  relationship checking ''. It was opened on or about XXXX/XXXX/XXXX.   I looked up their different checking account plans and saw for the first time that they are not supposed to charge a monthly maintenance fee to process my accounts since I keep substantial sums between my checking and savings account held by them.   I noticed that I have been improperly charged $ XXXX/mth for almost 4 years. On XXXX/XXXX/XXXX, I met with assistant store manager, XXXX XXXX, who acknowledged the bank 's error and told me she would look into it. They only credited me {$100.00} instead of the almost {$1200.00} that they had improperly charged as maintenance fees. On XXXX/XXXX/XXXX, I met with Asst Vice President, XXXX XXXX, who said the bank would make no further credits to my account. He said that I should have seen the charge on my statements. I told him the bank was illegally profiting from its own mistake.   First, I was never told that my  relationship checking '' account was  maintenance fee '' free. If I had been aware of this, I certainly would have disputed it years ago. Second, they opened the account and their computer program never should have entered a monthly fee in the first place. Therefore, an employee of the bank must have altered the program or my specific account to do so.   Not only have I been defrauded by TD bank, but I am sure that I am not the only depositor who is or has been paying  maintenance fees '' unnecessarily since they do not advise their customers of any improper charges.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">XXXX XXXX, 2016 To Whom It May Concern : Claim # XXXX As per your request I am writing this letter to tell the facts!   I rented a room for my family at the XXXX. Which was unlivable due to the infestation of roaches, refrigerator not working or the stove and that is what we paid for, as we are a family and needed to cook. I was told by the manager/owner that I am the father I need to figure it out.   Facts : The stove did not work The refrigerator did not work The tub did n't work however it was fixed a day later Neighbors screaming and jumping all hours of the night knocking on my door.   I complained to Management they said they would take care of it, as we had to work the following day. Nothing was done about it.   My Fianc was falsely accused of staying at the motel once before sneaking animals into the room without paying ; my fianc has never stayed at the motel before. They argued with us made us uncomfortable, called us liars etc.   I paid for XXXX days and checked out on the XXXX day because our room was infested with roaches.   I notified the Merchant and they were not helpful and did not want to budge. They did nothing to correct any of the issues ; they did not even offer any credits at all.   I spoke with 2 managers and the owner and the owner was horrible. I immediately opened a debit card transaction dispute in direct response for the poor service and mishandling of my intended funds tendered in hopes of a quality weeks stay. Please note that I originally paid for XXXX nights, but I did not stay past XXXX nights and the entire amount is what I requested back. The provisional credit was given to me and all of a sudden snatched away from me, now leaving me in a further mess with a heavily overdraft account. I was out at dinner with my fianc and was extremely embarrassed by having my card declined in front of the restaurant. I have been through quite a lot and this is very deceptive and very harsh to have my bank that I believe knew the issue first hand with the investigation that created and now has put me in a terrible spot.   I am contacting the CFPB to ensure justice and proper adjustments on my account are made.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I have requested my money from HSA Bank ( R ) is a division of Webster Bank, N.A., Member XXXX XXXX and they told me it will take up to 30days for me to get my money. The bank refused to let me speak to anyone else.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We transferred funds from the XXXX XXXX XXXX XXXX, XXXX, NH ( took out an IRA ) to move it over to the Peoples Bank, XXXX XXXX, XXXX. Accidentally the wrong box was checked off on the form and was not noticed by the bank staff member or by myself and instead of getting a roll-over IRA we got a CD time deposit instead ( this was done simply by a check mark in the wrong box that neither the staff member or I noticed-but has come back to haunt us ). We found out about the issue after the 60 day grace period for changes ended and now the bank refuses to try to change things and is not talking to us as well! So what we now have is a massive tax bill which we can not afford and the potential to lose our Affordable Health Care Insurance as this CD Time Deposit has become taxable income -- which it was never meant to be IT WAS MEANT TO BE A IRA ROLLOVER. We are NOW also facing massive tax bills for something that we have n't touched. Think of this in this manner : would anyone pull money out of a safe tax shelter, move it to a CD with no shelter at all, be taxed severely on it and yet not take even one cent of the money out? Not a single cent has been removed for this account, but we are now in debt for the taxes! Clearly, no sane person would do this ( no insane person would either ), i.e. moving from a tax shelter to none at all while still leaving every single cent within the account THEREBY PAYING TAXES JUST FOR THE XXXX OF IT! The ONLY reason you would transfer the funds ( as was accidentally done ) would be because you needed the money! We do n't, it was to be savings only but got changed into a nightmare by the staff member checking off the wrong box. No, I did not see the mistake, but huge tax bills and the possibility of losing our health care is an awful high price to pay for one tiny mistake. We have tried to reach out to the bank management but to no avail. Tried again today and they are not talking. We are very willing to work with them but they have drawn a hard line. What we need to have done is for the funds now locked up in the CD Time Deposit be rolled over into a IRA. Technically, we have been told to say that we want the current Code XXXX to be changed as a Code XXXX Rollover AND WE 'RE RUNNING OUT OF TIME AS TAXES ARE DUE NEXT WEEK!!!!!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I opened a checking account with Bank of America. When opening the account, the associate entered all of my correct information from my driver 's license. A few days later, I received an email notification that my debit card was on its way, but it was being sent to an address where I have never lived and/or been associated. I contacted the bank to ask them why/how this happened. They initially insisted that I had been a victim of fraud, but after showing them I had not, they started investigating on their end. They admitted that everything was processed correctly, but can not understand how the wrong address was then attached to my name. They 're calling it a  system glitch. '' When I asked how I can be assured that it wo n't happen again, I was told that I need to carefully monitor my account myself because they ca n't promise me it wo n't happen again.   I have since closed the account because all I get from them is head scratches and  I do n't know how this could have happened. '' It 's ridiculous and I do n't trust that my account would be safe with them, no matter how many  extra protections '' they have to put in place.   They also reported this incorrect address to my credit bureaus but are doing nothing to correct the improper reporting. I am filing disputes with each bureau to have the incorrect information removed.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">XX/XX/XXXX, I received in the mail an offer from Discover bank to open a checking account and link direct deposits to receive a welcome bonus of {$300.00}. I submitted the application online using the promotion code and supplied information to fund a new account from an existing checking account with another bank. I noticed after a couple weeks that I did not receive any follow-up communications from Discover nor had my initial deposit been taken from existing checking account to fund this new account. I contacted Discover 's customer service and after researching they realized they had a system error when it came to verifying my name. I was told I could reapply even though it was outside the offer period, but that notes would be included in my profile to give me the welcome bonus once I satisfied the direct deposit requirements. I did satisfy those requirements, and confirmed it with customer service in XX/XX/XXXX, and again in XXXX 2016. I was told by customer service I had completed the requirements and that communication would be sent to their rewards dept to send me the bonus. Last week upon inquiring again the status of this bonus, I was told by their rewards dept that I didnt meet the requirements because I opened the account outside the offer window. This goes in direct contrast to what was explained to me when I resubmitted the application so they could correct their error and again when I confirmed I had satisfied the requirements. Had they told me months ago that they could not honor their offer then I would never have gone through the hassle of setting up a new account and linking my direct deposits.   </t>
   </si>
   <si>
+    <t xml:space="preserve">TCF Bank denied a valid Charge Back because of customer benefit. I tried to return the product back to XXXX XXXX XXXX three times. Two by email one by certified mail restricted delivery. The certified mail was unclaimed and mailed back to me. Under visa regulation E under chargeback Management guidelines for merchants. reason code XXXX : not as described or defective merchandise. I 'm only required to make a valid attempt to return per visa regulations. XXXX example is  an example of a valid attempt to return may be to request that the merchant retrieve the goods at the merchant 's own expense. Please see attached visa regulations. Two times on XX/XX/2016 I requested per email that XXXX XXXX XXXX.  I 'm requesting that XXXX XXXX XXXX come retrieve puppy ( took out name ) at your own expense. '' On XXXX XXXX, 2016 I requested per certified mail return receipt that XXXX XXXX XXXX.  I 'm requesting that XXXX XXXX XXXX come retrieve puppy ( took out name ) at your own expense. The mail was unclaimed and returned back to me. I followed visa regulations and fact is TFC wrongfully denied my claim. I 'm legally entitled to a full refund per visa regulation E guidelines that TCF bank is supposed to follow and simply does not. If this issue is not resolved here I will separately file The Claim Notice for Arbitration I do know my rights and they were wrongfully denied here.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have a banking account with TD Bank. TDBank has a consistent pattern. If you get a statement on the XXXX of the month and you pay your bills on the XXXX, they both go in the same date and TD Bank will charge you an Overdraft Fee for EACH payment that you paid electronically. They have totaled for last month taken over {$800.00} in one month in overdraft fees. Since the beginning of the year it has been over {$2000.00}.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Wells Fargo put me on the hotlist because the person who stole my identity opened an account with my identification information and a different social security number to compromise and imbezzle funds from our company. When I found out I was applying for a business account. I filed an identity theft complaint and someone was supposed to get back to me yet I have still have not received a phone call   </t>
+  </si>
+  <si>
     <t xml:space="preserve">My checking account was changed to a fee based account without my knowledge, my savings and checking accounts were drained and are in negative balances. Bank of America says I owe them {$300.00}.  I opened a checking and savings account with Bank of America at least 6 years ago. It had XXXX charges at the time to have an account. I have moved 5 times in the past 3 years and had not checked that account. I stopped using the account back in XXXX when I switched over to another bank, and when I recently checked my Bank of America accounts I noticed I was being charged maintenance fees ( this has been going back for at least a year, but I did not realize this previously ). Both my checking and savings accounts were in the negative and my savings account was closed. Bank of America changed my checking account to one with a monthly fee. The monthly fees caused me to overdraft and go into negative balances. It 's probably about {$500.00} in charges including the negative balance for accounts I have n't touched. When I called the company I was told they sent me something in the mail. There was no due diligence on their part. I never received a phone call as I was going into overdraft on this.   My savings account was overdrafted so much it was closed, and I am no longer able to access the documentation for the savings account.   </t>
   </si>
   <si>
+    <t xml:space="preserve">I have held an XXXX XXXX account with Merrill Lynch for over 35 years. The bank has now indicated that it will close this account. As I am a non-resident this will involve be in substantial loss as I will have to pay tax at the rate of 55 %.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Citi Bank has garnished my commercial checking account without notification. I have contacted them on the phone and in the branch and no repose so far. The account is also joint with my wife and it has a zero balance after it had {$38000.00} in it. I am a head of a household with XXXX kids and have no funds to feed my family. I have hired a lawyer and still no response. Need urgent resolution.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Recently I have had several thousands dollars wired from outside acct into my Citi Bank checking acct. What shocked me is Citi charged me {$15.00} for service fee. It is such a ridiculous policy to punish its own customer to put $ $ to his Citi account. That explains again why Citi performance XXXX.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went online to pay a credit card bill from Capital One. I wrote in {$50.00}. I had about {$300.00} in my XXXX Checking account. For some unknown reason Capital One took the whole card balance of {$970.00} from the account. Since I have overdrawn protection XXXX just paid it and I was over {$600.00} in the hole. I immediately contacted XXXX and Capital One. My problem with Capital One is I talked to them twice. Both times XXXX different people said they had other customers with the same problem. During the second time I called my Banker at XXXX heard the Cap One rep say I was n't alone with this problem. I 'm then told it will take 5 business days to get my money back? Why? I have bills I paid that are now being flagged as part of the overdrawn and I 'm being charged {$36.00} for overdrawing on each of the transactions.   I told my husband about the problem. He 's a former XXXX XXXX VP who worked for XXXX. He called Capital One. All he wanted to do is ask what they were doing to fix their problem. They wouldn 'd dicuss anything with him because he was n't on this account. So I 'm worte a letter to Capital One for an answer as to what they 're doing to fix the problem and why does it take so long to get my money back. Is n't that Fraud? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We opened up a corporate bank acct in XXXX XXXX. The bank referred us to XXXX, XXXX is one of the vendors that works with the bank. The vendor offers merchants the service of credit card processing.  We knew from experience in selling our product that credit cards were not highly used by our customer base, so we debated establishing a credit card processing account with the vendor.  We finally decided to get the capability after a customer expressed interest in using a credit card and we began to price competitors. Our company applied for the service and was approved. We had no issues with processing our first payment until after it went through. After the payment went through and hit our account, we received a phone call from XXXX of the XXXX Fraud Dept. She was rude and unprofessional. She began asking questions about our business without introduction, so when I began to question her, she then said something that stuck with me.. She said  anyone can make up a business ''. It was a slap in the face moment when my years of XXXX flashed before my eyes and I recalled walking across the stage in XXXX to get my degree and I did not hear one single hand clap because no one from my XXXX XXXX family had made the trip to XXXX to celebrate my accomplishment. I felt disrespected and I felt insulted. I sent XXXX requested information and then we went on with our business. We did not get any customers requesting payment by credit card again for 4 months. In that time, we had received increased credit with the bank by virtue of an increase in our ability to submit mobile deposits and we were also able to improve our business. We had recently completed updating our website. We 'd negotiated a great postage rate with the head of the XXXX XXXX XXXX XXXX XXXX and we were very proud of our accomplishments as a business and as a team. Last week we received a customer payment by credit card. I had to dust off my list of instructions on processing the payment and call customer service. They gave me an update on how to accomplish this and remain in pci compliance and I got the card entered. I was notified that the payment was approved and I simply moved on. We 'd never experienced a problem with USBANK regarding our business account deposits, so we did not expect any problems. 2 days after I made that deposit, we were packing up our travel bags to head to XXXX to drop off our prepared mailing that was dated XXXX/XXXX/XXXX. It was at that time on XXXX/XXXX/XXXX that we discovered that USBank did not reflect any deposit for the credit card. Upon calling the credit card merchant service I walked through the instructions on how to submit the payment and I automatically assumed I had done something wrong. It was toward the end of our friendly call that the agent, advised me that the XXXX from Fraud needed to talk to me and that was the reason we did not see our funds. I was so upset. That woman 's name triggered the memories of her negative prosecutorial tone and manner and I remembered her insults about anyone being able to open a business. I spoke with her and she was still rude and yet she was grasping for straws and delaying. So, she acted like she might be able to wrap up our case that day, which is what she did back in XX/XX/XXXX or XX/XX/XXXX when we first spoke with her ... so we hung up and Saturday arrived and we saw no payment. Monday arrived and still no payment. Monday the President called the customer support and he was told our funds would be in the acct by XXXX or no later than the next morning as everything had checked out. He then called again and then again.. When he called the 3rd time, it was because he 'd called our customer who we had not seen in almost a week and he 'd announced he was from the fraud investigation dept and he ruined our sale..temporarily anyway. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I closed out a certificate of deposit at IberiaBank. They mailed me a check for {$30000.00} and did not send it by certified mail. They sent it by first class mail. The check never arrived. It has been 30 days. They do not want to issue another check for 90 days. I do not believe they will ever issue a new check. Why am I supposed to believe someone who uses the excuse,  The check is in the mail! ? </t>
   </si>
   <si>
     <t xml:space="preserve">I have XXXX accounts with Chase, XXXX checking and XXXX savings. My mother is on XXXX of the savings, jointly. When she logged into Chase using her credentials, she was able to access the information in my personal checking and savings, where she is not listed on the account. She could see all statements, every debit, etc. </t>
   </si>
   <si>
+    <t xml:space="preserve">I needed to wire funds for a mortgage closing and the bank refused to do a wire over the phone, even though I offered to sign whatever forms and fax in whatever verification they required. I do not have access to a branch because I have moved and there is no US Bank in Florida. The US Bank website says you can do immediate or next day transfers which would also help because I could transfer to a FL bank and then wire, but when I went to do that instead it would n't let me because I was above the transfer limit. I am unable to access my own money via wire and it may result in me loosing my home. This is unacceptable! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX/XXXX/2016 I noticed on my online checking account a debit of XXXX I from an unauthorized source. I called the bank since it was pending debit and was told that they would file a claim to have it removed. My husband notified the company because it was a charge from a previous contract and had it cancelled. He provided the bank with the cancellation number.  The customer service rep took the information and credited our account.  When I checked my account the next day XX/XX/XXXX, the amount had been debited again causing an overdraft, and there was no record of the pre- vious debit or credit from the night before. I called the bank again, and the customer service rep transferred the call to the claims dept, and there wa no record of what had transpired, and I was told that we had to wait 15 days to see the money credited again. I asked for a manager, and was put on hold and then told I had to call back tomorrow. I asked for the address to write to the dept manager, and was told that they were in XXXX .... My concern is that there was no record of what transpired the day before, and this is a large financial institution. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a checking and savings account with Chase Manhattan Bank. My brother is my Power of Attorney ( POA. ) I have a durable POA, Chase will not accept this form - they want their own form/individual form to be completed. I will do that - but they require it to be completed by us together, at a Chase branch.   My brother and I live in different states. Chase said the only way it can be done is if we go to the branch together. If he lived in XXXX, is he supposed to travel here to go to a Chase branch with me?   This is a ludicrous. Every other bank I do business with either has a form I can print at home and have notarized, or will send the form to me. I can have my signature notarized, mail the form to my brother, and he can get his signature notarized. We do not have to go to a branch together.   I contacted the bank twice, and got the same useless response from them.   I have gone to my local branch several times to get something notarized. They did not have a notary. IF my brother comes here and we go to the branch together, if they do n't have a notary, they ca n't process the form. There has got to be another way to get this completed. </t>
+  </si>
+  <si>
     <t xml:space="preserve">PNC Bank charged me XXXX in overdraft fees for a XXXX overdraft. I do admit it was a mistake on my part that this happened, and I have no issue paying XXXX charge, but XXXX is very excessive. This is un fair. I could have got a payday loan and payed way less. This is predatory, and unethical. I am on a fixed income, and this is causing me a major hardship. I explained this to them and they said they will not do anything to help. </t>
   </si>
   <si>
@@ -664,21 +1357,54 @@
     <t xml:space="preserve">Branch : Wells Fargo Address : XXXX XXXX XXXX, XXXX XXXX, CA XXXX Phone : ( XXXX ) XXXX Hours : Open today XXXX-XXXX On XXXX/XXXX/2016 I walked in to the Wells Fargo mentioned above in XXXX XXXX California and cashed a {$1500.00} check. The teller I checked out through was dark haired man named XXXX. My receipt states only this : Store : # XXXX XXXX Transaction : XXXX XXXX XXXX XXXX/XXXX/16 Thank you, XXXX The teller proceeded to remove money from the register and he placed it through a counting machine. I did not look at it because in the same moments I asked him if he had any bank straps and he proceeded to remove my money from in front of the window and take it to the back of a room located directly behind him. His manager was in the room already and he turned and asked me if i wanted the {$100.00} bands or the {$1000.00} bands I stated the XXXX dollar ones and I needed about XXXX of them what ever they were willing to spare. He then turned back around in the room and got the straps came back to directly infront of me set the money down without placing it though a money counting machine. I asked for an bank envelope I put it in the self sealing envelope before I left the tellers view and then I left. I had over {$9000.00} in my locked satchel crossbody that day. I had cashed XXXX different checks a {$4000.00} check at XXXX XXXX XXXX, XXXX for {$3000.00}, XXXX for {$500.00} and then this XXXX for {$1500.00}. I went to my house to register and balance my funds for my business and put each withdrawl away I balanced on each one except for this {$1500.00} it was {$1400.00} ( {$100.00} off ). I counted again and I got the same balance {$1400.00}. I proceeded to call the bank and speak to a woman who claimed to be a manager named XXXX she said she was balance his drawer and give me a call back. She called me back about 6 minutes later and said that his drawer was balanced correctly. I advised to her about him walking away with my money in his hands and not recounting it infront of me again. She stated that I should have counted it out when I was given it. I advised to her I wanted the cameras checked from his entire day touching funds. This money was never out of my possession. It was in a self sealing bank envelope and I never placed my purse anywhere but on the side of my body its a crossbody. I called this morning to speak to the bank manager his name is XXXX. I advised him on the situation at hand and that I needed someone to check his entire time with his register that day. I advised that when I spoke to XXXX yesterday she stated that she had eyes on him the entire time. I said how is this possible when if I remember correctly you were already in the room with your back turned? I asked her to please check the cameras and told XXXX the branch manager this. He stated to me he couldnt see how this was possible and didnt offer much assistance. XXXX had even stated I do n't know if we can pull cameras for this????? That is extremely alarming! What if they got robbed would there be cameras then???  This could have only been XXXX of XXXX things.  1. Accident and he counted {$100.00} too much to another customer.  2. Bills stuck together when counting out an amount to another customer resulting in a balanced drawer.  3. Theft. He took it either during my transaction or it was taken during his shift sometime and the cameras need to address his entire shift from start to finish.  I feel like I was stolen from point blank and I want to get down to the bottom of where this missing {$100.00} is. It can not simply vanish into thin air. I did not place my bag down at all. Nor did anyone have access to it whatsoever. All of my other checks I cashed balanced perfectly. I should have counted to make sure the transaction was right at the register before leaving but I thought I could trust my teller. He never should have gone into another room with my money and then not count it infront of me. </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX/XXXX/16 I contacted the claims department at Bank of America and gave information on a {$60.00} charge from XXXX and requested that it be reversed. Quibids offered to sign me up for a membership but said nothing about the {$60.00} charge I later discovered on my debit card, which over-drafted my account by {$25.00} and incurred XXXX {$35.00} overdraft fees. After calling the claims department, someone erroneously transferred me to the fraud department and after over 45 minutes on hold, the gentleman there insisted on cancelling my card, and it took another 20 minutes to have the card reinstated. Once I finally got to speak to someone in claims, an associate named XXXX argued with me about XXXX having a no-refund policy and how Bank of America could not reverse the charge if this was the case. From the beginning I stated that the claim was about whether I had given XXXX permission to charge my debit card, not whether the company would refund me the {$60.00}. To make matters worse, Bank of America insists on treating the claim like a fraud case, which routinely take 10 business days to investigate. I spoke to a claims supervisor by the name of XXXX and explained that my account carries a negative balance because of the charge and in the meantime I must purchase food and medicine ; however, since they insist on treating my claim as fraudulent activity, they will only offer temporary credits which expire within 24hrs while they take 10 days to investigate my claim. Since I previously suffered fraudulent use of my card last year, I am familiar with such procedures, and I remember having to call the bank on each day of the investigation and request ( beg ) for the temporary credit that I knew would expire that evening at midnight. I did this for XXXX days. By XXXX this evening there will be XXXX additional overdraft fees for each pending transaction, even though only XXXX of the transactions caused the overdraft. There is nothing to investigate as many consumers ( according to Consumer Affairs and XXXX have had the same problem : XXXX and XXXX. XXXX charging me without my consent was bad enough, what Bank of America has done is worse. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Friday, XXXX XXXX, I deposited a check totaling {$1900.00} into my Chase savings account. On Monday, XXXX XXXX, the check cleared and the funds were posted to my account. I then called Chase bank and spoke with a customer service representative. After a five minute recorded conversation, I was assured by the representative that the check had cleared with no problems.   This morning, I received a notification from Chase bank that the check was returned and my account was now {$1800.00} overdrawn. After speaking with Chase customer service twice more, I was informed that the check was  altered '' and that the funds were no longer available.   After I explained to the supervisor how I had already called the bank to confirm the check was cleared, the only response was apologies and a promise train their customer service agents more fully. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I previously have had an account with Bank of America they are stating the account was closed due to fraud. I have previously contacted them in regards to having this corrected from my XXXX report as fraud. They have both denied the issue and state there is nothing can can be done for this to be removed. Bank of America closed my account and refunded my money that was still in the account. I have tried to contact Bank of America repeatedly for assistance with this matter and have had no luck in doing so. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Summary : Unable to access my accounts online as of XXXX at XXXX, through XXXX app, mobile website, or desktop website.   On XXXX, I made a total of XXXX phone calls to Wells Fargo, XXXX to customer service XXXX, and XXXX to XXXX, which is supposed to be the online banking department.  responses ranged from the automated system hanging up on me, to a supervisor hanging up on me after asking the same question repeatedly, even though I answered the question multiple times.   I was able to determine that my accounts are active, but I am not able to access my accounts online. </t>
   </si>
   <si>
     <t xml:space="preserve">I have a savings and checking account with Wells Fargo. Over the course of 2 to 3 years I have paid my XXXX XXXX statement with my debit card from said bank.   When I pay the $ XXXX amount, that is withdrawn from my bank and my checking account balance reflects this. One or two days will pass and the $ XXXX will appear back in my account, but not as a deposit. Instead, it will appear as if the money was never withdrawn in the first place. This shows an inaccurate balance on my checking account and thus leads to overdraft fees. This would not normally be an issue, but the amount in question will not show as cleared on the final date days later ; it will actually show as if it cleared the very first day.   During the most recent instance, Wells Fargo Bank has charged XXXX overdraft fees of {$35.00} each for a total of {$70.00}. These fees were not for debit card transactions, but rather for transfers within my own account. </t>
   </si>
   <si>
+    <t xml:space="preserve">Today, I contacted JPMORGAN Chase regarding an overdraft in my account which caused a domino effect in extensive NSF fees totaling {$200.00}. I explained my situation where my account is blocked from making mobile deposits  that I have to funnel deposits through a savings account then make a transfer the next day ; in addition there are no Chase locations within over XXXX miles of where I live. I also explained that I have no source of income  currently out on XXXX. I pleaded if as a courtesy they can work with me in reversing some of the fees since this will cause additional financial hardship. The rep said they would only reverse XXXX {$34.00} fee. I spoke to 2 other senior reps not Supervisors or managers  they refused to help me further. I was even denied to speak with a manager in customer service. Now I am out a total of {$270.00} because of this block on my account to make deposits  because the bank pays out a check for {$140.00} first then charges for each additional item ( which in my case were small amounts of {$10.00}, {$20.00}, {$7.00}, etc ). The fees were XXXX the amount of the debits. The bank makes money on each NSF fee accessed in retail banking meanwhile the bank reverses fees in other departments like XXXX, Government banking, etc. When I worked at the branch level I reversed fees as a concession to customers all the time ( especially if there was a hardship sitatution ).  I am a XXXX single mother to XXXX children with no source of income  my bank who I 've been with for years in which I trusted basically does not care that they took food out of my children 's mouths. It 's a shame how the poor customers like me are robbed with these astronomical fees while the wealthier customers get all their fees reversed with no problem. Ithe seems like discrimination  unfair business practices when you have a set policy for one area  another policy for another. It is 1 bank  every customer should be treated as a valued customer. I know this for a fact in my former experience working with the bank. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Citi Banks has failed to open an account under the Fair Credit Reporting Act. Citi Bank has failed to transfer funds under the Electronic funds Act, from the XXXX to, Citibank N.A.XXXX XXXX ; XXXX XXXX XXXX, XXXX XXXX XXXX XXXX. </t>
   </si>
   <si>
+    <t xml:space="preserve">I ask Well 's Fargo to stop putting me on the over draft  protection '' plan. Each year they take me off, they take me off, then the next year they put me back on it and charge me. It 's not protection and its false advertising. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank of America WRONGLY and ELECTRONICALLY debited {$870.00} from my checking account, XXXX. I NEVER authorized a bill pay payment to XXXX XXXX on XXXX/XXXX/2016. They claim I did - I DID NOT. They are REFUSING to refund the money to me.   This situation is a great example of the extreme power XXXX BANKS have over small consumers. PATHETIC! </t>
+  </si>
+  <si>
     <t xml:space="preserve">US Bank, unauthorized, paid a {$470.00} bill via my checking acct bill pay to a different bank and acct #. They acknowledged mistake but their bank is too big without proper leadership to be able to correct their problem - which became mine. My perfect credit rating is now at risk, I ca n't pay the correct biller because US Bank 's bill pay is corrupted. They have no accountability nor proper customer service. </t>
   </si>
   <si>
+    <t xml:space="preserve">In XXXX XXXX, I opened a Citigold checking account with an offer stating I would receive XXXX XXXX miles ( worth approx. {$500.00} ) after meeting certain criteria. I then met those criteria, confirmed with a Citi representative that I had met the criteria several times, and was told to expect the XXXX miles to be deposited into my account by the beginning of XXXX XXXX. During this time I was charged two monthly service fees of {$30.00} each. Now, after confirming this promotion was applied to my account, confirming that I had met the requirements, and confirming that the miles would be deposited at the beginning of XXXX, Citi has changed their mind. They have suddenly decided I do n't qualify unless I can find a mailer from 5 months ago showing the offer. I think it 's unreasonable for Citi to expect me to keep mail for such a period, especially after confirming my offer eligibility. I believe Citi intentionally misled me in a way that encouraged me to pay monthly fees for as long as possible. I searched the internet for others with similar issues and was not surprised to find that the issue appears to be widespread. I believe the evidence points to numerous instances of intentionally deceptive marketing practices by Citi. I am bringing this issue to your attention because my attempts to discuss the issue with Citi have gone nowhere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Wells Fargo checking account, on XXXX separate occasions was incorrectly managed. Each time my balance in the account was about {$50.00} less than it should have been. It appears that purchased was put in pending status, and the amount deducted from my balance. Then about XXXX days later those purchased were deducted again and placed in posted status. Each time I called Wells Fargo and spoke with customer service regarding this error. Each time I was told that that could not have happened ; that the items in question would have to had been credited back to my account and only deducted once. Some of these transactions resulted in overdraft fees having been charged. In short, I am out of about {$250.00} due to Wells Fargo 'bad ' accounting. I am closing the checking account ASAP. Is there a way I can be refunded the {$250.00} dollars. I have no documents to attach since the day the transactions that are deducted twice or placed in pending with a certain date ( and that is the date I use to deduct from my balance in my checkbook ), then those transactions are again placed in 'posted ' XXXX or so days later with another date. So the transactions do n't appear XXXX on the statement, the date are just changed. Exampled : Pending XXXX/XXXX/16 and deducted from balance, then days later Posted with a date of XXXX/XXXX/16. But, the transactions were deducted twice! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was seeking an employment opportunity made available in relationship to my work with the XXXX as an enrolled member of a XXXX. In the process, I had applied to many different jobs, some could be directly applied to on XXXX and others you had to set up separate accounts and apply through those agencies. I got notification from a company called XXXX they conducted an interview, had me take a test of skills  abilities, and then hired me. I got notification saying,  CONGRATULATIONS, XXXX is pleased to offer you the position of an XXXX. You 're Hired '' I asked them certain questions about wanting to meet with them in person, wanting to meet with my training supervisors, wanting to have a video conference. There answers to this was,  Once you receive your working materials, a representative will be coming to your home to inspect your working materials and discuss any issues you will be having. As we proceed further you get to know more about the job and its duties. '' So this did seem little little disguised and not as straight forward as I would like ; however, I decided to give them the benefit of the doubt since I did n't want to blindly assume this was a fraudulent activity. So, with my skepticism, I chose to just take this job one step at a time, to not commit myself to anything that seemed fraudulent, deceptive, or misleading, and to try to use the advice of my banking institution to help me make my assessment and judgment in pursuing my career. This company, XXXX said they were going to send me out a check to purchase the computer hardware  software that I had to have for the tracking of this in-home accounting position to track my hours and send my work that I do. I received the cashier 's checks which turned out to be 3 checks from 3 different people from two different organizations, with letters from 3 different financial managers telling me what to do with the funds ( deposit them and report back to them ). Then they told me to purchase the hardware from the their corporate vendor to whom they have all their employees conduct their business through. So, one step at a time, I explained my situation to the to the banking manager. They told me,  It sounds a little fishy .... I would n't even deposit the checks! '' I asked the banking manager,  But, is n't there any way that I could take a more secured manner of approach without completely abandoning my new employment opportunity under a mere assumption that it might not be legitimate? '' But, they refused to advise me any further. So what was I supposed to do? Tell my new employer to go fly a kite and get lost just because my bank had told me,  I do n't know it sounds a little fishy to me? '' I kept thinking,  Is n't there a way that I could test this hypothesis without committing myself to fraud if it existed but not abandoning my new employment opportunity? '' So I decided to deposit the cashier 's checks to see if they were legitimate. After all, they were cashier 's checks, and I could n't be charged a fee for NSF if that was the case! The first cashier 's check cleared so I thought that there must be some legitimacy there! '' But I come to find out a few days later that I had two deficit balances of $ XXXX  $ XXXX in checking  savings, respectively. My accounts were closed. I spoke to the bank manager. She refused to help me but told me to take it up with the human resources department at the bank. Ultimately, they, too, would n't do anything else to assist me in getting to the bottom of this matter. They claimed my account had been closed, that I could no longer bank at this institution, that this would go on my credit record, and that I might not be able to bank with anyone else. Why did n't they just assist me from the beginning in taking some extra preventative steps to hold the checks until they did clear? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am reported to XXXX by Bank of America ( BOA ) for apparent fraud. There was never any fraudulent activity on my behalf. This was reported sometime in XX/XX/XXXX, but came to my attention in XX/XX/XXXX when I went to open up new bank accounts. I paid overdraft fees I supposedly owed BOA and they allowed me to open a bank account. A few days later they closed my account due to chex systems. I then spent many many hours trying to figure out why I was unable to open up an account at any other bank. After, a lot of research I began writing both XXXX and BOA to get this removed from the system. This began on XXXX/XXXX/XXXX when I sent my first letters out to BOA and XXXX. I did not receive a letter from BOA until XXXX XXXX, XXXX dated XXXX XXXX. Based on the XXXX XXXX, Bank of America did not follow the proper time frame and procedures in the Fair Credit Reporting Act.   Over the past 18 months I have kept a detailed history of the extra time and money that I have spent because I have been unable to open a bank normal account. With the help of some online forums, it was pointed out to me how they violted the FCRA. I was ready to go to small claims court Monday ( XXXX/XXXX/XXXX ) but was advised that you all might be one last stpo to give BOA a chance to resolve this issue without the courts.   I have my paperwork of certified mail return receipts and the letters that were enclosed. Bank of America received all this as well and do not feel the need to submit them at this time as I was advised to wait until court to provide my paperwork. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I opened a CitiGold Checking Account in XXXX 2015 with a promotional code offering XXXX XXXX XXXX miles when meeting listed requirements. I confirmed via email with a representative from Citi that my initial online bill pay through the account ( one of the listed requirements ) had been completed successfully and would count toward the promotion. I met the remaining requirements in XX/XX/XXXX, as confirmed via online chat with a Citi representative and Citi stated in the promotional materials the miles would post within 90 days of that statement ( anticipated post date in XX/XX/XXXX ; also confirmed by Citi rep ). In XX/XX/XXXX, I provided my XXXX XXXX account number to Ciit via email so they would be able to credit the miles and received notification back specific to this promotion that the account number had been added. In XX/XX/XXXX, I received notification my XXXX had been accepted, and the airline miles would be applied on my XXXX XXXX account statement. When the miles had not posted within a few days of the XX/XX/XXXX statement, now more than 90 days from meeting requirements, I submitted an inquiry and was given the response that I did not have a promotion attached to my account and was not eligible for the promotion. I have since paid {$60.00} in total monthly service fees to Citibank and have appealed their response multiple times with the same conclusion each time. On XXXX XXXX, I received a response from their customer service team offering to look into this issue further if I felt it was a mistake, however they have already rejected my advice to review the emails their team sent to me stating I was on track to receive the promotional miles credit. All they have done at this point is waive my next monthly service fee of {$30.00}. </t>
   </si>
   <si>
+    <t xml:space="preserve">Navy Federal allows real-time transfers from XXXX account to the other. Savings to checking and vice versa is essentially real-time. When making transfers from XXXX to a credit card, it is not real-time. WHY?! I made a {$500.00} transfer on a Friday from savings to my credit card. The funds were immediately withdrawn from the savings but not posted to the credit card. How can some transfers be real-time and others not in the same system. It seems to me that for credit cards transfers that this  Delayed posting '' is a selected specific system setting. I have memberships at several other credit unions ( XXXX XXXX, XXXX XXXX XXXX XXXX, XXXX XXXX and XXXX and all of those XXXX are significantly smaller in asset size than Navy Fed and they ALL allow real-time posting on ALL products. My complaint is that when Navy does this, funds are removed from my savings account where I begin losing interest immediately yet the post is delayed to the credit card where I am still being charged interest on my balance! If the funds are removed from my savings and not posted to another product, where are they? They seems to be in a  virtual '' status where Navy is not paying interest on those funds and still charging interest on the other account balance. If much smaller institutions have real-time transfers then the largest credit union in the world should as well especially if they have this on other products. If they are doing this to me then what are they essentially earning on those virtual funds when this happens to possibly XXXX of members monthly! When this delay occurs on a long holiday weekend, which becomes a delay from Friday night until the funds are finally posted to the credit card during their  end-of-day '' processing on Tuesday! In short, that is a ton of interest that members are losing and Navy is earning. It almost amounts to double-dipping ; not paying interest on funds they are holding and still charging interest on the credit card balances. </t>
+  </si>
+  <si>
     <t xml:space="preserve">On XXXX XXXX 2016 I received a text alert from USAA bank stating that my checking account had been compromised. The agent informed me that it would take 24-48 hours to do a fraud investigation and I would n't have access to my accounts. When I called XXXX XXXX 2016 the person I spoke with asked me for an authentication code that I did not have because no one ever gave me one and then asked for my phone number once I gave her my number she said that the number I gave was not the number on record. I explained to her that someone had compromised my account and must have changed the number also. She told me there was nothing else she could do she was locked out of my account when I asked to speak to someone in the fraud dept she told me should could not transfer me because she could not authenticate me. I have been experiencing pretty much the same attitude for the last 6 days when I call to find out what 's going on with my accounts. XXXX XXXX 2016 will be a week I do n't know how my account was compromised or to what extent. And USAA does not seem to be in any hurry to fix the situation. </t>
   </si>
   <si>
@@ -697,36 +1423,90 @@
     <t xml:space="preserve">A trustee withdrew all money from a checking account, my count {$190000.00}, FBI 's count {$190000.00}. He was indicted for fraud, and I was awarded more than {$380000.00} in the civil case XXXX XXXX, XXXX. He pled guilty XXXX XXXX, XXXX, His first federal court appearance was XXXX XXXX, XXXX, and police reported he died that morning. The indictment was dismissed. He was not punished. I received no restitution. The present trustee will not show statements, and I may be about to lose another {$200000.00}. The bank is powerless to stop it. The trust provides the bank ca n't show me statements or allow my transaction. It 's a clever, legalized stealing scheme no one here has seen. </t>
   </si>
   <si>
+    <t xml:space="preserve">I autopay my Citi credit card online and changed the bank account for them to withdraw the funds. I have an email confirming the new account change, yet the following month, Citi withdrew funds from my previous account, which no longer had any money in it, causing me huge fees and penalties! They refused to accept responsibility for their mistake and want me to pay those fees and penalties. I 've been trying to resolve this dispute for the past few weeks and they keep pointing the finger at my previous bank. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citibank offered XXXX XXXX XXXX points for signing up for a Citigold Checking account if you meet the requirements of the promotion. I secured message Citibank with reference # XXXX in which they confirmed I completed the requirements for the promotion of XXXX on XXXX XXXX, 2016. They told me I would get my XXXX XXXX points within 90 days. After 90 days they told me they I dont qualify and there was no such thing. I have screenshots of our emails and the promotion email. I opened multiple investigations with them and each time they denied me, or strung me along with  give us 1-2 more business days. '' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank of America refused to deposit a properly endorsed check into my checking account.  My insurance company, XXXX XXXX, issued a check for a personal property loss due to a fire. The check is made payable to XXXX XXXX XXXX, my public adjustor ; my husband and myself. We have all properly endorsed the check. On XXXX/XXXX/XXXX, my husband attempted to deposit the check into a personal checking account in both our names. The Bank of America branch is at XXXX XXXX XXXX XXXX, XXXX XXXX, RI XXXX ; phone : XXXX. XXXX XXXX, who identified herself as a Manager, refused to deposit the check. The check is a properly endorsed negotiable instrument. The check is drawn on a Bank of America account and being deposited into a Bank of America account. If Bank of America will not accept this check for deposit, how can I negotiate the check?  NOTE : I have no problem with the bank accepting the check for deposit and placing a hold on the funds. Bank of America accepted deposits on three other occasions with the same payor, same payee, same endorsement. Deposits were made XXXX/XXXX/XXXX for {$92000.00} ; XXXX/XXXX/XXXX for {$19000.00} ; XXXX/XXXX/XXXX for {$2500.00}.  I would appreciate any help you can give me in this matter. Thank you. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the course of banking with Chase I was given the option for overdraft protection and chose to decline all overdraft protection so that if a charge was made that I did not have the funds to cover Chase would decline the charge. I believe I made this choice sometime around 2010 and it worked beautifully on the few occasions that it became an issue.   Sometime between then and now they began allowing overdrafts again, this changed without my knowledge or permission. I have not agreed to any overdraft protection but have, once again, paid the occasional overdraft fee. Each time I have spoken with a Chase representative and am told that they never offered the option to decline charges and that the decision to allow overdrafts is made by a computer algorithm. </t>
+  </si>
+  <si>
     <t xml:space="preserve">After paying our car loan with Well fargo Dealer Service XXXX CA for the month of XXXX XXXX we receive a call that stated that our payment was still outstanding because they had applied some insurance to our auto loan. We explained to the representative that we have always carried ins with XXXX XXXX without lapses. She state it was a easy fix and for us to call the insurance company to have them send over proof of insurance which we did the same day and call back the next day to be sure it was taken care of. The rep assure us that all the charges would be remove. and because this was an error it would not be reported on our credit ( This was very important because we were in process of getting a home loan and needed our credit to remain constant ). However, on XXXX XXXX XXXX we find that Well Fargo have placed a 30 day late report on our credit that caused our credit to fall XXXX points and our chance for the American Home Dream to slip away. When we called to ask what happen to this very simple correction they gave us several excuses and apologize only to say it would take them 30 to 45 days to correct after we submit a written dispute, again prove ins, send copies of credit reports and show credit when down before they would take this off of our credit reports. We have fought very hard to restore our credit and have waited 7 years after a forclosure to bring up our credit and to be able to buy a home again, only to have a big bank come along and wipe out our chances without concern for their error or the detriment that it cause hard working, bill paying American families. Any help you can offer in expediting this credit restoration would be very appreciated Thank you in advance for your assistance.  XXXX XXXX XXXX XXXX XXXX XXXX, Ga -- XXXX XXXX acct # XXXX Fax XXXX </t>
   </si>
   <si>
+    <t xml:space="preserve">I applied for Business loan products at NFCU whereas I believe the loan analyst XXXX XXXX XXXX XXXX XXXX is not properly trained or using discriminatory practices. I submitted all required documentation on XXXX XXXX. On XXXX XXXX I asked how long is the processing time frame? XXXX XXXX stated he 'd have a decision by the following week. The following week he reached out only to ask a question already answered on my application.  Which property would be used as collateral? . After not hearing from him by XXXX XXXX, I reached out asking for a status. Only then, Me. XXXX told me the NFCU had implemented a new process that required a new application to be completed and the processing time would be delayed until the following week, etc. I began to complain and ask when were you going to tell me .... as I have been waiting for weeks for an update. XXXX XXXX became defensive but promised a decision that Friday ( 2 days later ). His decision was  denied '' based on the following reason which are unsupported and contradicted below.  Delinquent credit history Policy - too many active, revolving accounts Poor credit performance with us This is a business XXXX loan request for $ XXXX and business credit card to expand my small business. The loan would be secured by a business owned property that NFCU appraised at over {$210000.00} in XXXX XXXX. The comparables has since risen based on recent property sales. Also, the property is free and clear with no outstanding mortgages, liens, etc and produces {$1500.00} in monthly rental income deposited into my NFCU business account. In summary, I would be borrowing less than 50 % of the home value of a free  clear income producing property. The risk is very low here.  Second, this is a business loan whereas I pledged as a personal guaranty. My guaranty should only be an added valued. Why is the loan decision based solely on my personal credit history? It does not appear they considered the business income, collateral or anything business related here.  In contradiction to the above, I have been approved for a few loans with NFCU over the past year 1. ) in XXXX XXXX a credit card for {$25000.00} ; 2. ) in XXXX XXXX, a personal loan for {$8000.00} ; 3. ) the most recent was XXXX of XXXX ( 2 months ago ), NFCU approved me for a {$25000.00} personal loan with no collateral which contradicts the above statement regarding  poor credit performance '' with NFCU. Over the past 20 years with NFCU I have been late less than 3 times but never over 30 days late whereas it impacted my credit report.  I think that XXXX XXXX made an unfair decision in haste and out of resentment because I complained or perhaps he is not properly trained. I am requesting a thorough review of my application be performed and the questions below answered.  1. ) What are NFCU practices regarding business loans and ; 2. ) Did XXXX XXXX XXXX follow the practices accordingly? </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have been enrolled in the California 's hardest hit fund ( Keep Your Home California ) and Flagstar has been unresponsive to requests I have made detailing how these payments have been credited to my account </t>
   </si>
   <si>
+    <t xml:space="preserve">PayPal refuses to close my account stating they require documentation from my credit card about a charge-back. ( Case # XXXX ) The charge-back was requested due to the following fraudulent transaction on eBay on which the item was not received.  eBay has closed the seller 's account after an investigation of over XXXX fraudulent transactions from this seller and PayPal has refunded the transaction 's amount of {$36.00} to my credit card following their investigation.    Seller 's Name : XXXX XXXX Seller 's Email : XXXXXXXXXXXX Seller 's Transaction ID : XXXX Transaction Date : XXXX XXXX, 2016 Transaction Amount : - {$36.00} USD Your Transaction ID : XXXX Case Number : XXXX Buyer 's Transaction ID : XXXX </t>
+  </si>
+  <si>
     <t xml:space="preserve">I HAVE NOT RECEIVED MY MOST RECENT BANK STATEMENT IN THE XXXX MAIL. COVERING DATES UP TO MID XXXX 2016. </t>
   </si>
   <si>
     <t xml:space="preserve">I filed a fraud claim for a {$200.00} charge listed as  XXXX XXXX XXXX XXXX '' on Friday, XXXX XXXX, 2016. This transaction was done without my permission, and I have never done business with or heard of this company. I was told by the fraud representative that the provisional credit would be issued between 7 to 10 business days, because it was not a pin based transaction ( pin transactions take longer to process since someone else has your pin number ; signature transactions only take 7-10 business days ).  I called in to the fraud department on Wednesday, XXXX XXXX for a status update. According to the representative, there was no case processor assigned to my fraud claim yet, and no provisional credit was issued. The representative stated that she put in a request to have a supervisor in the  claims processing '' department call me back ; no one called back.  I called again on Friday, XXXX XXXX for another status update, but was told that the  claims processing '' department may short staffed due to the Holiday weekend ( good for them, but horrible for me because I have nothing in my account due to some card hackers ). I was told by an escalations representative XXXX M ( located in XXXX XXXX, Kansas ) that she would not be able to transfer me to  claims processing '' and that there was no supervisor above her that I could speak to regarding the issue ( even though the previous escalations reps that I spoke to told me to just call in after XXXX to be transferred to that department ). Nothing was resolved and it was the 10th business day.  I called again this morning, Saturday, XXXX XXXX, and spoke to another representative that gave me the  claims processing '' department 's phone number and advised me to call in on Monday.  Because of US Bank 's laziness regarding my fraud claim, it is now the holiday weekend and I have no money in my account. This is unacceptable. A thief used my debit card number fraudulently, and I am the one being punished for this. I can not even afford to pay my half towards the rent on XXXX XXXX, because the funds have not yet been returned.  There needs to be some form on recourse for this ; I was lied to by XXXX XXXX in XXXX XXXX, Kansas regarding speaking to her supervisor and/or the  claims processing '' department, and was told that no one was above her and that  claims processing '' does not have a direct phone number. </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX XXXX, I opened a citibank gold check account, per advertisement from citibank, I will receive XXXX thank you points after I fulfill the following requirements Do one bill pay in two consecutive months, as described above for the ThankYou Requirement.  Make {$1000.00} in debit card purchases with the Citi debit card. This requirement must be met within 60-days as well.  I have fulfilled those requirements on XXXX, XXXX, after that, I have contact citibank multiple times to confirm the offer, every time, I was told by citibank that I have fulfilled the requirements and the points will be posted by XXXX XXXX.  XX/XX/XXXX, those points still have not bee posted, I have submitted XXXX cases ( XXXX. ) to Citibank, to my surprise, the letter from citibank stated that I am not going to receive the point because  Unfortunately, there was not ThankYou ( R ) Points promotion offered in conjunction with the opening of your account ; To me, this does not make sense because 1. I still have the screenshot of the application page which shows that I will receive the XXXX thank you points, which can prove that the statement is not true  quot ;, there was not ThankYou ( R ) Points promotion offered in conjunction with the opening of your account.  quot ; 2. In the last few month, I have been confirmed by multiple customer representative that I am eligible for the offer and have fulfilled the requirement, I should receive the points on XX/XX/XXXX. Citibank can confirm that by looking into my previous chat history.   As a long time loyal citibank customer, I am very frustrated with this experience. This checking account has monthly fee of {$30.00}, I would not open this account without the bonus offer Thank you </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In XXXX 2016, I was induced to open a Citibank CitiGold checking account with a bonus offer. The bonus offered XXXX AAdvantage points after opening a CitiGold account and then scheduling two bill payments from the newly opened account and making at least {$1000.00} purchases with Debit Card.  Having completed the eligibility requirements, I inquired with Citi about when I would receive these points. I was extremely disappointed to hear from Citi about the outcome of case XXXX. After first offering the promotion, it appears Citi is refusing now to honor its promises. I appealed this denial citing several interactions with Citi representatives replying to my communication regarding the promotional offer. The debit card was not delivered to me several weeks late. Following communication has been initiated : XXXX, XXXX, XXXX, XXXX. I would like to point that I am in position of the promotional offer and screenshots made on XXXX/XXXX/2016, the day I applied for the CitiGold account, that clearly indicate the promotion code and Rules and Conditions and the fact I am eligible.   I received the same form response that I was not eligible for the promotion without citing T  C of the original offer. While researching this issue online, I have found widespread complaints about Citi from other clients who found themselves in the same situation.  I am extremely unhappy as I am currently in processes of transferring my assets over to Citi, but this event has seriously undermined my trust to your bank since such marketing practices are deceptive and misleading. I truly believe Citi must take steps to honor the bonus offer. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Huntington Banks has incorrect information that they use to verify my identity. They will not fix the issue and deny me access to my account. They have my address, SS number, DOB, email and many other verification information but that is n't good enough for them. I have had an account with them for XXXX years yet they want to use information that was n't collected when I opened my account, such as my cell phone number. I want them to fix the issue without me spending hours of my time or missing work. It is their error and their poor system design and not my fault. This delay could cause me to make a mistake in payments and therefore profit Huntington. </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX/XXXX/2016, I deposited a third-party check into my checking account at Suntrust Bank and received cash back in the amount of {$350.00}. I countersigned the check. Myself and the individual whose name the check was originally made out to signed the check in the presence of a bank teller and also presented valid state-issued identification to the teller. At the time, my checking account balance was {$4.00}. On XXXX/XXXX/2016, I discovered that a 7-day hold had been placed on the check. This meant that I would not have access to the funds until XXXX/XXXX/2016. Had I been informed by the teller of this hold, I would not have deposited the check into my account. In addition to the hold, a maintenance fee of {$7.00}, which I have never paid during the entire time that I owned the account, was charged against my checking account. Because I had a beginning balance of {$4.00} and received cash back in the amount of {$350.00} at deposit of the {$4500.00} check, my account is presently at a negative of {$350.00}.   Here is a breakdown of the transaction : {$4.00} ( beginning account balance ) - {$7.00} ( maintenance fee ) = $ XXXX $ XXXX ( negative balance following maintenance fee ) + {$350.00} ( cash back at deposit ) = $ XXXX As you can clearly see, I did nothing wrong in depositing a check into my checking account. The purpose of a personal checking account is avoiding fees associated with cashing a check where I do not bank. Suntrust Bank failed me on multiple levels including failure to disclose a maintenance fee. If it were not for the maintenance fee, my account would not have gone into negative status. As a result of the negative account balance, I will now incur a {$36.00} fee from the bank. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Since XXXX, I spent XXXX months stressful days but, I paid {$150.00} for the services fees because of CITI.   I opened Citi Gold account last XXXX, because I see there was XXXX XXXX miles promotion for opened the Citi Gold account.   First, I see this promotion it looked really easy to do. I can not even imagine this takes too too long for be processed.  I finished all promotion requirements at XXXX. and I sent a message to Citi.  And they replied I need to wait till 90 days after I finished the requirements. So I waited like 120 days like a fool, but It does n't work. So I sent a message and call them that they finally submitted investigation for me ...   2 weeks later, I got the message that I can not get a promotion because my account is not yet XXXX verified. So I sent the XXXX form to them. But It was rejected because of I did n't sent a proof of XXXX mailing Address. At that time I felt weird because I 'm still lived in XXXX.   I sent another copy of XXXX with proof of XXXX mailing address ( It mentioned I live it here ). and call them I sent that. But, no updates for me after 2 weeks. So I called them again but, they said like it 's still processing. and call again and again and I knew that they even can not found my documents.  and call again to XXXX of supervisor that said like I have to submit the XXXX instead of XXXX ( what.. ) So I sent that now my account is finally verified. and I submit the another investigation for it. and I 'm still waiting for it.   Also, I tried to asked them a monthly fee waived, but that does n't work. They overtime said like their regulation for it. After few days is XXXX XXXX, that means I should pay another {$30.00} service fee.   I 'm really tired of the situation, and I hop this solved quickly.   Please understand my circumstances, I will look forward to hear from you soon with a good news. </t>
   </si>
   <si>
+    <t xml:space="preserve">A Bank of America employe stole my money. I had a XXXX in there. I have been calling for 4 1/2 years and nothing is getting done. They closed my account without my permission. I want my money bank and want to file a law suit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case Subject : FAILURE TO PAY PROCEEDS IN A TIMELY MANNER Case Description : MY CD MATURED FRIDAY, XXXX/XXXX/2016. AS OF TODAY 'S MAIL, XXXX/XXXX/2016, I HAVE NOT RECEIVED MY MONEY. ON XX/XX/XXXX I CALLED THEM TO INQUIRE AND TO CLOSE MY ACCOUNT. ON XXXX/XXXX/2016, TODAY, I RECEIVED MY {$5.00} FOR CLOSING ACCOUNT DISPUTED AMOUNT : {$10000.00} DESIRED RESOLUTION : SANCTION OR FINE THEM. THEY HAVE OVER {$10000.00} O MY MONEY TO EARN INTEREST ON FOR THEM, NOT FOR ME. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wells Fargo closed my account and the total unpaid balance was over {$500.00} that they claimed I owe, when in actually I only owe {$180.00}. Spoken to a few representives that stated the other charges were multiple bank overdraft fees in the amount of {$35.00}. Bank refuses to take off overdraft fees so I can just pay what I actually owe. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I was charged three times by XXXX for a ticket I ordered once. I could not get a hold of anyone at Wells. XXXX people at XXXX, in particular XXXX, threatened to hang up on me despite XXXX rippingme off. </t>
   </si>
   <si>
+    <t xml:space="preserve">I opened a checking account with Citibank and was promised a signup offer of XXXX XXXX XXXX Miles to be posted after meeting certain criteria. I have met these criteria and received a letter stating that I qualified for the bonus AND met the criteria. Only recently that I had inquired about the missing miles, that I was told that I had not qualified for this offer even though I have a written letter from Citibank that I qualify for the bonus as well as confirmation of meeting the requirements. It is wrong that Citibank decided to change their minds after I opened the account and met the requirements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the morning of Friday XXXX XXXX, 2016, as my morning routine I check my bank accounts that I currently have with Bank of America, which were joint accounts with my fianc. I noticed that {$1000.00} in our joint checking account was gone. The XXXX checks which I paid to our insurance bounced, and the balance was negative plus XXXX of {$35.00} returned item fee. The amount {$1000.00} went to legal order, XXXX. I then look at our joint saving account, and the amount of {$4600.00} was gone to legal order, XXXX. In addition, there was a fee of {$120.00} charged to the account. I immediately contacted Bank of America customer service at XXXX and the associate give me a telephone number which started with XXXX. I dial the number. Turned out it was Illinois XXXX. My fianc is currently paying for child support. He is compliance with the court order ; however, prior to court order, he did volunteer pay the child support. When XXXX parties agreed with the child support, each month he did pay extra to make up for the different amount between his calculation and the state calculation. So, I told my fianc the story and asked him to call the XXXX phone number that the bank gave me. He had a conversation with XXXX who work as case officer with the XXXX Accord to XXXX, the Illinois XXXX sent the document to bank to confirm if this is joint account in the XXXX of XXXX, and the bank received on XXXX XXXX. However, Bank of America did not response to their request instead Bank of America freezed my assets. After the guidance from XXXX, we called Bank of America customer service number. They gave us XXXX phone number which was legal department. The associate said they received something on the XXXX, and then she said the bank did n't received anything. We asked them to responded to request from the XXXX request. The associate said that tell them to send the document again. We then gathered three months of bank statements which proved that this is joint account and fax to XXXX. They received and put under review. However, they resent another request to the bank. Today, we called XXXX to follow up on our case, and they still have not received any response from Bank of America. We called Bank of America XXXX XXXX XXXX, XXXX was transferred my fianc back to general service line after 30 minutes of waiting. According to XXXX they just want to confirm if this is joint account and the fund should be released back to me. They mentioned that Bank of America has an history of notoriously not responded very quickly. Please keep in mind while the bank received the document, we have n't received any noticed from the State of Illinois XXXX While we were on the phone with the associate at XXXX on Friday, we requested a copy of the lien. So we can proof that we are not owed as much as they think. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To whom it may concern ; USAA Online Banking unfairly closed accounts, Due to several failed attempts to access to my USAA Online Account, on XXXX/XXXX/XXXX, XXXX/XXXX/XXXX, XXXX/XXXX/XXXX, On XXXX/XXXX/XXXX I talked with USAA XXXX ( Supervisor? ) ID number XXXX XXXX specifically the member resolutions Departament and I was told that they have a clause called MORAL TURPITUDE whereby USAA can cancel any account they wish and not do business with whomever they please.  Law says, Reasons why USAA can block internet access is if they suspect identity theft or fraud.  USAA Online Banking Deactivate my Account.  1 ) Car Insurance ( was closed without my knowledge or explanation ).  2 ) Rental Insurance ( was closed without my knowledge or explanation ).  3 ) Secure Credit Card ( was closed without my knowledge or explanation- NEGATIVE Credit Report Impact, due to closing my CD account ).  USAA cancelled access to y Banking Account on XXXX/XXXX/XXXX, I was told over the phone that USAA will not provide auto insurance to me due to prior car accident. ( attached The XXXX insurance letter- the party responsible for the accident ).  Also USAA has restricted access to my Online Banking Account which I have been using to pay my bills for the past year.  Linked external Bank Accounts. Which I wish they are deleted.  Since I am not longer authorized Online access to my Online Banking Account, I must call USAA each time I would like to check my balance, pay bills or transfer funds. Their reasoning behind this is that I could potentially start my own insurance policy online by logging in to my account.  If I wanted to fraudulently open an auto insurance claim online, I certainly would n't begin by calling USAA to ask them for an auto insurance renewal quote.  Furthermore, for the past year I have demonstrate my banking trustworthiness by having a positive payments balance with USAA high interest rate. I paying my bills on time.  I do not see how restricting access to my Online Banking Account is in any way related to obtaining an auto insurance renewal and check the status on a open claim, XXXX/XXXX/XXXX. Rental insurance and Credit Card.  The USAA auto insurance Departament has placed a Code. My Banking Account Status restricting. My online access indefinitely because I was honest enough to tell them ( USAA Investigator ) about the auto claim- accident. Which I was not responsible. ( attached XXXX XXXX NV Police Report ).  In XX/XX/XXXX, I opened my USAA Online Banking Account, asked be removed mistakes made by Customer Service Representative. They refused to do so. ( attached documentation ).  On XX/XX/XXXX, Once I opened the auto claim led to a great confusion.  When I opened my USAA online access is XXXX.  Last Name XXXX, wrong!  Last XXXX XXXX XXXX, wrong!  My ex husband XXXX XXXX was USAA member. Military, XXXX XXXX in recovery from XXXX. XXXX in XX/XX/XXXX.  Military XXXX in XXXX.  This information was reported to USAA Online Bank. Documents were sent multiple times ( email and fax ).  I keep copies in my possession. Again, USAA Online Bank denied to remove information ( Logon Last Name information ). Mentioning that the system not allowed make changes. Adding that this did not affect my personal Bank Account.  Well, Did Affect my Bank Account and identity ( Social Security Number ). Proof is visible on documents attached.  I feel like being discriminated against.  I was questioned by USAA Inspector in an inhuman way about XXXX benefits and Confidential Address Program ( CAP ).  I want to be treated fairly.  NOTE : BEING A WORTHY CLIENT OF THE USAA ONLINE BANK THE REQUEST IS OVERLY BROAD, ; TO RECTIFY THE ERROR AT EARLIEST.  Thanking you, XXXX XXXX XXXX </t>
+  </si>
+  <si>
     <t xml:space="preserve">I am a XXXX military Veteran trying to open an account with Navy Federal Credit Union. As per their email I received they requested identifying documents, which, as per their email, was sent to them. Every document, except my state drivers license, was not accepted, even though every document sent to them was in the list in the email from their Security Operations section! I sent my most recent Federal tax return ( not accepted ) ; my XXXX rental verification document ( not accepted ) ; etc. I called and the customer service agent said even though the documents requested were in the credit union 's emails to me - they were not accepted! He could not explain why they would ask for said documents and then reject them. I have included their original email asking for the documents in question : Thank you for sending in your requested document needed ; however, the driver 's license attached is too small for us to accept ( Send a larger photo ). In addition, the proof of address was not accepted ( Full document from list below ). Please resend your full and clear copy of your government issued photo ID and a different proof of address than attached that you used to open your account from the list below. You may send a clearer copy via email to XXXXXXXXXXXX.  Acceptable Primary IDs Driver 's License XXXX Citizen ID card Passport Permanent Resident Alien card Acceptable Proof of Addresses Voter 's Registration Card Paystub within the past 2 months Vehicle Registration Insurance Documents Bank Statement within the past 2 months Local/State/Federal tax documents Utility Bill within the last 2 months ( water, gas, electric, trash ) IRS XXXX from the most recent year Security Operations Navy Federal Credit Union XXXX XXXX ) XXXX </t>
   </si>
   <si>
+    <t xml:space="preserve">I signed up for a Citi Gold account online and entered a promotion code where I would receive XXXX Thank You points after completing bill payments in two consecutive months. I received verification during the online application process that I was eligible for the bonus. A few days after applying online, in a follow up phone call while speaking to a Citi representative, the person specifically stated I was eligible for the promotion. This lead me to finalize the application and agree to open this premium account. I 've since completed the requirements to receive the bonus and paid monthly fees associated with the account. A follow up phone call with a representative confirmed that the previously stated requirements were met. However, when the promised points were not added to my account, I again placed a call where a representative and his superior denied my eligibility for the reason being that I already had a different existing non-fee account opened. I believe Citibank is behaving on unethical business practices by not fulfilling their end of a business agreement and purposefully and/or negligently misleading customers. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Last year citibank offered a promotion for XXXX thank you points to open a citigold checking account. I understand it was a targeted offer and chatted with a representative before opening an account to verify that I was eligible. Upon verification, I opened up an account and received confirmation of the promo code via secure message ( attached ). When I completed the requirements for the promo bonus, I sent another message to confirm and was told to wait until 90 days after statement closed in XX/XX/XXXX. XX/XX/XXXX, i sent Citi another message inquiring about the status, since its been 90 days and no points were deposited into my account, and was informed that I was not eligible even though I had previous communication stating I was. </t>
   </si>
   <si>
     <t xml:space="preserve">I received a promotional offer to receive XXXX AAdvantage bonus miles after opening a new consumer checking account in the Citigold Account Package and completing the qualifying activities. The requirements were to make {$1000.00} in qualifying debit card purchases and 1 or more qualifying bill payments for 2 consecutive calendar months within 60 days of opening the Citigold checking account.  I completed every requirement stipulated to receive the promotional XXXX AAdvantage bonus miles : opened the qualifying Citigold checking account before XXXX/XXXX/XXXX, made {$1000.00} of qualifying debit card purchases, posted, within 60 days of opening account, and made 1 qualifying bill payment, posted, each month for two consecutive calendar months.  The XXXX AAdvantage bonus miles were to be posted within 90 days from the statement period in which I completed all the promotional offer requirements.  I contacted Citi via their online chatting system on XXXX XXXX, XXXX to confirm my enrollment in the promotional offer, which was confirmed, and I have copy/printout of the online chat as supporting evidence. I contacted Citi again, via their online chat system, on XXXX XXXX, XXXX to confirm I had met all the promotional requirements, and again they confirmed that I did. I also have a copy/printout of this conversation as affirmation.  I made several inquiries both via online chat and phone calls after the 90 day period had passed for Citi to post the XXXX miles to my account. After numerous ( 5-10 ) inquiries and ~2.5 months later, Citi finally responded with a letter informing me I will not be receiving the XXXX AAdvantage bonus miles.  How can I, as a consumer and a client, put faith or trust into Citibank, a major financial banking institution when they create and market promotional offers and then do not honor on the bonus reward after. I am past frustrated and beyond disappointed. When Citibank failed to honor the promotional reward miles, they morally, ethically, and professionally breached an agreement. Bad business practices and breached agreements have lead me to you, Bureau of Consumer Financial Protection. If my personal issue can not be addressed, please prevent the bad business practices of Citi to affecting others. </t>
   </si>
   <si>
+    <t xml:space="preserve">I run a XXXX and we have had multiple issues with suntrust bank. Our XXXX as a result of its intrinsic natural does nothing operate even keel through out each month. We will have a $ XXXX check one day and a XXXX check another. Over 13 times suntrust bank holds a check from one of our customers for up to 7 to 10 days while this is understood to be part of the antiquated bank regulations from XX/XX/XXXX. It is devastating to our small business. A XXXX dollar check was deposited on Wednesday XX/XX/XXXX. We where told that the bank put a hold on it on Friday XX/XX/2016. And told that we could pick up the money Wednesday morning XX/XX/2016. I went this morning the XXXX of XXXX to pick up our money and it was still not available. I checked with the customer to see if the money was removed from her account and it was on Friday XX/XX/XXXX. I was also told that they would not give me cash they would only give me a certified check. Which will but put on hold as soon as I put open a new account. I also no longer trust Suntrust to produce a note of legal tender. I do n't trust that they actually have the money. This puts undo XXXX and my family as this is our only income. This XXXX is the key to open up almost XXXX in material and work for our company. We have missed some opportunities that would have allowed our business to make even more money than that in these past 7 days. My belief is that suntrust and possibly other banks removes the money for the payee 's account, uses this money to collect interest and make more money stating the banking regulations as the reason. Then clears the money verifies the check and then that money goes to the receivers account. Once there it stays on hold while that bank uses that money to make money before allowing it to show up in the account. In my mind and in my belief that is laundering. Using XXXX of consumers money to make XXXX worth of interest between banks. In that I think it is possible that just like the mortgage industry bubble popped eventually this will also be a bubble that pops. Interest on money even over 7 days over multiple accounts is a lot of money being made on the illusion of funds not actual funds. It is my belief and concern that all banking customers are headed for a rude awaking When we all find out that our banks do n't actually have any of our dollars. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opened an account at PNC with {$300.00} new account bonus if have minimum of $ XXXX direct deposite and XXXX online payment in the first 60 days. I have met well over the minimum requirements. Spoke to multiple reps in between and was advised that I was doing the right thing, everything is set up correctly and that the only thing I need to do is wait until after 60 days for the bonus to post. After 60 days have elapsed, I contacted customer service and inquired about the bonus. I was told that I 'll receive a response within XXXX business days and customer service was not professional to follow up. I contacted customer service another XXXX times and It was not until then that I was told the direct deposit went to another checking account and hence they refused to award me my bonus. PNC lacks integrity, it 's obvious that the employees mislead and misinform customers intentionally, or they 're truly incompetent. I feel cheated. I had all my earnings with this institution, but only to find that it 's dishonesty and sly. PNC is finding any way it can to deny honoring its words. </t>
+  </si>
+  <si>
     <t xml:space="preserve">on XXXX/XXXX/2016 I used the ATM machine to deposit cash something happened that the only deposit credited to my account was {$680.00}. {$1200.00} was credited to another account, the transaction between the receipts attached are only 3 mins apart. I asked my bank to help me solve the issue but the branch manager 's reply was  you picked up another ATM receipt trying to get credit for money that is not yours ''. </t>
   </si>
   <si>
@@ -739,12 +1519,21 @@
     <t xml:space="preserve">I am writing to make a formal complaint regarding the assessment and adjudication of said fees on my Bank of America checking account.  I called Bank of America Customer Service this morning XXXX XXXX 2016. XXXX previous calls were made with no connect made due to high call volumes and wait times between XXXX and 50minutes.  - I spoke initially to XXXX and subsequently to her supervisor XXXX XXXX.  - I requested a review and consideration of reversal for at least some of the fees assessed to my account XXXX of which have come in the last 6 days.  - I pointed out that attempts were made to bring the account to date as soon as email notification was received.  - Same day deposits were ignored and fees were assessed regardless.  - A total of {$420.00} in fees have been assessed to my account in the last Year - A total of {$170.00} in fees have been charged to my account in the last 60 days - A total of {$70.00} in fees on a single transaction for {$70.00}, for which I made XXXX deposits totaling {$50.00} - I have been a Bank of America customer for over 10years - XXXX XXXX adjudicated claims as non-reversible and ended the call on that note.  - I would like to request a second review and at least some of the funds returned.   The fact that bank of America can charge {$420.00} in fees on low balance checking accounts, routinely and without any moral dilemma about it shows a callousness and complete disregard for its customers.   I would like to see some measure of amelioration applied to my case.   Thank you </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX XXXX, 2016 I deposited {$1200.00} in cash into an ATM and received a receipt stating that I only deposited {$21.00}. This occurred at approximately XXXX pm at XXXX XXXX XXXX XXXX, Texas. After speaking with several Chase representatives who have misguided me, misinformed me, and have behaved coldly and disrespectfully to a loyal customer, my account has yet to be corrected.   XXXX dollar bills ( {$400.00} ), XXXX XXXX dollar bills ( {$800.00} ), and XXXX XXXX dollar bill ( {$1.00} ) were deposited into a Chase ATM. After depositing my cash the receipt returned via the machine read that I had deposited only {$21.00}. I immediately called customer service. After being told by a Chase representative that the correct funds would be placed in my account within 24-48hrs, I then asked if it was okay for me to leave the ATM location and was told yes.   On XXXX XXXX, 2016 I received my  credit '' of {$1100.00}. Without prior warning or notice, on XXXX XXXX, 2016 Chase proceeded to withdraw the {$1100.00} from my account.   This erroneous debit of funds has caused my Chase account to be overdrawn by the amount of $ XXXX. I called customer service promptly at XXXX to resolve the issue. A large sum of money has essentially been taken from me without explanation, remedy, or even the most basic level of customer service offered.   I have spoken with not XXXX, but XXXX, supposed high-level employees who have screamed at me, yelled at me, and have accused me of threatening to sue. Something that has never been and continues not to be an intention of mine. The customer service I have received at Chase bank is absolutely unacceptable.   Throughout this process I have proven myself a loyal and trustworthy customer. When {$1100.00} was initially returned to me, I could have withdrawn the money and closed my account if I had ill intentions. I did not. I have responded immediately at every stage of this process to get it resolved and yet despite having done nothing wrong I have been treated extremely poorly and now have the additional stress of a negative account balance. I deposited {$1100.00} and I ask that {$1100.00} be added to my bank account. Nothing more and nothing less.   The lack of empathy and simple,  there is nothing else we can do you have exhausted all of your options '' explanation is unacceptable. I know that this is not an isolated incident as there are various reports of ATM machines miscounting money, which is what I assume occurred in this case as well.   I am a responsible, upstanding, and honest person. I have been a customer of Chase Bank for years and I am NOT a thief ; nor am I mistaken about the cash I deposited. I do not have the resources in my life to cover me when my bank mistakenly takes {$1200.00} from me.   I was even asked by a banker why I decided to deposit cash and why I chose such a late hour. Im a full-time employee and full-time student! </t>
+  </si>
+  <si>
     <t xml:space="preserve">On XXXX XXXX, 2016 I opened a Citibank checking account ( Citigold ) under offer code XXXX. The promotion would credit my account with XXXX ThankYou Points ( redeemable for up to {$400.00} in gift cards ) if I  within 60 days after account opening, XXXX qualifying bill payment must be posted to the new checking account each month for two consecutive calendar months ''.   I have the promotion disclosure that shows the promotion is attached to my account.   I made my first bill payment on XXXX/XXXX/2016 on a XXXX credit card.   I made a second bill payment on XXXX/XXXX/2016 on a XXXX credit card.   I contacted Citi customer service after I made the second bill payment in order to confirm that I had met the terms of the promotion.   Citi customer service sends requests for status on promotions to another group which I can not communicate directly with and that group sends me electronic letters with the result of each inquiry.   The first inquiry, XXXX, indicated that I was not eligible for the promotion but also seemed to reference an incorrect promotion ( XXXX that rewarded XXXX XXXX AAdvantage miles instead of Citi ThankYou Points ) so I called Citi customer service and submitted another inquiry.   The second inquiry, XXXX, stated :  Unfortunately, there was not ThankYou ( R ) Points promotion offered in conjunction with the opening of your account. While Citi does offer ThankYou ( R ) Points promotions at times, those offers are only available to the individual to whom the offer was addressed. '' I called Citi customer service a third time, indicating that I did receive this promotion and while I no longer have the original letter I do have the promotion disclosure indicating that the promotion code was attached to the account when I opened it.   I received a third electronic letter from Citi client services ( XXXX ) again stating :  Unfortunately, there was not ThankYou ( R ) Points promotion offered in conjunction with the opening of your account. While Citi does offer ThankYou ( R ) Points promotions at times, those offers are only available to the individual to whom the offer was addressed. '' I again called Citi on XXXX XXXX 2016. The customer service supervisor that I spoke to stated that even though I provided the promotional code it was their opinion that I was not targeted for the promotion and they would not honor the promotion. In addition, they refused to waive the fee for opening the CitiGold checking account. The supervisor stated that after the fee is charged I could call back and then Citi  may '' be able to waive the fee.   It seems dishonest to allow me to open the account with the promotion code and after I fulfilled the terms of the promotion refuse to honor the terms of the promotion and refuse to guarantee me refunds for the fees associated with the account. </t>
   </si>
   <si>
+    <t xml:space="preserve">I was depositing a XXXX Bank check ( made out to me ) at my Wells Fargo Bank branch on XXXX XXXX in XXXX, WA. I 'm a long standing customer with WFB, have XXXX thousands of $ s in my acct., a WFB visa card ( in excellent standing ) and a safe deposit box. The teller in question has seen me conducting business several times in the branch. As I was depositing my check ( no cash back requested ), she  XXXX '' asked me : how did you come to have this check? I told her that was  private info '' and she only said : I 'm just making conversation. No mention from her about needing to ask me for  bank '' reasons, just  making conversation ''. I called the branch mgr. who seemed oblivious to the highly inappropriate and unprofessional action her teller had taken towards me. Later, something occurred to me. I 'm XXXX XXXX and she is XXXX. I believe she  profiled '' me as someone to watch out for, to be suspicious of, leading her to ask me  how  I '' got the check from XXXX bank. She should be  officially '' reprimanded. </t>
+  </si>
+  <si>
     <t xml:space="preserve">www.socialsecurity.gov Attn XXXX XXXX XXXX XXXX XXXX privacy policy www.ftc.com. XXXX Court XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX Investigation XXXX represented XXXX. XXXX Customer Services Topics XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX tele/fax Order # Order Status XXXX. I would Like Returns Policies Personal Checks Customer Services Shipping Handling. They charge $ XXXX XXXX XXXX XXXX XXXX XXXX10 Business days. I called on XXXX/XXXX/16. I sent over XXXX pages faxed </t>
   </si>
   <si>
+    <t xml:space="preserve">Santander Bank advertised its XXXX accounts by saying that customers could earn an extra {$20.00} per month  for as long as you own the account ''. This was obviously meant to imply that this was not a temporary promotion. However, about 2 years later, they closed all of the XXXX XXXX accounts and transferred the balances into XXXX of their other products. Their advertising was intentionally deceptive. In addition, after closing my accounts in late XXXX, I realized that they had never credited my account for the last {$20.00} that I was due for the month of XXXX. They admitted their mistake but said that since I had closed my accounts they could not give me the {$20.00} I was due. </t>
+  </si>
+  <si>
     <t xml:space="preserve">My name is XXXX, I am my father 's heir  the court appointed Administrator of his estate. My father became very ill on XXXX XXXX. XXXX and passed away on XXXX XXXX. A family members took advantage of the situation to access his personal files  take his USAA account information  his bank debit card. 4 days befor his death she began using the card for purchases, XXXX hours before his death, XXXX she added her name to his checking account by an esignature on a mobile device that had just been added to the account. I have affidavits from the family members present and from the XXXX staff as to his condition and notifications by email from the bank as to the account changes. 2 days after my father 's death I was going through his computer  found an email notifying him of changes to his account. I immediately called the bank  advised them of the situation that my father had passed away the same day the changes were made but his physical condition would not allow him to have been able to make those changes, that I believed it was identity theft and fraud. I was told to send a fax to the fraud/security dept asap to hve the accounts frozen. I sent a fax the next day and followed up with a phone call. I was then told I needed proof, a certified death certificate to show he had really died. I offered the physician  hospital 's information and the number to the local police dept as evidence as the death certificate usually takes 2 weeks. they blew me off. I went to the police dept and directly to the coroner 's office  managed to get a death certificate 5 days after his death, on XXXX/XXXX/XXXX even before XXXX XXXX health dept had a copy  faxed it along with a letter advising USAA of my suspicions  the circumstances surrounding the theft.I was told the account would be frozen. They were not. USAA refused to give me any information without a court order, which i thought was ok because I was assured the accounts were frozen. I filed in probate court  notified the bank by phone  faxed copies of the court orders as quickly as I received them. The judge granted me limited powers as an Administrator to investigate what had happened to certain assets of the estate including the bank accounts  ordered the band to provide me any possible information regarding these accounts. I faxed a certified copy to USAA and they ignored me. When I called they would shift me from dept to dept never providing any information. During XXXX of my calls I was on hold for 7  a half hours. I have the fax verifications  my phone records to verify this 3 and a half month after this begins I am finally given bank statements which show that the thief 's name is sstill on the account that the address has been changed  that a total of about {$180000.00} had been transferred out of the accounts. I notified USAA that this was theft, asked what actions to take  was told that they were reviewing the account  would let me know. The ; probate court order that funds from the account be credited back  be put in a blocked account, yet the has failed to respond or comply. I sent copies of my letters of Administration for my father 's estate along with a detailed list of questions regarding the account and the stolen funds  I have not yet received a reply, it been almost 2 months. I asked for a copy of their report on the unauthorized transactions, routing histories  what action would be taken to credit back the missing funds  prosecute the thief  I am ignored. I have called, faxed, emailed  sent by regular post multiple letters  packets of document to support my statements  I am still being ignored. The best reply has been take whats left  go away there 's nothing we 're going to do for you. It has been 6 months  I am paying all probate  estates bill myself. i am a single m </t>
   </si>
   <si>
@@ -754,6 +1543,9 @@
     <t xml:space="preserve">In XXXX 2016, I applied online for a Core checking account. I chose the Debit card funding option and had {$45.00} withdrawn from my Fidelity bank account to fund the Bank of America checking account. I received confirmation of submission of my application. Shortly after, I receive notification my account was approved.  Shortly after, I received XXXX seperate mailings : XXXX included information regarding my temporary password for my online account and the other contained bank disclosures. On XXXX XXXX, I could not access my debit card or online banking information. I called customer service and they informed me that my account was closed -- they could not provide any reason and said I would need to contact their Risk Department at XXXX.  Once the representative verified my information, she began reading to me what sounded like a prepared script in a condescending tone. She went on to state that when opening the account online, I agreed to a disclosure that stated Bank of America reserves the right to close my account for any reason and at any time. She goes on to tell me that the account is closed and that I will never be able to open an account at Bank of America. After realizing that I was getting nowhere with that customer service representative, I ask to speak to a supervisor. I asked them what was the reason behind my account closure. The supervisor then curtly repeats that Bank of America reserves the right to close my account for any reason and at any time. I ask again,  But why was it closed? . She repeats the same statement for the third time and then states,  That is the reason why. '' She said they will be sending me a cashier 's check for {$40.00}. I respond saying that it is hard for me to comprehend how Bank of America can close my account, without giving any valid reason. She tells me for the fourth time that Bank of America reserves the right to close my account at any time for any reason and then abruptly disconnects me.  Immediately after this phone call, I walk into my local Bank of America branch. I am eventually directed to a personal banker. I explain the situation. After telling my story, she comments,  That 's why you do n't open up accounts online. '' She lets me know that the online departments are seperate from the retail branches, but says she will try to find any additional information. She asks for my social security number and tries to look up my account history. She can not find any information. She lets me know all she can see is that the account is closed. She tells me there 's no use in her calling the Risk Department as they will only tell her the same thing they told me. She gives me a card to Customer Solutions. She tells me to call the number as it is my best bet at getting this issue resolved.  I call Customer Solutions at XXXX. I explain my story. They put me on hold as they contact the Risk Department. They come back on the line and give me the exact statement the Risk Department told me. I let the representative that it is completely absurd that they can not even give me a valid reason, let alone charge me {$60.00}. She says Bank of America will not refund the fee. I ask her if I have ANY other options to get this issue resolved. She responds,  No. '' At this point, I want to start recording names and record the shady nature of these business transactions. I ask her for her name and extension or any other information in which I can identify her. The line goes silent for a minute and then disconnects. This has been absolutely my worst experience in dealing with a bank. It bewilders me to see how Bank of America treats its new customers. </t>
   </si>
   <si>
+    <t xml:space="preserve">I opened my Citigold checking account and there was some block on my account. I received the e-mail from Relationship manager on XXXX/XXXX/2016 that account is active and I will receive new debit card.  Second debit card was blocked too, I was never able to register my account online nor I can withdraw money from ATM machine. I went to branch office on XX/XX/XXXX, they issued my new temporary debit card and promised that on XX/XX/XXXX, I will have access to my funds.   It 's been 3+ months and I do n't have access to my funds I ca n't close it, I ca n't query the balance. Citibank has taken my money and then put the block on it. </t>
+  </si>
+  <si>
     <t xml:space="preserve">On XXXX/XXXX/2016 I called Citi at XXXX and spoke to an agent named XXXX at XXXX EDT who opened up XXXX Citi Gold Checking accounts for me with the following promotion code : XXXX. XXXX stated that so long as I make {$1000.00} in debit purchases and two consecutive monthly bill pays I would receive XXXX XXXX miles per account for the Citi Gold accounts within 90 calendar days from the date when I completed the offer requirements. All the offer requirements were completed on XXXX/XXXX/2016 for both accounts, and 122 calendar days have passed but the XXXX miles have not been added to my Aadvantage account. </t>
   </si>
   <si>
@@ -778,15 +1570,33 @@
     <t xml:space="preserve">My bank is charging overdraft fees on the exact same days that they are posting my deposits on my account. I DO NOT HAVE NEGATIVE BALANCES ON MY ACCOUNT. I called and complained to the bank representative about this issue. He CONFIRMED that the bank was charging overdraft fees on the days that they post my direct deposits. KNOWING THIS, he refused to refund the fees. </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX XXXX, 2016, I opened a Citigold checking account with a promotion code I had received, namely, promotion XXXX. The promotion promised an award of XXXX XXXX XXXX AAdvantage ( R ) miles upon completion of {$1000.00} in qualifying debit card purchases and one ( 1 ) or more qualifying bill payments for two ( 2 ) consecutive calendar months, with all requirements to be completed within sixty ( 60 ) days of account opening. A copy of the terms and conditions of the promotion is attached.   After completing the requirements on XXXX XXXX, 2016, I messaged Citibank via their online secure messaging system to confirm that I was enrolled in the promotion and had met the requirements. On XXXX XXXX, 2016, Citibank confirmed that the requirements had been met and that I should receive my XXXX AAdvantage miles within 90 days. A copy of this communication from Citibank confirming enrollment in the promotion and completion of the requirements is attached. I further confirmed this in a later chat on XXXX XXXX, 2016 ( also attached ), that the miles would be awarded no later than XXXX XXXX, 2016. After XXXX XXXX passed with no miles awarded, I messaged Citibank again, which opened an investigation that appeared to do nothing. I messaged again XX/XX/XXXX, an on XXXX XXXX received a letter ( also attached ) stating that the miles would be awarded as soon as I gave my XXXX XXXX frequent flier number, which the bank had somehow lost. I called and gave the number that day and was told that the miles would be deposited within 3-4 business days. When this date also passed with no miles deposited I messaged again, which resulted in Citibank starting a new  investigation '', though I am not sure exactly why. The CSR was unable to tell me how long this one might take.   Each month that passes without my miles being deposited results in a {$30.00} charge from Citibank for this  premium '' Citigold checking account. So far it has been over 2 months since the date I was to receive my promotional miles, or {$60.00} in additional charges that Citi has dragged from me because of their stubbornness in awarding the bonus they themselves admit I have completed the requirements for.   As of the date of this complaint, my AAdvantage miles have still not been rewarded, despite them having been promised by XXXX XXXX, 2016.   Under the terms and conditions of the promotion, I am eligible for the promotion : I am a Citi ( R ) / AAdvantage ( R ) credit cardmember who received the promotion, I am over XXXX years of age, and I had never before held a consumer checking account with Citibank.   Please help me to get my awarded promotional miles. Thank you.   Note : the password to open the protected citibank leter dated XX/XX/2016 is XXXX </t>
+  </si>
+  <si>
     <t xml:space="preserve">Dear Sir/ Madam, I am writing to you today about an issue I had with Citibank ; and more specifically, a Citigold checking account that I have opened with them XX/XX/XXXX. At the time of opening the account, I have used a promotion that should have awarded me XXXX XXXX XXXX miles after meeting certain requirements. After opening the account, I have confirmed with Citibank customer service in writing that my account was successfully enrolled in the promotion and that I am eligible for it. The following is an excerpt from the answer I received on XXXX/XXXX/XXXX :  Thank you for choosing Citibank for your financial needs. I can confirm that you opened your account with the promotion XXXX for XXXX AA miles. '' On the next day, I have had another interaction with Citibank and provided them with my mileage account number. Again, I have received an answer that implicitly confirms that they see I am enrolled and eligible in the promotion. They have even cited the requirements that I need to meet in order for the miles to be deposited in my mileage account. The following is a part of the message I did receive :  I will be more than happy to assist you with the XXXX AA miles promotion for checking account ending in XXXX. Thank you for providing your AA account number. Our records show promotion code XXXX is applied to your checking account. Listed below are the requirements you must complete to qualify for the offer : Open a new Regular Checking account in the Citigold Account Package by XXXX/XXXX/XXXX. Within 60 days after account opening : complete Qualifying Debit Card Purchases of {$1000.00} using the Citibank Debit Card which must be posted to the new checking account. And 1 qualifying bill payment must be posted to the new checking account each month for XXXX consecutive calendar months. The AAdvantage bonus miles will be credited by Citibank to your AAdvantage account within 90 days from the end of the statement period in which you complete all offer requirements. .  Not only did they confirm the requirements but they also confirmed the deadline for the miles to be deposited which is fine so far as it is consistent with the timeframe they provided when I opened the account. On XXXX/XXXX/XXXX, I have confirmed with the bank that the requirements were met and this was their answer :  After reviewing your account, I see that you completed the requirements, and were met on the statement cycle that ended on XXXX/XXXX/XXXX, please allow up to 90 days for the bonus miles to be credited. '' After more than 90 days noticing that the bonus was not posted to my account I reached again to them and they told me :  After reviewing your account, I can confirm you completed the requirements, please note the bonus miles are processed by the end of the statement cycle of XX/XX/XXXX, please allow up to XXXX weeks for processing, if you have not received the bonus miles by XXXX XXXX you may reach out to us by phone or send another message and we will gladly open a case for further research. '' From that point, the messages kept going back and forth and they were coming up with a different excuse every time to tell me at the end around XX/XX/XXXX that after a thorough investigation, it turned out that I am not eligible for the promotion and I gave up complaining to them at a certain point.  Subsequently, I am submitting this formal complaint because I judge that Citibank has been very misleading to me in this transaction. If I am not eligible as they claim ; then they should have told me so from the very beginning and I would have understood it. However, they confirmed to me the eligibility and that everything is fine and that I should not worry again and again and again while deducting the XXXX $ monthly fee that the account carries every month. Out of a sudden, their systems show that I am ineligible for the promotion.  Kind Regards, XXXX. </t>
   </si>
   <si>
+    <t xml:space="preserve">My wife and I believe that we are victims of unfair and deceptive banking practices. We now have documented proof that Chase Bank has been issuing pending ATM credits into our bank accounts which makes our balances appear larger than what they really are. Then, Chase Bank will takes the credit away causing our accounts to overdraft. This practice has been going on for several years and has resulted in us paying over {$10000.00} in overdraft fees. The center of our frustration comes from the fact that when we call to inquire about the ATM credits, the bank has no record of the transaction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX/XX/2015 I was offered a sign up bonus to open a Citigold checking account. Since I did not have my state issued ID at the time I was given instructions on how to do so online. After opening the account I reached out to confirm the offer was attached to my account. I was told that it was. Once I met the requirements for the bonus I reached out again to confirm I had done what was needed and was told that I had and that the bonus should post to my XXXX XXXX account no later than XX/XX/XXXX. Now I am told that I was not eligible for the offer but I have all the messages to prove that I was told I was. I was even told to go in branch to talk to a representative and when I did I was told that they did not have the power to give me the bonus but to reach out to customer service again because it should be honored. I did that and after their investigation where they can see all my previous communication where I was told I had the offer on my account and that I completed the requirements I am still being told that they still will not honor this offer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This complaint regards to a undelivered account opening bonus promised and also confirmed by Citibank. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citi offered a deal that if you used a specific promo code and signed up for their premium CitiGold checking account, they would award you XXXX XXXX Miles. It was confirmed XX/XX/XXXX that I had met all the requirements for this offer ( {$1000.00} in debit card spending, 2 months of online billpay, opened account using promo code. ) I was told that I would be awarded the miles within 90 days. This was over 5 months ago. XX/XX/XXXX i was assured that the miles would post within XX/XX/XXXX, but that did n't happen. XX/XX/XXXX, I contacted Citi Bank again, and the customer service representative opened an investigation to check the status of my miles. He said I would hear back by XXXX XXXX, but nearly 2 weeks later I still have n't heard anything. This checking account charges a $ XXXX/month maintenance fee, and I 'm starting to feel like this offer is being dragged out so that they can collect additional fees. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I used Bank of America 's mobil app to deposit a check. They advertise how convenient it is to use and how the check credits quickly. This is false advertising. T deposited the check for {$8500.00} XXXX XXXX and was informed by BOA that the check will not be deposited until XXXX XXXX. This is theft ... holding on to my funds for one week. </t>
   </si>
   <si>
     <t xml:space="preserve">Last year, I opened a Citigold checking account under promotion XXXX. This promotion grants XXXX bonus points for opening the account and spending {$1000.00} in debit purchases within 60 days and complete a bill pay in two consecutive months. I fulfilled these requirements.  On XX/XX/XXXX, after not getting the promised points, I contacted Citi and they confirmed that I enrolled and fulfilled the requirements. They stated that I would receive the bonus miles within 90 days ( which would have been XX/XX/XXXX ).  I still did not receive the points, so I contacted Citi again XX/XX/XXXX, and they said that they would launch an investigation, and that I would receive an e-mail confirmation of the investigation no later than XX/XX/XXXX. I never received that confirmation.  So the issue is that I did not receive the XXXX bonus miles promised to me. </t>
   </si>
   <si>
+    <t xml:space="preserve">I have submitted disputes several times with Navy Federal Credit Union concerning accounts I held with Navy Federal Credit Union. XXXX continuously reports the disposition of the accounts incorrectly, and claims it is the data furnisher ( Navy ). Navy continues to claim it has correctly reported the accounts ( see attached documents ), but accounts continue to show late or  negative '' information in XXXX XXXX ( which is impossible as they were included in bankruptcy and closed XX/XX/XXXX ), and now most recently XXXX shows a balance and late for the past 12 months on XXXX account, which is impossible ( and illegal as the account was included in bankruptcy and discharged ), since the account was closed XX/XX/XXXX. It seems XXXX and Navy are not capable of reporting these accounts correctly, and would like the accounts removed, so that these mistakes do not continue. Attached is the communication between attorneys and Navy 's internal notes on my accounts. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I am ( with my siblingss ) the beneficiary of a trust established by my grandmother, that passes to me ( and my siblings ) upon the death of my Mother. My mother passed away in XXXX 2015, so we contacted Wells Fargo, the administrator of the trust. We provided all the requested information and documents in order to process the distribution of the funds from the trust in XXXX. It has now been 4 months, and the funds still have not been transferred as we requested. When we call Wells Fargo we are told that it is  in process ''. There has been no explanation for this long delay, and we have not been told that there is any problem. There has been no communication at all. </t>
   </si>
   <si>
@@ -796,87 +1606,222 @@
     <t xml:space="preserve">On XX/XX/XXXX I deposited XXXX or XXXX checks in the total amount of {$41000.00} to my business acccount that I have not used for a long time. At the time of the deposit I was not informed about the fact that this account was  dormant ''.  On the deposit slip that was filled out by Chase 's teller the date is clearly XXXX/XXXX/2016, yet the online records indicate that the deposit was made on XXXX/XXXX/16. On XXXX/XXXX/16 ( 48 hours after the deposit ) I tried to use the funds on my account to pay my mortgage and other bills, but I was unable to do because  the funds were not available ''. I called Chase and was told that I can not use the funds for another 2-3 days because my account was  dormant '', and it takes them that much time to reverse the domant status. I argued and pleaded, that how can an accout be dormant when I was able to deposit over $ XXXX to it, and now that I want to use the money ( all of it deposited on legitimate paychecks ) my account is all of a suddnet dormant. After spending over an hour on the phone and asking for supervispors and managers, all of a sudden my funds became available.  I am in the process of refinancing my mortgage and need to show income for the past 60 days. I am trying to use the checks that I deposited on XX/XX/XXXX, but all I can see online is the teller 's deposit slip of $ XXXX and not the individual checks.  On XX/XX/XXXX I contacted Chase and after an excrusiating houtr I was transferred to XXXX XXXX, who promised to take care of my issue. On XX/XX/XXXX I also got a phone call and an email message from XXXX XXXX. In her email there are supposedly the images of my checks, however the images are not in PDF format, so when I try to open them on my computer the attachments open to an empty page. I have tried to contact both women, XXXX XXXX has not responded to multiple messages, and XXXX XXXX phone is not set up for messages, her extension has a message that she is not available.  Now I spent almost a full business day on this issue, and there is still no resolution. </t>
   </si>
   <si>
+    <t xml:space="preserve">This is in regards to my Santander XXXX checking account. This account gives a {$10.00} bonus 2 times each month for a total of {$20.00} dollars. XXXX bonus ( {$10.00} ) is for having a direct deposit of at least {$1500.00} each month and the other bonus ( {$10.00} ) is for making a total of XXXX bill payments from the Santander website per month.   I did not receive my bill pay bonus ( {$10.00} ) for XXXX separate months. Those months were XXXX of XXXX and XXXX of XXXX.   During XXXX I made the following XXXX bill payments : XXXX. XXXX XXXX, XXXX - {$530.00} bill payment to XXXX XXXX Credit Card ( XXXX Card ) XXXX. XXXX XXXX, XXXX - {$610.00} bill payment to XXXX Credit Card ( XXXX Card ) During XXXX I made the following XXXX bill payments : XXXX. XXXX XXXX, XXXX - {$480.00} bill payment to XXXX XXXX Credit Card ( XXXX Card ) XXXX. XXXX XXXX, XXXX - {$14.00} bill payment to XXXX XXXX Credit Card ( XXXX XXXX Card ) I called Santander on XXXX XXXX. During this call a representative helped me open a case which was escalated and would be resolved in a week. I received a call on XXXX XXXX from Santander bank informing me my request had been denied and that I did not make XXXX bill payments from my account. I do not agree with this and the records on my account show that I did indeed make the required XXXX bill payments. I was not able to further escalate the case over the phone.   I would like Santander to fix this issue and follow through with giving me the XXXX bonuses for {$10.00} each ( {$20.00} total ) as the account terms indicate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have signed up for AMEX XXXX card back in XXXX, XXXX with a XXXX application.  I have linked my XXXX Credit Card account with AMEX SERVE account and transferred {$70.00} They send me AMEX SERVE card.  I have used my XXXX application several times until XXXX. After that i have stopped using it.  Starting from XXXX, XXXX they have started charging me monthly fees {$4.00} without any notice.  I came to notice this on XXXX XXXX, XXXX when i received Email from AMEX XXXX Team saying,  They have added {$50.00} from my XXXX account, because my balance was below {$25.00}. '' This is something not acceptable.  First of all, They did not send me any notice, email, phone call, not even a physical mail or not even a single statement since i have opened account.  If i would have received at least a statement in mail/email, i would have closed my account so that i wont get charged monthly fees for the service or card which i am not using at all.  Please file a complaint and let me know what i have to submit as a proof.  After i have received email on XXXX XXXX, XXXX, i checked account and saved all the statements and i came to know that i was charged $ XXXX since XXXX, XXXX. </t>
+  </si>
+  <si>
     <t xml:space="preserve">XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX, WA XXXX Contact Phone : XXXX Alternate Phone : XXXX Email : XXXXXXXXXXXX Business Name : Chase bank, XXXX, XXXX by XXXX, XXXX, and XXXX XXXX XXXX Chase Bank XXXX XXXX XXXX landing XXXX, WA XXXX Bus Phone : XXXX XXXX XXXX paycycle by XXXX XXXX mall XXXX XXXX XXXX id # XXXX Transaction date : XX/XX/XXXX  XX/XX/XXXX Amount in dispute : XXXX XX/XX/XXXX I experienced difficulty getting on-line to my Business Banking Account XXXX XXXX XXXX XXXX XXXX Logical Mind # XXXX with XXXX. My Son XXXX XXXX and I drove to XXXX Chase Branch and explained that I was unable to get online. I had the same login in name and password for the last 4-5 years. The lady helped me to reset my password but the following day when I tried to go on-line again I could not get into my account from home. I have all of my bills set up so that each month the bills come in and the bills get paid I do absolutely nothing. I 've made the same amount every month {$3300.00} for 11years. The money was direct deposited by XXXX County or XXXX - XXXX every month. XXXX XXXX, 2016, my debit card was rejected. I went to Chase Bank XXXX XXXX to find out why. print out showed XXXX charges : XXXX/XXXX/16 for {$3000.00}  XXXX/XXXX/16 for {$3000.00}.  Never has an amount this large ever been paid out.was surprised the bank did not contact question this charge for  payroll. '' sole proprietor / only employee.XXXX, bank manager filed forms for claim # XXXX XXXX XXXX it was Friday, money should be back Monday. Monday no money.Tuesday returned the add'l forms. she faxed them. XXXX told me that my business was not listed open by Washington DoR. Chase need bus.lic./ tax id DofR online list attached bus. open. XX/XX/XXXX. XXXX what do you want? offended by her manner needed to get the account straightened out saidl no money, need an appt. XX/XX/XXXX XXXX appt to close one open another. XXXX XXXX worked with me for 1 1/2 hours She then took the paperwork to XXXX XXXX who rejected my business banking application because she said the names did n't match. My business was established under XXXX and the debit card reads XXXX but all bank correspondence is sent to XXXX. I had multiple pieces of ID including my XXXX XXXX, she refused to open the acct even though Chase would not guarantee the money if I did not close and reopen. The money was returned bills were supposed to be paid but on XXXX XXXX, 2016 XXXX XXXX called me and said The money was removed XX/XX/XXXX because it was an ACH payment w/only 24 hrs to report but ACH customer service reports XX/XX/XXXX the transactions as on-line banking transactions.. I believe a grievance filed about XXXX XXXX performance was the reason for the reversal.No one at Chase will reverse the reversal. was told : XXXX at XXXX was refusing to return the monies. I had to call XXXX to settle.spoke to XXXX+ XXXX people on XX/XX/XXXX and XX/XX/XXXX. Was assured me my chase account had never been debited. I called Chase back. I said wrong information. I was told XXXX # XXXX. The number does not work it is not a real number. Not that it is no longer working but that it did not exist. I call Chase they say call XXXX XXXX XXXX for name of company ID XXXX ( XXXX, XXXX XXXX. XXXX made withdrawal. XXXX is listed on the internet as XXXX by XXXX. No longer {$6000.00}. debit card worked til XX/XX/XXXX. {$34.00} NSF ea. use. mortgage increased  past due / late fees, my creditors no pay for 2 mos.w/ late fees credit scorein the gutter. did not charges. do not owe. bank should have realized an issue XXXX unusually high amounts were charges should have been notified. I want the money returned I want all bank insufficient funds charges reversed. I want a letter that I can give to my creditors to rtrn accts to normal.want new bus. acct </t>
   </si>
   <si>
+    <t xml:space="preserve">My checking account currently has a block or restriction preventing use of mobile deposit, this is due to number of times overdrawn/currently overdrawn. I do not have any branches and or ATMs located near me in Connecticut, I will need to use mobile deposit in order to bring account positive and for future deposits. The rep I spoke with earlier today stated I could transfer funds from savings, however, a federal regulation prevents a number of XXXX transfers per statement cycle. Needless to say, this does not resolve matter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX has continued to charge the wrong account even after I have changed the method of payment linked to XXXX. As a result, my bank of america account has been charged an exorbitant number of overdraft fees and my balance is now negative. I have tried to speak with customer service, however the bank 's proprietary software does not allow more than a certain number of fees to be refunded and prevents any autonomy within bank branches and for customer service agents. This is unnecessarily punitive and anti-consumer. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I walked into a Citibank branch at XXXX XXXX XXXX, XXXX, NY XXXX ( I have a Checking Account with Citibank ) and ordered about {$300.00} worth of a foreign currency. For some reason, my Checking Account got debited twice for the order ( i.e. I was charged twice as much as I was supposed to be charged ), even though my receipt only indicated that I placed the order once. I went back an hour later and was told the problem would be corrected by the end of the day. It was n't. I called Citibank, and was told that it would take 45-90 days to resolve the problem through corporate. This is completely unacceptable - I lost access to my money and I have bills to pay on which I 'll be charged interest if they are late. </t>
   </si>
   <si>
+    <t xml:space="preserve">My electronic tax return and refund ( {$550.00} ) was submitted to IRS on XXXX/XXXX/2016 by my tax consultant ( her XXXX information is noted within my attachments ) and IRS electronically sent to my checking account on XXXX/XXXX/2016, however it never reached it. IRS records show it was deposited into my checking account on XXXX/XXXX/2016. Upon further research, I discovered it was deposited in an account at J P Morgan Chase account with my name referenced on the deposit. The wrong routing and account numbers were placed on my return by my tax consultant. ( I will attach both the wrong and correct routing and account numbers for your review. ) The IRS sent an inquiry to J P XXXX Chase and the answer returned required IRS to submit a letter of XXXX request to have the funds returned. IRS refused to comply and closed my case. I have been waiting patiently since XXXX XXXX, 2016 to receive my tax refund to no avail. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I signed up for a Citi Gold checking account in XXXX of XXXX under a promotional offer to receive XXXX XXXX Points upon meeting the criteria in the terms and conditions, which stated that the customer must complete XXXX consecutive bill pays in XXXX consecutive months. A Citi representative confirmed that I both signed up under the promotional offer and met the requirements to receive the points. I called Citi twice about this issue, upon not receiving the points within the stated time frame ( between XXXX/XXXX/XXXX and XXXX/XXXX/XXXX ). They said I was not eligible for the offer. I would not have signed up for this account, or paid the monthly fees ( which they finally agreed to credit back to me, after 40 minutes on the phone ) if I did not think I would be receiving something in return, based on opportunity cost ( regarding both time and money ). I believe this is an unfair practice by Citi. Please see the attached document for the printout of the confirmation of the items listed above. On XXXX/XXXX/XXXX, Citi provided me with documentation of an investigation, concluding that I was not eligible for the offer. The document was password protected ; therefore, it is not attached on this email. </t>
   </si>
   <si>
+    <t xml:space="preserve">This complaint is in regards to the Wells Fargo branch at XXXX XXXX XXXX in XXXX California. It alleges bad faith on the part of the banker who serviced me and his supervisors or manager and the Wells Fargo dispute department. It also alleges discrimination in violation of the equal credit opportunity act and extremely unprofessional conduct by that branch and possible age and racial discrimination.   On XXXX XXXX 2016 I went to get {$750.00} out for rent. I told the banker to place XXXX hundred dollar bills in an envelope. When I got home, I learned the bank teller had shorted me XXXX dollars yet lied and wrote down he gave me XXXX he only gave XXXX. I filed a dispute. The bank did nothing but believe the corrupt and prejudice banker. I believe this is age discrimination because I 'm a XXXX and XXXX discrimination because this bank only hires XXXX and XXXX to work and the the bank and a majority of customers appear XXXX or XXXX, this complaint accuses the banker of shorting XXXX dollars out of malice and falsifying the account record to claim he gave the proper amount. The banker is prejudice he would never have treated a XXXX or XXXX and or young person this way, it seems dare a person not XXXX or XXXX use the branch at XXXX XXXX XXXX in XXXX, they are treated like a second class citizen, maybe even stold from, that branch operates more like a criminal organization than a bank branch and the Wells Fargo dispute has not resolved anything, they just try to cover up. They have cameras and should have seen his misconduct. He shorted me a XXXX dollar bill yet lied! This cost me XXXX dollars of money I needed. I have been a customer for more than 20 years but this bank hit me when I was down, they hire XXXX bankers at the XXXX XXXX XXXX branch, this is the first time I had problems here, I had previously ordered a bank card here and the order was never processed, I had to call customer service to get a bank card because the banker was prejudice and never ordered a replacement card at this bank. I would recommend customers who are XXXX and not XXXX or XXXX stay away from the XXXX XXXX XXXX branch in XXXX. Because the bank teller lied stole money from me and they sided with him I will probably have to take this to small claims court. This is the worst banking experience I ever had, wells Fargo let XXXX immigrants take over this branch. I hope they plan to give some XXXX 's jobs and fast food jobs to robots, well I suggest bank tellers be replaced by robot bank tellers because robot tellers would not act XXXX, show racial preference or act unprofessional and short the customer money and blame the customer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I logged in to view my online banking and the top of my account listing it welcomed another person with their account information.  BB  T Corporation ( Branch Bank and Trust ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between XXXX 2016 and XXXX 2016 Suntrust Bank has charged me more than {$500.00} in overdraft fees caused by their policy of reversing debits to increase the number of fees that they can charge. Some of the debits that they reversed on my account were days old before they reversed them. Some of these charges were less than {$10.00} and incurred charges of {$37.00}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I opened a Citigold checking account in XXXX XXXX using promo code XXXX which offered a bonus of XXXX AAdvantage miles which would be posted to my AAdvantage account within 90 days of meeting the following requirements :  Within 60 days of account opening complete debit card purchases of {$1000.00} using the Citibank debit card which must be posted to the new checking account. And 1 qualifying bill payment must be posted to the new checking account each month for two consecutive calendar months. '' The offer code was accepted but I thought it was odd that I was never asked for my AAdvantage account number so I immediately opened a chat window on Citi 's. The bank 's representative informed me not only that I had signed up for the correct promotion, but also that it was  targeted '' to me.  On XXXX/XXXX/XXXX after meeting the bonus requirements, I opened a chat window again in which a bank representative confirmed that I indeed had met the requirements and the XXXX miles would be posted to my AAdvantage account in 90 days. A copy of both conversations are attached.  After 90 days came and went, I called Citi to find out the status of the bonus and the rep told me she would open an  investigation '' and the results would be sent to me in a few days time. Upon completion of the investigation, I received the attached letter informing me that there was not an AAdvantage Miles promotion offered in conjunction with the opening of my account. In a follow up phone call, I was transferred to a supervisor who told me that I was never  targeted '' for the offer, despite what I had been told by two of the bank 's representatives.  If for some reason I was not eligible for the promotion, I should have been informed upon account opening. Not wanting to close the account before I received the miles, I have since been charged {$120.00} in service fees. I am requesting that Citibank credit my AAdvantage account with the promised XXXX miles as well as refunding the service fees caused by their delay in processing the bonus. Thank you for your assistance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">About a month ago XXXX checks posted to my account, both of which overdrafted. After calling US bank for help resolving the issue, I was told that I could  turn off '' overdraft coverage so that any EFT that went through would be returned. I agreed to this, under the understanding and verbal verification from the employee on the phone that the XXXX checks would be paid, I would incur the overdraft fee, and then cover the checks on my next payday. Within three days after calling and making this change, I again checked my account and both checks had been returned and I had been charged a  returned check fee '', neither of which was said to me when I called and like I said before, I was told that both checks would be paid. I called back and spoke to another employee who became very defensive when I stated I was upset and said that I should  manage my money better '' and  not write checks if I did n't have the funds ''. I explained to her that I was fine with paying the overdraft fees along with the amount due for the checks when I got paid but I did n't agree to them being sent back and had no knowledge of the  returned check '' fees. She then said that she would return the XXXX fees and  turn back on '' overdraft coverage. A few days following this, I checked my account again only to find that while the fees had been credited to my account, both checks posted again - which were sent back and then I was again charged fees ( XXXX per check ). At this point I called the bank again and asked if there was anything I could do to resolve this, explained the situation, and made it clear that I would have to close my account if I could n't figure this out. The employee was very professional, understood my situation, and offered a service through the bank to make payments and bring the account current and stated that the overdraft protection was in fact  turned on '' and apologized. After calling the number, I learned that the service described was only offered to those whose account was in  overdraft '' status for 11 consecutive business days, which is n't possible as I receive direct deposit every two weeks, therefore, this would bring my account current before the 11 business days would pass. Following this, I waited until my next payday, paid the overdraft fees, bought groceries, paid bills, and bought some school supplies for my son as school starts XX/XX/XXXX. After this, the checks were once again posted to my account, returned, and fees were charged. At this point I again called US bank, explained my situation, and was told that if I could get to a branch Monday morning and talk to a teller or a manager, that there was a possibility that my fees could be returned, the checks paid, and the pending fees cancelled. Monday morning I took an early lunch and drove to the branch and arrived around XXXX. I first spoke with a bank teller, who then directed me to the manager of the branch. I explained my situation to her and noted that not once had US bank offered any reasonable means of workout options and that if I could n't fix this I would have to close the account. She printed off my transactions, noted the overdraft fees and the checks that had been returned, and told me that there was nothing she could do since they had already returned overdraft fees in the past. I explained to her again the situation at the beginning and how had the checks been paid, I would have never received any fees but the first XXXX overdraft fees and been able to pay the checks at a later date. She replied that this was my problem, that I needed to quit writing checks, and that she would put a  stop debit '' on my account in order for the checks to quit going through and, in summary, that this was my problem to figure out. </t>
+  </si>
+  <si>
     <t xml:space="preserve">bank fees for insufficient funds could not transfer money from Savings to checking to cover debits because the wells fargo app was not working. called to transfer money, was told by wells fargo that they could not do that over the phone and to go to the ATM. ATM was not working and i was not able to transfer money in time. </t>
   </si>
   <si>
+    <t xml:space="preserve">In XXXX of last year, I opened a Citigold checking account that had a promotion offer. The promotion code is XXXX which outlines conditions to meet to get XXXX Aadvantage points. I met those requirements in XXXX 2016 and confirmed with Citi through Secure Message that I met the requirements. The secure message stated that my miles would be credited no later than XXXX/XXXX/16. That passed and I called up Citi to find out the status of my points. They started an internal investigation and came back saying that I qualified and would need to call into provide my Aadvantage account number ( this letter was dated XXXX/XXXX/16 ). I subsequently called in to provide my account number. They informed me that it would take 48 - 72 hours to process the transfer. For the last six weeks, I would secure message or call in to Citi 's customer service line to ask for a status update on my points. Each time, I was met with confusion as they did not know what happened and they would send an inquiry to their  back office '' with high importance. After six weeks, I am fed up with Citi 's unprofessional treatment and therefore am filing a complaint with the CFPB. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX XXXX I went on-line to my statement to see if my bills had been paid, but then I see that some transaction was on there that I did n't make. I then contact XXXX American Express company to inform them about the matter. He told me that if I see any more transaction that I did not make to contact them back. I went on-line the next day and found XXXX more transactions from XXXX XXXX that I did not authorized and another XXXX from XXXX, but when I went back to the website my account had been closed. I called the bank and ask what was going on and they said that they had suspended my account due fact that I had broke one of their terms. I did n't understand what they was talking about and they said that I was one that made the transactions. XXXX XXXX was XXXX of the transaction on my account that I did not approved and then I called XXXX XXXX to find out who might have purchased the ticket that was on my account and they told me that it was not me plus they where going to admittedly start an investigation on the transaction that was done in my name then take legal action. After that I call Serve back to let them know that information that they had given me was wrong. They told me that XXXX XXXX told them that I made the transaction of buying a ticket to see a concert and to me that they was saying that I committed fraud. They kept saying that I was the one that had made the transaction which was not true. The next day I went to my police department In XXXX Ma. and file for identity theft. I immediately faxed over my papers. They told in about one week my case should be settled but it was n't. Then they told by the following Thursday it would be done once again not finished. I got tried and threaten them that I was going to bank commissioner and I have n't heard from them since. That is why I 'm filing a complaint. My bill are all over the place I ca n't pay my rent because the social security was sent to my the old account.and now I have to wait for social security to get it back. Then send it to my new account which I 'm still wait for its card because of all business with XXXX and American Express. I have my credit card companies calling for payment and now I have late fees add on top of that. XXXX and American Express have made my life a living XXXX!! </t>
+  </si>
+  <si>
     <t xml:space="preserve">I signed up with PNC Merchant Services on XXXX/XXXX/2014 for a simple merchant account ; an account with no monthly fees. I specifically told XXXX XXXX that I was not going to be processing credit card payments on a regular basics and did not want to pay a monthly fee. Now, almost two years later, PNC starts charging me {$19.00} fee per month. I contact them and they informed me they sent a letter to me XX/XX/XXXX ; I never received the letter and I told them. They assigned me a person XXXX XXXX, XXXX, to resolve the issue for me about the fee and about cancelling my merchant services account ; he did absolutely nothing - they are crooks. XXXX told me that I signed the contract and agreed to a fee, if I did not process {$60000.00} a year in credit cards and that I signed the contact stating, agreeing to keep the account for 3 years ; I was not aware of either of these things. These are key things that XXXX XXXX should have pointed out to me. I never would have agreed to processing {$60000.00} a year in credit card payments or to keeping the account 3 years. The figures XXXX put on my application for XXXX and XXXX amounts, I did not give them to her ; she put them there on her own. She is responsible for letting the customer know all these things but she did not tell me anything. PNC Merchant Services is a rip off and is designed to get customers sucked in for long periods, so they can make a profit. </t>
   </si>
   <si>
     <t xml:space="preserve">I have been with TD bank for over nine years and have personal and business direct account with them. This was regarding by business account. I own a laundromat and that is a cash business, I deposit over {$12000.00} a moth in this account and TD bank charges a fee if it supposed {$10000.00}. One of the bank employees offered to help me set up my account so I avoid that fee.  She had made a mistake how she set my account, she has set up my account that I should have {$40000.00} in my account minimum ( which is how much a receive from my business in the whole year )!!   As a result of this, I have been charged maintenance fee of {$30.00} a month for 15 months. From XXXX XXXX to XXXX XXXX.   When I brought this to the attention of the bank manager XXXX he admitted that they made a mistake BUT because I took so long to notice their error he was ONLY going to refund HALF of my money! They charged me over {$450.00} and only gave me back half. I filed a complained to TD bank customer service and did not get enywhere the manager only returned half. I think it is completely UNETHCAL for TD Bank to get paid for the mistake they did on my account and they should not be paid for it!  I would like a full refund and my my account restated the way it way before it was tampered with ( at {$500.00} minimum at my account which was their promotional offer when I opened an account with them!  After it was tampered with I have lost this promotion and now I have to minimum of {$1500.00} on my account ). </t>
   </si>
   <si>
+    <t xml:space="preserve">I received a e-mail form XXXX XXXX about a Pre-Approved loan for debt consolidation. This e-mail was sign by XXXX XXXX XXXX Loan Officer. The scam or fraud was to get money out of my account or the bank using bad checks. Union Bank XXXX Fraud Management did a XXXX investigation for the bank and fixed the blame on me but the checks went through the bank and they did not put a hold on them plus the bank do not have a system to check for a bad check. The scam was to put checks into my account and for me to return there money through XXXX. The bank close my accounts and I could not pay my bills for the month XX/XX/XXXX. I am sending you all of the information for this case so you can see if you can do anything for me. Union Bank still want me to pay {$2000.00} for XXXX checks. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I am on unemployment and my husband is unemployed as well. My unemployment payout is not as predictable as a paycheck and therefore I have sustained a number of {$35.00} overdraft fees. Bank of America did refund some and I am working on getting my auto pay accounts deactivated but I have XXXX {$35.00} overdraft fees I still need refunded. The {$35.00} fees are for items some of which were under {$10.00}. Due to this I have {$95.00} to live on until next week. It will go for groceries.  My complaint is that my unemployment deposit covered the items the bank paid the night before so it was a matter of hours. I could understand XXXX fee but they are causing more hardship than I already had financially.   Please see if you can help me with this.  Thank you in advance! </t>
   </si>
   <si>
+    <t xml:space="preserve">( 1 ) An online bank called Synchrony Bank based in New Jersey distributed two months ( XXXX and XXXX in XXXX ) from my IRA CD account based on my XXXX distribution instructions that should have been stopped end of XXXX. They refused to backtrack the accounting entries after making me send them instruction to stop these unauthorized payments.   ( 2 ) Then in XXXX of XXXX I sent them instructions to distribute at end of XXXX a certain sum. They immediately distributed it. On complaint they reversed the entries although not exactly.   ( 3 ) Then on XXXX XXXX, XXXX when I inquired if my distribution instructions will be executed on XXXX XXXX, XXXX. They said they will not comply because there is no wiggle room if an error is made in scheduling the distribution. Hence they will inform me of another date in XXXX when this can be done safely. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chase savings account was linked to debit card. Multiple ATM transactions occurred during XX/XX/XXXX and XX/XX/XXXX on my account at the corner bank. The investigation team said the transactions were correct as the debit card had a chip, however, it was not me. I have proof I was working during each transaction. I asked to see the footage so I can go forward with the investigation and prosecute whoever has done this to me. I was denied to this information. I have been with Chase for approx for 9 years and never has there been a history in my checking or savings account of constant ATM withdrawals. I can not understand how they failed to protect me. I received the notice a day prior to them withdrawing the funds from my account and I withdrew the funds until this cleared. Its not fair to be swindled from the crook who did the atm withdrawals and now have the bank as well to withdraw funds from the account due to a shallow investigation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In XXXX XXXX, 2016 I opened a Citibank CitiGold checking account with a bonus offer. The bonus offered XXXX Frequent flier XXXX XXXX miles in exchange for opening a CitiGold account and scheduling two bill payments from the newly opened account. These miles are worth at least { {$500.00} } in travel.  After enrolling online with the promotion code, I telephoned Citi in XXXX 2016 and received verbal confirmation that the offer was attached to my account. I quickly completed the requirements.  On approximately XXXX XXXX, 2016 I contacted Citi and spoke to a representative who assured me that I had met all the requirements and the promotional code was attached to my account. He stated I should see the miles post to my account by XXXX XXXX, 2016.   I just contacted citibank today on XXXX XXXX, 2016 to see whether the requirement completion was done and when I would be expecting to see my miles. They sent me back a response saying that the offer was never tied to my account.   I immediately appealed this citing confirmation from Citi that : The promotional offer is attached to my account and ; I qualified for the promotion and ; I met all requirements to receive my bonus.   To date there has been no reply.   Given that Citi representatives confirmed the promotional bonus and its terms with the opening of the account in the ensuing months, Citi must honor the promotion which induced me to open the account. They have defrauded me of at least { {$500.00} } worth of frequent flier miles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX XXXX, 2016 in the morning i contacted my navy federal credit union and asked them to realease my direct deposit early in my checking account ending in XXXX, she did just that i also asked her to transfer money into my finance account the amount of {$100.00} and my other checking account was in the negitative of {$13.00} i made that positive i than asked her to give me the balance and than transfer the money into my account ending in XXXX she did n't do that so i begin to swipe my card the next day on XXXX/XXXX/2016 and now i am in the negative of {$67.00}. i spoke to a manager name XXXX on XXXX XXXX, 2016 and he credit both of my accounts {$20.00} and said i only owe {$180.00} in the XXXX account i put the money in that account on XXXX/XXXX/2016 i put {$200.00} in that account and that 's when i got the balance of {$47.00} that i owe based on the transations, i spoke to XXXX the supervisor on XX/XX/2016 and he did n't look forward into this matter he said he listen to the tape on both days and he would give me a call on XXXX/XXXX/2016 and i never received a call because he knew that he did n't look forward into this matter and sided with the young lady that was wrong and messed up both of my accounts.Now they are asking me to pay the money of {$67.00} i do n't think that i owe this money at all because of the neglect of the young lady not doing her job and transfering my money into my account ending in XXXX. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSONAL INFORMATION AND IDENTIFICATION WAS COMPROMISED/ STOLEN BY SOMEONE, AND BANKING ACCOUNTS WAS UTILIZED FOR ILLEGAL ACTIVITIES. AFTER BEING AWARE OF THE INCIDENT ALL MY ACCOUNTS WERE CLOSED BY THE BANK AND REPORTED TO EARLY WARNING SERVICES WITH FALSE ACCUSATIONS WHICH DEFAMED MY NAME AND CREDIT FILE. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Citizen 's bank refused to accept a check for deposit to my and my husband 's account that has been issued by XXXX auto insurance company for insurance on my car because of my completion of driver 's defense course. Title deed on the car and the insurance policy is issued in the name of my and my husband 's living trust of which I and he are trustees and our adult children are co-trustees and I and my husband are managers of the trust. </t>
   </si>
   <si>
+    <t xml:space="preserve">Citi Bank closed my account without notification. The account showed me that I was a XXXX balance and my savings was XXXX. They gave me no communication saying that they would be closing the account. They told me that I was XXXX dollars overdrawn of which I have no record of, no email, no online alert or message and no balance fluctuation online. I spoke with a supervisor who stated that he would reopen my account in 2-3 days. After 2-3 that account was not reopened and they lied to me saying that it had been more than 30 past due but in fact by their own statement  that account was overdrawn by XXXX on XXXX XXXX and closed on XXXX XXXX, which is 7 days. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ally Bank allowed someone to open an account in my name ( fraudulently ) without using my correct address. I would assume any reputable bank would have better protection measures in place to verify someone 's identity.   Ally ( after recognizing their mistake and after I notified them the issue ) continues to send correspondence to the wrong address. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What can you say about USAA BANK other than they murdered my life and killed me a long time ago, I am living my life on fumes. After being robbed of over {$100000.00} things including, music demos, screenplay drafts for projects for money, all my personal things like license info, and social security info, after being idenitity theft through USAA CHECKING account and USAA BANK CREDIT card and proving it and bringing people to justice and after a car accident we proved was not our fault, USAA BANK refused to pay out all they owed, closed checking account illegally, the issues are extreme, they even illegally put me in credit reporting XXXX found them guilty and removed them but XXXX has not I Am attaching a letter from XXXX XXXX to show I WAS ONLY AN AUTHORIZED USER, USAA BANK and ceo XXXX XXXX, I have phone calls, emails, letters from city controllers and other agencies to prove I Am in the right. I Am terrified they get away with this by simply saying WE ARE FOLLOWING FTC regulations, but they are not, they are evil. I am actually waiting for them to finish my life off, there are so many other issues, I am attaching a XXXX document as well to their only XXXX % of what they did. XXXX, I know they are gon na come for me and finish me off soon, they are so evil, and gross. XXXX XXXX ext XXXX at USAA BANK is also an evil henchmen for USAA BANK. HELP ME HELP ME HELP ME HELP ME I AM DROWNING HERE AND TERRIFIED. </t>
+  </si>
+  <si>
     <t xml:space="preserve">A check was presented twice for cash my check # XXXX from Citibank was presented and paid on XXXX/XXXX/XXXX and a second time on XXXX/XXXX/XXXX over a year later. I opened a case with CITI but want to also let you know that this is happening. This is obviously Fraud. my questions to the Citi Rep was 1. how does a check over a year old paid?  2. why is the same check paid twice?  no responses to either. Last years check should have been destroyed after payment by the bank I suspect. Meanwhile the bank is not refunding the funds and starting an investigation. so I 'm down in {$330.00} due to their negligence to identify fraud </t>
   </si>
   <si>
+    <t xml:space="preserve">I wanted to dispute charges on my debit card with Bank of America. I was told that the only way to do this is via telephone or by physically going to a banking center. As I am XXXX and do not use a XXXX, I am not receiving the same level of service ( or even close ) as I am denied the ability to dispute transactions without enduring XXXX. This is not the first time Bank of America has denied my reasonable accommodation requests. They still have not addressed my previous complaints. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX XXXX 2016 at the end of the business day. I had {$2.00} in my bank account. Nothing was pending on XXXX XXXX 2016 I deposited {$80.00} period on XXXX XXXX XXXX that evening I withdrew {$20.00} two different times. There 's a {$2.00} charge per withdrawal from each provider my bank and the ATM. That is a total of {$10.00} with the XXXX that is a total of {$50.00} that took my balance from {$82.00} down to {$32.00} which is what my balance was on XXXX XXXX 2016 when I woke up. I put {$10.00} and gas taking me down to {$22.00} in my balance. I withdrew {$20.00} from a XXXX ATM which is a fee free ATM that took me down to {$2.00} balance at roughly XXXX. on XXXX XXXX the same day. I deposited another {$80.00}. On XXXX XXXX 2016 I open up my ( remembering that each of those {$80.00} deposits XXXX of them to be exact. Were deposited at XXXX separate branch locations. The first {$80.00} deposit was that the mall branch in XXXX West Virginia. The second {$80.00} deposit which was on XX/XX/2016, was at the XXXX downtown branch. ) U app by BB  T to find that they returned XXXX of the ATM fees and charge me {$36.00} so where did {$20.00} go? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX XXXX, 2016, I Cashed a personal Chase check at XXXX XXXX XXXX XXXX Chase Bank. I have been a Chase member for many years. I currently own a Mortgage, Checking, and Saving Account with Chase Bank.   This specific branch treats XXXX customers differently then XXXX XXXX customers when seeking and receiving bank services. Customers of XXXX race are specifically targeted with indifference, suspicion, dislike, when seeking or receiving bank services.   Regularly, XXXX are intentionally denied bank financial services, because of their race. This is a prioritized business practice, by this specific Chase branch.   XXXX bank customers are treated with great respect and superiority in comparison to XXXX bank customers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX/XXXX/XXXX a check was submitted for withdrawal for {$1400.00} leaving a balance of {$300.00} however it was returned. A fee of {$35.00} was taken from my account leaving a balance of {$300.00} on. XXXX/XXXX/2016.  On XXXX/XXXX/2016 it was returned back into account leaving a balance of {$1700.00}.  It should have never been an insufficient returned check nor charged.it was embarrassing. To have my first months rent returned when the money was available.  I would like my {$35.00} returned into my account. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX XXXX, XXXX Fifth Third Bank 's mobile application notified me of a {$420.00} transaction that was NOT made by me. I immediately called the bank as prompted. While waiting 2-5 minutes for a bank representative - another transaction of {$210.00} went through. I was told the bank shut down the card for FRAUD and the representative  XXXX '' assured me there are no OPEN cards on my checking account. Because there are NO OPEN CARDS on my checking account I am blocked from accessing/monitoring my account for further fraudulent activity. I have no access to my money for 5-7 Business days until another NEW card is issued. I can not see MY account online or on the mobile application because Fifth Third Bank does NOT allow access to a checking account without an ACTIVATED card. I was blocked from my money by Fifth Third XX/XX/XXXX for a previous fraud dispute where the bank had issued  allowed multiple cards to remain open without my informed consent  knowledge. The bank response was a ponzi scheme/shell game of  you used the cards we issued to you so you knew the cards were open. '' Even when provided with bank paperwork that stated the 'old card would be deactivated when the enclosed card was activated ' the bank cited numbers and transactions to cloud the real issue of bank deception in our business relationship. I believed in this bank 's integrity until XXXX XXXX. I had been happily a Fifth Third Account Holder since XXXX XXXX. On XXXX XXXX, XXXX I was issued the new chip card by the bank. This was to make my account 'more safe ' ... I make very few transactions. I changed every password. I changed every pin. I have NO FAITH in business dealings with Fifth Third from this day forward. Clearly my account is NOT SAFE and now I am BLOCKED from monitoring my money ... BLOCKED from keeping MY money safe that Fifth Third has NOT repaired whatever BREACH prompted them to issue the XX/XX/XXXX Chip card that I did NOT request. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I was recently charged an overdraft fee on my BBVA Compass account of XXXX, but no where on my bank online did it show that I went negative. If the bank is going to charge an overdraft fee, then there should be transparency and the bank should, at the very least, show me where I went negative. Instead, my balance never reaches a negative balance on my bank online. I feel that the method of accounting that this bank is using is meant to take advantage of consumers because people are being overcharged non-sufficient funds when their accounts never reach a negative balance on their bank online. If the banks are going to be charging overdraft fees, then they should, at the very least, show you why they charged you a fee. </t>
   </si>
   <si>
     <t xml:space="preserve">I signed up for a Citigold personal checking account with Citibank , NA, pursuant to a promotion offering XXXX XXXX XXXX Advantage miles contingent on meeting certain requirements after opening the account. The Citi promotion code was XXXX. On XXXX XXXX, 2016, I sought to confirm with Citi, in writing, that the promotional offer was linked to my count. On XXXX XXXX, I received a response from XXXX XXXX XXXX stating that Citi confirmed my account was enrolled in the promotional offer. The communication went on to list out my progress toward completing the requirements ( XXXX out of XXXX were completed at the time ), and contained an affirmative statement that the Aadvantage miles would be credited to my account following my completion of the last requirement. On XXXX XXXX, 2016, via secure message, I again contacted Citi to inform them that I had completed the last of my requirements, and sought to know when I should expect the miles to be credited to my account. The Citigold representative ( XXXX XXXX XXXX ) responded on XXXX XXXX, 2016, in writing, stating that I had indeed completed all requirements associated with the aforementioned promotion code, and that, per the terms and conditions of the offer, I would receive the miles 90 days from the end of the statement cycle in which the requirements were completed. The Representative further stated that the miles would be credited to my Aadvantage account by XXXX/XXXX/2016. I accepted this as true, and after waiting over three months and still having not received the miles, I again contacted Citigold via secure message on XXXX/XXXX/2016 to inquire about the miles that should have posted. I received a reply ( from a XXXX XXXX ) the following day stating that Citibank now deems me ineligible for the offer, because, they contend, that this was a  targeted promotion to which ( I was ) not a participant. '' The Citi representative went on to state that though I met the requirements, this does not render me eligible for the promotion ( which is in direct conflict with what the other Citi representative told me three months ago ). Citi 's sudden reversal of position after confirming my eligibility and going so far as to tell me a specific date when to expect the promo miles to transfer to my account is a reprehensible act. They held out an offer to induce my business, I accepted, and even went out of my way to confirm that their records indicated that I had met the terms of the offer, and received such confirmation, only to be told three months later that Citi has now decided not to honor their offer. This is a classic bait-and-switch tactic. If I were truly ineligible for the promotion ( which I dispute ), I should have been told the same by XXXX of the XXXX different Citi representative that I proactively sought confirmation from in XXXX, 2016. If XXXX out of XXXX Citi representatives are n't able to tell whether I 'm eligible for a promotion, then how can I be reasonably expected to know? Citi should stand by its representations and honor the deal. The written correspondence is attached and is offered as evidence. </t>
   </si>
   <si>
+    <t xml:space="preserve">We had Fraud committed against us, by a customer that gave us a fake check, we did not know, of course the check was fake? It was a deposit paid to our business to hold spots for scheduled services. We contacted Chase bank several times while the account was placed on hold and eventually closed by the bank. In contact with Customer Service over the phone and with the Chase Fraud department, we were told to wait seven days and go into a branch and open a new account.  We went into the branch, the Customer Service rep, called their ( Chase Fraud Dept. ) and got the permission to open the account, we spent about an hour giving our personal info and XXXX forms of ID 's to reopen a new account. The old account that had fraud committed against it, still had funds that the bank was holding, we were told we could fund the account with the funds sitting someplace with the Fraud department at Chase. The CSR of the bank was not sure how to retrieve the held funds so she had us fill out signature cards etc, generated paperwork for the new account. She told us to please wait she needed to speak to her General Manager, to find out where the funds were being held.  The general manager came back to the office we were sitting in with a horrible attitude, and spoke to us ( myself and my husband ) in a disgusting tone, elevated for no reason. He then informed us that it was his personal decision to not open an account for us, based on his bias and discriminatory attitude towards us. His own department/company and internal processed cleared us for an account, so we can only assume, his five minute decision was discriminatory, biased and racially motivated. In fact customers service over the phone and Chase Fraud department cleared us for an account, prior to the branch customer service rep, spending an hour reopening a new account for us in the branch.  This Chase Branch Manager  XXXX XXXX. XXXX '' ... Branch manager of Chase at XXXX XXXX XXXX, XXXX, IL XXXX ... XXXX XXXX ... .Fax XXXX ... made his own personal determination, based on our appearance and race, he did not want to hear that we were victims of fraud, in fact he even told us ... '' we are responsible for the fraud that was committed against us ''. We later received an apology from their customer service complaints line, however this individual/organization is not taking any responsibility for his biased actions. We were instructed by his organization to go to a branch, instructed that we got the OK to reopen an account, spend an hour with the branch Customer Service Rep, that verified we can open an account. Signed forms, completed the process of opening a new account. Only to face this blatant, XXXX, discriminatory treatment from someone that should n't be a branch manager, of an institution that depends on public funds to stay in business. We were treated like dogs by XXXX and he 's unfortunately still operating, dealing with the public and apparently running the Chase branch based on his own personal biased opinions. </t>
+  </si>
+  <si>
     <t xml:space="preserve">ON XXXX there was a charge on my account that was not authorized. I attempted to dispute the charge online on the bank site and it would not allow me so I had to call a customer service representative. The XXXX walked me through filing the dispute however, they never told me they were cancelling my bank card and specifically told me to answer NO to the question online through the dispute process. On XXXX I attempted to make a deposit to cover expenses and the card would not allow me to make the deposit through the ATM at the local branch. I called and at no time did they ever inform me that the card was no longer valid. They went ahead and paid XXXX charges which caused the account to become overdrawn. I called again and was told that I should be receiving a card in 3 days. A new card never arrived so I called again. This is now towards the end of XXXX. I finally received a replacement card on XXXX. When I logged in, I discovered that PNC was charging me almost {$200.00} in fees for the overdrawn items which totalled around {$400.00}. I have repeatedly contacted the bank to remove those excessive fees and they refuse to acknowledge any error. I ultimately submitted to the bank that until they correct the error I will not be making a deposit to cover what should be {$470.00}, which is the total of the overdrawn amounts plus {$72.00} in overdraft fees. The charges were less than {$400.00} originally and they are trying to rob me by charging a 50 % fee. This is usurious, fraudulent and I will not pay them another cent until they resolve the problem and acknowledge the poor customer service who never told me they cancelled the card. I work during normal banking hours and can not leave work to visit the branch in person. The ATM card was the only way I could make a deposit. I want the fees removed and I am willing to pay only once for each overdraft item. I no longer use PNC but they continue to harass me for the same after I have repeatedly tol them I will not deposit until they correct the problem. The are now not answering my request and only continue to harass me at work when I have clearly told them not to contact me during my working hours. </t>
   </si>
   <si>
     <t xml:space="preserve">My aunts car check book and debit card were stolen The bank Of America in XXXX SC. She attempted for 3 days to call the fraud department of BOA without getting through. She was able to finally get someone on the phone on XXXX/XXXX/16. She followed up by filing police reports. A total of XXXX stolen personal checks were deposited into her account on XXXX/XXXX/16. The first withdraw was made in the amount of {$240.00}. Then 2 attempts were made at XXXX XXXX without success however a withdrawel was made at BOA when more money was obtained. My aunt states she never gave her PIN number to anyone ever. We feel like a girl in and out of her home somehow guessed or watched her put the pin numbe. She filed her claims alone A follow up call she was told because the claim Was filed on XX/XX/XXXX she failed to show concern. My aunts completed every thing the fraud department requested her to do. My aunt is XXXX And becomes confused quick she did n't understand exactly what was expected of her and what the BOA was asking her to do. New claims were filed but to lay Shock the Bank of America denied the claims again. My aunt is on a fixed income and she received her XXXX in the amount of XXXX. Over {$600.00}. Of her check was taken by BOA they were no help at the fraud department. No one would reach out and assists her. She asked for supervisor to be contacted. The XXXX supervisors were talking hateful and not helping her. The bank refused to reopen the claims or provide my aunt with any details. The BOA speaks of its XXXX libability on fraud. The bank seemed to be taking advantage of my aunts XXXX and lack of understanding. Her car insurance is about to be cancelled and her car may be taken from her </t>
   </si>
   <si>
+    <t xml:space="preserve">I opened XXXX accounts at Citibank ; A CitiGold checking account and a credit card.  The bank representative ensured me that I would be eligible for a XXXX Advantage mile bonus in opening the CitiGold, provided I made {$1000.00} of purchases and two BillPays in the first three months. I fulfilled these obligations and checked with my local branch whether or not I had met the requirements.   However, after many months, I had not received the mile bonus in my account. I submitted several complaints regarding the account and the promotional offer and was informed that 'those offers are only available to the individual to whom the offer was addressed. ' I am extremely dissatisfied with the customer service and the lack of transparency regarding this promotion. </t>
+  </si>
+  <si>
     <t xml:space="preserve">On XXXX/XXXX/2016 I requested a stop payment to be made for a pending bill of {$370.00} which I was told would be handled, and I was charged a {$30.00} stop payment fee. On XXXX/XXXX/2016 the charge of {$370.00} was then debited from my account. When I called in the the customer service team, I was told by the XXXX rep that the charge was only pending, and would not clear, however, the call was dropped. When I called back in I was told by a XXXX representative that the stop was not completed correctly, as the charge was not an ACH transfer and that it would not be enforced. Upon request I was then connected to a supervisor who told me again that because the stop payment was not entered correctly it would not be enforced - but that I could file a claim with the claims department. I was then transferred to the claims department who said that a claim couldnt be placed and I would have to request a refund from the merchant directly. This now leaves me with a balance that is {$300.00} short of my rent check that was delivered this morning, which means that check will bounce and I will then be charged NSF fees by both CHASE, NA and my landlord causing me even further financial hardships. Had I been notified by the Chase customer service rep on XX/XX/XXXX that the could not put a stop payment on non ACH payments, I could have attempted to make other arrangements for the money, however, due to the failure of the Chase customer service team to properly train their staff on their policies and procedures I am now without any other options. </t>
   </si>
   <si>
+    <t xml:space="preserve">I opened a Citigold checking account with Citibank on XXXX/XXXX/16. I used an offer that had been extended by Citibank for XXXX Thank You points after meeting the criteria of performing a bill pay 2 seperate months within 60 days of opening the account. I met these conditions and confirmed with a Citigold representative ( XXXX ) via chat on XXXX/XXXX/16 that I had met all the requirements to receive the promotion. After waiting several months, I was told by a different Citigold representative ( XXXX ) via chat on XXXX/XXXX/16 that I would not be getting the bonus and that an  investigation '' would occur to see what the problem was. On XXXX/XXXX/16 after the investigation was denied, I was told by another representative ( XXXX ) that I was declined because I could not produce any original paperwork of the offer that Citi already confirmed I was eligible for on XXXX/XXXX/16. </t>
+  </si>
+  <si>
     <t xml:space="preserve">We have had a Home Equity Line of Credit ( HELOC ) in good standing with First Tennessee Bank since XXXX. We just received a notice from them stating that  The draw period for our HELOC ends on XXXX XXXX, XXXX. '' After calling them, we were told the HELOC is being discontinued because of their rule change - nothing we did or agreed to ever mentioned an end to the draw period. We now have to find another HELOC, including a full income verification process, past 2 years of documents, etc. This is a very cumbersome process at a time when one of us in unemployed, and the market has devalued so we are not likely to get a similar value on a new line of credit. We are not big fans of the process to get a home loan, and that is what we are being forced to do through no fault of our own. </t>
   </si>
   <si>
     <t xml:space="preserve">On XXXX XXXX, 2016, a criminal hacked my account and charged {$790.00} to my checking account. I immediately noticed that same day because it put my account in the negative and I got an alert stating that I was in the negative. So, I immediately called Chase Bank and made them aware of the fraudulent activity. They told me to stay calm and that they were going to open a claim for me and that everything was going to be fine. They credited back the {$790.00} to my account and told me they were going to investigate. I followed up with them the next day once I saw that they let the charge go through on my account. It was only pending the previous day and I did n't understand why they would n't red flag that transaction and reach out to XXXX right away, but they told me this was apart of the process so I just waited. I called back over the next to two months for updates and was told nothing. Every time I called they would tell me there was nothing in the notes, so they could n't tell me the status of the investigation. All of a sudden, tonight around XXXX on XXXX XXXX I get an email saying that they finished the investigation and the charges are correct and they 're taking back the money they credited back to my account. I do n't understand what happened here. Literally, they let someone steal almost {$800.00} out of my account and did n't even fully investigate because I never made those charges. It 's not even like me to make charges that big. Why could n't they just look up where the stuff was delivered to and catch whoever did this to me. I just got screwed by XXXX and my own bank. I do n't know what to do. Please help. </t>
   </si>
   <si>
+    <t xml:space="preserve">I applied for a Citibank Citigold checking account back in XXXX 2015, due in part to their attractive XXXX XXXX XXXX miles bonus upon completion of spending {$1000.00} in debit transactions and using bill-pay twice within 60 days. I completed all requirements within the allotted time period ( confirmed by Citi ) but have not been credited my bonus miles within the 90-day due date post-completion ( XXXX XXXX ). I have contacted Citi on over XXXX occasions but have not gotten the issue resolved. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have been closing my account at HSBC by cancelling all of my activity in the account for the past two months. HSBC refused to notify me when a request for withdrawing funds from XXXX XXXX came in and I had no money in the account. They have my email address and often send me emails for new products and services. They deliberately covered the check so they could collect on the fees and penalties for an overdrawn account. I do not have overdraft protection, so they should not have covered the check and should have notified me immediately. </t>
   </si>
   <si>
     <t xml:space="preserve">Good Afternoon, I signed up for a promotional offer or a Citi Gold checking account from Citi Bank for XXXX XXXX XXXX Miles. I met all the terms of the promotional offer which was confirmed through secure messaging on Citi 's website. It was confirmed I met the terms through 2 different representatives in 2 different secure messages. All along I have been paying $ XXXX monthly fee in the hopes the XXXX XXXX miles would post to my account as advertised. This has cost me additional money, with no promotional reward to offset these fees. </t>
   </si>
   <si>
+    <t xml:space="preserve">Hello, I received a targeted mailer in the mail ( See enclosed attached Pic # 1 ). I opened a Citigold Checking Account with that promotion ( See enclosed attached pic # 2 for promo disclosure ) for XXXX AAdvantage Miles after spending {$1000.00} on the debit card and completing XXXX bill pays in 2 consecutive months. The promotion code was XXXX. I called Citigold Customer Support and confirmed that I was eligible for the promotion before opening the account, and then after opening the account I confirmed that my account was eligible for the promotion. After completing the requirements, I contacted Citigold through a secure chat and confirmed that I had completed the requirements and that the miles would be posting to my account ( See enclosed attached pic # 3 ). The rep responding confirming that I have met the requirement in detail ( See enclosed attached Pic # 4 ) and said I will be getting my miles 90 days ( XXXX/XXXX/2016 ). After XXXX XXXX came and went, I contact Citi again to ask when the miles would post. They placed an inquiry request on my account to look into it, and I was then notified that my account was not targeted and I would not be receiving the promised miles ( See enclosed attached Pic # XXXX ). I believe Citi should honor the promotion they promised, since I was targeted, confirmed with Citi that I will be receiving the miles, then did n't. This was a very frustrating and harrowing experience for me, and Citi should remedy this. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I opened a CitiGold checking account online in XXXX of XXXX. I was an existing Citibank customer with a credit card that earns 'Thank You Points '. The checking account was opened using a promotional offer from Citibank, which offered a bonus of XXXX Thank You Points ( worth roughly {$500.00} ) if the I met the following conditions within two months of opening the account - I simply needed to make 2 online bill payments in 2 consecutive months. I opened the account, and verified ( via Secure Message and using their Online Chat application ) with Citibank that my account was opened with the promotional code and eligible for the promotion, and that I had met the requirements the receive the bonus Thank You points. I was told in accordance with the promotional terms that the bonus points will post to my account within three statements or 90 days of completing the requirements, which would have been XXXX XXXX, XXXX. It is now XXXX XXXX, XXXX, and I have paid {$90.00} total in monthly fees to Citibank, and Citibank has not upheld the promotional offer. Upon inquiry, Citibank now tells me that I was never eligible for the promotion, despite the fact that they confirmed my eligibility several times and provided specific dates and milestones that corresponded to that eligibility. This is very unfortunate in that in the six months this account has been open, numerous Citibank representatives have confirmed my enrollment in this promotion, eligibility and satisfaction of the promotion requirements to earn the bonus for this checking account. The last Citibank rep I spoke with told me that the points would post within 90 days of meeting the requirements. Only now, after Citibank has collected fees during my 90 days of waiting, does Citibank decide to inform me that I am not eligible. If I was ineligible, why was I not informed earlier? Therefore, I find this practice to be very deceptive and would like to file a complaint. </t>
   </si>
   <si>
     <t xml:space="preserve">there were fraud checks deposited into my bank acct ( Capital One ) and an ATM withdrawl of {$480.00} that Capital one bank is holding me responsible for. the ATM withdrawl was done in IL. I called and reported my card lost and the fraud on my acct. Capital one is holding me responsible for the {$480.00} withdrawl that I did not make. they are also ending our banking relationship saying I am a liability. how can I fight this? All my funds are on hold. </t>
   </si>
   <si>
+    <t xml:space="preserve">To whom this may concern, I have been suffering from the hardship of being repeatedly denied access to even the most basic checking accounts from a wide variety of banks. I am unsure why this is but the result is I have been having significant financial troubles and for the past 7 months I have been unable to cash any of my checks that I earn as income. As a result, I have had severe financial hardship being unable to afford basic necessities and being unable to pay medical bills.   Recently, given the fact that I had over {$1500.00} in un-cashed soon to be expired checks, I tried opening up bank accounts again. Simple Bank, a subsidiary of BBVA Group and partnered with The XXXX provided me with an account.   Because over {$400.00} dollars worth of checks had already expired and I was traveling, I had my mother, with a signed power of attorney, takes pictures of the checks and send them to me. I then used industry recognized signature software to endorse the checks and proceeded to deposit the checks with Simple 's mobile app. I made sure that checks were valid and the routing numbers and signature were clearly visible. I also further checked Simple 's TOU/TOS to confirm that this was not dis-allowed.   In what appears to be a final and completely one sided decision, Simple, just moments ago unilaterally closed my account and is not answering my calls or questions. Simple simply says  [ I am ] no longer a customer and thus can not receive support ''.   I take issue with Simple 's actions on a number of levels, not only does Simple actions violate the CFPB 's push for banks to allow checking accounts for all but it also puts me back into a financially precarious situation and I am likely going to face {$1000.00} of checks expiring. Placing additional burden on my already very XXXX situation.   While the heart of the problems lies within the entire financial industry locking me out from accessing even the most basis checking account, I would like Simple to explain the following : 1. XXXX XXXX of Simple sent me a message saying my account has been closed because  the check you deposited was not valid ''. I have inquired to simple why the check was not valid and further inquired to which check was not valid ( I had deposited XXXX different checks ) and Simple has not responded. Please clarify why the check was not valid, allow me to explain my situation ( I am willing to provide any additional documentation ) and re-open my account. It appears as though Simple did not even try to process the check so it is unclear why the check was invalid.  2. ) Please explain to me how I am supposed to pay medical bills if I am unable to cash valid checks. In this situation Simple is making a very inhuman decision to limit my access to earned monies while simultaneously refusing to explain their decision. Please offer solutions or methods which I can cash the checks.   You may contact me at XXXXXXXXXXXX or via mail at XXXX XXXX XXXX, XXXX XXXX, California, XXXX.   Sincerely Yours, XXXX XXXX XXXX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX XXXX 2016 Bluebird By American Express locked my DEBIT card out due to a credit added to my account, they said that was against their policy which I figured was not due to you can transfer money from XXXX account to another you can have direct deposit from an employer. I am a XXXX and I had a client which I replaced a part on his truck he bought the part cash and he gave me the old part to turn in for a credit which was how he paid me for the labor, I went to the vendor that he bought it from and they issued me a credit seems I did not have an account with them they needed to put it on a bank card or credit card, at the time the only card I had was my BLUEBIRD by American Express card which I felt was ok to do. Now Bluebird has been saying this is under review for the past month the last time I talked to them was XXXX XXXX 2016 they stated they reviewed it and they would be sending the funds back to the merchant, I called the merchant to tell them to be on the lookout for the funds to be returned and they have seen nothing, now the BLUEBIRD people stated give them 5-7 business days. So as I am writing this this have me on hold been15 minutes. But the transaction was done on XXXX XXXX 2016 and they locked my card out on the XXXX of XXXX, I have called them at least 15 times, they wanted a letter sent to some address in Utah which I paid {$18.00} to get XXXX here next day, there was a receipt from vendor so I sent them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Wednesday XX/XX/XXXX, XXXX XXXX mis-charged my account {$440.00}. They were willing to help but explained the refund would take 7-10 business days to show on my account. They advised me to call my bank so they could expedite the process. Called BOA and waited for a rep for 47 minutes before an answer by the claims department. This employee told me there was nothing she could do for my account at the time. After going back and forth for 15 minutes, she transferred me to customer service. I explained my story to the CS rep who, once I finished, full-bellied LAUGHED at me. Said he did n't know why I would have been transferred to him. He sought out a supervisor who said she would call XXXX on my behalf and call me back. She never returned my call. On Thursday, XX/XX/XXXX, I called BOA again and spoke with a XXXX in CS. After 14 minutes on hold waiting for an answer, she was able to add a temporary  memo credit '' to my account. On Saturday, XX/XX/XXXX, the  memo credit '' expired but I was not notified this would occur and received an e-mail on Sunday XX/XX/XXXX that my account balance fell below {$25.00}. Called BOA again, waited on hold about XXXX minutes before speaking with a CS rep who told me she could n't help me and would need to transfer me to claims. After about 40 minutes on the phone with claims, they forced me to open a claim when all I wanted was for someone to put another credit on my account until XXXX finished their refund. Claims rep told me to check my account Monday XX/XX/XXXX for the claims credit. Come Monday XX/XX/XXXX there is still no credit on my account from BOA or XXXX. I call BOA AGAIN. 47 minutes waiting for an answer and an hour on the phone with a CS rep I finally get a supervisor named XXXX who puts another memo credit on my account and assures me she will keep on an eye on my account until everything is righted. On Tuesday, XXXX, XXXX 's refund and the claims credit posts to my account. I now have XXXX credits on my account. Wednesday XX/XX/XXXX the second memo credit expires. On Thursday, XX/XX/XXXX the claims credit is removed from my account and now I only have the refund from XXXX, which is all that should be there. Thursday XX/XX/XXXX, BOA has deducted ANOTHER {$480.00} from my account. I spent 2 hours and 37 minutes on the phone with a claims rep and a claims account manager who both insist that this is my fault and everything on their end is correct. I was meticulous in keeping records on my account during this entire process and am 100 % sure that BOA has taken an extra {$480.00} from account that they refuse to give back. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have a Direct Express card issued by Comerica Bank on behalf of a XXXX family member 's SSI payments. In XXXX 2016, the card was declined while attempting to make a food purchase. I immediately called the Direct Express customer service number ( XXXX ) to inquire of the account balance and availability. I had been asked to verify my identity by 1 ) stating my Social Security number 2 ) stating my full name, address, date of birth and phone number. Apparently there had been XXXX unauthorized charges made on the card at a department store XXXX miles from my home. The charges were exact to the amount remaining in the account! I was told by the customer service agent at Direct Express that I would need to complete an affidavit and return to Direct Express in order to dispute the charges. Also, my account would be closed immediately and a new card was issued and sent to me at that time. Upon receiving the affidavit from Direct Express, I filled out the forms and returned while patiently waiting for my new card to arrive. Two weeks after my initial call to Direct Express, I still had not received a new card that was supposed to take 5-10 business days to arrive. I called Direct Express and was again asked for the same credentials as before ( SS #, legal name, DOB, address and phone number ). I was informed that the account had not been closed out and a new card had not been issued to me, but my affidavit had been received and part of the funds would be credited to my account. The Direct Express agent would not override expediting the card to me nor would waive the charge for being issued a new card.  Today, I find myself in an eerily similar situation where the newly issued card was used fraudulently. This was discovered when I contacted Direct Express to make a balance inquiry and was immediately transferred to a fraud department. Again, upon being connected I was asked for my SS #, legal name, DOB, address and phone number. The account was zeroed out by a vendor with an unknown name or location. Twice in three months this has happened and I have been even more cautious of using the card while shopping. The customer service agent,  XXXX '' at Direct Express repeatedly spoke over me as I attempted to reconcile the events of what had taken place and ask questions about the processes of recovery. I could not even get a reference number for my case as she abruptly ended the call. Wanting to resolve this, I called again and connected with a different Direct Express agent. Same questions of identity : SS #, legal name, DOB, address and phone number. I explained that I was calling back about my account status, the unauthorized purchases made, and the next steps to resolve the situation. His responses were automated and condescending at one point. It was suggested that I call back in five calendar days to follow up on the charges being settled. At that time he had confirmed a new card had been issued to me and that it should arrive within 5-10 business days.  Having someone violate your personal information and use it is not an everyday occurrence for me and XXXX of other people in this world! Consumers need to understand how companies are protecting our rights and privacy and therefore asking questions is part of that communication. How are we to trust that our information is secure when the representatives  assisting '' us are rude and indifferent? Why is Direct Express handling the payments for SSI? A simple online search shows that this is a rampant problem with Direct Express! </t>
   </si>
   <si>
     <t xml:space="preserve">bank of america just say not want to business with me. and put a hold on my bank account. and i cant get any funds from the account.bank of america account # XXXX and not give me why they closed. the account was not overdraw.will this closer stop from getting a new bank account at other bank </t>
   </si>
   <si>
+    <t xml:space="preserve">In 2012 my husband and I went into his WFargo branch to cash a {$50.00} check made out to both of us. I was not on his account. Although we were both present and had I.d., we were told we could not cash a check made out in both of our names. We were taken to new accounts and told we had to open a joint checking account. A savings account was open at the same time ( that we did not want our ask for ). The new accounts rep bragged about openings XXXX accounts that week. Thereafter I received a late fee notice that I had not paid my Wells Fargo credit card invoice. I have had this card for 20+ years and always pay off the balance each month. After the branch opened the joint checking/savings account they stopped mailing my statements. I was told they were mailing the statements online. I do not bank online because of threat of hackers, etc. It literally took hours on the telephone, trips to the branch and paying interest on a balance due. I was so angry at the new accounts rep that I wanted to strangle him ... .all for a measly {$50.00} check that we could have cashed at XXXX branch. I am no fan of Wells Fargo. They lost my trust! </t>
+  </si>
+  <si>
     <t xml:space="preserve">I submitted an application for an account with Citibank on the understanding that I would be eligible for a promotion with XXXX XXXX upon completing certain hurdles.  I completed said hurdles, and contacted them XXXX XXXX as to why I had n't received the promotional miles. They stated they would open a case and look into it. I contacted them again XXXX XXXX, and I was told I would have an answer in XXXX to two business days. I contacted them again XXXX XXXX, and was put on hold via their chat system indefinitely ( disconnected approximately 3 hours after the rep said it would be just a few minutes ). I contacted them again today and they said that I was n't eligible despite fulfilling the hurdles. I 've also incurred a {$30.00} fee during my wait for them to act, which they said they would n't waive. </t>
   </si>
   <si>
+    <t xml:space="preserve">To CFPB, I 'm writing this letter to find out how I can get my money back from a business checking account with Santander in MA. My checking account was closed without reason on XXXX XXXX 2016 and without any notification thru mail, email or telephone prior to that closure. In addition, I tried to called Business Customer department XXXX, who are unable to provide any answers except that the account was closed and that I should visit a branch to find out more info.   I did visit the Santander branch on XXXX XXXX XXXX in XXXX MA, where I spoke with the Branch Manager named XXXX XXXX. However, after he spent some time investigating what happened to my account, he was unable to provide an answer only except that he saw a note saying that the Santander Compliance Department had closed the account and that it was n't a case of fraud. Thus no official complaint was logged and he was unable to provide further assistance. His email is XXXXXXXXXXXX, XXXX, XXXX ID XXXX.   Thus I am writing this complaint letter to CFPB as a request to look into why my accounts were closed without notice as required by state and federal law. Second, I request that Santander returned {$5300.00} from # XXXX and {$55.00} from # XXXX as soon as possible as I need those funds for my business.   Thus, please provide a response to my above requests and provide a check for the amounts requested which was unjustly taken from my account. If the Compliance Department did not close my account, then I would like to register a case of fraud that my account was cleaned out not by me as I was n't at the branch on that day XXXX/XXXX/2016. I have attached a copy of the bank statements in question for your reference.   Thank you, XXXX XXXX XXXX XXXXXXXXXXXX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I currently bank with Wells Fargo. For years they have been posting transactions in a way that caused me to get the maximum number of overdraft fees each day. This has caused me to pay thousands over the years to Wells Fargo. Additionally, when I deposit a check to try and avoid these fees they put a 7 day hold on the check causing the account to overdraft further. I do not have a history of depositing bad checks and have never deposited a bad check since I opened an account with them in 2000. This process of over draft fees continues to make it more and more difficult to get out of the circle of fees. In fact there have been times where my account was negative and the fees made up the majority of the negative balance ( 50 % or more ) I have begun considering bring this issue to a law firm to begin the process of a class action lawsuit. I know they were sued for the overdraft fees in California but the class action only applied to California so I was not able to be part of that class action lawsuit. I feel the banking industry ( especially the big banks ) prey on the difficulties of those who do not have a lot, preventing people from being able to get ahead because of XXXX transaction that begins a cycle of fees that becomes impossible to get out of without assistance. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I opened a citigold checking account according to the promotion they have to credit me XXXX XXXX miles.  I fulfilled the requirements, but Citibank refuse to give me the promotional miles.  I have the correspondent mails and messages talk with them to confirm my promotional eligibility and their response of my fulfillment of the requirements.  Also the letter they give to me recently denied my eligibility of getting those promotional miles.  I ca n't find a easier way to communicate with them directly because of this time consuming process. So I write my claim here. </t>
   </si>
   <si>
+    <t xml:space="preserve">XX/XX/2016, I filed a dispute for a charge against my checking account. This dispute was against XXXX. I filed the dispute because XXXX which offers website design and hosting service, removed my website from the Internet and did so without giving me prior notice or an explanation. I pre-paid {$33.00} for the service to be used for my business and as a result of my website being down for two weeks, suffered serious losses. My clients, sponsors and donors rely on my website for information, resources, etc and no business was able to be conducted during the time frame that my website was down. As of today, I have no idea why my website was taken down. I have asked Suntrust Bank to issue a refund for a service which I did not receive in accordance with the terms and conditions provided by XXXX.   It has been 90 days and no action has been taken on this dispute. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have an international account at Citibank which I 'd have since XX/XX/XXXX. They have blocked the account so that I have no access to my funds, no way to write a check nor receive my social security and pension payments. The reason for the block is that I would not answer the questions below. When I told the account representative I felt they were too personal, I requested her to make the account a non-international account. She was going to check with her supervisor and get back to me. She did not get back to me, but blocked the accounts on XX/XX/XXXX with no notice not an email or phone call ; both checking and savings accounts.   o I believe the questions being asked are unreasonable for a customer of 23 years which has not had an usual activity and who has had my salary directly deposited for the full time. There is a growing concern about identity thief. This level of detail is unnecessary for a savings and checking account.  o I should have been notified by a phone call. This is a serious matter. Checks that have been written have been rejected. This is going to reflect on my credit score which I 've been very careful to maintain at a high level.  o Social security requires three months ' notice for a change in direct deposit. I will miss these payments until XX/XX/XXXX. I am also missing my pension and annual company bonus as well.  o I have spent endless hours trying to get to the right people to resolve this issue. I will be happy to supply all the information and who was contacted. A resolution of this is critical.  The questions are below : In order to complete the account review, we need the below information for both signer : 1 ) Employer name, position, current total compensation including bonus, how long have been working with the company and what was the total compensation for the past 10 years 2 ) Cash balance in USA, Cash balance offshore ( if any ) 3 ) Any investment portfolio, if yes, is it in USA or offshore, what year was the investment started, what was the initial investment amount and current portfolio value, what was the average income for the past 10 years 4 ) Any real estate, it yes, please provide below information for each real estate : - Location, USA or offshore - Purchase year - Purchase price - Any mortgage when purchase? If yes, what was the mortgage - XX/XX/XXXX market value - XX/XX/XXXX remaining mortgage 5 ) Current ID copy, it could be a passport copy or driver license copy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My bank sends me spam that they claim is  non-promotional '' email, even though it is clearly solely to promote their mobile banking product which I do not use and have no interest in using. The only apparent way to stop it is to revert to paper as I am already opted out of all marketing. NOT ACCEPTABLE. If they lie about this being  non-promotional '', what else are they lying about? </t>
+  </si>
+  <si>
     <t xml:space="preserve">I fell victim to a job scam for a XXXX that was starting business in America but is headquarter in XXXX ( they went the extra mile to prove legitimacy ) I was told by employer that client was sending me funds that I needed to open a business account at XXXX XXXX XXXX ( they apparently bank there and they said it was cheaper fees ). The wire transfer was sent from client to my bank account via wire transfer ... the bank approved the funds. I did the job. The client attempted to send me another wire transfer. I became uncomfortable with this because it went to my personal account with USAA and not the account they told me to set up. When I tried to send the money my account was froze. All I was told was that it would be three days and my account went to the fraud department ... no details. I talked to my employer who said he would send proof of legitimacy.I sent documents given by employer. When I was accused of fraud because the client spelled his name wrong my employer said he would contact an attorney and get back to me ... well needless to say I never got paid and he never called back. I discover I was part of a job scam. I call the bank to see what they said. They accused me of first party fraud because the client spelled his name wrong when he sent the first transfer. The bank took A WEEK to reject the XXXX wire transfer. I fell victim to a job scam. I know this now. Sadly the bank is keeping my fiance 's XXXX hard earned dollars and we were told we owe almost XXXX dollars! The bank has treated me horribly. They offered no help. I have filed with the state attorney general, the fbi Internet crimes department and the FTC. A domestic wire transfer should n't take a week to reject. USAA should have contacted me way before then, they said that they approved the funds so now we are stuck with the bill. They approved the funds in a few minutes, they should have called and questioned me and help me keep from falling for this. I fell for the scam because everything checked out there were details, numbers contracts and proof of registration as a business. I did n't know anything about job scams until now ... USAA knows who sent me the fraudulent wire transfer. I have the information and bank account numbers of where the money went. Instead of ordering me to repay what the bank was scammed out of why cant they go after the people who tricked me? USAA has hardly told me anything. They only accused me of fraud said they were exercising their rights to not do business with me or my fianc and said they were closing our account and we owe almost XXXX. I do n't feel like I was protected under fraud protection. They did n't provide any information once they froze the account they did n't ask questions to try to keep this from happening. To make matters worse they treated me wrong. When my fianc called they made it seem like we dilibertly caused this. If an investigation is opened to prevent fraud they should at least call and ask questions. Also when we called or messaged they would n't answer our questions. Why does n't the fraud department have a number to call and talk to someone? The day the wire transfer sent if they would have froze the account then and investigated it they could have found the error and rejected it. We spent a week with no money. Our bills are late and we lost our money. USAA did n't protect their customers. They set us up. It even says wire transfers are REVIEWED THE SAME DAY! This one was n't reviewed the same day. </t>
   </si>
   <si>
+    <t xml:space="preserve">I opened a citigold account ( bank account from CITI bank ) in XXXX XXXX, 2015 using a promotional code XXXX. By using the promotional code, based on the term, I will be eligible to receive XXXX XXXX ( XXXX ) miles if I spend {$1000.00} on my citigold debit card and make a citibank online bill payment for two consecutive months. After I opened the account, I contacted with citi to confirm this promotion. The representative ( XXXX ) confirmed my eligibility and claimed that the bonus miles will be credited to my XXXX account ( XXXX ) within 90 days from the end of the statement period in which all offer requirements are completed. In XXXX XXXX, 2015, I contacted with citi again and talked with another representative ( XXXX ). XXXX confirmed that  I see that you have met the requirements of the promotion offer '', and informed me that I  will be getting the offer of XXXX XXXX miles in three months ''. I kept all those chatting history. However, I have never received any bonus XXXX miles after three months. I contacted with citibank and talked with a manager. He said that citibank had give me another promotion offer instead and thus the original promotional code XXXX I signed-up was no longer applicable. In this case, the key fact is that citibank had never mentioned another promotion offer to me before they breaked the original agreement and applied another promotion code to my account without my authorization. I proposed him to withdraw the promotion offer that I did not sign up, and give me the XXXX bonus miles back, the manager refused even if I said my eligibility to receive the XXXX miles had been confirmed by their representatives many times. I did nothing wrong in this situation, but citibank 's response is lack of responsibility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three months ago, Bank Of America started charging me {$25.00} a month on my checking account. This happened right after they issued me a new credit card claiming a vendor was hacked with credit card information. Thank you. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I had misplaced my checkbook and I was concerned that somebody might have gotten my account details. I called Schwab bank and they said that I could easily switch to another checking account. Upon setting up the new checking account, I called Schwab inquiring about when I would receive my new debt card and check blanks for the new account. The customer service person said that she had bad news,  Schwab had closed my new checking account, effective yesterday, for business reasons. '' I mentioned that I had a critical Social Security check that was being electronically deposited within the next few days, I asked if it would be possible to accept my Social Security deposit. Schwab customer service stated that it was not possible to accept my Social Security check and that it would be rejected and sent back to Social Security. I mentioned that my rent payment was dependent on this Social Security check, along with numerous electronic payments for various companies. The Schwab customer service person was apologetic but said it was impossible to accept my Social Security check because the account was closed effective yesterday.   Well, my Social Security check was presented to Schwab and rejected the same day that I had called Schwab inquiring about when I would receive my new debt card and check blanks. Imagine your calling the bank to ask about check blanks and to your surprise they informed you that they closed your account yesterday and that your paycheck would be rejected.   I later called Schwab and asked them if they were aware of the federal government guidelines when closing bank accounts that have federal Social Social Security deposits. Reference :  XXXX XXXX XXXX ( c ) ( XXXX ) '' and the XXXX A Guide to Federal Government ACH Payments and Collections. '' Per these guidelines,  Financial institutions must give 30 days notice of closing accounts to which benefit payments are being sent ( see XXXX XXXX XXXX XXXX c ) ( XXXX ) ). And, according to the Treasury 's XXXX XXXX, if a financial institution closes such an account for fraud, it must make arrangements for the owner to receive the next direct deposit if it wo n't keep the account open for 30 days. The individual at Schwab, stated that the department that closed my account was not aware of these guidelines.   Meanwhile, it 's going on two weeks ; I am now fighting eviction, I have incurred additional costs due to electronic  bill pay '' payments that were in process when Schwab closed my account. Additionally, I have spent countless hours trying to get the rejected  critical payment '' check from the Social Security agency. I would like Schwab to immediately provide the Social Security payment which they rejected, cover the costs of eviction and costs that I have incurred due to rejected  bill pay '' payments, and compensation for the time that I have spent managing this situation. This comes to about {$5000.00}. Ironically, all this could have been avoided if Schwab would have adhered to the Federal Guidelines and XXXX XXXX when closing my checking account. </t>
   </si>
   <si>
+    <t xml:space="preserve">In XXXX XXXX, I leased a vehicle that was financed via USBank in XXXX WI. At the time I assigned my low number Massachusetts registration plate to them for the term of the lease ( XXXX XXXX plate # XXXX ).  On XXXX XXXX, XXXX I returned the vehicle to the dealer and asked them to be sure to have the bank reassign the plate back to me. The dealer gave me a form USBank faxed them showing that the lease had been paid off. ( For some reason they could n't fax a form releasing my plates. ) On XXXX XXXX, XXXX when I went to the Massachusetts Registry of Motor Vehicles to reassign my registration plate to another vehicle, I was n't able to because I needed a letter from USBank, on their letterhead, stating they were reassigning this plate back to me. The Registry Branch Manager was going to allow the bank to fax the document directly to them, so I called USBank. They told me they that their procedure for this did n't allow them to fax the document, and that it would take approximately seven ( 7 ) business days plus the time it took for the post office to deliver it to me.  I told the person who answered the phone, then the supervisor I requested that this was unacceptable, and it was going to hold me up from registering another vehicle for approximately two weeks. They said they  understood '' by situation, but there was nothing they could do.  Today I am sitting here unable to assign my plate to another vehicle because their policy is causing delays. It seems their  customer service '' ended once I paid off the lease. I do n't feel their procedure is reasonable if their customers ca n't get access their own plates for two weeks after the lease is paid off and the vehicle has been returned. If they could fax XXXX form to the dealer when I released my vehicle, why could n't they fax a second form? ( Where the Bank knew I wanted to keep my registration plate when I leased the vehicle, they could have done this OR left a second form with the dealer when I leased the vehicle, reassigning the plate back to me at the end of the lease - instead of making me wait two weeks!  I would like to see the bank more responsive to the people they serve, and I would like to see this impractical bank policy changed so that in the future customers do n't have to wait two weeks like I am now waiting to get access to my plates again.  SOME BANKS HAVE GOTTEN SO BIG THEY HAVE FORGOTTEN THE PEOPLE THEY SERVE! LETS BANK HUMAN AGAIN!  Thank you. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In XXXX 2016, I signed up for a Citigold account account with promotion XXXX that promised XXXX XXXX XXXX AAdvantage miles after completing certain requirements. After the requirements were met, according to the terms and conditions of the offer, the AAdvantage miles would post within 90 days. For the CFPB 's reference, I have attached the official requirements. I have attached a secure message from a Citi representative that I met all requirements for this promotion on XXXX/XXXX/2016. After the Citi representative told me I would receive these miles at a later date, I decided to follow up with her to remind her of the official promotion language to ensure I would receive the miles by the specified date which would have been XXXX/XXXX/2016 ; this message is attached also. XXXX/XXXX/2016 has come and gone and my miles have not posted. I am aware that Citi has refused to distribute the promised miles to other Citigold customers so I am filing this complaint. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I made a deposit of {$10000.00} on XXXX/XXXX/2016. The deposit was supposed to be for {$9500.00} but i accidentally added {$500.00}. The teller counted the cash while i watched. She came up with {$10000.00}. She counted the money again with the counting machine and came up with the exact same amount {$10000.00}. I knew I had added {$500.00} by mistake and went through with the deposit. No problem. I got my statement for XXXX and noticed a  correction to deposit '' for - {$520.00}. I contacted the bank manager. She talked to the teller and her excuse was that she remembered that she did n't count it properly while i was there but apparantly she came up with a different figure after hours. Called M  T corporate and was told they could n't do anything about it. I still have not got my money back. The teller thought she saw an opportunity to enrich herself at my expense. She is a THIEF and should be prosecuted! I have a bank deposit slip that was forged and signed by someone at the bank. I did not sign it! The bank is at XXXX XXXX XXXX. XXXX, Md. XXXX. Phone # XXXX. The managers name is XXXX?. The tellers name is XXXX XXXX. </t>
   </si>
   <si>
+    <t xml:space="preserve">Wells Fargo has charged me a {$15.00} fee in connection with an individual ( relative ) wire transferring money into my checking account. Wells Fargo refuses to refund the full wire transfer fee of {$15.00}. My position is that the fee is unfair, inequitable, and that Wells Fargo did not fully and properly advise me of this fee when I opened the account. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have been a Chase customer since they grandfathered me in from Bank one. When I first became a customer they started charging me XXXX insufficient funds fee only once I went overdrawn. Then as years passed by they all of a sudden started charging me a fee not only for being overdrawn but for every transaction made unlike before. Then when the banking industry went through the bailout issues and received government inspections and audits and were found to be negligent on these accounts and were made by the us government to refund all bogus fees as such that were applied to every customer and they also they began once again to charge only XXXX fee when an account goes negative and not for every trAnsaction. On my account. Now that the Obama administration is coming to a close, chase has once again resorted to their old money hustling antics to charge a {$34.00} dollar per transaction fee as well as the initial overdraft fee. My how easy we do forget. So I went into the bank and discussed the matter with a teller who asked when do you get paid and I replied  on the XXXX when my social security check goes through ''. He looked at me perturbed because I am not a senior citizen and said.  Social security, why?  I then stated Because I retired early '' but as I think on it, I feel ashamed because I have a XXXX but did not want to tell him but none the less it was not his business anyway. He proceeded to say  you will be charged only another XXXX dollars for and extended overdrawn account because the third is more than five days away so it 'll just come out of your check ''. And there is nothing I can do for you '' that 's it that 's all </t>
   </si>
   <si>
@@ -886,28 +1831,88 @@
     <t xml:space="preserve">Someone deposited counterfeit into my checking acct. and the bank honored them. The money was withdrawn the same day. They are holding me responsible for all monies withdrawn. They subsequently closed y account and say I owe them XXXX plus dollars!! </t>
   </si>
   <si>
+    <t xml:space="preserve">On XXXX XXXX around XXXX pm I made a cash deposit to my account in the amount of XXXX my balance was XXXX before the deposit was made and XXXX after the deposit was made. Check XXXX in the amount of XXXX had not been posted to the account yet because if the check posted to the account my balance would have not been XXXX after the XXXX deposit. After the cash deposit was made my direct deposit came in the amount of XXXX around XXXX which brought my account to XXXX. I went to the local atm and withdrawl XXXX which came to XXXX after atm fees. clearly on my receipt it states my avaliable balance is XXXX. I want to know why my account was charged XXXX in overdraft fees for a check that had the funds in the account to clear. When I spoke to Chase they stated their processing time is from XXXX But my cash deposit was made around XXXX so why didnt it post immediately. I need the fee reversed because this is putting a hardship on me and stopping me from paying bills because lost of money. If the check posted to my account before i made the cash deposit then i would n't have had XXXX plus my deposit which came to a balance of XXXX. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is my second complaint regarding E-Loan ( previous case # XXXX ). That issue was resolved by my giving up requestion the cd I opened and funded be made a trust account. Presently since the account has been funded I have received the incorrect amount of interest ( below the percentage I signed up for and have poof of ). After getting no satisfaction by dealing with e-loan I called XXXX XXXX XXXX XXXX a branch manager of XXXX Popular. She intervened and called Eloan in XXXX after which I received a secure message from eloan that the correct amount of interest would be transferred to my linked ( outside ) bank account with 24 to 48 hours. That was on XXXX XXXX. The interest has not been transferred and in fact when I log on to their website I get a message that I do n't have any accounts there. I have spent numerous hours on the phone and sending emails to this bank. At this point I want to close this account, have my entire opening deposit of {$250000.00}. transferred back to my linked account with no penalty as well as the interest I am entitled to. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone opened an account in my name at Wells Fargo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paypal limited my account. I still have { {$220.00} } in eBay gift cards which can only be used with a paypal account.   Now I ca n't use this gift card balance because it is linked to my limited PayPal account. PayPal is not willing to give me a refund of {$220.00} nor issue me a different gift card of {$220.00} value or even de-link this gift card so that I can gift it to someone else. PayPal is saying I will forfeit the {$220.00}.   I bought these gift card and paid the full purchase price, so they ca n't keep it. I believe it 's absolutely wrong for PayPal to take away my eBay gift card balance. Request your help to recover my money. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon having my debit card rejected when attempting to purchase a coffee, I checked my account statement online which read $ XXXX. A check had been deducted from my account for {$40000.00}. I suspected check fraud, called Santander and was instructed to proceed to a branch.  While at the branch, the tellers and I deduced that an ATM error misread my check for {$40.00} and, unfortunately, nothing could be done. I demanded that this be resolved as soon as possible as I needed gas to return home but was told that the check had to be cleared before any action could be taken. This could take up to 2 business days. I asked how this amount could be automatically subtracted from my account with no alert, whether electronically or by phone and the tellers could not provide a sufficient answer. The teller then advised that I should have a credit card as a back-up for gas and I should have downloaded the Santander app. The Santander app would have alerted as soon as the check was deducted from my account. The teller further indicated that if I had acted sooner, ie. in the morning vs. afternoon, this problem could have been averted.  It has now been 24 hours and I still do not have access to my funds and my account remains to be $ XXXX. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was under the impression that I could open up a checking account with Bank of the West, especially considering they are a local branch with XXXX locations in my very city. I think its ridiculous that they do all these advertising and then deny someone with XXXX credit score. I should be granted this checking account so I can set up direct deposit through my employer and use this account for everyday use. Why would you push away a local person to bank with you? This was false advertising for me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The check I deposited into Chase Bank was cleared and paid to Chase Bank but they have put a hold on the funds for 8 ( eight ) days. It was a transaction between different banks which I both had accounts with. Very puzzling why my funds are not available to me, though Chase Bank has been paid! I 've contacted them by phone and was told to wait till XXXX so they could call XXXX XXXX ( other Bank ) to verify. Still till this day have not gotten funds available to me ... ..Keep getting e-mails from them saying deposit is on Hold!  I ca n't go into Chase Bank to make a Cash deposit to cover any possible transactions submitted to them for payment from my checking account -- checks will possibly bounce due to this ... </t>
+  </si>
+  <si>
     <t xml:space="preserve">BB  T processes debits to accounts before credits/deposits triggering unfair overdraft fees. This has gone on for years and they refuse to refund the fees. </t>
   </si>
   <si>
     <t xml:space="preserve">Most recently - they closed my savings account without giving me prior notice ( of ANY KIND - no email, letter, phone call, nada ). When I called the XXXX number to ask what was going on, the woman told me she was unable to give me any information and that I needed to call the branch. When I called the branch she told me that they do n't have anything to do with closing accounts and that I needed to call the XXXX number ... ... eventually I was informed that if my account had a XXXX balance for 3 months they AUTOMATICALLY close the account - I maintain that they should be required to let me know they are going to do that ... ...   In the past year - they have replaced my atm/debit card three times - with no explanation. On XXXX XXXX I left to go on vacation and discovered that they had de-activated my atm card, stating that they had mailed me a new one that had never been activated ... .I never got the other card. Spent over an hour on the phone while they re-activated my card and then shipped me out another new one. The original rep I talked to was unbelievably rude, and put me on endless hold when I asked her to transfer me to a supervisor.   The branch notified me almost 6 MONTHS after I ordered them that they had my checks ... ..I placed that order 3 TIMES and NEVER got the personalized checks I asked for and ostensibly paid for.   Overall, the phone reps I have talked to in the last two years do n't seem to know what they are doing and they are rude.   I used to be super happy with this bank, but the last two years I have had increasingly poor service and I now have absolutely NO CONFIDENCE with this bank - where I have had an account for over 20 years. </t>
   </si>
   <si>
+    <t xml:space="preserve">I have a checking account at USAA bank. Someone, a third-party criminal of some sort, wired in {$4000.00} and withdrew the money in {$900.00} increments from an ATM in Florida. I have never been to Florida. The bank made me aware of the fraud. Separately, I have {$1300.00} in an investment account to buy and sell stocks. I asked USAA bank to wire this money to a different bank, XXXX bank. The request was made Monday, XXXX XXXX in writing. USAA bank has thus far ignored my request, on the apparent grounds that my checking account is - {$4000.00} as a result of the fraudulent activity which is not my fault described above. The bank has also frozen me out of my own accounts online, and not given me any information about them. Their excuse is my accounts are  under review '', a phrase that has no meaning at all in banking </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have been a client of Wells Fargo for over 10 years and just received I have noticed some unfair business practices in comparison to my other banks. I have a checking account and debit card associated with my account. For the past few months I have noticed that Wells Fargo will hold transactions until close to midnight.   As it appears on my end if I have {$20.00} in my account, Wells Fargo will not posted my pending transactions until XXXX or so. So if a charge come in at {$22.00} at XXXX ( when I do not have the opportunity to make a deposit due to the time ) I am then charged with an {$35.00} overdraft fee. Surprisingly enough I have only noticed this ( close to close of business hold ) on transactions that will make my account overdraft.   This year alone I have paid over {$700.00} due to these practices. When I spoke to someone about my concerns they explained that transactions post when they occur, which has NOT been the case for my account.   I also have a XXXX XXXX XXXX and XXXX account and I have never experienced them holding transactions until close to close of business. My transactions posted shortly after I use my card and any ACH cards are posted earlier in the day. Which, if over drafted, I have to opportunity to make cash deposits that post immediately. </t>
   </si>
   <si>
     <t xml:space="preserve">XXXX/XXXX/XXXX I have a maturing ( XXXX/XXXX/XXXX ) JUMBO CD @ CIT online bank. I sent them 2 letters XXXX XXXX, XXXX XXXX w/instructions to wire the $ in full to my credit union as I have done previously at least XXXX w/other CD accounts there, I also faxed a letter w/their form and made several phone calls  e-mails to  make sure '' this would not roll over as I am dissatisified w/ this bank for many more reasons ... today I was  grilled '' by XXXX from CIT bank, security questions about my existance from 40 years ago ( XXXX )! plus, too many of them all different questions from when I originally established this account ... I was told I may not get MY $ because a  3rd. party entity, they refuse to identify has to check me '' ... I have more than COMPLIED, they say they never recieved the letters I sent  I keep getting conflicting/wrong info from them about where they are who is in charge, address ... .I want MY money OUT of CIT bank upon maturity ... they are abusive/security abuse, over kill, treat me like a criminal, change their  protochol '' and have caused me much duress  XXXX ... they wo n't even give you a paper/hard copy of your account info ... ..BAD BANK! XXXX </t>
   </si>
   <si>
+    <t xml:space="preserve">Bank of america has been a nightmare for me this month with their messed up claims depth, to all their crazy fees, and fees that do n't make sense at that. They have poor customer service, in which they do n't do enough to help or get anything resolved for you! This is my fifth complaint, and I will keeping complaining everyday till bank of America helps me get my {$200.00} stolen from my account, all the mystery fees on my account, and a {$35.00} I got today for XXXX cents taken out by XXXX, in which I did n't know because I never authorized XXXX to do that! These companies take advantage of little people like us, because I work hard for my money and ca n't afford all these smacks bank of America has given me with taking my money! I am switching banks, once I get my money back because I just ca n't trust this bank anymore. I never do any claims because it 's embarrassing and their claims process is corrupt and unjust to the customer!!! I am not so XXXX off the street! I am XXXX yrs old and never dealt with such bad service!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A month ago, I was charged fees by Bank of America for having Overdraft Protection and insufficient funds. After talking to them I told them I wanted to remove all overdraft protection so I would not incur those fees. I had to talk to a supervisor and he waived only XXXX charge out of XXXX. The past week I was again charged overdraft fees and when I called to complain, they said I only removed overdraft protection not all overdraft settings. And because the supervisor had previously told me about some other product they offer, at a charge, I should 've been aware and they would not refund anything else. This is a deceptive oractice to not fully educate customers on what overdraft protection and overdraft settings mean. When I said I want all overdraft to be turned off, they should do it. Instead they only removed overdraft protection and so they would still charge me overdraft fees. It 's ridiculous and close to fraudulent when they continue to charge customers. Even when the overdraft protection had worked previously they charge for that. They do not clearly define what fees are incurred, the amount of said fees, or properly inform customers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On XXXX XXXX, 2016, I visited the XXXX XXXX branch of SunTrust at XXXX I presented a Withdrawal Form to withdraw funds from my account which had been electronically posted by my new employer. My initial interaction with the teller made me feel racially profiled and discriminated against. When she realized that I wanted to withdraw {$5600.00}, she asked if I made a mistake and meant to ask for {$560.00}. After I verified the amount, she informed me that she did not have  that kind of money '' and called the manager. Branch Manager, XXXX XXXX XXXX, looked at my XXXX driver 's license and told me that she was not going to give me money out of my account because my GA driver 's license did not match the ID on my account when it was opened in XXXX. I explained to XXXX XXXX that I had moved to XXXX after college and was in the process of relocating to XXXX for my new job. She told me to go to the DMV to get a XXXX driver 's license and come back the next morning. I offered my Social Security card and my Birth Certificate to prove my identity. However, XXXX XXXX was unwilling to accept additional identification. As a result, I called my aunt, XXXX XXXX, who works in SunTrust Corporate Compliance for her advice. My aunt called XXXX XXXX to try to help resolve the situation. XXXX XXXX was unreasonable and kept repeating that she could not give me money from my account because my ID did n't match what was on file. She told my aunt that the funds were in the account and the only issue she had was identifying me. XXXX XXXX finally agreed to reconsider my birth certificate as a second form of ID. She called me into her office where she continued to treat me unfairly by questioning what I planned to do with my money, why I sent money to my aunt, and prying into all of my personal business. She called the Help Desk and asked about a policy that supported her in denying me my money. The Help Desk told her that she had the authority to do what she felt was appropriate. They suggested that she called the Fraud Unit which made me feel like a criminal. XXXX XXXX placed a call to the XXXX XXXX while I was still sitting in her office. They threatened to freeze my account after asking personal questions that were none of their business. I believe XXXX XXXX abused her authority as a manager and discriminated against me because I was a young XXXX male with a lot of money in my account. She made me show my offer letter to prove my signing bonus. I also had to give my credit card, Social Security Card and Birth Certificate along with my Driver 's license. After she made me itemize what I was going to do with the money, she decided that she was only going to give me {$5100.00} of the {$5600.00} that I requested. I was at the branch for over 2 hours trying to get my money. I explained to XXXX XXXX that I had an appointment to pay a deposit on my apartment and she told me to call the apartment office to tell them that I was tied up at the bank. No customer should have been treated like I was. A simple trip to the bank ended up being over 2 hours because XXXX XXXX racially profiled me and assumed that I was trying to rip off the bank even though the money was deposited in my account electronically through direct deposit from my employer. I had conducted previous business at a branch in XXXX, XXXX that morning and the teller was very helpful and gave me instructions on what to do when I arrived in XXXX. I feel like I was violated by the manner in which XXXX XXXX interrogated me. She had no right to prevent me from withdrawing my money. I should not have to answer to a branch manager on why I wanted my money. The ID verification was not the problem. I had everything anyone would need to verify their identity. I was discriminated against because of my race and age and XXXX XXXX should be reprimanded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I opened up a Netspend account and you can access reload locations in Minnesota at most XXXX XXXX XXXX. I was at the XXXX in XXXX MN yesterday on XXXX/XXXX/2016 and store clerk XXXX assisted me. Store # XXXX XXXX XXXX XXXX XXXX XXXX MN Phone number XXXX. I was trying to put {$500.00} on my card and there is a {$3.00} transaction fee. He said it went through took my money and I thought that was it. I went out to my car and realized I never got the instant text message alerting me to my funds being added. I immediately get on the phone to call Netspend Customer Service and they were clueless. I went back into the gas station and XXXX told me that he could not help me my money was in the safe and that I would have to speak to a manager XXXX or XXXX on XXXX/XXXX/2016. I called the store at XXXX this morning on XXXX/XXXX/2016 and spoke to XXXX. He told me could I come in there with my receipt. I did just that got there around XXXX. He looked into it and found that he was getting a failed message unable to load my pre-paid debit card. I just want my {$500.00} back. XXXX took my only proof in my receipt to take my Name, Phone Number,  Address down. I have contacted Netspend via e-mail will be calling them back. I have called  emailed XXXX XXXX XXXX corporation but I 'm afraid I 'm not going to get my money back. Please help me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone changed my debit card pin number aND my daily withdraw limit. Then they attempted to wire money from my XXXX XXXX account to my usaa checking account. Then they transfered money from my usaa savings account to my checking account. The XXXX account did not have sufficient funds so they transfer was cancelled and I was penalized. After finding all this out I submitted an attempted fraud to usaa and they locked me out of my accounts and have refused to give me any information or access to my money. It 's been three weeks now. I reported a possible identity theft also and have yet to receive any help or information from anyone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My father, a XXXX veteran, died in XXXX 2016. I knew he had Suntrust accounts and my goal was to put Suntrust on notice that he was no longer living and to freeze any further checking account activity, especially automatic debits. I went to a local branch of Suntrust with copies of the death certificate ( XXXX in total, all certified copies ). They told me I needed letters of administration identifying me or another person as a representative of his estate in order to freeze his accounts. I told them I found this requirement an unreasonable burden in that no one had presented a will on his behalf yet ( it had only been 2 weeks since he passed away ) and I believe he passed away without a will. In questioning the policy, Suntrust 's consumer complaints ' office said that the copies of the death certificate were not  original '' death certificate. But my copies were certified copies of the death certificate. The local branch would not accept a copy of the death certificate, and Suntrust generally never requested a copy of the death certificate for the investigation of my complaint ( all my copies have official seals ), and the local branch never acknowledged that a death certificate could serve as enough notice to freeze account activity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have had an account with td bank for less than 90 days and I have received over XXXX dollars in overdraft fees even when I 'm not using my card. I hate this bank. Everyone I go to the bank off XXXX XXXX in XXXX, I ca n't get a manager. This is the most unprofessional business I have ever come accross. SHUT THEM DOWN </t>
+  </si>
+  <si>
     <t xml:space="preserve">XX/XX/2012 I walked into a WellsFargo branch office in the City of XXXX California. I asked to speak to a manager. I told them that I had received a letter that I owed $ XXXX+ dollars and wanted to know why. I was told it was because I was not using my checking account. I told them I have never opened an account with them at all. I told the manager, I come in to make my mortgage payment and the teller usually asks if I am interested in an account and I always said no thank you but took information about their account services. The manager said he showed I had an account but they could not find any proof of me signing any documents or having an account other than what they showed on their computer. The manager told me that since my Mortgage is with Wells I can open an account and wo n't be charged fee 's at all for having an account with them and that he would take care of the $ XXXX+ fee and remove it. So I went ahead and opened a new account Note it was not the same account number they claim I had. It was a completely new account. About 5 to six months later, I get a letter from Wells Fargo that they debited the $ XXXX+ because they said I owed them the money. I went back to the branch three more times in the period of several months to resolve the issue and get my money back and it was never resolved. I felt stupid and crazy because they said I owed them the money. Now I find out that many WellsFargo employees were committing fraud and realize that I am one of the victims. I want my $ XXXX+ dollars back. It 's not even about the money it 's the principle, how can someone open a bank account without your knowledge or consent then charge you the fees. At the time I was a struggling single mom and that {$60.00} was a week worth of groceries and lunches for my kids. They got me to go into the branch and open a real account and then still charged me fraudulent fee. </t>
   </si>
   <si>
+    <t xml:space="preserve">Comerica Bank ( XXXX Bank ) Embezzlement conspiring with Comerica Bank XXXX XXXX, XXXX XXXX XXXX XXXX XXXX, XXXX XXXX and XXXX XXXX XXXX Collection agency ). Comerica Bank with no legal document filed, no service of Writ of Judgment and no Pledge Hold filed, froze my checking account in the amount of {$4500.00}. Comerica Bank conspired with Comerica Bank XXXX XXXX XXXX XXXX XXXX XXXX located in XXXX XXXXXXXX XXXX to freeze my Check/ATM Card not my checking account. Also conspired with XXXX XXXX pretending a Writ of Garnishment was filed in a court that does not exist in XXXX XXXX XXXX.   Details of embezzlement committed by Comerica Bank ( XXXX Bank ) Comerica Bank never served Writ of Judgment Comerica Bank records claim it has Pledge Hold for {$4500.00} and has no knowledge of a Writ of Judgment for {$2800.00}. Location XXXX XXXX XXXX, XXXX XXXX XXXX.   Facts 1. Comerica Bank XXXX Assistant Banking Center Manager ( XXXX ) claimed his bank has not received an original copy XXXX of the Notice of Garnishment.  2. Comerica Bank XXXX Assistant Banking Center Manager stated he has never seen a hold on Checking/ATM cards, he stated it was done to get our attention.  3. Comerica Bank XXXX Assistant Banking Center Manager could not answer why Comerica Bank placed a pledge hold on our checking account in the amount of {$4500.00}.  4. Comerica Bank XXXX Assistant Banking Center Manager could not explain why his system did not show the Notice of Garnishment in the amount of {$2800.00}.  5. Comerica Bank XXXX Assistant Banking Center Manager could not explain why with an amount to cover the hold, why he was instructed not to remove the hold on our Check/ATM Card.  6. Comerica Bank XXXX Assistant Banking Center Manager could not explain why he could no issue a new Check/ATM card on our account.  7. Comerica Bank XXXX Assistant Banking Center Manager said service of the garnishment was at the XXXX office not XXXX office.  8. Comerica Bank XXXX Assistant Banking Center Manager said the only way to resolve the matter was call XXXX XXXX or call Comerica Bank XXXX XXXX XXXX XXXX in XXXX XXXX.   Banking Center Manager Assistant Vice President ( XXXX ) repeated the comments of branch XXXX Details of embezzlement committed by Comerica Bank XXXX XXXX, XXXX XXXX ( XXXX. XXXX ) The bank was never served a Writ of Judgment by a court of jurisdiction, conspiring with Comerica Bank ( XXXX Bank ) using fraudulent Customer/Branch Notice of Garnishment. Listing a court in XXXX XXXXXXXX that does not exist. Using XXXX XXXX to pretend legal action was filed.   Facts : 1. Comerica Bank  Trust without a registered bank account in my name, used Comerica Bank around XXXX/XXXX/16 froze {$4500.00} from my checking account registered with the bank.  2. Claiming the Notice of Garnishment was completed at branch XXXX, Comerica Bank  Trust has no such branch XXXX.  3. Manually blocked out the bank account number on the Notice of Garnishment 4. The Notice of Garnishment identified a hold placed on XXXX XXXX XXXX XXXX.  5. The Notice of Garnishment also contained a Pledge Hold with undisclosed amount while using Comerica Bank ( XXXX {$4500.00} ) 6. The Notice of Garnishment displays a total amount Garnishment Amount of {$2800.00} based on XXXX XXXX XXXX represented by XXXX XXXX XXXX XXXX. Filed in the court - XXXX XXXX XXXX # XXXX no such court exist in XXXX XXXX XXXX.  XXXX XXXX never filed filing fee in any court for legal action regarding my bank account. </t>
+  </si>
+  <si>
     <t xml:space="preserve">I have XXXX account with Bank of America.One account is a primary checking another checking account and also a Money Market account. Last month XXXX XXXX XXXX fees were added to my account by the bank.They added XXXX and a additional XXXX monthly fee. I called the bank to complain about this. They told me they added these fees because I had to many withdraws. I was told by a second representitive that they could refund me some of the money the bank had charged me. This person tranferred me to another representitive and they said there was nothing they can do to help me. I have had this account since XXXX and they did n't ever charge me. I ask them to not put additional charges on this account due to no activity since the month it happen but there has been another XXXX dollars fee added this month. </t>
   </si>
   <si>
+    <t xml:space="preserve">a few years ago, I over-drafted in my account pretty bad. I owed XXXX dollars in XXXX dollar over draft fees because, my bank account online would tell me all of my purchases, but sometimes they would disappear leaving me to believe I had more money than I actually had. Then when I would spend that money, a few dollar at a time the original purchase would pop up again and would make my account go in to the negatives. And then I would get all of the over draft fees. Could that be bad on my banks side? </t>
+  </si>
+  <si>
     <t xml:space="preserve">I recently went into Bank of America 's branch that is located in XXXX, TX to deposit two claim checks that was made payable to both me and my mortgage company. One check was from XXXX and the other was a XXXX check. The mortgage company endorsed the checks and I went in to deposit them to my checking account. Where I was told by the branch manager that they could not take the checks because they were a third party check. The XXXX check was drawn from a Bank of America account. Called customer service and they said that all claims checks were a third party check and Bank of America would not accept that. The checks were dual signatures checks requiring two signatures, I do not believe that these are a third party check. They would not take the checks, not even put them into my account with a hold till the checks cleared. </t>
   </si>
   <si>
+    <t xml:space="preserve">I recently looked at my Wells Fargo credit card account and found the account to be overdrawn. I looked at the statement and tried to figure out why the account was overdrawn but could n't find the reason. So I emailed Wells Fargo customer serviced and received the attached email that was unbelievable at their answer. The letter stated that I was charged a late fee for being two days past due date. I checked my credit card by laws and nothing in the laws stated that I will be charged a late fee for being a few days late. This ban k is already under investigation for unlawful acts. </t>
+  </si>
+  <si>
     <t xml:space="preserve">My bank, Regions, has a way of classifying some transactions as pending. They stay in that status for various lengths of time based on some factor not known to me. My issue is that if my projected balance resulting from pending transactions reaches negative, Regions charges me a service fee, EVEN IF I make a deposit to cover the negative balance BEFORE the transaction that takes me negative is moved to non-pending status.  The result is overdraft charges in my statement that appear without my balance ever going negative.  This strikes me as Regions  having it XXXX ways. '' The way I see it, if I take care of a  pending '' negative balance before it is no longer pending, I should n't be charged. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chex systems services is reporting inaccurate reports showing that in the past my account with XXXX XXXX XXXX and XXXX Bank was unpaid and closed. Were update closed but not in a good standing. All my bank accounts balances were paid to zero. There is no balance owed on my XXXX XXXX XXXX account nor my XXXX Bank account.Which is hindering me from opening up a bank account in my name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have been banking with USBank for almost 20 years. I thought they were the BEST Bank. Then I noticed bank charges for things I opted OUT of, that USBank sent out.  When I asked why items were being paid when I had opted to NOT PAY IF the funds were NOT enough to do so. I never got a satisfying answer. Plus I was charged with OD Fees ; Multiple times.  Then we were victims of Fraudulent activity on both our Checking  Savings Accounts. USBank closed our Checking Account right away, but left our Savings Account open for 3 months longer. It was even getting Interest added to it. I had to call in  ask about what was happening with our Savings Account before they FINALLY closed it. In the meantime, both my husband  I were treated  talked DOWN to like we were beings of the lowest order.  Then AGAIN, just a couple of days ago, 3 items were paid even though I opted out.  I called Customer Service to found out WHY? I was told at the time it was presented the first time, WE HAD the funds available, BUT the Merchant did n't take the payment. They let the hold expire  NOW they were coming back to get the funds ; so my optingout in THIS case did n't apply so on top of the negative balance the 3 items caused, I was going to be charged 3 overdraft fees.  A week before the overdrafts happened, we ( my husband  I ) had decided to change banks. We got tired of the treatment you had gotten over the past few months. That 's the way they treat a customer who has been loyal off  on for almost 20 years? We 're DONE! We have paid out enough in fees. </t>
   </si>
   <si>
     <t xml:space="preserve">I was a victim of this Wells Fargo matter : http : XXXX XXXX Wells Fargo banker named XXXX ran my credit without my permission to open a business line of credit. As a result, a credit inquiry was charged against my credit report ( s ). I called Wells Fargo shortly after this happened, and Wells Fargo stated that they were unable to remove the unauthorized credit inquiry from my credit report ( s ). </t>
@@ -1268,7 +2273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1290,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1304,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1318,10 +2323,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1332,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1346,7 +2351,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1360,10 +2365,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1374,10 +2379,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1388,7 +2393,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1402,10 +2407,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1416,7 +2421,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>383</v>
+        <v>118</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1430,10 +2435,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>395</v>
+        <v>125</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1444,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>402</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1458,10 +2463,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>512</v>
+        <v>129</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1472,10 +2477,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>552</v>
+        <v>144</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1486,7 +2491,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>565</v>
+        <v>148</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1500,7 +2505,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>566</v>
+        <v>152</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1514,10 +2519,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>662</v>
+        <v>193</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -1528,10 +2533,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>678</v>
+        <v>212</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -1542,7 +2547,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>734</v>
+        <v>219</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1556,7 +2561,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>763</v>
+        <v>293</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1570,10 +2575,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>770</v>
+        <v>315</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -1584,10 +2589,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>786</v>
+        <v>317</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1598,7 +2603,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>848</v>
+        <v>329</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1612,7 +2617,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>900</v>
+        <v>334</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1626,7 +2631,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>950</v>
+        <v>347</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1640,7 +2645,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>987</v>
+        <v>351</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1654,7 +2659,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1053</v>
+        <v>356</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1668,7 +2673,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1078</v>
+        <v>370</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1682,7 +2687,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1164</v>
+        <v>383</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1696,7 +2701,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1180</v>
+        <v>395</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1710,7 +2715,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1216</v>
+        <v>402</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1724,10 +2729,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1256</v>
+        <v>456</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
@@ -1738,10 +2743,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1257</v>
+        <v>512</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -1752,7 +2757,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1266</v>
+        <v>535</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1766,10 +2771,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1324</v>
+        <v>548</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
@@ -1780,7 +2785,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1364</v>
+        <v>552</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1794,10 +2799,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1395</v>
+        <v>555</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
@@ -1808,7 +2813,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1406</v>
+        <v>565</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1822,7 +2827,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1430</v>
+        <v>566</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1836,10 +2841,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1447</v>
+        <v>572</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
@@ -1850,7 +2855,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1450</v>
+        <v>592</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1864,7 +2869,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1511</v>
+        <v>636</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1878,10 +2883,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1525</v>
+        <v>662</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
@@ -1892,10 +2897,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1530</v>
+        <v>678</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
@@ -1906,7 +2911,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1544</v>
+        <v>687</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1920,10 +2925,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1550</v>
+        <v>734</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -1934,10 +2939,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1570</v>
+        <v>741</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>49</v>
@@ -1948,7 +2953,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1614</v>
+        <v>754</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1962,10 +2967,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1649</v>
+        <v>763</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
         <v>51</v>
@@ -1976,7 +2981,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1650</v>
+        <v>770</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1990,7 +2995,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1669</v>
+        <v>786</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2004,7 +3009,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1688</v>
+        <v>790</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2018,10 +3023,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1693</v>
+        <v>821</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
         <v>55</v>
@@ -2032,7 +3037,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1700</v>
+        <v>848</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2046,10 +3051,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1744</v>
+        <v>850</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
         <v>57</v>
@@ -2060,10 +3065,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1763</v>
+        <v>900</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
         <v>58</v>
@@ -2074,7 +3079,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1767</v>
+        <v>906</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2088,7 +3093,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1770</v>
+        <v>928</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2102,7 +3107,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1835</v>
+        <v>933</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2116,10 +3121,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1838</v>
+        <v>940</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
         <v>62</v>
@@ -2130,7 +3135,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1864</v>
+        <v>941</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2144,10 +3149,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1883</v>
+        <v>949</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
         <v>64</v>
@@ -2158,7 +3163,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1893</v>
+        <v>950</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2172,7 +3177,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1915</v>
+        <v>976</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2186,7 +3191,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1941</v>
+        <v>987</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2200,7 +3205,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1965</v>
+        <v>1053</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2214,7 +3219,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1968</v>
+        <v>1076</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2228,7 +3233,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1975</v>
+        <v>1078</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2242,10 +3247,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1983</v>
+        <v>1132</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
         <v>71</v>
@@ -2256,10 +3261,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2008</v>
+        <v>1146</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="s">
         <v>72</v>
@@ -2270,7 +3275,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2011</v>
+        <v>1164</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2284,10 +3289,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2017</v>
+        <v>1169</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
         <v>74</v>
@@ -2298,7 +3303,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2092</v>
+        <v>1180</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2312,7 +3317,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2112</v>
+        <v>1198</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2326,10 +3331,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2127</v>
+        <v>1208</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
         <v>77</v>
@@ -2340,7 +3345,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2169</v>
+        <v>1216</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2354,7 +3359,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2181</v>
+        <v>1223</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2368,7 +3373,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2188</v>
+        <v>1251</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2382,7 +3387,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2201</v>
+        <v>1256</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2396,10 +3401,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2202</v>
+        <v>1257</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="s">
         <v>82</v>
@@ -2410,7 +3415,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2216</v>
+        <v>1266</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2424,7 +3429,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2235</v>
+        <v>1300</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2438,7 +3443,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2296</v>
+        <v>1319</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2452,7 +3457,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2335</v>
+        <v>1324</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2466,10 +3471,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2345</v>
+        <v>1331</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="s">
         <v>87</v>
@@ -2480,10 +3485,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2365</v>
+        <v>1349</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
         <v>88</v>
@@ -2494,10 +3499,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2367</v>
+        <v>1364</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
         <v>89</v>
@@ -2508,10 +3513,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2444</v>
+        <v>1367</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
         <v>90</v>
@@ -2522,7 +3527,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2494</v>
+        <v>1395</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2536,10 +3541,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2505</v>
+        <v>1405</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="s">
         <v>92</v>
@@ -2550,7 +3555,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2517</v>
+        <v>1406</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2564,7 +3569,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2520</v>
+        <v>1430</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2578,10 +3583,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2539</v>
+        <v>1439</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
         <v>95</v>
@@ -2592,10 +3597,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2565</v>
+        <v>1440</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="s">
         <v>96</v>
@@ -2606,7 +3611,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2587</v>
+        <v>1447</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2620,7 +3625,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2649</v>
+        <v>1450</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2634,7 +3639,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2651</v>
+        <v>1468</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2648,7 +3653,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2686</v>
+        <v>1488</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2662,7 +3667,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2779</v>
+        <v>1507</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2676,7 +3681,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2798</v>
+        <v>1511</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2690,10 +3695,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2817</v>
+        <v>1525</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
         <v>103</v>
@@ -2704,7 +3709,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2832</v>
+        <v>1530</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2718,10 +3723,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2844</v>
+        <v>1544</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" t="s">
         <v>105</v>
@@ -2732,10 +3737,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>2848</v>
+        <v>1550</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
         <v>106</v>
@@ -2746,7 +3751,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2932</v>
+        <v>1570</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2760,7 +3765,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>2940</v>
+        <v>1614</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2774,10 +3779,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>2961</v>
+        <v>1649</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
         <v>109</v>
@@ -2788,7 +3793,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2980</v>
+        <v>1650</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2802,7 +3807,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>3016</v>
+        <v>1651</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2816,10 +3821,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>3122</v>
+        <v>1656</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
         <v>112</v>
@@ -2830,7 +3835,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3154</v>
+        <v>1658</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2844,10 +3849,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3257</v>
+        <v>1667</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
         <v>114</v>
@@ -2858,7 +3863,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>3270</v>
+        <v>1669</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2872,10 +3877,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>3284</v>
+        <v>1688</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="s">
         <v>116</v>
@@ -2886,10 +3891,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>3310</v>
+        <v>1693</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="s">
         <v>117</v>
@@ -2900,7 +3905,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>3319</v>
+        <v>1700</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2914,7 +3919,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>3370</v>
+        <v>1729</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2928,7 +3933,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>3460</v>
+        <v>1744</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2942,7 +3947,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>3570</v>
+        <v>1763</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2956,7 +3961,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>3571</v>
+        <v>1767</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2970,10 +3975,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>3594</v>
+        <v>1770</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="s">
         <v>123</v>
@@ -2984,10 +3989,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>3620</v>
+        <v>1804</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="s">
         <v>124</v>
@@ -2998,7 +4003,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>3679</v>
+        <v>1806</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3012,7 +4017,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>3697</v>
+        <v>1808</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3026,10 +4031,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>3705</v>
+        <v>1835</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126" t="s">
         <v>127</v>
@@ -3040,10 +4045,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>3720</v>
+        <v>1838</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="s">
         <v>128</v>
@@ -3054,7 +4059,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>3725</v>
+        <v>1864</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3068,10 +4073,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>3728</v>
+        <v>1870</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="s">
         <v>130</v>
@@ -3082,7 +4087,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>3737</v>
+        <v>1875</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3096,7 +4101,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>3759</v>
+        <v>1876</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3110,7 +4115,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>3852</v>
+        <v>1883</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3124,10 +4129,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>3869</v>
+        <v>1887</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="s">
         <v>134</v>
@@ -3138,7 +4143,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>3954</v>
+        <v>1893</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3152,7 +4157,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>3992</v>
+        <v>1915</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3166,7 +4171,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>4001</v>
+        <v>1922</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3180,7 +4185,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>4043</v>
+        <v>1941</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3194,7 +4199,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>4083</v>
+        <v>1954</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3208,7 +4213,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>4104</v>
+        <v>1959</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -3222,7 +4227,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>4110</v>
+        <v>1965</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3236,7 +4241,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>4112</v>
+        <v>1968</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3250,7 +4255,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>4141</v>
+        <v>1975</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3264,10 +4269,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>4161</v>
+        <v>1983</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="s">
         <v>144</v>
@@ -3278,10 +4283,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>4194</v>
+        <v>1995</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="s">
         <v>145</v>
@@ -3292,10 +4297,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>4196</v>
+        <v>2002</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="s">
         <v>146</v>
@@ -3306,7 +4311,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>4231</v>
+        <v>2008</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3320,7 +4325,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>4249</v>
+        <v>2011</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3334,7 +4339,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>4285</v>
+        <v>2017</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3348,7 +4353,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>4301</v>
+        <v>2057</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3362,7 +4367,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>4303</v>
+        <v>2076</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3376,7 +4381,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>4319</v>
+        <v>2081</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3390,10 +4395,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>4327</v>
+        <v>2089</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="s">
         <v>153</v>
@@ -3404,7 +4409,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>4360</v>
+        <v>2092</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3418,10 +4423,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>4453</v>
+        <v>2102</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="s">
         <v>155</v>
@@ -3432,7 +4437,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>4513</v>
+        <v>2103</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3446,7 +4451,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>4524</v>
+        <v>2112</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3460,7 +4465,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>4532</v>
+        <v>2118</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3474,7 +4479,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>4537</v>
+        <v>2127</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3488,7 +4493,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>4550</v>
+        <v>2132</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3502,10 +4507,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>4558</v>
+        <v>2169</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="s">
         <v>161</v>
@@ -3516,10 +4521,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>4576</v>
+        <v>2172</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="s">
         <v>162</v>
@@ -3530,7 +4535,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>4613</v>
+        <v>2181</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3544,7 +4549,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>4644</v>
+        <v>2188</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3558,7 +4563,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>4649</v>
+        <v>2201</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -3572,7 +4577,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>4660</v>
+        <v>2202</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -3586,10 +4591,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>4688</v>
+        <v>2216</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" t="s">
         <v>167</v>
@@ -3600,7 +4605,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>4700</v>
+        <v>2235</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3614,7 +4619,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>4713</v>
+        <v>2243</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3628,7 +4633,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>4725</v>
+        <v>2296</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3642,7 +4647,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>4787</v>
+        <v>2316</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3656,7 +4661,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>4788</v>
+        <v>2324</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3670,7 +4675,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>4813</v>
+        <v>2335</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3684,7 +4689,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>4875</v>
+        <v>2345</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -3698,7 +4703,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>4880</v>
+        <v>2354</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3712,7 +4717,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5003</v>
+        <v>2365</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3726,7 +4731,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5009</v>
+        <v>2367</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3740,7 +4745,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5042</v>
+        <v>2433</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3754,7 +4759,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5084</v>
+        <v>2444</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3768,7 +4773,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5092</v>
+        <v>2492</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3782,7 +4787,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5120</v>
+        <v>2494</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3796,10 +4801,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5134</v>
+        <v>2505</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="s">
         <v>182</v>
@@ -3810,7 +4815,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>5164</v>
+        <v>2517</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3824,7 +4829,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>5174</v>
+        <v>2520</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3838,7 +4843,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>5261</v>
+        <v>2539</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3852,7 +4857,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>5350</v>
+        <v>2561</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3866,10 +4871,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>5351</v>
+        <v>2565</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="s">
         <v>187</v>
@@ -3880,7 +4885,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>5386</v>
+        <v>2587</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3894,7 +4899,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5439</v>
+        <v>2611</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3908,7 +4913,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>5451</v>
+        <v>2636</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3922,10 +4927,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>5483</v>
+        <v>2649</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="s">
         <v>191</v>
@@ -3936,7 +4941,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>5486</v>
+        <v>2651</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3950,7 +4955,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5519</v>
+        <v>2686</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3964,7 +4969,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>5531</v>
+        <v>2714</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3978,7 +4983,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>5534</v>
+        <v>2772</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3992,10 +4997,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5613</v>
+        <v>2779</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195" t="s">
         <v>196</v>
@@ -4006,7 +5011,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5658</v>
+        <v>2798</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -4020,7 +5025,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5668</v>
+        <v>2817</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -4034,10 +5039,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6001</v>
+        <v>2832</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="s">
         <v>199</v>
@@ -4048,10 +5053,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6075</v>
+        <v>2844</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="s">
         <v>200</v>
@@ -4062,7 +5067,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6087</v>
+        <v>2848</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -4076,7 +5081,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6110</v>
+        <v>2872</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -4090,10 +5095,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6151</v>
+        <v>2894</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" t="s">
         <v>203</v>
@@ -4104,10 +5109,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6179</v>
+        <v>2910</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" t="s">
         <v>204</v>
@@ -4118,10 +5123,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6198</v>
+        <v>2931</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204" t="s">
         <v>205</v>
@@ -4132,10 +5137,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6233</v>
+        <v>2932</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205" t="s">
         <v>206</v>
@@ -4146,7 +5151,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6284</v>
+        <v>2939</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -4160,7 +5165,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6301</v>
+        <v>2940</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4174,10 +5179,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6338</v>
+        <v>2954</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208" t="s">
         <v>209</v>
@@ -4188,7 +5193,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6369</v>
+        <v>2961</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -4202,7 +5207,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6415</v>
+        <v>2980</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -4216,10 +5221,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6420</v>
+        <v>3016</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211" t="s">
         <v>212</v>
@@ -4230,7 +5235,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6449</v>
+        <v>3047</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -4244,10 +5249,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6475</v>
+        <v>3067</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213" t="s">
         <v>214</v>
@@ -4258,7 +5263,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6476</v>
+        <v>3099</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -4272,7 +5277,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6552</v>
+        <v>3100</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4286,7 +5291,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6555</v>
+        <v>3122</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -4300,7 +5305,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6599</v>
+        <v>3154</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4314,10 +5319,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6674</v>
+        <v>3172</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218" t="s">
         <v>219</v>
@@ -4328,7 +5333,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6776</v>
+        <v>3180</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -4342,10 +5347,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6806</v>
+        <v>3204</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220" t="s">
         <v>221</v>
@@ -4356,10 +5361,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6834</v>
+        <v>3224</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D221" t="s">
         <v>222</v>
@@ -4370,7 +5375,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6843</v>
+        <v>3242</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4384,7 +5389,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6868</v>
+        <v>3257</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4398,7 +5403,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6885</v>
+        <v>3270</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4412,7 +5417,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6907</v>
+        <v>3284</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -4426,10 +5431,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7001</v>
+        <v>3310</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226" t="s">
         <v>227</v>
@@ -4440,7 +5445,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7064</v>
+        <v>3319</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4454,7 +5459,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7088</v>
+        <v>3338</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4468,10 +5473,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7090</v>
+        <v>3370</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" t="s">
         <v>230</v>
@@ -4482,10 +5487,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7146</v>
+        <v>3395</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230" t="s">
         <v>231</v>
@@ -4496,7 +5501,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7177</v>
+        <v>3401</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4510,7 +5515,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7228</v>
+        <v>3415</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4524,7 +5529,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7293</v>
+        <v>3423</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4538,7 +5543,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7315</v>
+        <v>3460</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4552,7 +5557,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7321</v>
+        <v>3520</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4566,7 +5571,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7394</v>
+        <v>3536</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -4580,10 +5585,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7400</v>
+        <v>3537</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237" t="s">
         <v>238</v>
@@ -4594,7 +5599,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7401</v>
+        <v>3540</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4608,7 +5613,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7405</v>
+        <v>3569</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4622,7 +5627,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7449</v>
+        <v>3570</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4636,7 +5641,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7459</v>
+        <v>3571</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4650,10 +5655,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7506</v>
+        <v>3589</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D242" t="s">
         <v>243</v>
@@ -4664,10 +5669,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7511</v>
+        <v>3593</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D243" t="s">
         <v>244</v>
@@ -4678,10 +5683,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7516</v>
+        <v>3594</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244" t="s">
         <v>245</v>
@@ -4692,10 +5697,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7531</v>
+        <v>3605</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="s">
         <v>246</v>
@@ -4706,7 +5711,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7532</v>
+        <v>3609</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -4720,10 +5725,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7572</v>
+        <v>3620</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247" t="s">
         <v>248</v>
@@ -4734,7 +5739,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7600</v>
+        <v>3640</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4748,10 +5753,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7611</v>
+        <v>3648</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249" t="s">
         <v>250</v>
@@ -4762,7 +5767,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7634</v>
+        <v>3677</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4776,10 +5781,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7640</v>
+        <v>3679</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="s">
         <v>252</v>
@@ -4790,7 +5795,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7653</v>
+        <v>3690</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4804,7 +5809,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7668</v>
+        <v>3697</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4818,10 +5823,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7740</v>
+        <v>3705</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254" t="s">
         <v>255</v>
@@ -4832,10 +5837,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7744</v>
+        <v>3720</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255" t="s">
         <v>256</v>
@@ -4846,7 +5851,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7794</v>
+        <v>3725</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4860,7 +5865,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7796</v>
+        <v>3728</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4874,7 +5879,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7799</v>
+        <v>3737</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4888,7 +5893,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7843</v>
+        <v>3759</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4902,7 +5907,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7862</v>
+        <v>3785</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4916,7 +5921,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7890</v>
+        <v>3791</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4930,7 +5935,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7999</v>
+        <v>3828</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4944,7 +5949,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>8031</v>
+        <v>3852</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4958,7 +5963,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>8046</v>
+        <v>3869</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4972,7 +5977,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>8057</v>
+        <v>3930</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4986,10 +5991,10 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>8159</v>
+        <v>3932</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266" t="s">
         <v>267</v>
@@ -5000,10 +6005,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>8249</v>
+        <v>3954</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D267" t="s">
         <v>268</v>
@@ -5014,7 +6019,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>8310</v>
+        <v>3961</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -5028,7 +6033,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>8332</v>
+        <v>3992</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -5042,7 +6047,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>8399</v>
+        <v>4001</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -5056,7 +6061,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>8418</v>
+        <v>4043</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -5070,10 +6075,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>8443</v>
+        <v>4048</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272" t="s">
         <v>273</v>
@@ -5084,7 +6089,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>8486</v>
+        <v>4062</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -5098,10 +6103,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>8490</v>
+        <v>4072</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D274" t="s">
         <v>275</v>
@@ -5112,7 +6117,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>8522</v>
+        <v>4074</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -5126,7 +6131,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>8538</v>
+        <v>4083</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -5140,10 +6145,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>8547</v>
+        <v>4104</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277" t="s">
         <v>278</v>
@@ -5154,10 +6159,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>8551</v>
+        <v>4110</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D278" t="s">
         <v>279</v>
@@ -5168,10 +6173,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>8575</v>
+        <v>4112</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279" t="s">
         <v>280</v>
@@ -5182,7 +6187,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>8578</v>
+        <v>4117</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -5196,7 +6201,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>8607</v>
+        <v>4141</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -5210,7 +6215,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>8642</v>
+        <v>4147</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -5224,7 +6229,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>8682</v>
+        <v>4152</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -5238,10 +6243,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>8743</v>
+        <v>4161</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D284" t="s">
         <v>285</v>
@@ -5252,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>8767</v>
+        <v>4178</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -5266,7 +6271,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>8787</v>
+        <v>4194</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -5280,10 +6285,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>8806</v>
+        <v>4196</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D287" t="s">
         <v>288</v>
@@ -5294,10 +6299,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>8809</v>
+        <v>4197</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D288" t="s">
         <v>289</v>
@@ -5308,7 +6313,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>8869</v>
+        <v>4215</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -5322,7 +6327,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>8881</v>
+        <v>4225</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -5336,10 +6341,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>8902</v>
+        <v>4231</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D291" t="s">
         <v>292</v>
@@ -5350,7 +6355,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>8932</v>
+        <v>4237</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -5364,7 +6369,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8977</v>
+        <v>4242</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -5378,7 +6383,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8991</v>
+        <v>4249</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -5392,7 +6397,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8999</v>
+        <v>4256</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -5406,7 +6411,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>9019</v>
+        <v>4285</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -5420,13 +6425,4703 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>9060</v>
+        <v>4291</v>
       </c>
       <c r="C297">
         <v>0</v>
       </c>
       <c r="D297" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>4301</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>4303</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>4319</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>4327</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>4344</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>4360</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>4388</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>4400</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>4436</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>4453</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>4462</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>4474</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>4479</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>4513</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>4524</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>4532</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>4535</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>4537</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>4550</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>4558</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>4561</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>4576</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>4613</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>4627</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>4644</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>4649</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>4660</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>4678</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>4685</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>4688</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>4700</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>4710</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>4713</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>4725</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>4726</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>4779</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>4787</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>4788</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>4805</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>4813</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>4849</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>4871</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>4875</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>4880</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>4889</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>4896</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>4902</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>5003</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>5009</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>5041</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>5042</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>5055</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>5072</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>5077</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>5084</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>5090</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>5092</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>5120</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>5134</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>5147</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>5154</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>5164</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>5174</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>5205</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>5209</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>5238</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>5239</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>5255</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>5260</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>5261</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>5287</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>5327</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>5328</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>5330</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>5333</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>5350</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>5351</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>5363</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>5386</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>5439</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>5440</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>5449</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>5451</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>5458</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>5483</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>5486</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>5489</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>5506</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>5514</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>5519</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>5531</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>5534</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>5569</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>5595</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>5605</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>5613</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>5616</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>5634</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>5641</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>5658</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>5668</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+      <c r="D398" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>5697</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+      <c r="D399" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>5712</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+      <c r="D400" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>5719</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>5721</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>5757</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>5897</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>5902</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>5976</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+      <c r="D406" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>5993</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>6000</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="D408" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>6001</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>6075</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>6087</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="D411" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>6094</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>6110</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>6124</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>6128</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>6135</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>6148</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>6151</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>6179</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>6190</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>6198</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>6208</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>6216</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>6233</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>6252</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>6253</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>6260</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>6284</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>6299</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>6301</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>6320</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>6338</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>6349</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>6369</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>6372</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>6383</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>6386</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>6415</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>6420</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>6423</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>6444</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>6445</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>6449</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>6475</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>6476</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>6482</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>6546</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>6548</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>6552</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>6555</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>6587</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>6599</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>6606</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>6668</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>6674</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>6679</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>6690</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>6710</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>6765</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>6776</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>6786</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>6806</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>6834</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>6843</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>6868</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>6885</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>6907</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>6920</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>6937</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>6952</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>6966</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>7001</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>7004</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>7064</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>7069</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>7088</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>7090</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>7096</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>7100</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>7146</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>7173</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>7177</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>7181</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>7189</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>7212</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>7228</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>7232</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>7242</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>7290</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>7293</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>7302</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>7315</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>7321</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>7333</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>7348</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>7394</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>7400</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>7401</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>7405</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>7447</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>7449</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>7456</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>7459</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>7504</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>7506</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>7511</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>7516</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>7517</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>7531</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>7532</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>7572</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>7600</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>7611</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>7634</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>7640</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+      <c r="D515" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>7653</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>7659</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>7668</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>7686</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>7712</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>7716</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>7737</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>7740</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>7744</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>7749</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>7794</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>7796</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>7799</v>
+      </c>
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>7829</v>
+      </c>
+      <c r="C529">
+        <v>0</v>
+      </c>
+      <c r="D529" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>7836</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>7843</v>
+      </c>
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="D531" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>7844</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>7854</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>7862</v>
+      </c>
+      <c r="C534">
+        <v>0</v>
+      </c>
+      <c r="D534" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>7872</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>7890</v>
+      </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
+      <c r="D536" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>7906</v>
+      </c>
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>7933</v>
+      </c>
+      <c r="C538">
+        <v>0</v>
+      </c>
+      <c r="D538" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>7937</v>
+      </c>
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>7963</v>
+      </c>
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="D540" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>7975</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>7999</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>8008</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>8009</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>8031</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+      <c r="D545" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>8046</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+      <c r="D546" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>8054</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>8057</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+      <c r="D548" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>8082</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="D549" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>8114</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+      <c r="D550" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>8117</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+      <c r="D551" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>8130</v>
+      </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
+      <c r="D552" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>8158</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>8159</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+      <c r="D554" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>8187</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+      <c r="D555" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>8198</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+      <c r="D556" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>8241</v>
+      </c>
+      <c r="C557">
+        <v>0</v>
+      </c>
+      <c r="D557" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>8249</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>8254</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
+      </c>
+      <c r="D559" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>8258</v>
+      </c>
+      <c r="C560">
+        <v>0</v>
+      </c>
+      <c r="D560" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>8262</v>
+      </c>
+      <c r="C561">
+        <v>0</v>
+      </c>
+      <c r="D561" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>8281</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+      <c r="D562" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>8298</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>8310</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+      <c r="D564" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>8332</v>
+      </c>
+      <c r="C565">
+        <v>0</v>
+      </c>
+      <c r="D565" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>8393</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+      <c r="D566" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>8399</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+      <c r="D567" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>8418</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+      <c r="D568" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>8420</v>
+      </c>
+      <c r="C569">
+        <v>0</v>
+      </c>
+      <c r="D569" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>8443</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>8449</v>
+      </c>
+      <c r="C571">
+        <v>0</v>
+      </c>
+      <c r="D571" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>8486</v>
+      </c>
+      <c r="C572">
+        <v>0</v>
+      </c>
+      <c r="D572" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>8490</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+      <c r="D573" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>8510</v>
+      </c>
+      <c r="C574">
+        <v>0</v>
+      </c>
+      <c r="D574" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>8522</v>
+      </c>
+      <c r="C575">
+        <v>0</v>
+      </c>
+      <c r="D575" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>8538</v>
+      </c>
+      <c r="C576">
+        <v>0</v>
+      </c>
+      <c r="D576" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>8540</v>
+      </c>
+      <c r="C577">
+        <v>0</v>
+      </c>
+      <c r="D577" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>8547</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+      <c r="D578" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>8551</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+      <c r="D579" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>8554</v>
+      </c>
+      <c r="C580">
+        <v>0</v>
+      </c>
+      <c r="D580" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>8557</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+      <c r="D581" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>8572</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+      <c r="D582" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>8575</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="D583" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>8578</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+      <c r="D584" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>8591</v>
+      </c>
+      <c r="C585">
+        <v>0</v>
+      </c>
+      <c r="D585" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>8607</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+      <c r="D586" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>8615</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+      <c r="D587" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>8628</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="D588" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>8642</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+      <c r="D589" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>8653</v>
+      </c>
+      <c r="C590">
+        <v>0</v>
+      </c>
+      <c r="D590" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>8657</v>
+      </c>
+      <c r="C591">
+        <v>0</v>
+      </c>
+      <c r="D591" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>8678</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
+      </c>
+      <c r="D592" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>8682</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+      <c r="D593" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>8689</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+      <c r="D594" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>8705</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+      <c r="D595" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>8743</v>
+      </c>
+      <c r="C596">
+        <v>0</v>
+      </c>
+      <c r="D596" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>8747</v>
+      </c>
+      <c r="C597">
+        <v>0</v>
+      </c>
+      <c r="D597" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>8748</v>
+      </c>
+      <c r="C598">
+        <v>0</v>
+      </c>
+      <c r="D598" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>8767</v>
+      </c>
+      <c r="C599">
+        <v>0</v>
+      </c>
+      <c r="D599" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>8770</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="D600" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>8787</v>
+      </c>
+      <c r="C601">
+        <v>0</v>
+      </c>
+      <c r="D601" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602">
+        <v>8806</v>
+      </c>
+      <c r="C602">
+        <v>0</v>
+      </c>
+      <c r="D602" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603">
+        <v>8809</v>
+      </c>
+      <c r="C603">
+        <v>1</v>
+      </c>
+      <c r="D603" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604">
+        <v>8815</v>
+      </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
+      <c r="D604" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605">
+        <v>8821</v>
+      </c>
+      <c r="C605">
+        <v>0</v>
+      </c>
+      <c r="D605" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606">
+        <v>8825</v>
+      </c>
+      <c r="C606">
+        <v>0</v>
+      </c>
+      <c r="D606" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607">
+        <v>8829</v>
+      </c>
+      <c r="C607">
+        <v>0</v>
+      </c>
+      <c r="D607" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608">
+        <v>8842</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+      <c r="D608" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609">
+        <v>8845</v>
+      </c>
+      <c r="C609">
+        <v>0</v>
+      </c>
+      <c r="D609" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610">
+        <v>8848</v>
+      </c>
+      <c r="C610">
+        <v>0</v>
+      </c>
+      <c r="D610" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611">
+        <v>8869</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+      <c r="D611" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612">
+        <v>8881</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+      <c r="D612" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613">
+        <v>8900</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+      <c r="D613" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614">
+        <v>8902</v>
+      </c>
+      <c r="C614">
+        <v>0</v>
+      </c>
+      <c r="D614" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615">
+        <v>8932</v>
+      </c>
+      <c r="C615">
+        <v>0</v>
+      </c>
+      <c r="D615" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616">
+        <v>8933</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+      <c r="D616" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617">
+        <v>8935</v>
+      </c>
+      <c r="C617">
+        <v>0</v>
+      </c>
+      <c r="D617" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618">
+        <v>8936</v>
+      </c>
+      <c r="C618">
+        <v>0</v>
+      </c>
+      <c r="D618" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619">
+        <v>8938</v>
+      </c>
+      <c r="C619">
+        <v>0</v>
+      </c>
+      <c r="D619" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620">
+        <v>8947</v>
+      </c>
+      <c r="C620">
+        <v>1</v>
+      </c>
+      <c r="D620" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621">
+        <v>8958</v>
+      </c>
+      <c r="C621">
+        <v>0</v>
+      </c>
+      <c r="D621" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622">
+        <v>8963</v>
+      </c>
+      <c r="C622">
+        <v>0</v>
+      </c>
+      <c r="D622" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623">
+        <v>8977</v>
+      </c>
+      <c r="C623">
+        <v>0</v>
+      </c>
+      <c r="D623" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624">
+        <v>8979</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+      <c r="D624" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4">
+      <c r="A625" s="1">
+        <v>623</v>
+      </c>
+      <c r="B625">
+        <v>8991</v>
+      </c>
+      <c r="C625">
+        <v>0</v>
+      </c>
+      <c r="D625" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4">
+      <c r="A626" s="1">
+        <v>624</v>
+      </c>
+      <c r="B626">
+        <v>8997</v>
+      </c>
+      <c r="C626">
+        <v>0</v>
+      </c>
+      <c r="D626" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4">
+      <c r="A627" s="1">
+        <v>625</v>
+      </c>
+      <c r="B627">
+        <v>8999</v>
+      </c>
+      <c r="C627">
+        <v>0</v>
+      </c>
+      <c r="D627" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4">
+      <c r="A628" s="1">
+        <v>626</v>
+      </c>
+      <c r="B628">
+        <v>9010</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+      <c r="D628" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4">
+      <c r="A629" s="1">
+        <v>627</v>
+      </c>
+      <c r="B629">
+        <v>9019</v>
+      </c>
+      <c r="C629">
+        <v>0</v>
+      </c>
+      <c r="D629" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4">
+      <c r="A630" s="1">
+        <v>628</v>
+      </c>
+      <c r="B630">
+        <v>9029</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+      <c r="D630" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4">
+      <c r="A631" s="1">
+        <v>629</v>
+      </c>
+      <c r="B631">
+        <v>9032</v>
+      </c>
+      <c r="C631">
+        <v>1</v>
+      </c>
+      <c r="D631" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4">
+      <c r="A632" s="1">
+        <v>630</v>
+      </c>
+      <c r="B632">
+        <v>9060</v>
+      </c>
+      <c r="C632">
+        <v>0</v>
+      </c>
+      <c r="D632" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
